--- a/inst/extdata/primeministers.xlsx
+++ b/inst/extdata/primeministers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/Documents/addingsaarland/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B675A9-F27A-4A0D-9213-1CCB29E7238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29A5A26-E2E4-CC40-9DA5-AC462D6F2D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="243">
   <si>
     <t>gov_id</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>Kemmerich, Thomas</t>
+  </si>
+  <si>
+    <t>Rehlinger, Anke</t>
   </si>
 </sst>
 </file>
@@ -1136,24 +1139,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J367"/>
+  <dimension ref="A1:J368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="H344" sqref="H344"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10201</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10202</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10203</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10204</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10205</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10206</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10207</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10208</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10209</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10210</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10211</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10212</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10213</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10214</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10215</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10216</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10217</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10218</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10219</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10220</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10221</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10222</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10223</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10224</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10301</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10302</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10303</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10304</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10305</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10306</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10307</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10308</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10309</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10310</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10311</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10312</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10313</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10314</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10315</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10316</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10317</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10318</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10319</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10320</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10321</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10322</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10323</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10324</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10325</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10425</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10426</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10427</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10428</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10401</v>
       </c>
@@ -2751,7 +2754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10402</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10403</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10404</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10405</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10406</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10407</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10408</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10409</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10410</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10411</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10412</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10413</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10414</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10415</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10416</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10417</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10418</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10419</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10420</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10421</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>10422</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10423</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10424</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10429</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10430</v>
       </c>
@@ -3476,7 +3479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10431</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10432</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10433</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10501</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10502</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10503</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10504</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10505</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10506</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10507</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10508</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10509</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10510</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10620</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10621</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10601</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10602</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10603</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10604</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10605</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10606</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10607</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10608</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10609</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10610</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10611</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10612</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10613</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10614</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10615</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10616</v>
       </c>
@@ -4375,7 +4378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10617</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10618</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10619</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10622</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10623</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10624</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10625</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10626</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10101</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10102</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>11801</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>11802</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>11803</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>11901</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>11902</v>
       </c>
@@ -4810,7 +4813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>11903</v>
       </c>
@@ -4839,7 +4842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>10801</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>10802</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>10803</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10804</v>
       </c>
@@ -4955,7 +4958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>10805</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>10806</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>10807</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>10808</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>10809</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10810</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10811</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>10812</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10813</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10814</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>10815</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>10816</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>10817</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>10818</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>10819</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>10820</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>10821</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>10822</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>10823</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10824</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>10825</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>10826</v>
       </c>
@@ -5593,7 +5596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>10827</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>10828</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>10829</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>10830</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>10831</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>10832</v>
       </c>
@@ -5767,7 +5770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>10833</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10701</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>10702</v>
       </c>
@@ -5854,7 +5857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>10703</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>10704</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>10705</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10706</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>10707</v>
       </c>
@@ -5999,7 +6002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>10708</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10709</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10710</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10711</v>
       </c>
@@ -6115,7 +6118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>10712</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10713</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>10714</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>10715</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>10716</v>
       </c>
@@ -6260,7 +6263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10717</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>10718</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>10719</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>10720</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>10721</v>
       </c>
@@ -6405,7 +6408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>10722</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>10723</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>10724</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>10725</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>10901</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>10902</v>
       </c>
@@ -6579,7 +6582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>10903</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>10904</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>10905</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>10906</v>
       </c>
@@ -6695,7 +6698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>10910</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>10911</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>10912</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>10913</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>10914</v>
       </c>
@@ -6840,7 +6843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>11001</v>
       </c>
@@ -6869,7 +6872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>11002</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>11003</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>11004</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>11005</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>11006</v>
       </c>
@@ -7014,7 +7017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>11007</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>11008</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>11009</v>
       </c>
@@ -7101,7 +7104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>11010</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>11011</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>11012</v>
       </c>
@@ -7188,7 +7191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>11013</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>11014</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>11015</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>11016</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>11017</v>
       </c>
@@ -7333,7 +7336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>11018</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>11019</v>
       </c>
@@ -7391,7 +7394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>11020</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>11021</v>
       </c>
@@ -7449,7 +7452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>11022</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>11023</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>11024</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>11025</v>
       </c>
@@ -7565,7 +7568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>11026</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>11027</v>
       </c>
@@ -7623,7 +7626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>11028</v>
       </c>
@@ -7652,7 +7655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>11029</v>
       </c>
@@ -7681,7 +7684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>11030</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>11031</v>
       </c>
@@ -7739,7 +7742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>11101</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>11102</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>11103</v>
       </c>
@@ -7826,7 +7829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>11104</v>
       </c>
@@ -7855,7 +7858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>11105</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>11106</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>11107</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>11108</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>11109</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>11110</v>
       </c>
@@ -8029,7 +8032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>11111</v>
       </c>
@@ -8058,7 +8061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>11112</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>11113</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>11114</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>11115</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>11116</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>11117</v>
       </c>
@@ -8232,7 +8235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>11118</v>
       </c>
@@ -8261,7 +8264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>11119</v>
       </c>
@@ -8290,7 +8293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>11120</v>
       </c>
@@ -8319,7 +8322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>11121</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>11122</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>11123</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>11124</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>11125</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>11126</v>
       </c>
@@ -8493,7 +8496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>11201</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>11202</v>
       </c>
@@ -8551,7 +8554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>11203</v>
       </c>
@@ -8580,7 +8583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>11204</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>11205</v>
       </c>
@@ -8638,7 +8641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>11206</v>
       </c>
@@ -8667,7 +8670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>11207</v>
       </c>
@@ -8696,7 +8699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>11208</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>11209</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>11210</v>
       </c>
@@ -8783,7 +8786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>11211</v>
       </c>
@@ -8812,7 +8815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>11212</v>
       </c>
@@ -8841,7 +8844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>11213</v>
       </c>
@@ -8870,7 +8873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>11214</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>11215</v>
       </c>
@@ -8928,7 +8931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>11216</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>11217</v>
       </c>
@@ -8986,7 +8989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>11218</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>11219</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>11220</v>
       </c>
@@ -9073,7 +9076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>11221</v>
       </c>
@@ -9102,7 +9105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>11222</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>11223</v>
       </c>
@@ -9160,7 +9163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>11224</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>11225</v>
       </c>
@@ -9218,7 +9221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>11226</v>
       </c>
@@ -9247,7 +9250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>11314</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>11315</v>
       </c>
@@ -9305,7 +9308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>11316</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>11317</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>11318</v>
       </c>
@@ -9395,7 +9398,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>11319</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>11320</v>
       </c>
@@ -9453,7 +9456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>11321</v>
       </c>
@@ -9482,7 +9485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>11322</v>
       </c>
@@ -9511,7 +9514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>11323</v>
       </c>
@@ -9540,7 +9543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>11301</v>
       </c>
@@ -9569,7 +9572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>11302</v>
       </c>
@@ -9598,7 +9601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>11303</v>
       </c>
@@ -9627,7 +9630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>11304</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>11305</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>11306</v>
       </c>
@@ -9714,7 +9717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>11307</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>11308</v>
       </c>
@@ -9772,7 +9775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>11309</v>
       </c>
@@ -9801,7 +9804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>11310</v>
       </c>
@@ -9830,7 +9833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>11311</v>
       </c>
@@ -9859,7 +9862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>11312</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>11313</v>
       </c>
@@ -9917,7 +9920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>11324</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>11325</v>
       </c>
@@ -9975,7 +9978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>11326</v>
       </c>
@@ -10004,7 +10007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>11327</v>
       </c>
@@ -10033,7 +10036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>11328</v>
       </c>
@@ -10062,7 +10065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>11329</v>
       </c>
@@ -10079,7 +10082,7 @@
         <v>43160</v>
       </c>
       <c r="G308" s="2">
-        <v>401768</v>
+        <v>44676</v>
       </c>
       <c r="H308" t="s">
         <v>13</v>
@@ -10091,53 +10094,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
+        <v>11330</v>
+      </c>
+      <c r="B309" t="s">
+        <v>71</v>
+      </c>
+      <c r="C309" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E309">
+        <v>30</v>
+      </c>
+      <c r="F309" s="2">
+        <v>44676</v>
+      </c>
+      <c r="G309" s="2">
+        <v>401768</v>
+      </c>
+      <c r="H309" t="s">
+        <v>29</v>
+      </c>
+      <c r="I309" t="s">
+        <v>242</v>
+      </c>
+      <c r="J309" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A310">
         <v>11401</v>
-      </c>
-      <c r="B309" t="s">
-        <v>79</v>
-      </c>
-      <c r="C309" s="2">
-        <v>33160</v>
-      </c>
-      <c r="E309">
-        <v>1</v>
-      </c>
-      <c r="F309" s="2">
-        <v>33173</v>
-      </c>
-      <c r="G309" s="2">
-        <v>34588</v>
-      </c>
-      <c r="H309" t="s">
-        <v>14</v>
-      </c>
-      <c r="I309" t="s">
-        <v>213</v>
-      </c>
-      <c r="J309" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>11402</v>
       </c>
       <c r="B310" t="s">
         <v>79</v>
       </c>
       <c r="C310" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310" s="2">
+        <v>33173</v>
+      </c>
+      <c r="G310" s="2">
         <v>34588</v>
-      </c>
-      <c r="E310">
-        <v>2</v>
-      </c>
-      <c r="F310" s="2">
-        <v>34613</v>
-      </c>
-      <c r="G310" s="2">
-        <v>36422</v>
       </c>
       <c r="H310" t="s">
         <v>14</v>
@@ -10149,24 +10152,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>11403</v>
+        <v>11402</v>
       </c>
       <c r="B311" t="s">
         <v>79</v>
       </c>
       <c r="C311" s="2">
+        <v>34588</v>
+      </c>
+      <c r="E311">
+        <v>2</v>
+      </c>
+      <c r="F311" s="2">
+        <v>34613</v>
+      </c>
+      <c r="G311" s="2">
         <v>36422</v>
-      </c>
-      <c r="E311">
-        <v>3</v>
-      </c>
-      <c r="F311" s="2">
-        <v>36446</v>
-      </c>
-      <c r="G311" s="2">
-        <v>37364</v>
       </c>
       <c r="H311" t="s">
         <v>14</v>
@@ -10178,9 +10181,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>11404</v>
+        <v>11403</v>
       </c>
       <c r="B312" t="s">
         <v>79</v>
@@ -10189,45 +10192,45 @@
         <v>36422</v>
       </c>
       <c r="E312">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F312" s="2">
+        <v>36446</v>
+      </c>
+      <c r="G312" s="2">
         <v>37364</v>
       </c>
-      <c r="G312" s="2">
-        <v>38249</v>
-      </c>
       <c r="H312" t="s">
         <v>14</v>
       </c>
       <c r="I312" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J312" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>11405</v>
+        <v>11404</v>
       </c>
       <c r="B313" t="s">
         <v>79</v>
       </c>
       <c r="C313" s="2">
+        <v>36422</v>
+      </c>
+      <c r="E313">
+        <v>4</v>
+      </c>
+      <c r="F313" s="2">
+        <v>37364</v>
+      </c>
+      <c r="G313" s="2">
         <v>38249</v>
       </c>
-      <c r="E313">
-        <v>5</v>
-      </c>
-      <c r="F313" s="2">
-        <v>38301</v>
-      </c>
-      <c r="G313" s="2">
-        <v>39617</v>
-      </c>
       <c r="H313" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I313" t="s">
         <v>214</v>
@@ -10236,9 +10239,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B314" t="s">
         <v>79</v>
@@ -10247,45 +10250,45 @@
         <v>38249</v>
       </c>
       <c r="E314">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F314" s="2">
+        <v>38301</v>
+      </c>
+      <c r="G314" s="2">
         <v>39617</v>
-      </c>
-      <c r="G314" s="2">
-        <v>40086</v>
       </c>
       <c r="H314" t="s">
         <v>13</v>
       </c>
       <c r="I314" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J314" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B315" t="s">
         <v>79</v>
       </c>
       <c r="C315" s="2">
-        <v>40055</v>
+        <v>38249</v>
       </c>
       <c r="E315">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F315" s="2">
+        <v>39617</v>
+      </c>
+      <c r="G315" s="2">
         <v>40086</v>
       </c>
-      <c r="G315" s="2">
-        <v>41956</v>
-      </c>
       <c r="H315" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I315" t="s">
         <v>215</v>
@@ -10294,27 +10297,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B316" t="s">
         <v>79</v>
       </c>
       <c r="C316" s="2">
-        <v>41882</v>
+        <v>40055</v>
       </c>
       <c r="E316">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F316" s="2">
+        <v>40086</v>
+      </c>
+      <c r="G316" s="2">
         <v>41956</v>
       </c>
-      <c r="G316" s="2">
-        <v>43082</v>
-      </c>
       <c r="H316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I316" t="s">
         <v>215</v>
@@ -10323,9 +10326,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B317" t="s">
         <v>79</v>
@@ -10334,45 +10337,45 @@
         <v>41882</v>
       </c>
       <c r="E317">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F317" s="2">
+        <v>41956</v>
+      </c>
+      <c r="G317" s="2">
         <v>43082</v>
-      </c>
-      <c r="G317" s="2">
-        <v>43819</v>
       </c>
       <c r="H317" t="s">
         <v>13</v>
       </c>
       <c r="I317" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J317" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B318" t="s">
         <v>79</v>
       </c>
       <c r="C318" s="2">
-        <v>43709</v>
+        <v>41882</v>
       </c>
       <c r="E318">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F318" s="2">
+        <v>43082</v>
+      </c>
+      <c r="G318" s="2">
         <v>43819</v>
       </c>
-      <c r="G318" s="2">
-        <v>401768</v>
-      </c>
       <c r="H318" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="I318" t="s">
         <v>216</v>
@@ -10381,38 +10384,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
+        <v>11410</v>
+      </c>
+      <c r="B319" t="s">
+        <v>79</v>
+      </c>
+      <c r="C319" s="2">
+        <v>43709</v>
+      </c>
+      <c r="E319">
+        <v>10</v>
+      </c>
+      <c r="F319" s="2">
+        <v>43819</v>
+      </c>
+      <c r="G319" s="2">
+        <v>401768</v>
+      </c>
+      <c r="H319" t="s">
+        <v>80</v>
+      </c>
+      <c r="I319" t="s">
+        <v>216</v>
+      </c>
+      <c r="J319" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320">
         <v>11501</v>
-      </c>
-      <c r="B319" t="s">
-        <v>81</v>
-      </c>
-      <c r="C319" s="2">
-        <v>33160</v>
-      </c>
-      <c r="E319">
-        <v>1</v>
-      </c>
-      <c r="F319" s="2">
-        <v>33174</v>
-      </c>
-      <c r="G319" s="2">
-        <v>33423</v>
-      </c>
-      <c r="H319" t="s">
-        <v>12</v>
-      </c>
-      <c r="I319" t="s">
-        <v>217</v>
-      </c>
-      <c r="J319" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>11502</v>
       </c>
       <c r="B320" t="s">
         <v>81</v>
@@ -10421,27 +10424,27 @@
         <v>33160</v>
       </c>
       <c r="E320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F320" s="2">
+        <v>33174</v>
+      </c>
+      <c r="G320" s="2">
         <v>33423</v>
-      </c>
-      <c r="G320" s="2">
-        <v>34305</v>
       </c>
       <c r="H320" t="s">
         <v>12</v>
       </c>
       <c r="I320" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J320" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>11503</v>
+        <v>11502</v>
       </c>
       <c r="B321" t="s">
         <v>81</v>
@@ -10450,74 +10453,74 @@
         <v>33160</v>
       </c>
       <c r="E321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F321" s="2">
+        <v>33423</v>
+      </c>
+      <c r="G321" s="2">
         <v>34305</v>
-      </c>
-      <c r="G321" s="2">
-        <v>34511</v>
       </c>
       <c r="H321" t="s">
         <v>12</v>
       </c>
       <c r="I321" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J321" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>11504</v>
+        <v>11503</v>
       </c>
       <c r="B322" t="s">
         <v>81</v>
       </c>
       <c r="C322" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E322">
+        <v>3</v>
+      </c>
+      <c r="F322" s="2">
+        <v>34305</v>
+      </c>
+      <c r="G322" s="2">
         <v>34511</v>
       </c>
-      <c r="E322">
-        <v>4</v>
-      </c>
-      <c r="F322" s="2">
-        <v>34536</v>
-      </c>
-      <c r="G322" s="2">
-        <v>35911</v>
-      </c>
       <c r="H322" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I322" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J322" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>11505</v>
+        <v>11504</v>
       </c>
       <c r="B323" t="s">
         <v>81</v>
       </c>
       <c r="C323" s="2">
+        <v>34511</v>
+      </c>
+      <c r="E323">
+        <v>4</v>
+      </c>
+      <c r="F323" s="2">
+        <v>34536</v>
+      </c>
+      <c r="G323" s="2">
         <v>35911</v>
       </c>
-      <c r="E323">
-        <v>5</v>
-      </c>
-      <c r="F323" s="2">
-        <v>35941</v>
-      </c>
-      <c r="G323" s="2">
-        <v>37367</v>
-      </c>
       <c r="H323" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I323" t="s">
         <v>220</v>
@@ -10526,56 +10529,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>11506</v>
+        <v>11505</v>
       </c>
       <c r="B324" t="s">
         <v>81</v>
       </c>
       <c r="C324" s="2">
+        <v>35911</v>
+      </c>
+      <c r="E324">
+        <v>5</v>
+      </c>
+      <c r="F324" s="2">
+        <v>35941</v>
+      </c>
+      <c r="G324" s="2">
         <v>37367</v>
       </c>
-      <c r="E324">
-        <v>6</v>
-      </c>
-      <c r="F324" s="2">
-        <v>37392</v>
-      </c>
-      <c r="G324" s="2">
-        <v>38831</v>
-      </c>
       <c r="H324" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I324" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J324" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B325" t="s">
         <v>81</v>
       </c>
       <c r="C325" s="2">
-        <v>38802</v>
+        <v>37367</v>
       </c>
       <c r="E325">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F325" s="2">
+        <v>37392</v>
+      </c>
+      <c r="G325" s="2">
         <v>38831</v>
       </c>
-      <c r="G325" s="2">
-        <v>40652</v>
-      </c>
       <c r="H325" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I325" t="s">
         <v>221</v>
@@ -10584,56 +10587,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B326" t="s">
         <v>81</v>
       </c>
       <c r="C326" s="2">
-        <v>40622</v>
+        <v>38802</v>
       </c>
       <c r="E326">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F326" s="2">
+        <v>38831</v>
+      </c>
+      <c r="G326" s="2">
         <v>40652</v>
-      </c>
-      <c r="G326" s="2">
-        <v>42485</v>
       </c>
       <c r="H326" t="s">
         <v>13</v>
       </c>
       <c r="I326" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J326" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B327" t="s">
         <v>81</v>
       </c>
       <c r="C327" s="2">
-        <v>42442</v>
+        <v>40622</v>
       </c>
       <c r="E327">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F327" s="2">
+        <v>40652</v>
+      </c>
+      <c r="G327" s="2">
         <v>42485</v>
       </c>
-      <c r="G327" s="2">
-        <v>44455</v>
-      </c>
       <c r="H327" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="I327" t="s">
         <v>222</v>
@@ -10642,27 +10645,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B328" t="s">
         <v>81</v>
       </c>
       <c r="C328" s="2">
-        <v>44353</v>
+        <v>42442</v>
       </c>
       <c r="E328">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F328" s="2">
+        <v>42485</v>
+      </c>
+      <c r="G328" s="2">
         <v>44455</v>
       </c>
-      <c r="G328" s="2">
-        <v>401768</v>
-      </c>
       <c r="H328" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I328" t="s">
         <v>222</v>
@@ -10671,38 +10674,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
+        <v>11510</v>
+      </c>
+      <c r="B329" t="s">
+        <v>81</v>
+      </c>
+      <c r="C329" s="2">
+        <v>44353</v>
+      </c>
+      <c r="E329">
+        <v>10</v>
+      </c>
+      <c r="F329" s="2">
+        <v>44455</v>
+      </c>
+      <c r="G329" s="2">
+        <v>401768</v>
+      </c>
+      <c r="H329" t="s">
+        <v>43</v>
+      </c>
+      <c r="I329" t="s">
+        <v>222</v>
+      </c>
+      <c r="J329" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A330">
         <v>11601</v>
-      </c>
-      <c r="B329" t="s">
-        <v>83</v>
-      </c>
-      <c r="C329" s="2">
-        <v>17277</v>
-      </c>
-      <c r="E329">
-        <v>1</v>
-      </c>
-      <c r="F329" s="2">
-        <v>17286</v>
-      </c>
-      <c r="G329" s="2">
-        <v>18139</v>
-      </c>
-      <c r="H329" t="s">
-        <v>29</v>
-      </c>
-      <c r="I329" t="s">
-        <v>223</v>
-      </c>
-      <c r="J329" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>11602</v>
       </c>
       <c r="B330" t="s">
         <v>83</v>
@@ -10711,56 +10714,56 @@
         <v>17277</v>
       </c>
       <c r="E330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F330" s="2">
+        <v>17286</v>
+      </c>
+      <c r="G330" s="2">
         <v>18139</v>
       </c>
-      <c r="G330" s="2">
-        <v>18453</v>
-      </c>
       <c r="H330" t="s">
         <v>29</v>
       </c>
       <c r="I330" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J330" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>11603</v>
+        <v>11602</v>
       </c>
       <c r="B331" t="s">
         <v>83</v>
       </c>
       <c r="C331" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E331">
+        <v>2</v>
+      </c>
+      <c r="F331" s="2">
+        <v>18139</v>
+      </c>
+      <c r="G331" s="2">
         <v>18453</v>
       </c>
-      <c r="E331">
-        <v>3</v>
-      </c>
-      <c r="F331" s="2">
-        <v>18511</v>
-      </c>
-      <c r="G331" s="2">
-        <v>18804</v>
-      </c>
       <c r="H331" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I331" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J331" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>11604</v>
+        <v>11603</v>
       </c>
       <c r="B332" t="s">
         <v>83</v>
@@ -10769,27 +10772,27 @@
         <v>18453</v>
       </c>
       <c r="E332">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F332" s="2">
+        <v>18511</v>
+      </c>
+      <c r="G332" s="2">
         <v>18804</v>
       </c>
-      <c r="G332" s="2">
-        <v>18837</v>
-      </c>
       <c r="H332" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I332" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J332" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>11605</v>
+        <v>11604</v>
       </c>
       <c r="B333" t="s">
         <v>83</v>
@@ -10798,16 +10801,16 @@
         <v>18453</v>
       </c>
       <c r="E333">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F333" s="2">
+        <v>18804</v>
+      </c>
+      <c r="G333" s="2">
         <v>18837</v>
       </c>
-      <c r="G333" s="2">
-        <v>18997</v>
-      </c>
       <c r="H333" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I333" t="s">
         <v>226</v>
@@ -10816,9 +10819,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>11606</v>
+        <v>11605</v>
       </c>
       <c r="B334" t="s">
         <v>83</v>
@@ -10827,16 +10830,16 @@
         <v>18453</v>
       </c>
       <c r="E334">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F334" s="2">
+        <v>18837</v>
+      </c>
+      <c r="G334" s="2">
         <v>18997</v>
       </c>
-      <c r="G334" s="2">
-        <v>19378</v>
-      </c>
       <c r="H334" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I334" t="s">
         <v>226</v>
@@ -10845,9 +10848,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>11607</v>
+        <v>11606</v>
       </c>
       <c r="B335" t="s">
         <v>83</v>
@@ -10856,16 +10859,16 @@
         <v>18453</v>
       </c>
       <c r="E335">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F335" s="2">
+        <v>18997</v>
+      </c>
+      <c r="G335" s="2">
         <v>19378</v>
       </c>
-      <c r="G335" s="2">
-        <v>19979</v>
-      </c>
       <c r="H335" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I335" t="s">
         <v>226</v>
@@ -10874,56 +10877,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>11608</v>
+        <v>11607</v>
       </c>
       <c r="B336" t="s">
         <v>83</v>
       </c>
       <c r="C336" s="2">
+        <v>18453</v>
+      </c>
+      <c r="E336">
+        <v>7</v>
+      </c>
+      <c r="F336" s="2">
+        <v>19378</v>
+      </c>
+      <c r="G336" s="2">
         <v>19979</v>
       </c>
-      <c r="E336">
-        <v>8</v>
-      </c>
-      <c r="F336" s="2">
-        <v>20008</v>
-      </c>
-      <c r="G336" s="2">
-        <v>21456</v>
-      </c>
       <c r="H336" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I336" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J336" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>11609</v>
+        <v>11608</v>
       </c>
       <c r="B337" t="s">
         <v>83</v>
       </c>
       <c r="C337" s="2">
+        <v>19979</v>
+      </c>
+      <c r="E337">
+        <v>8</v>
+      </c>
+      <c r="F337" s="2">
+        <v>20008</v>
+      </c>
+      <c r="G337" s="2">
         <v>21456</v>
       </c>
-      <c r="E337">
-        <v>9</v>
-      </c>
-      <c r="F337" s="2">
-        <v>21456</v>
-      </c>
-      <c r="G337" s="2">
-        <v>22912</v>
-      </c>
       <c r="H337" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I337" t="s">
         <v>227</v>
@@ -10932,27 +10935,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>11610</v>
+        <v>11609</v>
       </c>
       <c r="B338" t="s">
         <v>83</v>
       </c>
       <c r="C338" s="2">
+        <v>21456</v>
+      </c>
+      <c r="E338">
+        <v>9</v>
+      </c>
+      <c r="F338" s="2">
+        <v>21456</v>
+      </c>
+      <c r="G338" s="2">
         <v>22912</v>
       </c>
-      <c r="E338">
-        <v>10</v>
-      </c>
-      <c r="F338" s="2">
-        <v>22912</v>
-      </c>
-      <c r="G338" s="2">
-        <v>23018</v>
-      </c>
       <c r="H338" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I338" t="s">
         <v>227</v>
@@ -10961,9 +10964,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>11611</v>
+        <v>11610</v>
       </c>
       <c r="B339" t="s">
         <v>83</v>
@@ -10972,42 +10975,42 @@
         <v>22912</v>
       </c>
       <c r="E339">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F339" s="2">
+        <v>22912</v>
+      </c>
+      <c r="G339" s="2">
         <v>23018</v>
       </c>
-      <c r="G339" s="2">
-        <v>24585</v>
-      </c>
       <c r="H339" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I339" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J339" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>11612</v>
+        <v>11611</v>
       </c>
       <c r="B340" t="s">
         <v>83</v>
       </c>
       <c r="C340" s="2">
+        <v>22912</v>
+      </c>
+      <c r="E340">
+        <v>11</v>
+      </c>
+      <c r="F340" s="2">
+        <v>23018</v>
+      </c>
+      <c r="G340" s="2">
         <v>24585</v>
-      </c>
-      <c r="E340">
-        <v>12</v>
-      </c>
-      <c r="F340" s="2">
-        <v>24585</v>
-      </c>
-      <c r="G340" s="2">
-        <v>25967</v>
       </c>
       <c r="H340" t="s">
         <v>12</v>
@@ -11019,9 +11022,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>11613</v>
+        <v>11612</v>
       </c>
       <c r="B341" t="s">
         <v>83</v>
@@ -11030,16 +11033,16 @@
         <v>24585</v>
       </c>
       <c r="E341">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F341" s="2">
+        <v>24585</v>
+      </c>
+      <c r="G341" s="2">
         <v>25967</v>
       </c>
-      <c r="G341" s="2">
-        <v>26048</v>
-      </c>
       <c r="H341" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I341" t="s">
         <v>228</v>
@@ -11048,53 +11051,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>11614</v>
+        <v>11613</v>
       </c>
       <c r="B342" t="s">
         <v>83</v>
       </c>
       <c r="C342" s="2">
+        <v>24585</v>
+      </c>
+      <c r="E342">
+        <v>13</v>
+      </c>
+      <c r="F342" s="2">
+        <v>25967</v>
+      </c>
+      <c r="G342" s="2">
         <v>26048</v>
       </c>
-      <c r="E342">
-        <v>14</v>
-      </c>
-      <c r="F342" s="2">
-        <v>26077</v>
-      </c>
-      <c r="G342" s="2">
-        <v>27497</v>
-      </c>
       <c r="H342" t="s">
         <v>14</v>
       </c>
       <c r="I342" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J342" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>11615</v>
+        <v>11614</v>
       </c>
       <c r="B343" t="s">
         <v>83</v>
       </c>
       <c r="C343" s="2">
+        <v>26048</v>
+      </c>
+      <c r="E343">
+        <v>14</v>
+      </c>
+      <c r="F343" s="2">
+        <v>26077</v>
+      </c>
+      <c r="G343" s="2">
         <v>27497</v>
-      </c>
-      <c r="E343">
-        <v>15</v>
-      </c>
-      <c r="F343" s="2">
-        <v>27497</v>
-      </c>
-      <c r="G343" s="2">
-        <v>28974</v>
       </c>
       <c r="H343" t="s">
         <v>14</v>
@@ -11106,24 +11109,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>11616</v>
+        <v>11615</v>
       </c>
       <c r="B344" t="s">
         <v>83</v>
       </c>
       <c r="C344" s="2">
+        <v>27497</v>
+      </c>
+      <c r="E344">
+        <v>15</v>
+      </c>
+      <c r="F344" s="2">
+        <v>27497</v>
+      </c>
+      <c r="G344" s="2">
         <v>28974</v>
-      </c>
-      <c r="E344">
-        <v>16</v>
-      </c>
-      <c r="F344" s="2">
-        <v>28974</v>
-      </c>
-      <c r="G344" s="2">
-        <v>30238</v>
       </c>
       <c r="H344" t="s">
         <v>14</v>
@@ -11135,9 +11138,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>11617</v>
+        <v>11616</v>
       </c>
       <c r="B345" t="s">
         <v>83</v>
@@ -11146,42 +11149,42 @@
         <v>28974</v>
       </c>
       <c r="E345">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F345" s="2">
+        <v>28974</v>
+      </c>
+      <c r="G345" s="2">
         <v>30238</v>
       </c>
-      <c r="G345" s="2">
-        <v>30388</v>
-      </c>
       <c r="H345" t="s">
         <v>14</v>
       </c>
       <c r="I345" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J345" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>11618</v>
+        <v>11617</v>
       </c>
       <c r="B346" t="s">
         <v>83</v>
       </c>
       <c r="C346" s="2">
+        <v>28974</v>
+      </c>
+      <c r="E346">
+        <v>17</v>
+      </c>
+      <c r="F346" s="2">
+        <v>30238</v>
+      </c>
+      <c r="G346" s="2">
         <v>30388</v>
-      </c>
-      <c r="E346">
-        <v>18</v>
-      </c>
-      <c r="F346" s="2">
-        <v>30388</v>
-      </c>
-      <c r="G346" s="2">
-        <v>32033</v>
       </c>
       <c r="H346" t="s">
         <v>14</v>
@@ -11193,24 +11196,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>11619</v>
+        <v>11618</v>
       </c>
       <c r="B347" t="s">
         <v>83</v>
       </c>
       <c r="C347" s="2">
+        <v>30388</v>
+      </c>
+      <c r="E347">
+        <v>18</v>
+      </c>
+      <c r="F347" s="2">
+        <v>30388</v>
+      </c>
+      <c r="G347" s="2">
         <v>32033</v>
-      </c>
-      <c r="E347">
-        <v>19</v>
-      </c>
-      <c r="F347" s="2">
-        <v>32033</v>
-      </c>
-      <c r="G347" s="2">
-        <v>32052</v>
       </c>
       <c r="H347" t="s">
         <v>14</v>
@@ -11222,9 +11225,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>11620</v>
+        <v>11619</v>
       </c>
       <c r="B348" t="s">
         <v>83</v>
@@ -11233,71 +11236,71 @@
         <v>32033</v>
       </c>
       <c r="E348">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F348" s="2">
+        <v>32033</v>
+      </c>
+      <c r="G348" s="2">
         <v>32052</v>
       </c>
-      <c r="G348" s="2">
-        <v>32271</v>
-      </c>
       <c r="H348" t="s">
         <v>14</v>
       </c>
       <c r="I348" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J348" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>11621</v>
+        <v>11620</v>
       </c>
       <c r="B349" t="s">
         <v>83</v>
       </c>
       <c r="C349" s="2">
+        <v>32033</v>
+      </c>
+      <c r="E349">
+        <v>20</v>
+      </c>
+      <c r="F349" s="2">
+        <v>32052</v>
+      </c>
+      <c r="G349" s="2">
         <v>32271</v>
       </c>
-      <c r="E349">
-        <v>21</v>
-      </c>
-      <c r="F349" s="2">
-        <v>32294</v>
-      </c>
-      <c r="G349" s="2">
-        <v>33699</v>
-      </c>
       <c r="H349" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I349" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J349" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>11622</v>
+        <v>11621</v>
       </c>
       <c r="B350" t="s">
         <v>83</v>
       </c>
       <c r="C350" s="2">
+        <v>32271</v>
+      </c>
+      <c r="E350">
+        <v>21</v>
+      </c>
+      <c r="F350" s="2">
+        <v>32294</v>
+      </c>
+      <c r="G350" s="2">
         <v>33699</v>
-      </c>
-      <c r="E350">
-        <v>22</v>
-      </c>
-      <c r="F350" s="2">
-        <v>33729</v>
-      </c>
-      <c r="G350" s="2">
-        <v>34108</v>
       </c>
       <c r="H350" t="s">
         <v>29</v>
@@ -11309,9 +11312,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>11623</v>
+        <v>11622</v>
       </c>
       <c r="B351" t="s">
         <v>83</v>
@@ -11320,45 +11323,45 @@
         <v>33699</v>
       </c>
       <c r="E351">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F351" s="2">
+        <v>33729</v>
+      </c>
+      <c r="G351" s="2">
         <v>34108</v>
       </c>
-      <c r="G351" s="2">
-        <v>35148</v>
-      </c>
       <c r="H351" t="s">
         <v>29</v>
       </c>
       <c r="I351" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J351" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>11624</v>
+        <v>11623</v>
       </c>
       <c r="B352" t="s">
         <v>83</v>
       </c>
       <c r="C352" s="2">
+        <v>33699</v>
+      </c>
+      <c r="E352">
+        <v>23</v>
+      </c>
+      <c r="F352" s="2">
+        <v>34108</v>
+      </c>
+      <c r="G352" s="2">
         <v>35148</v>
       </c>
-      <c r="E352">
-        <v>24</v>
-      </c>
-      <c r="F352" s="2">
-        <v>35207</v>
-      </c>
-      <c r="G352" s="2">
-        <v>36583</v>
-      </c>
       <c r="H352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I352" t="s">
         <v>233</v>
@@ -11367,24 +11370,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>11625</v>
+        <v>11624</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
       </c>
       <c r="C353" s="2">
+        <v>35148</v>
+      </c>
+      <c r="E353">
+        <v>24</v>
+      </c>
+      <c r="F353" s="2">
+        <v>35207</v>
+      </c>
+      <c r="G353" s="2">
         <v>36583</v>
-      </c>
-      <c r="E353">
-        <v>25</v>
-      </c>
-      <c r="F353" s="2">
-        <v>36613</v>
-      </c>
-      <c r="G353" s="2">
-        <v>38403</v>
       </c>
       <c r="H353" t="s">
         <v>30</v>
@@ -11396,56 +11399,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>11626</v>
+        <v>11625</v>
       </c>
       <c r="B354" t="s">
         <v>83</v>
       </c>
       <c r="C354" s="2">
+        <v>36583</v>
+      </c>
+      <c r="E354">
+        <v>25</v>
+      </c>
+      <c r="F354" s="2">
+        <v>36613</v>
+      </c>
+      <c r="G354" s="2">
         <v>38403</v>
       </c>
-      <c r="E354">
-        <v>26</v>
-      </c>
-      <c r="F354" s="2">
-        <v>38469</v>
-      </c>
-      <c r="G354" s="2">
-        <v>40113</v>
-      </c>
       <c r="H354" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I354" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J354" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B355" t="s">
         <v>83</v>
       </c>
       <c r="C355" s="2">
-        <v>40083</v>
+        <v>38403</v>
       </c>
       <c r="E355">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F355" s="2">
+        <v>38469</v>
+      </c>
+      <c r="G355" s="2">
         <v>40113</v>
       </c>
-      <c r="G355" s="2">
-        <v>41072</v>
-      </c>
       <c r="H355" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I355" t="s">
         <v>234</v>
@@ -11454,96 +11457,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B356" t="s">
         <v>83</v>
       </c>
       <c r="C356" s="2">
-        <v>41035</v>
+        <v>40083</v>
       </c>
       <c r="E356">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F356" s="2">
+        <v>40113</v>
+      </c>
+      <c r="G356" s="2">
         <v>41072</v>
       </c>
-      <c r="G356" s="2">
-        <v>42914</v>
-      </c>
       <c r="H356" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I356" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J356" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B357" t="s">
         <v>83</v>
       </c>
       <c r="C357" s="2">
+        <v>41035</v>
+      </c>
+      <c r="E357">
+        <v>28</v>
+      </c>
+      <c r="F357" s="2">
+        <v>41072</v>
+      </c>
+      <c r="G357" s="2">
+        <v>42914</v>
+      </c>
+      <c r="H357" t="s">
+        <v>88</v>
+      </c>
+      <c r="I357" t="s">
+        <v>235</v>
+      </c>
+      <c r="J357" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>11629</v>
+      </c>
+      <c r="B358" t="s">
+        <v>83</v>
+      </c>
+      <c r="C358" s="2">
         <v>42862</v>
       </c>
-      <c r="E357">
-        <v>29</v>
-      </c>
-      <c r="F357" s="2">
+      <c r="E358">
+        <v>29</v>
+      </c>
+      <c r="F358" s="2">
         <v>42914</v>
       </c>
-      <c r="G357" s="2">
+      <c r="G358" s="2">
         <v>401768</v>
       </c>
-      <c r="H357" t="s">
+      <c r="H358" t="s">
         <v>89</v>
       </c>
-      <c r="I357" t="s">
+      <c r="I358" t="s">
         <v>236</v>
       </c>
-      <c r="J357" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="J358" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A359">
         <v>11701</v>
-      </c>
-      <c r="B358" t="s">
-        <v>90</v>
-      </c>
-      <c r="C358" s="2">
-        <v>33160</v>
-      </c>
-      <c r="E358">
-        <v>1</v>
-      </c>
-      <c r="F358" s="2">
-        <v>33185</v>
-      </c>
-      <c r="G358" s="2">
-        <v>33639</v>
-      </c>
-      <c r="H358" t="s">
-        <v>12</v>
-      </c>
-      <c r="I358" t="s">
-        <v>237</v>
-      </c>
-      <c r="J358" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>11702</v>
       </c>
       <c r="B359" t="s">
         <v>90</v>
@@ -11552,45 +11555,45 @@
         <v>33160</v>
       </c>
       <c r="E359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F359" s="2">
+        <v>33185</v>
+      </c>
+      <c r="G359" s="2">
         <v>33639</v>
-      </c>
-      <c r="G359" s="2">
-        <v>34623</v>
       </c>
       <c r="H359" t="s">
         <v>12</v>
       </c>
       <c r="I359" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="J359" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>11703</v>
+        <v>11702</v>
       </c>
       <c r="B360" t="s">
         <v>90</v>
       </c>
       <c r="C360" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E360">
+        <v>2</v>
+      </c>
+      <c r="F360" s="2">
+        <v>33639</v>
+      </c>
+      <c r="G360" s="2">
         <v>34623</v>
       </c>
-      <c r="E360">
-        <v>3</v>
-      </c>
-      <c r="F360" s="2">
-        <v>34660</v>
-      </c>
-      <c r="G360" s="2">
-        <v>36415</v>
-      </c>
       <c r="H360" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I360" t="s">
         <v>197</v>
@@ -11599,27 +11602,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>11704</v>
+        <v>11703</v>
       </c>
       <c r="B361" t="s">
         <v>90</v>
       </c>
       <c r="C361" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E361">
+        <v>3</v>
+      </c>
+      <c r="F361" s="2">
+        <v>34660</v>
+      </c>
+      <c r="G361" s="2">
         <v>36415</v>
       </c>
-      <c r="E361">
-        <v>4</v>
-      </c>
-      <c r="F361" s="2">
-        <v>36434</v>
-      </c>
-      <c r="G361" s="2">
-        <v>37685</v>
-      </c>
       <c r="H361" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I361" t="s">
         <v>197</v>
@@ -11628,9 +11631,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>11705</v>
+        <v>11704</v>
       </c>
       <c r="B362" t="s">
         <v>90</v>
@@ -11639,42 +11642,42 @@
         <v>36415</v>
       </c>
       <c r="E362">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F362" s="2">
-        <v>37777</v>
+        <v>36434</v>
       </c>
       <c r="G362" s="2">
-        <v>38151</v>
+        <v>37685</v>
       </c>
       <c r="H362" t="s">
         <v>14</v>
       </c>
       <c r="I362" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="J362" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>11706</v>
+        <v>11705</v>
       </c>
       <c r="B363" t="s">
         <v>90</v>
       </c>
       <c r="C363" s="2">
+        <v>36415</v>
+      </c>
+      <c r="E363">
+        <v>5</v>
+      </c>
+      <c r="F363" s="2">
+        <v>37777</v>
+      </c>
+      <c r="G363" s="2">
         <v>38151</v>
-      </c>
-      <c r="E363">
-        <v>6</v>
-      </c>
-      <c r="F363" s="2">
-        <v>38176</v>
-      </c>
-      <c r="G363" s="2">
-        <v>40121</v>
       </c>
       <c r="H363" t="s">
         <v>14</v>
@@ -11686,96 +11689,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B364" t="s">
         <v>90</v>
       </c>
       <c r="C364" s="2">
-        <v>40055</v>
+        <v>38151</v>
       </c>
       <c r="E364">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F364" s="2">
+        <v>38176</v>
+      </c>
+      <c r="G364" s="2">
         <v>40121</v>
       </c>
-      <c r="G364" s="2">
-        <v>41978</v>
-      </c>
       <c r="H364" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I364" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J364" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B365" t="s">
         <v>90</v>
       </c>
       <c r="C365" s="2">
-        <v>41896</v>
+        <v>40055</v>
       </c>
       <c r="E365">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F365" s="2">
+        <v>40121</v>
+      </c>
+      <c r="G365" s="2">
         <v>41978</v>
       </c>
-      <c r="G365" s="2">
-        <v>43866</v>
-      </c>
       <c r="H365" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="I365" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J365" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B366" t="s">
         <v>90</v>
       </c>
       <c r="C366" s="2">
-        <v>43765</v>
+        <v>41896</v>
       </c>
       <c r="E366">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F366" s="2">
+        <v>41978</v>
+      </c>
+      <c r="G366" s="2">
         <v>43866</v>
       </c>
-      <c r="G366" s="2">
-        <v>43894</v>
-      </c>
       <c r="H366" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I366" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J366" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B367" t="s">
         <v>90</v>
@@ -11784,21 +11787,50 @@
         <v>43765</v>
       </c>
       <c r="E367">
+        <v>9</v>
+      </c>
+      <c r="F367" s="2">
+        <v>43866</v>
+      </c>
+      <c r="G367" s="2">
+        <v>43894</v>
+      </c>
+      <c r="H367" t="s">
+        <v>92</v>
+      </c>
+      <c r="I367" t="s">
+        <v>241</v>
+      </c>
+      <c r="J367" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>11710</v>
+      </c>
+      <c r="B368" t="s">
+        <v>90</v>
+      </c>
+      <c r="C368" s="2">
+        <v>43765</v>
+      </c>
+      <c r="E368">
         <v>10</v>
       </c>
-      <c r="F367" s="2">
+      <c r="F368" s="2">
         <v>43894</v>
       </c>
-      <c r="G367" s="2">
+      <c r="G368" s="2">
         <v>401768</v>
       </c>
-      <c r="H367" t="s">
+      <c r="H368" t="s">
         <v>91</v>
       </c>
-      <c r="I367" t="s">
+      <c r="I368" t="s">
         <v>240</v>
       </c>
-      <c r="J367" t="s">
+      <c r="J368" t="s">
         <v>133</v>
       </c>
     </row>

--- a/inst/extdata/primeministers.xlsx
+++ b/inst/extdata/primeministers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/Documents/addingsaarland/bundeslaendeR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29A5A26-E2E4-CC40-9DA5-AC462D6F2D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC6BE1-7269-AA4E-8090-EBD7D61130D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="244">
   <si>
     <t>gov_id</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>Rehlinger, Anke</t>
+  </si>
+  <si>
+    <t>Rhein, Boris</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J368"/>
+  <dimension ref="A1:J369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6512,7 +6515,7 @@
         <v>43483</v>
       </c>
       <c r="G185" s="2">
-        <v>401768</v>
+        <v>44712</v>
       </c>
       <c r="H185" t="s">
         <v>49</v>
@@ -6526,28 +6529,28 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>10901</v>
+        <v>10726</v>
       </c>
       <c r="B186" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C186" s="2">
-        <v>33160</v>
+        <v>43401</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F186" s="2">
-        <v>33173</v>
+        <v>44712</v>
       </c>
       <c r="G186" s="2">
-        <v>33650</v>
+        <v>401768</v>
       </c>
       <c r="H186" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I186" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="J186" t="s">
         <v>14</v>
@@ -6555,7 +6558,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>10902</v>
+        <v>10901</v>
       </c>
       <c r="B187" t="s">
         <v>53</v>
@@ -6564,19 +6567,19 @@
         <v>33160</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F187" s="2">
+        <v>33173</v>
+      </c>
+      <c r="G187" s="2">
         <v>33650</v>
-      </c>
-      <c r="G187" s="2">
-        <v>34621</v>
       </c>
       <c r="H187" t="s">
         <v>12</v>
       </c>
       <c r="I187" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J187" t="s">
         <v>14</v>
@@ -6584,25 +6587,25 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>10903</v>
+        <v>10902</v>
       </c>
       <c r="B188" t="s">
         <v>53</v>
       </c>
       <c r="C188" s="2">
-        <v>34623</v>
+        <v>33160</v>
       </c>
       <c r="E188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F188" s="2">
-        <v>34676</v>
+        <v>33650</v>
       </c>
       <c r="G188" s="2">
-        <v>36065</v>
+        <v>34621</v>
       </c>
       <c r="H188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I188" t="s">
         <v>168</v>
@@ -6613,51 +6616,51 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>10904</v>
+        <v>10903</v>
       </c>
       <c r="B189" t="s">
         <v>53</v>
       </c>
       <c r="C189" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189" s="2">
+        <v>34676</v>
+      </c>
+      <c r="G189" s="2">
         <v>36065</v>
       </c>
-      <c r="E189">
-        <v>4</v>
-      </c>
-      <c r="F189" s="2">
-        <v>36102</v>
-      </c>
-      <c r="G189" s="2">
-        <v>37521</v>
-      </c>
       <c r="H189" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I189" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J189" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>10905</v>
+        <v>10904</v>
       </c>
       <c r="B190" t="s">
         <v>53</v>
       </c>
       <c r="C190" s="2">
+        <v>36065</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+      <c r="F190" s="2">
+        <v>36102</v>
+      </c>
+      <c r="G190" s="2">
         <v>37521</v>
-      </c>
-      <c r="E190">
-        <v>5</v>
-      </c>
-      <c r="F190" s="2">
-        <v>37566</v>
-      </c>
-      <c r="G190" s="2">
-        <v>39028</v>
       </c>
       <c r="H190" t="s">
         <v>31</v>
@@ -6671,25 +6674,25 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B191" t="s">
         <v>53</v>
       </c>
       <c r="C191" s="2">
-        <v>38977</v>
+        <v>37521</v>
       </c>
       <c r="E191">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F191" s="2">
+        <v>37566</v>
+      </c>
+      <c r="G191" s="2">
         <v>39028</v>
       </c>
-      <c r="G191" s="2">
-        <v>39727</v>
-      </c>
       <c r="H191" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I191" t="s">
         <v>169</v>
@@ -6700,7 +6703,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B192" t="s">
         <v>53</v>
@@ -6709,19 +6712,19 @@
         <v>38977</v>
       </c>
       <c r="E192">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F192" s="2">
+        <v>39028</v>
+      </c>
+      <c r="G192" s="2">
         <v>39727</v>
-      </c>
-      <c r="G192" s="2">
-        <v>40841</v>
       </c>
       <c r="H192" t="s">
         <v>28</v>
       </c>
       <c r="I192" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J192" t="s">
         <v>29</v>
@@ -6729,22 +6732,22 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B193" t="s">
         <v>53</v>
       </c>
       <c r="C193" s="2">
-        <v>40790</v>
+        <v>38977</v>
       </c>
       <c r="E193">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F193" s="2">
+        <v>39727</v>
+      </c>
+      <c r="G193" s="2">
         <v>40841</v>
-      </c>
-      <c r="G193" s="2">
-        <v>42675</v>
       </c>
       <c r="H193" t="s">
         <v>28</v>
@@ -6758,22 +6761,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B194" t="s">
         <v>53</v>
       </c>
       <c r="C194" s="2">
-        <v>42617</v>
+        <v>40790</v>
       </c>
       <c r="E194">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F194" s="2">
+        <v>40841</v>
+      </c>
+      <c r="G194" s="2">
         <v>42675</v>
-      </c>
-      <c r="G194" s="2">
-        <v>42920</v>
       </c>
       <c r="H194" t="s">
         <v>28</v>
@@ -6787,7 +6790,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B195" t="s">
         <v>53</v>
@@ -6796,19 +6799,19 @@
         <v>42617</v>
       </c>
       <c r="E195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F195" s="2">
+        <v>42675</v>
+      </c>
+      <c r="G195" s="2">
         <v>42920</v>
-      </c>
-      <c r="G195" s="2">
-        <v>44515</v>
       </c>
       <c r="H195" t="s">
         <v>28</v>
       </c>
       <c r="I195" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J195" t="s">
         <v>29</v>
@@ -6816,25 +6819,25 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B196" t="s">
         <v>53</v>
       </c>
       <c r="C196" s="2">
-        <v>44465</v>
+        <v>42617</v>
       </c>
       <c r="E196">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F196" s="2">
+        <v>42920</v>
+      </c>
+      <c r="G196" s="2">
         <v>44515</v>
       </c>
-      <c r="G196" s="2">
-        <v>401768</v>
-      </c>
       <c r="H196" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I196" t="s">
         <v>171</v>
@@ -6845,28 +6848,28 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>11001</v>
+        <v>10914</v>
       </c>
       <c r="B197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C197" s="2">
-        <v>17277</v>
+        <v>44465</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F197" s="2">
-        <v>17329</v>
+        <v>44515</v>
       </c>
       <c r="G197" s="2">
-        <v>17568</v>
+        <v>401768</v>
       </c>
       <c r="H197" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I197" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J197" t="s">
         <v>29</v>
@@ -6874,7 +6877,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="B198" t="s">
         <v>54</v>
@@ -6883,16 +6886,16 @@
         <v>17277</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" s="2">
+        <v>17329</v>
+      </c>
+      <c r="G198" s="2">
         <v>17568</v>
       </c>
-      <c r="G198" s="2">
-        <v>17693</v>
-      </c>
       <c r="H198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I198" t="s">
         <v>172</v>
@@ -6903,7 +6906,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B199" t="s">
         <v>54</v>
@@ -6912,16 +6915,16 @@
         <v>17277</v>
       </c>
       <c r="E199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F199" s="2">
+        <v>17568</v>
+      </c>
+      <c r="G199" s="2">
         <v>17693</v>
       </c>
-      <c r="G199" s="2">
-        <v>18525</v>
-      </c>
       <c r="H199" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I199" t="s">
         <v>172</v>
@@ -6932,7 +6935,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="B200" t="s">
         <v>54</v>
@@ -6941,16 +6944,16 @@
         <v>17277</v>
       </c>
       <c r="E200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F200" s="2">
+        <v>17693</v>
+      </c>
+      <c r="G200" s="2">
         <v>18525</v>
       </c>
-      <c r="G200" s="2">
-        <v>18754</v>
-      </c>
       <c r="H200" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I200" t="s">
         <v>172</v>
@@ -6961,25 +6964,25 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="B201" t="s">
         <v>54</v>
       </c>
       <c r="C201" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E201">
+        <v>4</v>
+      </c>
+      <c r="F201" s="2">
+        <v>18525</v>
+      </c>
+      <c r="G201" s="2">
         <v>18754</v>
       </c>
-      <c r="E201">
-        <v>5</v>
-      </c>
-      <c r="F201" s="2">
-        <v>18792</v>
-      </c>
-      <c r="G201" s="2">
-        <v>19694</v>
-      </c>
       <c r="H201" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I201" t="s">
         <v>172</v>
@@ -6990,7 +6993,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>11006</v>
+        <v>11005</v>
       </c>
       <c r="B202" t="s">
         <v>54</v>
@@ -6999,16 +7002,16 @@
         <v>18754</v>
       </c>
       <c r="E202">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F202" s="2">
+        <v>18792</v>
+      </c>
+      <c r="G202" s="2">
         <v>19694</v>
       </c>
-      <c r="G202" s="2">
-        <v>20203</v>
-      </c>
       <c r="H202" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I202" t="s">
         <v>172</v>
@@ -7019,36 +7022,36 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="B203" t="s">
         <v>54</v>
       </c>
       <c r="C203" s="2">
+        <v>18754</v>
+      </c>
+      <c r="E203">
+        <v>6</v>
+      </c>
+      <c r="F203" s="2">
+        <v>19694</v>
+      </c>
+      <c r="G203" s="2">
         <v>20203</v>
       </c>
-      <c r="E203">
-        <v>7</v>
-      </c>
-      <c r="F203" s="2">
-        <v>20235</v>
-      </c>
-      <c r="G203" s="2">
-        <v>21143</v>
-      </c>
       <c r="H203" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I203" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J203" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="B204" t="s">
         <v>54</v>
@@ -7057,16 +7060,16 @@
         <v>20203</v>
       </c>
       <c r="E204">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F204" s="2">
+        <v>20235</v>
+      </c>
+      <c r="G204" s="2">
         <v>21143</v>
       </c>
-      <c r="G204" s="2">
-        <v>21659</v>
-      </c>
       <c r="H204" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I204" t="s">
         <v>173</v>
@@ -7077,36 +7080,36 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>11009</v>
+        <v>11008</v>
       </c>
       <c r="B205" t="s">
         <v>54</v>
       </c>
       <c r="C205" s="2">
+        <v>20203</v>
+      </c>
+      <c r="E205">
+        <v>8</v>
+      </c>
+      <c r="F205" s="2">
+        <v>21143</v>
+      </c>
+      <c r="G205" s="2">
         <v>21659</v>
       </c>
-      <c r="E205">
-        <v>9</v>
-      </c>
-      <c r="F205" s="2">
-        <v>21682</v>
-      </c>
-      <c r="G205" s="2">
-        <v>22644</v>
-      </c>
       <c r="H205" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I205" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J205" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="B206" t="s">
         <v>54</v>
@@ -7115,19 +7118,19 @@
         <v>21659</v>
       </c>
       <c r="E206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F206" s="2">
+        <v>21682</v>
+      </c>
+      <c r="G206" s="2">
         <v>22644</v>
-      </c>
-      <c r="G206" s="2">
-        <v>23150</v>
       </c>
       <c r="H206" t="s">
         <v>62</v>
       </c>
       <c r="I206" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J206" t="s">
         <v>29</v>
@@ -7135,25 +7138,25 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>11011</v>
+        <v>11010</v>
       </c>
       <c r="B207" t="s">
         <v>54</v>
       </c>
       <c r="C207" s="2">
+        <v>21659</v>
+      </c>
+      <c r="E207">
+        <v>10</v>
+      </c>
+      <c r="F207" s="2">
+        <v>22644</v>
+      </c>
+      <c r="G207" s="2">
         <v>23150</v>
       </c>
-      <c r="E207">
-        <v>11</v>
-      </c>
-      <c r="F207" s="2">
-        <v>23174</v>
-      </c>
-      <c r="G207" s="2">
-        <v>23881</v>
-      </c>
       <c r="H207" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="I207" t="s">
         <v>175</v>
@@ -7164,7 +7167,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>11012</v>
+        <v>11011</v>
       </c>
       <c r="B208" t="s">
         <v>54</v>
@@ -7173,16 +7176,16 @@
         <v>23150</v>
       </c>
       <c r="E208">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F208" s="2">
+        <v>23174</v>
+      </c>
+      <c r="G208" s="2">
         <v>23881</v>
       </c>
-      <c r="G208" s="2">
-        <v>24627</v>
-      </c>
       <c r="H208" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I208" t="s">
         <v>175</v>
@@ -7193,22 +7196,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>11013</v>
+        <v>11012</v>
       </c>
       <c r="B209" t="s">
         <v>54</v>
       </c>
       <c r="C209" s="2">
+        <v>23150</v>
+      </c>
+      <c r="E209">
+        <v>12</v>
+      </c>
+      <c r="F209" s="2">
+        <v>23881</v>
+      </c>
+      <c r="G209" s="2">
         <v>24627</v>
-      </c>
-      <c r="E209">
-        <v>13</v>
-      </c>
-      <c r="F209" s="2">
-        <v>24658</v>
-      </c>
-      <c r="G209" s="2">
-        <v>25733</v>
       </c>
       <c r="H209" t="s">
         <v>28</v>
@@ -7222,28 +7225,28 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>11014</v>
+        <v>11013</v>
       </c>
       <c r="B210" t="s">
         <v>54</v>
       </c>
       <c r="C210" s="2">
+        <v>24627</v>
+      </c>
+      <c r="E210">
+        <v>13</v>
+      </c>
+      <c r="F210" s="2">
+        <v>24658</v>
+      </c>
+      <c r="G210" s="2">
         <v>25733</v>
       </c>
-      <c r="E210">
-        <v>14</v>
-      </c>
-      <c r="F210" s="2">
-        <v>25757</v>
-      </c>
-      <c r="G210" s="2">
-        <v>27189</v>
-      </c>
       <c r="H210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I210" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J210" t="s">
         <v>29</v>
@@ -7251,25 +7254,25 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>11015</v>
+        <v>11014</v>
       </c>
       <c r="B211" t="s">
         <v>54</v>
       </c>
       <c r="C211" s="2">
+        <v>25733</v>
+      </c>
+      <c r="E211">
+        <v>14</v>
+      </c>
+      <c r="F211" s="2">
+        <v>25757</v>
+      </c>
+      <c r="G211" s="2">
         <v>27189</v>
       </c>
-      <c r="E211">
-        <v>15</v>
-      </c>
-      <c r="F211" s="2">
-        <v>27220</v>
-      </c>
-      <c r="G211" s="2">
-        <v>27774</v>
-      </c>
       <c r="H211" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I211" t="s">
         <v>176</v>
@@ -7280,7 +7283,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>11016</v>
+        <v>11015</v>
       </c>
       <c r="B212" t="s">
         <v>54</v>
@@ -7289,27 +7292,27 @@
         <v>27189</v>
       </c>
       <c r="E212">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F212" s="2">
+        <v>27220</v>
+      </c>
+      <c r="G212" s="2">
         <v>27774</v>
       </c>
-      <c r="G212" s="2">
-        <v>27796</v>
-      </c>
       <c r="H212" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I212" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J212" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>11017</v>
+        <v>11016</v>
       </c>
       <c r="B213" t="s">
         <v>54</v>
@@ -7318,16 +7321,16 @@
         <v>27189</v>
       </c>
       <c r="E213">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F213" s="2">
+        <v>27774</v>
+      </c>
+      <c r="G213" s="2">
         <v>27796</v>
       </c>
-      <c r="G213" s="2">
-        <v>28144</v>
-      </c>
       <c r="H213" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I213" t="s">
         <v>177</v>
@@ -7338,7 +7341,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>11018</v>
+        <v>11017</v>
       </c>
       <c r="B214" t="s">
         <v>54</v>
@@ -7347,16 +7350,16 @@
         <v>27189</v>
       </c>
       <c r="E214">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F214" s="2">
+        <v>27796</v>
+      </c>
+      <c r="G214" s="2">
         <v>28144</v>
       </c>
-      <c r="G214" s="2">
-        <v>28645</v>
-      </c>
       <c r="H214" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I214" t="s">
         <v>177</v>
@@ -7367,25 +7370,25 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>11019</v>
+        <v>11018</v>
       </c>
       <c r="B215" t="s">
         <v>54</v>
       </c>
       <c r="C215" s="2">
+        <v>27189</v>
+      </c>
+      <c r="E215">
+        <v>18</v>
+      </c>
+      <c r="F215" s="2">
+        <v>28144</v>
+      </c>
+      <c r="G215" s="2">
         <v>28645</v>
       </c>
-      <c r="E215">
-        <v>19</v>
-      </c>
-      <c r="F215" s="2">
-        <v>28669</v>
-      </c>
-      <c r="G215" s="2">
-        <v>30031</v>
-      </c>
       <c r="H215" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I215" t="s">
         <v>177</v>
@@ -7396,22 +7399,22 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>11020</v>
+        <v>11019</v>
       </c>
       <c r="B216" t="s">
         <v>54</v>
       </c>
       <c r="C216" s="2">
+        <v>28645</v>
+      </c>
+      <c r="E216">
+        <v>19</v>
+      </c>
+      <c r="F216" s="2">
+        <v>28669</v>
+      </c>
+      <c r="G216" s="2">
         <v>30031</v>
-      </c>
-      <c r="E216">
-        <v>20</v>
-      </c>
-      <c r="F216" s="2">
-        <v>30124</v>
-      </c>
-      <c r="G216" s="2">
-        <v>31578</v>
       </c>
       <c r="H216" t="s">
         <v>14</v>
@@ -7425,25 +7428,25 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>11021</v>
+        <v>11020</v>
       </c>
       <c r="B217" t="s">
         <v>54</v>
       </c>
       <c r="C217" s="2">
+        <v>30031</v>
+      </c>
+      <c r="E217">
+        <v>20</v>
+      </c>
+      <c r="F217" s="2">
+        <v>30124</v>
+      </c>
+      <c r="G217" s="2">
         <v>31578</v>
       </c>
-      <c r="E217">
-        <v>21</v>
-      </c>
-      <c r="F217" s="2">
-        <v>31602</v>
-      </c>
-      <c r="G217" s="2">
-        <v>33006</v>
-      </c>
       <c r="H217" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I217" t="s">
         <v>177</v>
@@ -7454,54 +7457,54 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>11022</v>
+        <v>11021</v>
       </c>
       <c r="B218" t="s">
         <v>54</v>
       </c>
       <c r="C218" s="2">
+        <v>31578</v>
+      </c>
+      <c r="E218">
+        <v>21</v>
+      </c>
+      <c r="F218" s="2">
+        <v>31602</v>
+      </c>
+      <c r="G218" s="2">
         <v>33006</v>
       </c>
-      <c r="E218">
-        <v>22</v>
-      </c>
-      <c r="F218" s="2">
-        <v>33045</v>
-      </c>
-      <c r="G218" s="2">
-        <v>34406</v>
-      </c>
       <c r="H218" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I218" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J218" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>11023</v>
+        <v>11022</v>
       </c>
       <c r="B219" t="s">
         <v>54</v>
       </c>
       <c r="C219" s="2">
+        <v>33006</v>
+      </c>
+      <c r="E219">
+        <v>22</v>
+      </c>
+      <c r="F219" s="2">
+        <v>33045</v>
+      </c>
+      <c r="G219" s="2">
         <v>34406</v>
       </c>
-      <c r="E219">
-        <v>23</v>
-      </c>
-      <c r="F219" s="2">
-        <v>34508</v>
-      </c>
-      <c r="G219" s="2">
-        <v>35855</v>
-      </c>
       <c r="H219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I219" t="s">
         <v>178</v>
@@ -7512,22 +7515,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>11024</v>
+        <v>11023</v>
       </c>
       <c r="B220" t="s">
         <v>54</v>
       </c>
       <c r="C220" s="2">
+        <v>34406</v>
+      </c>
+      <c r="E220">
+        <v>23</v>
+      </c>
+      <c r="F220" s="2">
+        <v>34508</v>
+      </c>
+      <c r="G220" s="2">
         <v>35855</v>
-      </c>
-      <c r="E220">
-        <v>24</v>
-      </c>
-      <c r="F220" s="2">
-        <v>35884</v>
-      </c>
-      <c r="G220" s="2">
-        <v>36096</v>
       </c>
       <c r="H220" t="s">
         <v>29</v>
@@ -7541,7 +7544,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>11025</v>
+        <v>11024</v>
       </c>
       <c r="B221" t="s">
         <v>54</v>
@@ -7550,19 +7553,19 @@
         <v>35855</v>
       </c>
       <c r="E221">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F221" s="2">
+        <v>35884</v>
+      </c>
+      <c r="G221" s="2">
         <v>36096</v>
       </c>
-      <c r="G221" s="2">
-        <v>36509</v>
-      </c>
       <c r="H221" t="s">
         <v>29</v>
       </c>
       <c r="I221" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J221" t="s">
         <v>29</v>
@@ -7570,7 +7573,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>11026</v>
+        <v>11025</v>
       </c>
       <c r="B222" t="s">
         <v>54</v>
@@ -7579,19 +7582,19 @@
         <v>35855</v>
       </c>
       <c r="E222">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F222" s="2">
+        <v>36096</v>
+      </c>
+      <c r="G222" s="2">
         <v>36509</v>
       </c>
-      <c r="G222" s="2">
-        <v>37654</v>
-      </c>
       <c r="H222" t="s">
         <v>29</v>
       </c>
       <c r="I222" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J222" t="s">
         <v>29</v>
@@ -7599,51 +7602,51 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>11027</v>
+        <v>11026</v>
       </c>
       <c r="B223" t="s">
         <v>54</v>
       </c>
       <c r="C223" s="2">
+        <v>35855</v>
+      </c>
+      <c r="E223">
+        <v>26</v>
+      </c>
+      <c r="F223" s="2">
+        <v>36509</v>
+      </c>
+      <c r="G223" s="2">
         <v>37654</v>
       </c>
-      <c r="E223">
-        <v>27</v>
-      </c>
-      <c r="F223" s="2">
-        <v>37684</v>
-      </c>
-      <c r="G223" s="2">
-        <v>39504</v>
-      </c>
       <c r="H223" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I223" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J223" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B224" t="s">
         <v>54</v>
       </c>
       <c r="C224" s="2">
-        <v>39474</v>
+        <v>37654</v>
       </c>
       <c r="E224">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F224" s="2">
+        <v>37684</v>
+      </c>
+      <c r="G224" s="2">
         <v>39504</v>
-      </c>
-      <c r="G224" s="2">
-        <v>40360</v>
       </c>
       <c r="H224" t="s">
         <v>12</v>
@@ -7657,7 +7660,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B225" t="s">
         <v>54</v>
@@ -7666,19 +7669,19 @@
         <v>39474</v>
       </c>
       <c r="E225">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F225" s="2">
+        <v>39504</v>
+      </c>
+      <c r="G225" s="2">
         <v>40360</v>
-      </c>
-      <c r="G225" s="2">
-        <v>41324</v>
       </c>
       <c r="H225" t="s">
         <v>12</v>
       </c>
       <c r="I225" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J225" t="s">
         <v>14</v>
@@ -7686,54 +7689,54 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B226" t="s">
         <v>54</v>
       </c>
       <c r="C226" s="2">
-        <v>41294</v>
+        <v>39474</v>
       </c>
       <c r="E226">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F226" s="2">
+        <v>40360</v>
+      </c>
+      <c r="G226" s="2">
         <v>41324</v>
       </c>
-      <c r="G226" s="2">
-        <v>43061</v>
-      </c>
       <c r="H226" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I226" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J226" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B227" t="s">
         <v>54</v>
       </c>
       <c r="C227" s="2">
-        <v>43023</v>
+        <v>41294</v>
       </c>
       <c r="E227">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F227" s="2">
+        <v>41324</v>
+      </c>
+      <c r="G227" s="2">
         <v>43061</v>
       </c>
-      <c r="G227" s="2">
-        <v>401768</v>
-      </c>
       <c r="H227" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I227" t="s">
         <v>183</v>
@@ -7744,36 +7747,36 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>11101</v>
+        <v>11031</v>
       </c>
       <c r="B228" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C228" s="2">
-        <v>17277</v>
+        <v>43023</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F228" s="2">
-        <v>17335</v>
+        <v>43061</v>
       </c>
       <c r="G228" s="2">
-        <v>17570</v>
+        <v>401768</v>
       </c>
       <c r="H228" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="I228" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J228" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>11102</v>
+        <v>11101</v>
       </c>
       <c r="B229" t="s">
         <v>63</v>
@@ -7782,16 +7785,16 @@
         <v>17277</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F229" s="2">
+        <v>17335</v>
+      </c>
+      <c r="G229" s="2">
         <v>17570</v>
       </c>
-      <c r="G229" s="2">
-        <v>18432</v>
-      </c>
       <c r="H229" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I229" t="s">
         <v>184</v>
@@ -7802,25 +7805,25 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B230" t="s">
         <v>63</v>
       </c>
       <c r="C230" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230" s="2">
+        <v>17570</v>
+      </c>
+      <c r="G230" s="2">
         <v>18432</v>
       </c>
-      <c r="E230">
-        <v>3</v>
-      </c>
-      <c r="F230" s="2">
-        <v>18471</v>
-      </c>
-      <c r="G230" s="2">
-        <v>18521</v>
-      </c>
       <c r="H230" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="I230" t="s">
         <v>184</v>
@@ -7831,7 +7834,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>11104</v>
+        <v>11103</v>
       </c>
       <c r="B231" t="s">
         <v>63</v>
@@ -7840,16 +7843,16 @@
         <v>18432</v>
       </c>
       <c r="E231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F231" s="2">
+        <v>18471</v>
+      </c>
+      <c r="G231" s="2">
         <v>18521</v>
       </c>
-      <c r="G231" s="2">
-        <v>19902</v>
-      </c>
       <c r="H231" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I231" t="s">
         <v>184</v>
@@ -7860,25 +7863,25 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>11105</v>
+        <v>11104</v>
       </c>
       <c r="B232" t="s">
         <v>63</v>
       </c>
       <c r="C232" s="2">
+        <v>18432</v>
+      </c>
+      <c r="E232">
+        <v>4</v>
+      </c>
+      <c r="F232" s="2">
+        <v>18521</v>
+      </c>
+      <c r="G232" s="2">
         <v>19902</v>
       </c>
-      <c r="E232">
-        <v>5</v>
-      </c>
-      <c r="F232" s="2">
-        <v>19932</v>
-      </c>
-      <c r="G232" s="2">
-        <v>20505</v>
-      </c>
       <c r="H232" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I232" t="s">
         <v>184</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="B233" t="s">
         <v>63</v>
@@ -7898,74 +7901,74 @@
         <v>19902</v>
       </c>
       <c r="E233">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F233" s="2">
+        <v>19932</v>
+      </c>
+      <c r="G233" s="2">
         <v>20505</v>
       </c>
-      <c r="G233" s="2">
-        <v>21372</v>
-      </c>
       <c r="H233" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I233" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J233" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>11107</v>
+        <v>11106</v>
       </c>
       <c r="B234" t="s">
         <v>63</v>
       </c>
       <c r="C234" s="2">
+        <v>19902</v>
+      </c>
+      <c r="E234">
+        <v>6</v>
+      </c>
+      <c r="F234" s="2">
+        <v>20505</v>
+      </c>
+      <c r="G234" s="2">
         <v>21372</v>
       </c>
-      <c r="E234">
-        <v>7</v>
-      </c>
-      <c r="F234" s="2">
-        <v>21387</v>
-      </c>
-      <c r="G234" s="2">
-        <v>22835</v>
-      </c>
       <c r="H234" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I234" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J234" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>11108</v>
+        <v>11107</v>
       </c>
       <c r="B235" t="s">
         <v>63</v>
       </c>
       <c r="C235" s="2">
+        <v>21372</v>
+      </c>
+      <c r="E235">
+        <v>7</v>
+      </c>
+      <c r="F235" s="2">
+        <v>21387</v>
+      </c>
+      <c r="G235" s="2">
         <v>22835</v>
       </c>
-      <c r="E235">
-        <v>8</v>
-      </c>
-      <c r="F235" s="2">
-        <v>22850</v>
-      </c>
-      <c r="G235" s="2">
-        <v>24298</v>
-      </c>
       <c r="H235" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I235" t="s">
         <v>186</v>
@@ -7976,22 +7979,22 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>11109</v>
+        <v>11108</v>
       </c>
       <c r="B236" t="s">
         <v>63</v>
       </c>
       <c r="C236" s="2">
+        <v>22835</v>
+      </c>
+      <c r="E236">
+        <v>8</v>
+      </c>
+      <c r="F236" s="2">
+        <v>22850</v>
+      </c>
+      <c r="G236" s="2">
         <v>24298</v>
-      </c>
-      <c r="E236">
-        <v>9</v>
-      </c>
-      <c r="F236" s="2">
-        <v>24313</v>
-      </c>
-      <c r="G236" s="2">
-        <v>24442</v>
       </c>
       <c r="H236" t="s">
         <v>12</v>
@@ -8005,7 +8008,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>11110</v>
+        <v>11109</v>
       </c>
       <c r="B237" t="s">
         <v>63</v>
@@ -8014,16 +8017,16 @@
         <v>24298</v>
       </c>
       <c r="E237">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F237" s="2">
+        <v>24313</v>
+      </c>
+      <c r="G237" s="2">
         <v>24442</v>
       </c>
-      <c r="G237" s="2">
-        <v>24449</v>
-      </c>
       <c r="H237" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I237" t="s">
         <v>186</v>
@@ -8034,7 +8037,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>11111</v>
+        <v>11110</v>
       </c>
       <c r="B238" t="s">
         <v>63</v>
@@ -8043,42 +8046,42 @@
         <v>24298</v>
       </c>
       <c r="E238">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F238" s="2">
+        <v>24442</v>
+      </c>
+      <c r="G238" s="2">
         <v>24449</v>
       </c>
-      <c r="G238" s="2">
-        <v>25733</v>
-      </c>
       <c r="H238" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J238" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>11112</v>
+        <v>11111</v>
       </c>
       <c r="B239" t="s">
         <v>63</v>
       </c>
       <c r="C239" s="2">
+        <v>24298</v>
+      </c>
+      <c r="E239">
+        <v>11</v>
+      </c>
+      <c r="F239" s="2">
+        <v>24449</v>
+      </c>
+      <c r="G239" s="2">
         <v>25733</v>
-      </c>
-      <c r="E239">
-        <v>12</v>
-      </c>
-      <c r="F239" s="2">
-        <v>25777</v>
-      </c>
-      <c r="G239" s="2">
-        <v>27518</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8092,22 +8095,22 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>11113</v>
+        <v>11112</v>
       </c>
       <c r="B240" t="s">
         <v>63</v>
       </c>
       <c r="C240" s="2">
+        <v>25733</v>
+      </c>
+      <c r="E240">
+        <v>12</v>
+      </c>
+      <c r="F240" s="2">
+        <v>25777</v>
+      </c>
+      <c r="G240" s="2">
         <v>27518</v>
-      </c>
-      <c r="E240">
-        <v>13</v>
-      </c>
-      <c r="F240" s="2">
-        <v>27549</v>
-      </c>
-      <c r="G240" s="2">
-        <v>28753</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8121,7 +8124,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>11114</v>
+        <v>11113</v>
       </c>
       <c r="B241" t="s">
         <v>63</v>
@@ -8130,19 +8133,19 @@
         <v>27518</v>
       </c>
       <c r="E241">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F241" s="2">
+        <v>27549</v>
+      </c>
+      <c r="G241" s="2">
         <v>28753</v>
-      </c>
-      <c r="G241" s="2">
-        <v>29352</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
       </c>
       <c r="I241" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J241" t="s">
         <v>29</v>
@@ -8150,25 +8153,25 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>11115</v>
+        <v>11114</v>
       </c>
       <c r="B242" t="s">
         <v>63</v>
       </c>
       <c r="C242" s="2">
+        <v>27518</v>
+      </c>
+      <c r="E242">
+        <v>14</v>
+      </c>
+      <c r="F242" s="2">
+        <v>28753</v>
+      </c>
+      <c r="G242" s="2">
         <v>29352</v>
       </c>
-      <c r="E242">
-        <v>15</v>
-      </c>
-      <c r="F242" s="2">
-        <v>29376</v>
-      </c>
-      <c r="G242" s="2">
-        <v>31179</v>
-      </c>
       <c r="H242" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I242" t="s">
         <v>188</v>
@@ -8179,22 +8182,22 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>11116</v>
+        <v>11115</v>
       </c>
       <c r="B243" t="s">
         <v>63</v>
       </c>
       <c r="C243" s="2">
+        <v>29352</v>
+      </c>
+      <c r="E243">
+        <v>15</v>
+      </c>
+      <c r="F243" s="2">
+        <v>29376</v>
+      </c>
+      <c r="G243" s="2">
         <v>31179</v>
-      </c>
-      <c r="E243">
-        <v>16</v>
-      </c>
-      <c r="F243" s="2">
-        <v>31203</v>
-      </c>
-      <c r="G243" s="2">
-        <v>33006</v>
       </c>
       <c r="H243" t="s">
         <v>29</v>
@@ -8208,22 +8211,22 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>11117</v>
+        <v>11116</v>
       </c>
       <c r="B244" t="s">
         <v>63</v>
       </c>
       <c r="C244" s="2">
+        <v>31179</v>
+      </c>
+      <c r="E244">
+        <v>16</v>
+      </c>
+      <c r="F244" s="2">
+        <v>31203</v>
+      </c>
+      <c r="G244" s="2">
         <v>33006</v>
-      </c>
-      <c r="E244">
-        <v>17</v>
-      </c>
-      <c r="F244" s="2">
-        <v>33030</v>
-      </c>
-      <c r="G244" s="2">
-        <v>34833</v>
       </c>
       <c r="H244" t="s">
         <v>29</v>
@@ -8237,25 +8240,25 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>11118</v>
+        <v>11117</v>
       </c>
       <c r="B245" t="s">
         <v>63</v>
       </c>
       <c r="C245" s="2">
+        <v>33006</v>
+      </c>
+      <c r="E245">
+        <v>17</v>
+      </c>
+      <c r="F245" s="2">
+        <v>33030</v>
+      </c>
+      <c r="G245" s="2">
         <v>34833</v>
       </c>
-      <c r="E245">
-        <v>18</v>
-      </c>
-      <c r="F245" s="2">
-        <v>34886</v>
-      </c>
-      <c r="G245" s="2">
-        <v>35942</v>
-      </c>
       <c r="H245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I245" t="s">
         <v>188</v>
@@ -8266,7 +8269,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>11119</v>
+        <v>11118</v>
       </c>
       <c r="B246" t="s">
         <v>63</v>
@@ -8275,19 +8278,19 @@
         <v>34833</v>
       </c>
       <c r="E246">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F246" s="2">
+        <v>34886</v>
+      </c>
+      <c r="G246" s="2">
         <v>35942</v>
-      </c>
-      <c r="G246" s="2">
-        <v>36660</v>
       </c>
       <c r="H246" t="s">
         <v>30</v>
       </c>
       <c r="I246" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J246" t="s">
         <v>29</v>
@@ -8295,22 +8298,22 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>11120</v>
+        <v>11119</v>
       </c>
       <c r="B247" t="s">
         <v>63</v>
       </c>
       <c r="C247" s="2">
+        <v>34833</v>
+      </c>
+      <c r="E247">
+        <v>19</v>
+      </c>
+      <c r="F247" s="2">
+        <v>35942</v>
+      </c>
+      <c r="G247" s="2">
         <v>36660</v>
-      </c>
-      <c r="E247">
-        <v>20</v>
-      </c>
-      <c r="F247" s="2">
-        <v>36698</v>
-      </c>
-      <c r="G247" s="2">
-        <v>37566</v>
       </c>
       <c r="H247" t="s">
         <v>30</v>
@@ -8324,7 +8327,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>11121</v>
+        <v>11120</v>
       </c>
       <c r="B248" t="s">
         <v>63</v>
@@ -8333,19 +8336,19 @@
         <v>36660</v>
       </c>
       <c r="E248">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F248" s="2">
+        <v>36698</v>
+      </c>
+      <c r="G248" s="2">
         <v>37566</v>
-      </c>
-      <c r="G248" s="2">
-        <v>38494</v>
       </c>
       <c r="H248" t="s">
         <v>30</v>
       </c>
       <c r="I248" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J248" t="s">
         <v>29</v>
@@ -8353,80 +8356,80 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>11122</v>
+        <v>11121</v>
       </c>
       <c r="B249" t="s">
         <v>63</v>
       </c>
       <c r="C249" s="2">
+        <v>36660</v>
+      </c>
+      <c r="E249">
+        <v>21</v>
+      </c>
+      <c r="F249" s="2">
+        <v>37566</v>
+      </c>
+      <c r="G249" s="2">
         <v>38494</v>
       </c>
-      <c r="E249">
-        <v>22</v>
-      </c>
-      <c r="F249" s="2">
-        <v>38525</v>
-      </c>
-      <c r="G249" s="2">
-        <v>40374</v>
-      </c>
       <c r="H249" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I249" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J249" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B250" t="s">
         <v>63</v>
       </c>
       <c r="C250" s="2">
-        <v>40307</v>
+        <v>38494</v>
       </c>
       <c r="E250">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F250" s="2">
+        <v>38525</v>
+      </c>
+      <c r="G250" s="2">
         <v>40374</v>
       </c>
-      <c r="G250" s="2">
-        <v>41081</v>
-      </c>
       <c r="H250" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I250" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J250" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B251" t="s">
         <v>63</v>
       </c>
       <c r="C251" s="2">
-        <v>41042</v>
+        <v>40307</v>
       </c>
       <c r="E251">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F251" s="2">
+        <v>40374</v>
+      </c>
+      <c r="G251" s="2">
         <v>41081</v>
-      </c>
-      <c r="G251" s="2">
-        <v>42913</v>
       </c>
       <c r="H251" t="s">
         <v>30</v>
@@ -8440,36 +8443,36 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B252" t="s">
         <v>63</v>
       </c>
       <c r="C252" s="2">
-        <v>42869</v>
+        <v>41042</v>
       </c>
       <c r="E252">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F252" s="2">
+        <v>41081</v>
+      </c>
+      <c r="G252" s="2">
         <v>42913</v>
       </c>
-      <c r="G252" s="2">
-        <v>44497</v>
-      </c>
       <c r="H252" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I252" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J252" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B253" t="s">
         <v>63</v>
@@ -8478,19 +8481,19 @@
         <v>42869</v>
       </c>
       <c r="E253">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F253" s="2">
+        <v>42913</v>
+      </c>
+      <c r="G253" s="2">
         <v>44497</v>
-      </c>
-      <c r="G253" s="2">
-        <v>401768</v>
       </c>
       <c r="H253" t="s">
         <v>12</v>
       </c>
       <c r="I253" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J253" t="s">
         <v>14</v>
@@ -8498,28 +8501,28 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>11201</v>
+        <v>11126</v>
       </c>
       <c r="B254" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C254" s="2">
-        <v>17305</v>
+        <v>42869</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F254" s="2">
-        <v>17357</v>
+        <v>44497</v>
       </c>
       <c r="G254" s="2">
-        <v>17632</v>
+        <v>401768</v>
       </c>
       <c r="H254" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I254" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J254" t="s">
         <v>14</v>
@@ -8527,7 +8530,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>11202</v>
+        <v>11201</v>
       </c>
       <c r="B255" t="s">
         <v>69</v>
@@ -8536,16 +8539,16 @@
         <v>17305</v>
       </c>
       <c r="E255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F255" s="2">
+        <v>17357</v>
+      </c>
+      <c r="G255" s="2">
         <v>17632</v>
       </c>
-      <c r="G255" s="2">
-        <v>18191</v>
-      </c>
       <c r="H255" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="I255" t="s">
         <v>195</v>
@@ -8556,7 +8559,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>11203</v>
+        <v>11202</v>
       </c>
       <c r="B256" t="s">
         <v>69</v>
@@ -8565,16 +8568,16 @@
         <v>17305</v>
       </c>
       <c r="E256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F256" s="2">
+        <v>17632</v>
+      </c>
+      <c r="G256" s="2">
         <v>18191</v>
       </c>
-      <c r="G256" s="2">
-        <v>18246</v>
-      </c>
       <c r="H256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I256" t="s">
         <v>195</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>11204</v>
+        <v>11203</v>
       </c>
       <c r="B257" t="s">
         <v>69</v>
@@ -8594,16 +8597,16 @@
         <v>17305</v>
       </c>
       <c r="E257">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F257" s="2">
+        <v>18191</v>
+      </c>
+      <c r="G257" s="2">
         <v>18246</v>
       </c>
-      <c r="G257" s="2">
-        <v>18747</v>
-      </c>
       <c r="H257" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I257" t="s">
         <v>195</v>
@@ -8614,25 +8617,25 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>11205</v>
+        <v>11204</v>
       </c>
       <c r="B258" t="s">
         <v>69</v>
       </c>
       <c r="C258" s="2">
+        <v>17305</v>
+      </c>
+      <c r="E258">
+        <v>4</v>
+      </c>
+      <c r="F258" s="2">
+        <v>18246</v>
+      </c>
+      <c r="G258" s="2">
         <v>18747</v>
       </c>
-      <c r="E258">
-        <v>5</v>
-      </c>
-      <c r="F258" s="2">
-        <v>18792</v>
-      </c>
-      <c r="G258" s="2">
-        <v>20224</v>
-      </c>
       <c r="H258" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I258" t="s">
         <v>195</v>
@@ -8643,22 +8646,22 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>11206</v>
+        <v>11205</v>
       </c>
       <c r="B259" t="s">
         <v>69</v>
       </c>
       <c r="C259" s="2">
+        <v>18747</v>
+      </c>
+      <c r="E259">
+        <v>5</v>
+      </c>
+      <c r="F259" s="2">
+        <v>18792</v>
+      </c>
+      <c r="G259" s="2">
         <v>20224</v>
-      </c>
-      <c r="E259">
-        <v>6</v>
-      </c>
-      <c r="F259" s="2">
-        <v>20241</v>
-      </c>
-      <c r="G259" s="2">
-        <v>21659</v>
       </c>
       <c r="H259" t="s">
         <v>12</v>
@@ -8672,22 +8675,22 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>11207</v>
+        <v>11206</v>
       </c>
       <c r="B260" t="s">
         <v>69</v>
       </c>
       <c r="C260" s="2">
+        <v>20224</v>
+      </c>
+      <c r="E260">
+        <v>6</v>
+      </c>
+      <c r="F260" s="2">
+        <v>20241</v>
+      </c>
+      <c r="G260" s="2">
         <v>21659</v>
-      </c>
-      <c r="E260">
-        <v>7</v>
-      </c>
-      <c r="F260" s="2">
-        <v>21689</v>
-      </c>
-      <c r="G260" s="2">
-        <v>23101</v>
       </c>
       <c r="H260" t="s">
         <v>12</v>
@@ -8701,22 +8704,22 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>11208</v>
+        <v>11207</v>
       </c>
       <c r="B261" t="s">
         <v>69</v>
       </c>
       <c r="C261" s="2">
+        <v>21659</v>
+      </c>
+      <c r="E261">
+        <v>7</v>
+      </c>
+      <c r="F261" s="2">
+        <v>21689</v>
+      </c>
+      <c r="G261" s="2">
         <v>23101</v>
-      </c>
-      <c r="E261">
-        <v>8</v>
-      </c>
-      <c r="F261" s="2">
-        <v>23149</v>
-      </c>
-      <c r="G261" s="2">
-        <v>24585</v>
       </c>
       <c r="H261" t="s">
         <v>12</v>
@@ -8730,22 +8733,22 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>11209</v>
+        <v>11208</v>
       </c>
       <c r="B262" t="s">
         <v>69</v>
       </c>
       <c r="C262" s="2">
+        <v>23101</v>
+      </c>
+      <c r="E262">
+        <v>8</v>
+      </c>
+      <c r="F262" s="2">
+        <v>23149</v>
+      </c>
+      <c r="G262" s="2">
         <v>24585</v>
-      </c>
-      <c r="E262">
-        <v>9</v>
-      </c>
-      <c r="F262" s="2">
-        <v>24610</v>
-      </c>
-      <c r="G262" s="2">
-        <v>25342</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
@@ -8759,7 +8762,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>11210</v>
+        <v>11209</v>
       </c>
       <c r="B263" t="s">
         <v>69</v>
@@ -8768,19 +8771,19 @@
         <v>24585</v>
       </c>
       <c r="E263">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F263" s="2">
+        <v>24610</v>
+      </c>
+      <c r="G263" s="2">
         <v>25342</v>
-      </c>
-      <c r="G263" s="2">
-        <v>26013</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
       </c>
       <c r="I263" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J263" t="s">
         <v>14</v>
@@ -8788,25 +8791,25 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>11211</v>
+        <v>11210</v>
       </c>
       <c r="B264" t="s">
         <v>69</v>
       </c>
       <c r="C264" s="2">
+        <v>24585</v>
+      </c>
+      <c r="E264">
+        <v>10</v>
+      </c>
+      <c r="F264" s="2">
+        <v>25342</v>
+      </c>
+      <c r="G264" s="2">
         <v>26013</v>
       </c>
-      <c r="E264">
-        <v>11</v>
-      </c>
-      <c r="F264" s="2">
-        <v>26071</v>
-      </c>
-      <c r="G264" s="2">
-        <v>27462</v>
-      </c>
       <c r="H264" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I264" t="s">
         <v>196</v>
@@ -8817,22 +8820,22 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>11212</v>
+        <v>11211</v>
       </c>
       <c r="B265" t="s">
         <v>69</v>
       </c>
       <c r="C265" s="2">
+        <v>26013</v>
+      </c>
+      <c r="E265">
+        <v>11</v>
+      </c>
+      <c r="F265" s="2">
+        <v>26071</v>
+      </c>
+      <c r="G265" s="2">
         <v>27462</v>
-      </c>
-      <c r="E265">
-        <v>12</v>
-      </c>
-      <c r="F265" s="2">
-        <v>27534</v>
-      </c>
-      <c r="G265" s="2">
-        <v>28096</v>
       </c>
       <c r="H265" t="s">
         <v>14</v>
@@ -8846,7 +8849,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>11213</v>
+        <v>11212</v>
       </c>
       <c r="B266" t="s">
         <v>69</v>
@@ -8855,19 +8858,19 @@
         <v>27462</v>
       </c>
       <c r="E266">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F266" s="2">
+        <v>27534</v>
+      </c>
+      <c r="G266" s="2">
         <v>28096</v>
       </c>
-      <c r="G266" s="2">
-        <v>28932</v>
-      </c>
       <c r="H266" t="s">
         <v>14</v>
       </c>
       <c r="I266" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J266" t="s">
         <v>14</v>
@@ -8875,22 +8878,22 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>11214</v>
+        <v>11213</v>
       </c>
       <c r="B267" t="s">
         <v>69</v>
       </c>
       <c r="C267" s="2">
+        <v>27462</v>
+      </c>
+      <c r="E267">
+        <v>13</v>
+      </c>
+      <c r="F267" s="2">
+        <v>28096</v>
+      </c>
+      <c r="G267" s="2">
         <v>28932</v>
-      </c>
-      <c r="E267">
-        <v>14</v>
-      </c>
-      <c r="F267" s="2">
-        <v>28993</v>
-      </c>
-      <c r="G267" s="2">
-        <v>30381</v>
       </c>
       <c r="H267" t="s">
         <v>14</v>
@@ -8904,22 +8907,22 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>11215</v>
+        <v>11214</v>
       </c>
       <c r="B268" t="s">
         <v>69</v>
       </c>
       <c r="C268" s="2">
+        <v>28932</v>
+      </c>
+      <c r="E268">
+        <v>14</v>
+      </c>
+      <c r="F268" s="2">
+        <v>28993</v>
+      </c>
+      <c r="G268" s="2">
         <v>30381</v>
-      </c>
-      <c r="E268">
-        <v>15</v>
-      </c>
-      <c r="F268" s="2">
-        <v>30454</v>
-      </c>
-      <c r="G268" s="2">
-        <v>31914</v>
       </c>
       <c r="H268" t="s">
         <v>14</v>
@@ -8933,25 +8936,25 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>11216</v>
+        <v>11215</v>
       </c>
       <c r="B269" t="s">
         <v>69</v>
       </c>
       <c r="C269" s="2">
+        <v>30381</v>
+      </c>
+      <c r="E269">
+        <v>15</v>
+      </c>
+      <c r="F269" s="2">
+        <v>30454</v>
+      </c>
+      <c r="G269" s="2">
         <v>31914</v>
       </c>
-      <c r="E269">
-        <v>16</v>
-      </c>
-      <c r="F269" s="2">
-        <v>31951</v>
-      </c>
-      <c r="G269" s="2">
-        <v>32485</v>
-      </c>
       <c r="H269" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I269" t="s">
         <v>197</v>
@@ -8962,7 +8965,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="B270" t="s">
         <v>69</v>
@@ -8971,19 +8974,19 @@
         <v>31914</v>
       </c>
       <c r="E270">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F270" s="2">
+        <v>31951</v>
+      </c>
+      <c r="G270" s="2">
         <v>32485</v>
-      </c>
-      <c r="G270" s="2">
-        <v>33349</v>
       </c>
       <c r="H270" t="s">
         <v>12</v>
       </c>
       <c r="I270" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J270" t="s">
         <v>14</v>
@@ -8991,36 +8994,36 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>11218</v>
+        <v>11217</v>
       </c>
       <c r="B271" t="s">
         <v>69</v>
       </c>
       <c r="C271" s="2">
+        <v>31914</v>
+      </c>
+      <c r="E271">
+        <v>17</v>
+      </c>
+      <c r="F271" s="2">
+        <v>32485</v>
+      </c>
+      <c r="G271" s="2">
         <v>33349</v>
       </c>
-      <c r="E271">
-        <v>18</v>
-      </c>
-      <c r="F271" s="2">
-        <v>33379</v>
-      </c>
-      <c r="G271" s="2">
-        <v>34633</v>
-      </c>
       <c r="H271" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I271" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J271" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>11219</v>
+        <v>11218</v>
       </c>
       <c r="B272" t="s">
         <v>69</v>
@@ -9029,19 +9032,19 @@
         <v>33349</v>
       </c>
       <c r="E272">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F272" s="2">
+        <v>33379</v>
+      </c>
+      <c r="G272" s="2">
         <v>34633</v>
-      </c>
-      <c r="G272" s="2">
-        <v>35148</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
       </c>
       <c r="I272" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J272" t="s">
         <v>29</v>
@@ -9049,22 +9052,22 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>11220</v>
+        <v>11219</v>
       </c>
       <c r="B273" t="s">
         <v>69</v>
       </c>
       <c r="C273" s="2">
+        <v>33349</v>
+      </c>
+      <c r="E273">
+        <v>19</v>
+      </c>
+      <c r="F273" s="2">
+        <v>34633</v>
+      </c>
+      <c r="G273" s="2">
         <v>35148</v>
-      </c>
-      <c r="E273">
-        <v>20</v>
-      </c>
-      <c r="F273" s="2">
-        <v>35205</v>
-      </c>
-      <c r="G273" s="2">
-        <v>36975</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9078,25 +9081,25 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>11221</v>
+        <v>11220</v>
       </c>
       <c r="B274" t="s">
         <v>69</v>
       </c>
       <c r="C274" s="2">
+        <v>35148</v>
+      </c>
+      <c r="E274">
+        <v>20</v>
+      </c>
+      <c r="F274" s="2">
+        <v>35205</v>
+      </c>
+      <c r="G274" s="2">
         <v>36975</v>
       </c>
-      <c r="E274">
-        <v>21</v>
-      </c>
-      <c r="F274" s="2">
-        <v>37029</v>
-      </c>
-      <c r="G274" s="2">
-        <v>38855</v>
-      </c>
       <c r="H274" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I274" t="s">
         <v>200</v>
@@ -9107,25 +9110,25 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>11222</v>
+        <v>11221</v>
       </c>
       <c r="B275" t="s">
         <v>69</v>
       </c>
       <c r="C275" s="2">
-        <v>38802</v>
+        <v>36975</v>
       </c>
       <c r="E275">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F275" s="2">
+        <v>37029</v>
+      </c>
+      <c r="G275" s="2">
         <v>38855</v>
       </c>
-      <c r="G275" s="2">
-        <v>40681</v>
-      </c>
       <c r="H275" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I275" t="s">
         <v>200</v>
@@ -9136,25 +9139,25 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B276" t="s">
         <v>69</v>
       </c>
       <c r="C276" s="2">
-        <v>40629</v>
+        <v>38802</v>
       </c>
       <c r="E276">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F276" s="2">
+        <v>38855</v>
+      </c>
+      <c r="G276" s="2">
         <v>40681</v>
       </c>
-      <c r="G276" s="2">
-        <v>41290</v>
-      </c>
       <c r="H276" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I276" t="s">
         <v>200</v>
@@ -9165,7 +9168,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B277" t="s">
         <v>69</v>
@@ -9174,19 +9177,19 @@
         <v>40629</v>
       </c>
       <c r="E277">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F277" s="2">
+        <v>40681</v>
+      </c>
+      <c r="G277" s="2">
         <v>41290</v>
-      </c>
-      <c r="G277" s="2">
-        <v>42508</v>
       </c>
       <c r="H277" t="s">
         <v>30</v>
       </c>
       <c r="I277" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J277" t="s">
         <v>29</v>
@@ -9194,25 +9197,25 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B278" t="s">
         <v>69</v>
       </c>
       <c r="C278" s="2">
-        <v>42442</v>
+        <v>40629</v>
       </c>
       <c r="E278">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F278" s="2">
+        <v>41290</v>
+      </c>
+      <c r="G278" s="2">
         <v>42508</v>
       </c>
-      <c r="G278" s="2">
-        <v>44334</v>
-      </c>
       <c r="H278" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I278" t="s">
         <v>201</v>
@@ -9223,25 +9226,25 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B279" t="s">
         <v>69</v>
       </c>
       <c r="C279" s="2">
-        <v>44269</v>
+        <v>42442</v>
       </c>
       <c r="E279">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F279" s="2">
+        <v>42508</v>
+      </c>
+      <c r="G279" s="2">
         <v>44334</v>
       </c>
-      <c r="G279" s="2">
-        <v>401768</v>
-      </c>
       <c r="H279" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I279" t="s">
         <v>201</v>
@@ -9252,36 +9255,36 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B280" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C280" s="2">
-        <v>17445</v>
+        <v>44269</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F280" s="2">
-        <v>17521</v>
+        <v>44334</v>
       </c>
       <c r="G280" s="2">
-        <v>18732</v>
+        <v>401768</v>
       </c>
       <c r="H280" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I280" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J280" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>11315</v>
+        <v>11314</v>
       </c>
       <c r="B281" t="s">
         <v>71</v>
@@ -9290,16 +9293,16 @@
         <v>17445</v>
       </c>
       <c r="E281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F281" s="2">
+        <v>17521</v>
+      </c>
+      <c r="G281" s="2">
         <v>18732</v>
       </c>
-      <c r="G281" s="2">
-        <v>19351</v>
-      </c>
       <c r="H281" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I281" t="s">
         <v>202</v>
@@ -9310,25 +9313,25 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B282" t="s">
         <v>71</v>
       </c>
       <c r="C282" s="2">
-        <v>19328</v>
+        <v>17445</v>
       </c>
       <c r="E282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F282" s="2">
+        <v>18732</v>
+      </c>
+      <c r="G282" s="2">
         <v>19351</v>
       </c>
-      <c r="G282" s="2">
-        <v>19922</v>
-      </c>
       <c r="H282" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I282" t="s">
         <v>202</v>
@@ -9339,7 +9342,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B283" t="s">
         <v>71</v>
@@ -9348,16 +9351,16 @@
         <v>19328</v>
       </c>
       <c r="E283">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F283" s="2">
+        <v>19351</v>
+      </c>
+      <c r="G283" s="2">
         <v>19922</v>
       </c>
-      <c r="G283" s="2">
-        <v>20391</v>
-      </c>
       <c r="H283" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I283" t="s">
         <v>202</v>
@@ -9368,7 +9371,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>11318</v>
+        <v>11317</v>
       </c>
       <c r="B284" t="s">
         <v>71</v>
@@ -9376,60 +9379,60 @@
       <c r="C284" s="2">
         <v>19328</v>
       </c>
-      <c r="D284" t="s">
-        <v>74</v>
-      </c>
       <c r="E284">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F284" s="2">
+        <v>19922</v>
+      </c>
+      <c r="G284" s="2">
         <v>20391</v>
       </c>
-      <c r="G284" s="2">
-        <v>20464</v>
-      </c>
       <c r="H284" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I284" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J284" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B285" t="s">
         <v>71</v>
       </c>
       <c r="C285" s="2">
-        <v>20441</v>
+        <v>19328</v>
+      </c>
+      <c r="D285" t="s">
+        <v>74</v>
       </c>
       <c r="E285">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F285" s="2">
+        <v>20391</v>
+      </c>
+      <c r="G285" s="2">
         <v>20464</v>
       </c>
-      <c r="G285" s="2">
-        <v>20806</v>
-      </c>
       <c r="H285" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I285" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J285" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B286" t="s">
         <v>71</v>
@@ -9438,19 +9441,19 @@
         <v>20441</v>
       </c>
       <c r="E286">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F286" s="2">
+        <v>20464</v>
+      </c>
+      <c r="G286" s="2">
         <v>20806</v>
       </c>
-      <c r="G286" s="2">
-        <v>20975</v>
-      </c>
       <c r="H286" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I286" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J286" t="s">
         <v>14</v>
@@ -9458,7 +9461,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B287" t="s">
         <v>71</v>
@@ -9467,16 +9470,16 @@
         <v>20441</v>
       </c>
       <c r="E287">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F287" s="2">
+        <v>20806</v>
+      </c>
+      <c r="G287" s="2">
         <v>20975</v>
       </c>
-      <c r="G287" s="2">
-        <v>21607</v>
-      </c>
       <c r="H287" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="I287" t="s">
         <v>205</v>
@@ -9487,7 +9490,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B288" t="s">
         <v>71</v>
@@ -9496,16 +9499,16 @@
         <v>20441</v>
       </c>
       <c r="E288">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F288" s="2">
+        <v>20975</v>
+      </c>
+      <c r="G288" s="2">
         <v>21607</v>
       </c>
-      <c r="G288" s="2">
-        <v>21670</v>
-      </c>
       <c r="H288" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I288" t="s">
         <v>205</v>
@@ -9516,7 +9519,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B289" t="s">
         <v>71</v>
@@ -9525,19 +9528,19 @@
         <v>20441</v>
       </c>
       <c r="E289">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F289" s="2">
+        <v>21607</v>
+      </c>
+      <c r="G289" s="2">
         <v>21670</v>
       </c>
-      <c r="G289" s="2">
-        <v>22298</v>
-      </c>
       <c r="H289" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="I289" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J289" t="s">
         <v>14</v>
@@ -9545,25 +9548,25 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>11301</v>
+        <v>11323</v>
       </c>
       <c r="B290" t="s">
         <v>71</v>
       </c>
       <c r="C290" s="2">
-        <v>22254</v>
+        <v>20441</v>
       </c>
       <c r="E290">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F290" s="2">
+        <v>21670</v>
+      </c>
+      <c r="G290" s="2">
         <v>22298</v>
       </c>
-      <c r="G290" s="2">
-        <v>23920</v>
-      </c>
       <c r="H290" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I290" t="s">
         <v>206</v>
@@ -9574,22 +9577,22 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>11302</v>
+        <v>11301</v>
       </c>
       <c r="B291" t="s">
         <v>71</v>
       </c>
       <c r="C291" s="2">
+        <v>22254</v>
+      </c>
+      <c r="E291">
+        <v>11</v>
+      </c>
+      <c r="F291" s="2">
+        <v>22298</v>
+      </c>
+      <c r="G291" s="2">
         <v>23920</v>
-      </c>
-      <c r="E291">
-        <v>12</v>
-      </c>
-      <c r="F291" s="2">
-        <v>23933</v>
-      </c>
-      <c r="G291" s="2">
-        <v>25733</v>
       </c>
       <c r="H291" t="s">
         <v>12</v>
@@ -9603,25 +9606,25 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>11303</v>
+        <v>11302</v>
       </c>
       <c r="B292" t="s">
         <v>71</v>
       </c>
       <c r="C292" s="2">
+        <v>23920</v>
+      </c>
+      <c r="E292">
+        <v>12</v>
+      </c>
+      <c r="F292" s="2">
+        <v>23933</v>
+      </c>
+      <c r="G292" s="2">
         <v>25733</v>
       </c>
-      <c r="E292">
-        <v>13</v>
-      </c>
-      <c r="F292" s="2">
-        <v>25762</v>
-      </c>
-      <c r="G292" s="2">
-        <v>27518</v>
-      </c>
       <c r="H292" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I292" t="s">
         <v>206</v>
@@ -9632,22 +9635,22 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>11304</v>
+        <v>11303</v>
       </c>
       <c r="B293" t="s">
         <v>71</v>
       </c>
       <c r="C293" s="2">
+        <v>25733</v>
+      </c>
+      <c r="E293">
+        <v>13</v>
+      </c>
+      <c r="F293" s="2">
+        <v>25762</v>
+      </c>
+      <c r="G293" s="2">
         <v>27518</v>
-      </c>
-      <c r="E293">
-        <v>14</v>
-      </c>
-      <c r="F293" s="2">
-        <v>27518</v>
-      </c>
-      <c r="G293" s="2">
-        <v>28185</v>
       </c>
       <c r="H293" t="s">
         <v>14</v>
@@ -9661,7 +9664,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>11305</v>
+        <v>11304</v>
       </c>
       <c r="B294" t="s">
         <v>71</v>
@@ -9670,16 +9673,16 @@
         <v>27518</v>
       </c>
       <c r="E294">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F294" s="2">
+        <v>27518</v>
+      </c>
+      <c r="G294" s="2">
         <v>28185</v>
       </c>
-      <c r="G294" s="2">
-        <v>29041</v>
-      </c>
       <c r="H294" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I294" t="s">
         <v>206</v>
@@ -9690,7 +9693,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>11306</v>
+        <v>11305</v>
       </c>
       <c r="B295" t="s">
         <v>71</v>
@@ -9699,19 +9702,19 @@
         <v>27518</v>
       </c>
       <c r="E295">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F295" s="2">
+        <v>28185</v>
+      </c>
+      <c r="G295" s="2">
         <v>29041</v>
-      </c>
-      <c r="G295" s="2">
-        <v>29338</v>
       </c>
       <c r="H295" t="s">
         <v>12</v>
       </c>
       <c r="I295" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J295" t="s">
         <v>14</v>
@@ -9719,22 +9722,22 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>11307</v>
+        <v>11306</v>
       </c>
       <c r="B296" t="s">
         <v>71</v>
       </c>
       <c r="C296" s="2">
+        <v>27518</v>
+      </c>
+      <c r="E296">
+        <v>16</v>
+      </c>
+      <c r="F296" s="2">
+        <v>29041</v>
+      </c>
+      <c r="G296" s="2">
         <v>29338</v>
-      </c>
-      <c r="E296">
-        <v>17</v>
-      </c>
-      <c r="F296" s="2">
-        <v>29364</v>
-      </c>
-      <c r="G296" s="2">
-        <v>31116</v>
       </c>
       <c r="H296" t="s">
         <v>12</v>
@@ -9748,51 +9751,51 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>11308</v>
+        <v>11307</v>
       </c>
       <c r="B297" t="s">
         <v>71</v>
       </c>
       <c r="C297" s="2">
+        <v>29338</v>
+      </c>
+      <c r="E297">
+        <v>17</v>
+      </c>
+      <c r="F297" s="2">
+        <v>29364</v>
+      </c>
+      <c r="G297" s="2">
         <v>31116</v>
       </c>
-      <c r="E297">
-        <v>18</v>
-      </c>
-      <c r="F297" s="2">
-        <v>31146</v>
-      </c>
-      <c r="G297" s="2">
-        <v>32901</v>
-      </c>
       <c r="H297" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I297" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J297" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>11309</v>
+        <v>11308</v>
       </c>
       <c r="B298" t="s">
         <v>71</v>
       </c>
       <c r="C298" s="2">
+        <v>31116</v>
+      </c>
+      <c r="E298">
+        <v>18</v>
+      </c>
+      <c r="F298" s="2">
+        <v>31146</v>
+      </c>
+      <c r="G298" s="2">
         <v>32901</v>
-      </c>
-      <c r="E298">
-        <v>19</v>
-      </c>
-      <c r="F298" s="2">
-        <v>32925</v>
-      </c>
-      <c r="G298" s="2">
-        <v>34623</v>
       </c>
       <c r="H298" t="s">
         <v>29</v>
@@ -9806,22 +9809,22 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>11310</v>
+        <v>11309</v>
       </c>
       <c r="B299" t="s">
         <v>71</v>
       </c>
       <c r="C299" s="2">
+        <v>32901</v>
+      </c>
+      <c r="E299">
+        <v>19</v>
+      </c>
+      <c r="F299" s="2">
+        <v>32925</v>
+      </c>
+      <c r="G299" s="2">
         <v>34623</v>
-      </c>
-      <c r="E299">
-        <v>20</v>
-      </c>
-      <c r="F299" s="2">
-        <v>34647</v>
-      </c>
-      <c r="G299" s="2">
-        <v>36109</v>
       </c>
       <c r="H299" t="s">
         <v>29</v>
@@ -9835,7 +9838,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>11311</v>
+        <v>11310</v>
       </c>
       <c r="B300" t="s">
         <v>71</v>
@@ -9844,19 +9847,19 @@
         <v>34623</v>
       </c>
       <c r="E300">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F300" s="2">
+        <v>34647</v>
+      </c>
+      <c r="G300" s="2">
         <v>36109</v>
       </c>
-      <c r="G300" s="2">
-        <v>36408</v>
-      </c>
       <c r="H300" t="s">
         <v>29</v>
       </c>
       <c r="I300" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J300" t="s">
         <v>29</v>
@@ -9864,51 +9867,51 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>11312</v>
+        <v>11311</v>
       </c>
       <c r="B301" t="s">
         <v>71</v>
       </c>
       <c r="C301" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E301">
+        <v>21</v>
+      </c>
+      <c r="F301" s="2">
+        <v>36109</v>
+      </c>
+      <c r="G301" s="2">
         <v>36408</v>
       </c>
-      <c r="E301">
-        <v>22</v>
-      </c>
-      <c r="F301" s="2">
-        <v>36432</v>
-      </c>
-      <c r="G301" s="2">
-        <v>38235</v>
-      </c>
       <c r="H301" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I301" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J301" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>11313</v>
+        <v>11312</v>
       </c>
       <c r="B302" t="s">
         <v>71</v>
       </c>
       <c r="C302" s="2">
+        <v>36408</v>
+      </c>
+      <c r="E302">
+        <v>22</v>
+      </c>
+      <c r="F302" s="2">
+        <v>36432</v>
+      </c>
+      <c r="G302" s="2">
         <v>38235</v>
-      </c>
-      <c r="E302">
-        <v>23</v>
-      </c>
-      <c r="F302" s="2">
-        <v>38266</v>
-      </c>
-      <c r="G302" s="2">
-        <v>40127</v>
       </c>
       <c r="H302" t="s">
         <v>14</v>
@@ -9922,25 +9925,25 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B303" t="s">
         <v>71</v>
       </c>
       <c r="C303" s="2">
-        <v>40055</v>
+        <v>38235</v>
       </c>
       <c r="E303">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F303" s="2">
+        <v>38266</v>
+      </c>
+      <c r="G303" s="2">
         <v>40127</v>
       </c>
-      <c r="G303" s="2">
-        <v>40764</v>
-      </c>
       <c r="H303" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="I303" t="s">
         <v>210</v>
@@ -9951,7 +9954,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B304" t="s">
         <v>71</v>
@@ -9960,19 +9963,19 @@
         <v>40055</v>
       </c>
       <c r="E304">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F304" s="2">
+        <v>40127</v>
+      </c>
+      <c r="G304" s="2">
         <v>40764</v>
-      </c>
-      <c r="G304" s="2">
-        <v>40926</v>
       </c>
       <c r="H304" t="s">
         <v>78</v>
       </c>
       <c r="I304" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J304" t="s">
         <v>14</v>
@@ -9980,7 +9983,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B305" t="s">
         <v>71</v>
@@ -9989,16 +9992,16 @@
         <v>40055</v>
       </c>
       <c r="E305">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F305" s="2">
+        <v>40764</v>
+      </c>
+      <c r="G305" s="2">
         <v>40926</v>
       </c>
-      <c r="G305" s="2">
-        <v>41038</v>
-      </c>
       <c r="H305" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="I305" t="s">
         <v>211</v>
@@ -10009,25 +10012,25 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B306" t="s">
         <v>71</v>
       </c>
       <c r="C306" s="2">
-        <v>40993</v>
+        <v>40055</v>
       </c>
       <c r="E306">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F306" s="2">
+        <v>40926</v>
+      </c>
+      <c r="G306" s="2">
         <v>41038</v>
       </c>
-      <c r="G306" s="2">
-        <v>42872</v>
-      </c>
       <c r="H306" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I306" t="s">
         <v>211</v>
@@ -10038,22 +10041,22 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B307" t="s">
         <v>71</v>
       </c>
       <c r="C307" s="2">
-        <v>42820</v>
+        <v>40993</v>
       </c>
       <c r="E307">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F307" s="2">
+        <v>41038</v>
+      </c>
+      <c r="G307" s="2">
         <v>42872</v>
-      </c>
-      <c r="G307" s="2">
-        <v>43160</v>
       </c>
       <c r="H307" t="s">
         <v>13</v>
@@ -10067,7 +10070,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B308" t="s">
         <v>71</v>
@@ -10076,19 +10079,19 @@
         <v>42820</v>
       </c>
       <c r="E308">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F308" s="2">
+        <v>42872</v>
+      </c>
+      <c r="G308" s="2">
         <v>43160</v>
-      </c>
-      <c r="G308" s="2">
-        <v>44676</v>
       </c>
       <c r="H308" t="s">
         <v>13</v>
       </c>
       <c r="I308" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J308" t="s">
         <v>14</v>
@@ -10096,80 +10099,80 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B309" t="s">
         <v>71</v>
       </c>
       <c r="C309" s="2">
-        <v>44647</v>
+        <v>42820</v>
       </c>
       <c r="E309">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F309" s="2">
+        <v>43160</v>
+      </c>
+      <c r="G309" s="2">
         <v>44676</v>
       </c>
-      <c r="G309" s="2">
-        <v>401768</v>
-      </c>
       <c r="H309" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I309" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="J309" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>11401</v>
+        <v>11330</v>
       </c>
       <c r="B310" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C310" s="2">
-        <v>33160</v>
+        <v>44647</v>
       </c>
       <c r="E310">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F310" s="2">
-        <v>33173</v>
+        <v>44676</v>
       </c>
       <c r="G310" s="2">
-        <v>34588</v>
+        <v>401768</v>
       </c>
       <c r="H310" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I310" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="J310" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>11402</v>
+        <v>11401</v>
       </c>
       <c r="B311" t="s">
         <v>79</v>
       </c>
       <c r="C311" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311" s="2">
+        <v>33173</v>
+      </c>
+      <c r="G311" s="2">
         <v>34588</v>
-      </c>
-      <c r="E311">
-        <v>2</v>
-      </c>
-      <c r="F311" s="2">
-        <v>34613</v>
-      </c>
-      <c r="G311" s="2">
-        <v>36422</v>
       </c>
       <c r="H311" t="s">
         <v>14</v>
@@ -10183,22 +10186,22 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>11403</v>
+        <v>11402</v>
       </c>
       <c r="B312" t="s">
         <v>79</v>
       </c>
       <c r="C312" s="2">
+        <v>34588</v>
+      </c>
+      <c r="E312">
+        <v>2</v>
+      </c>
+      <c r="F312" s="2">
+        <v>34613</v>
+      </c>
+      <c r="G312" s="2">
         <v>36422</v>
-      </c>
-      <c r="E312">
-        <v>3</v>
-      </c>
-      <c r="F312" s="2">
-        <v>36446</v>
-      </c>
-      <c r="G312" s="2">
-        <v>37364</v>
       </c>
       <c r="H312" t="s">
         <v>14</v>
@@ -10212,7 +10215,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>11404</v>
+        <v>11403</v>
       </c>
       <c r="B313" t="s">
         <v>79</v>
@@ -10221,19 +10224,19 @@
         <v>36422</v>
       </c>
       <c r="E313">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F313" s="2">
+        <v>36446</v>
+      </c>
+      <c r="G313" s="2">
         <v>37364</v>
       </c>
-      <c r="G313" s="2">
-        <v>38249</v>
-      </c>
       <c r="H313" t="s">
         <v>14</v>
       </c>
       <c r="I313" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J313" t="s">
         <v>14</v>
@@ -10241,25 +10244,25 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>11405</v>
+        <v>11404</v>
       </c>
       <c r="B314" t="s">
         <v>79</v>
       </c>
       <c r="C314" s="2">
+        <v>36422</v>
+      </c>
+      <c r="E314">
+        <v>4</v>
+      </c>
+      <c r="F314" s="2">
+        <v>37364</v>
+      </c>
+      <c r="G314" s="2">
         <v>38249</v>
       </c>
-      <c r="E314">
-        <v>5</v>
-      </c>
-      <c r="F314" s="2">
-        <v>38301</v>
-      </c>
-      <c r="G314" s="2">
-        <v>39617</v>
-      </c>
       <c r="H314" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I314" t="s">
         <v>214</v>
@@ -10270,7 +10273,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B315" t="s">
         <v>79</v>
@@ -10279,19 +10282,19 @@
         <v>38249</v>
       </c>
       <c r="E315">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F315" s="2">
+        <v>38301</v>
+      </c>
+      <c r="G315" s="2">
         <v>39617</v>
-      </c>
-      <c r="G315" s="2">
-        <v>40086</v>
       </c>
       <c r="H315" t="s">
         <v>13</v>
       </c>
       <c r="I315" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J315" t="s">
         <v>14</v>
@@ -10299,25 +10302,25 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B316" t="s">
         <v>79</v>
       </c>
       <c r="C316" s="2">
-        <v>40055</v>
+        <v>38249</v>
       </c>
       <c r="E316">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F316" s="2">
+        <v>39617</v>
+      </c>
+      <c r="G316" s="2">
         <v>40086</v>
       </c>
-      <c r="G316" s="2">
-        <v>41956</v>
-      </c>
       <c r="H316" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I316" t="s">
         <v>215</v>
@@ -10328,25 +10331,25 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B317" t="s">
         <v>79</v>
       </c>
       <c r="C317" s="2">
-        <v>41882</v>
+        <v>40055</v>
       </c>
       <c r="E317">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F317" s="2">
+        <v>40086</v>
+      </c>
+      <c r="G317" s="2">
         <v>41956</v>
       </c>
-      <c r="G317" s="2">
-        <v>43082</v>
-      </c>
       <c r="H317" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I317" t="s">
         <v>215</v>
@@ -10357,7 +10360,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B318" t="s">
         <v>79</v>
@@ -10366,19 +10369,19 @@
         <v>41882</v>
       </c>
       <c r="E318">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F318" s="2">
+        <v>41956</v>
+      </c>
+      <c r="G318" s="2">
         <v>43082</v>
-      </c>
-      <c r="G318" s="2">
-        <v>43819</v>
       </c>
       <c r="H318" t="s">
         <v>13</v>
       </c>
       <c r="I318" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J318" t="s">
         <v>14</v>
@@ -10386,25 +10389,25 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B319" t="s">
         <v>79</v>
       </c>
       <c r="C319" s="2">
-        <v>43709</v>
+        <v>41882</v>
       </c>
       <c r="E319">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F319" s="2">
+        <v>43082</v>
+      </c>
+      <c r="G319" s="2">
         <v>43819</v>
       </c>
-      <c r="G319" s="2">
-        <v>401768</v>
-      </c>
       <c r="H319" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="I319" t="s">
         <v>216</v>
@@ -10415,28 +10418,28 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>11501</v>
+        <v>11410</v>
       </c>
       <c r="B320" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C320" s="2">
-        <v>33160</v>
+        <v>43709</v>
       </c>
       <c r="E320">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F320" s="2">
-        <v>33174</v>
+        <v>43819</v>
       </c>
       <c r="G320" s="2">
-        <v>33423</v>
+        <v>401768</v>
       </c>
       <c r="H320" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I320" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J320" t="s">
         <v>14</v>
@@ -10444,7 +10447,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>11502</v>
+        <v>11501</v>
       </c>
       <c r="B321" t="s">
         <v>81</v>
@@ -10453,19 +10456,19 @@
         <v>33160</v>
       </c>
       <c r="E321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F321" s="2">
+        <v>33174</v>
+      </c>
+      <c r="G321" s="2">
         <v>33423</v>
-      </c>
-      <c r="G321" s="2">
-        <v>34305</v>
       </c>
       <c r="H321" t="s">
         <v>12</v>
       </c>
       <c r="I321" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J321" t="s">
         <v>14</v>
@@ -10473,7 +10476,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>11503</v>
+        <v>11502</v>
       </c>
       <c r="B322" t="s">
         <v>81</v>
@@ -10482,19 +10485,19 @@
         <v>33160</v>
       </c>
       <c r="E322">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F322" s="2">
+        <v>33423</v>
+      </c>
+      <c r="G322" s="2">
         <v>34305</v>
-      </c>
-      <c r="G322" s="2">
-        <v>34511</v>
       </c>
       <c r="H322" t="s">
         <v>12</v>
       </c>
       <c r="I322" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J322" t="s">
         <v>14</v>
@@ -10502,54 +10505,54 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>11504</v>
+        <v>11503</v>
       </c>
       <c r="B323" t="s">
         <v>81</v>
       </c>
       <c r="C323" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E323">
+        <v>3</v>
+      </c>
+      <c r="F323" s="2">
+        <v>34305</v>
+      </c>
+      <c r="G323" s="2">
         <v>34511</v>
       </c>
-      <c r="E323">
-        <v>4</v>
-      </c>
-      <c r="F323" s="2">
-        <v>34536</v>
-      </c>
-      <c r="G323" s="2">
-        <v>35911</v>
-      </c>
       <c r="H323" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I323" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J323" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>11505</v>
+        <v>11504</v>
       </c>
       <c r="B324" t="s">
         <v>81</v>
       </c>
       <c r="C324" s="2">
+        <v>34511</v>
+      </c>
+      <c r="E324">
+        <v>4</v>
+      </c>
+      <c r="F324" s="2">
+        <v>34536</v>
+      </c>
+      <c r="G324" s="2">
         <v>35911</v>
       </c>
-      <c r="E324">
-        <v>5</v>
-      </c>
-      <c r="F324" s="2">
-        <v>35941</v>
-      </c>
-      <c r="G324" s="2">
-        <v>37367</v>
-      </c>
       <c r="H324" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I324" t="s">
         <v>220</v>
@@ -10560,54 +10563,54 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>11506</v>
+        <v>11505</v>
       </c>
       <c r="B325" t="s">
         <v>81</v>
       </c>
       <c r="C325" s="2">
+        <v>35911</v>
+      </c>
+      <c r="E325">
+        <v>5</v>
+      </c>
+      <c r="F325" s="2">
+        <v>35941</v>
+      </c>
+      <c r="G325" s="2">
         <v>37367</v>
       </c>
-      <c r="E325">
-        <v>6</v>
-      </c>
-      <c r="F325" s="2">
-        <v>37392</v>
-      </c>
-      <c r="G325" s="2">
-        <v>38831</v>
-      </c>
       <c r="H325" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I325" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J325" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B326" t="s">
         <v>81</v>
       </c>
       <c r="C326" s="2">
-        <v>38802</v>
+        <v>37367</v>
       </c>
       <c r="E326">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F326" s="2">
+        <v>37392</v>
+      </c>
+      <c r="G326" s="2">
         <v>38831</v>
       </c>
-      <c r="G326" s="2">
-        <v>40652</v>
-      </c>
       <c r="H326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I326" t="s">
         <v>221</v>
@@ -10618,28 +10621,28 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B327" t="s">
         <v>81</v>
       </c>
       <c r="C327" s="2">
-        <v>40622</v>
+        <v>38802</v>
       </c>
       <c r="E327">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F327" s="2">
+        <v>38831</v>
+      </c>
+      <c r="G327" s="2">
         <v>40652</v>
-      </c>
-      <c r="G327" s="2">
-        <v>42485</v>
       </c>
       <c r="H327" t="s">
         <v>13</v>
       </c>
       <c r="I327" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J327" t="s">
         <v>14</v>
@@ -10647,25 +10650,25 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B328" t="s">
         <v>81</v>
       </c>
       <c r="C328" s="2">
-        <v>42442</v>
+        <v>40622</v>
       </c>
       <c r="E328">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F328" s="2">
+        <v>40652</v>
+      </c>
+      <c r="G328" s="2">
         <v>42485</v>
       </c>
-      <c r="G328" s="2">
-        <v>44455</v>
-      </c>
       <c r="H328" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="I328" t="s">
         <v>222</v>
@@ -10676,25 +10679,25 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B329" t="s">
         <v>81</v>
       </c>
       <c r="C329" s="2">
-        <v>44353</v>
+        <v>42442</v>
       </c>
       <c r="E329">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F329" s="2">
+        <v>42485</v>
+      </c>
+      <c r="G329" s="2">
         <v>44455</v>
       </c>
-      <c r="G329" s="2">
-        <v>401768</v>
-      </c>
       <c r="H329" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I329" t="s">
         <v>222</v>
@@ -10705,36 +10708,36 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>11601</v>
+        <v>11510</v>
       </c>
       <c r="B330" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C330" s="2">
-        <v>17277</v>
+        <v>44353</v>
       </c>
       <c r="E330">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F330" s="2">
-        <v>17286</v>
+        <v>44455</v>
       </c>
       <c r="G330" s="2">
-        <v>18139</v>
+        <v>401768</v>
       </c>
       <c r="H330" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I330" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J330" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>11602</v>
+        <v>11601</v>
       </c>
       <c r="B331" t="s">
         <v>83</v>
@@ -10743,19 +10746,19 @@
         <v>17277</v>
       </c>
       <c r="E331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F331" s="2">
+        <v>17286</v>
+      </c>
+      <c r="G331" s="2">
         <v>18139</v>
       </c>
-      <c r="G331" s="2">
-        <v>18453</v>
-      </c>
       <c r="H331" t="s">
         <v>29</v>
       </c>
       <c r="I331" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J331" t="s">
         <v>29</v>
@@ -10763,36 +10766,36 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>11603</v>
+        <v>11602</v>
       </c>
       <c r="B332" t="s">
         <v>83</v>
       </c>
       <c r="C332" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E332">
+        <v>2</v>
+      </c>
+      <c r="F332" s="2">
+        <v>18139</v>
+      </c>
+      <c r="G332" s="2">
         <v>18453</v>
       </c>
-      <c r="E332">
-        <v>3</v>
-      </c>
-      <c r="F332" s="2">
-        <v>18511</v>
-      </c>
-      <c r="G332" s="2">
-        <v>18804</v>
-      </c>
       <c r="H332" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I332" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J332" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>11604</v>
+        <v>11603</v>
       </c>
       <c r="B333" t="s">
         <v>83</v>
@@ -10801,19 +10804,19 @@
         <v>18453</v>
       </c>
       <c r="E333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F333" s="2">
+        <v>18511</v>
+      </c>
+      <c r="G333" s="2">
         <v>18804</v>
       </c>
-      <c r="G333" s="2">
-        <v>18837</v>
-      </c>
       <c r="H333" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I333" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J333" t="s">
         <v>14</v>
@@ -10821,7 +10824,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>11605</v>
+        <v>11604</v>
       </c>
       <c r="B334" t="s">
         <v>83</v>
@@ -10830,16 +10833,16 @@
         <v>18453</v>
       </c>
       <c r="E334">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F334" s="2">
+        <v>18804</v>
+      </c>
+      <c r="G334" s="2">
         <v>18837</v>
       </c>
-      <c r="G334" s="2">
-        <v>18997</v>
-      </c>
       <c r="H334" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I334" t="s">
         <v>226</v>
@@ -10850,7 +10853,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>11606</v>
+        <v>11605</v>
       </c>
       <c r="B335" t="s">
         <v>83</v>
@@ -10859,16 +10862,16 @@
         <v>18453</v>
       </c>
       <c r="E335">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F335" s="2">
+        <v>18837</v>
+      </c>
+      <c r="G335" s="2">
         <v>18997</v>
       </c>
-      <c r="G335" s="2">
-        <v>19378</v>
-      </c>
       <c r="H335" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I335" t="s">
         <v>226</v>
@@ -10879,7 +10882,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>11607</v>
+        <v>11606</v>
       </c>
       <c r="B336" t="s">
         <v>83</v>
@@ -10888,16 +10891,16 @@
         <v>18453</v>
       </c>
       <c r="E336">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F336" s="2">
+        <v>18997</v>
+      </c>
+      <c r="G336" s="2">
         <v>19378</v>
       </c>
-      <c r="G336" s="2">
-        <v>19979</v>
-      </c>
       <c r="H336" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I336" t="s">
         <v>226</v>
@@ -10908,28 +10911,28 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>11608</v>
+        <v>11607</v>
       </c>
       <c r="B337" t="s">
         <v>83</v>
       </c>
       <c r="C337" s="2">
+        <v>18453</v>
+      </c>
+      <c r="E337">
+        <v>7</v>
+      </c>
+      <c r="F337" s="2">
+        <v>19378</v>
+      </c>
+      <c r="G337" s="2">
         <v>19979</v>
       </c>
-      <c r="E337">
-        <v>8</v>
-      </c>
-      <c r="F337" s="2">
-        <v>20008</v>
-      </c>
-      <c r="G337" s="2">
-        <v>21456</v>
-      </c>
       <c r="H337" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I337" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J337" t="s">
         <v>14</v>
@@ -10937,25 +10940,25 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>11609</v>
+        <v>11608</v>
       </c>
       <c r="B338" t="s">
         <v>83</v>
       </c>
       <c r="C338" s="2">
+        <v>19979</v>
+      </c>
+      <c r="E338">
+        <v>8</v>
+      </c>
+      <c r="F338" s="2">
+        <v>20008</v>
+      </c>
+      <c r="G338" s="2">
         <v>21456</v>
       </c>
-      <c r="E338">
-        <v>9</v>
-      </c>
-      <c r="F338" s="2">
-        <v>21456</v>
-      </c>
-      <c r="G338" s="2">
-        <v>22912</v>
-      </c>
       <c r="H338" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I338" t="s">
         <v>227</v>
@@ -10966,25 +10969,25 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>11610</v>
+        <v>11609</v>
       </c>
       <c r="B339" t="s">
         <v>83</v>
       </c>
       <c r="C339" s="2">
+        <v>21456</v>
+      </c>
+      <c r="E339">
+        <v>9</v>
+      </c>
+      <c r="F339" s="2">
+        <v>21456</v>
+      </c>
+      <c r="G339" s="2">
         <v>22912</v>
       </c>
-      <c r="E339">
-        <v>10</v>
-      </c>
-      <c r="F339" s="2">
-        <v>22912</v>
-      </c>
-      <c r="G339" s="2">
-        <v>23018</v>
-      </c>
       <c r="H339" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I339" t="s">
         <v>227</v>
@@ -10995,7 +10998,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>11611</v>
+        <v>11610</v>
       </c>
       <c r="B340" t="s">
         <v>83</v>
@@ -11004,19 +11007,19 @@
         <v>22912</v>
       </c>
       <c r="E340">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F340" s="2">
+        <v>22912</v>
+      </c>
+      <c r="G340" s="2">
         <v>23018</v>
       </c>
-      <c r="G340" s="2">
-        <v>24585</v>
-      </c>
       <c r="H340" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I340" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J340" t="s">
         <v>14</v>
@@ -11024,22 +11027,22 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>11612</v>
+        <v>11611</v>
       </c>
       <c r="B341" t="s">
         <v>83</v>
       </c>
       <c r="C341" s="2">
+        <v>22912</v>
+      </c>
+      <c r="E341">
+        <v>11</v>
+      </c>
+      <c r="F341" s="2">
+        <v>23018</v>
+      </c>
+      <c r="G341" s="2">
         <v>24585</v>
-      </c>
-      <c r="E341">
-        <v>12</v>
-      </c>
-      <c r="F341" s="2">
-        <v>24585</v>
-      </c>
-      <c r="G341" s="2">
-        <v>25967</v>
       </c>
       <c r="H341" t="s">
         <v>12</v>
@@ -11053,7 +11056,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>11613</v>
+        <v>11612</v>
       </c>
       <c r="B342" t="s">
         <v>83</v>
@@ -11062,16 +11065,16 @@
         <v>24585</v>
       </c>
       <c r="E342">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F342" s="2">
+        <v>24585</v>
+      </c>
+      <c r="G342" s="2">
         <v>25967</v>
       </c>
-      <c r="G342" s="2">
-        <v>26048</v>
-      </c>
       <c r="H342" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I342" t="s">
         <v>228</v>
@@ -11082,28 +11085,28 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>11614</v>
+        <v>11613</v>
       </c>
       <c r="B343" t="s">
         <v>83</v>
       </c>
       <c r="C343" s="2">
+        <v>24585</v>
+      </c>
+      <c r="E343">
+        <v>13</v>
+      </c>
+      <c r="F343" s="2">
+        <v>25967</v>
+      </c>
+      <c r="G343" s="2">
         <v>26048</v>
       </c>
-      <c r="E343">
-        <v>14</v>
-      </c>
-      <c r="F343" s="2">
-        <v>26077</v>
-      </c>
-      <c r="G343" s="2">
-        <v>27497</v>
-      </c>
       <c r="H343" t="s">
         <v>14</v>
       </c>
       <c r="I343" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J343" t="s">
         <v>14</v>
@@ -11111,22 +11114,22 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>11615</v>
+        <v>11614</v>
       </c>
       <c r="B344" t="s">
         <v>83</v>
       </c>
       <c r="C344" s="2">
+        <v>26048</v>
+      </c>
+      <c r="E344">
+        <v>14</v>
+      </c>
+      <c r="F344" s="2">
+        <v>26077</v>
+      </c>
+      <c r="G344" s="2">
         <v>27497</v>
-      </c>
-      <c r="E344">
-        <v>15</v>
-      </c>
-      <c r="F344" s="2">
-        <v>27497</v>
-      </c>
-      <c r="G344" s="2">
-        <v>28974</v>
       </c>
       <c r="H344" t="s">
         <v>14</v>
@@ -11140,22 +11143,22 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>11616</v>
+        <v>11615</v>
       </c>
       <c r="B345" t="s">
         <v>83</v>
       </c>
       <c r="C345" s="2">
+        <v>27497</v>
+      </c>
+      <c r="E345">
+        <v>15</v>
+      </c>
+      <c r="F345" s="2">
+        <v>27497</v>
+      </c>
+      <c r="G345" s="2">
         <v>28974</v>
-      </c>
-      <c r="E345">
-        <v>16</v>
-      </c>
-      <c r="F345" s="2">
-        <v>28974</v>
-      </c>
-      <c r="G345" s="2">
-        <v>30238</v>
       </c>
       <c r="H345" t="s">
         <v>14</v>
@@ -11169,7 +11172,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>11617</v>
+        <v>11616</v>
       </c>
       <c r="B346" t="s">
         <v>83</v>
@@ -11178,19 +11181,19 @@
         <v>28974</v>
       </c>
       <c r="E346">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F346" s="2">
+        <v>28974</v>
+      </c>
+      <c r="G346" s="2">
         <v>30238</v>
       </c>
-      <c r="G346" s="2">
-        <v>30388</v>
-      </c>
       <c r="H346" t="s">
         <v>14</v>
       </c>
       <c r="I346" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J346" t="s">
         <v>14</v>
@@ -11198,22 +11201,22 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>11618</v>
+        <v>11617</v>
       </c>
       <c r="B347" t="s">
         <v>83</v>
       </c>
       <c r="C347" s="2">
+        <v>28974</v>
+      </c>
+      <c r="E347">
+        <v>17</v>
+      </c>
+      <c r="F347" s="2">
+        <v>30238</v>
+      </c>
+      <c r="G347" s="2">
         <v>30388</v>
-      </c>
-      <c r="E347">
-        <v>18</v>
-      </c>
-      <c r="F347" s="2">
-        <v>30388</v>
-      </c>
-      <c r="G347" s="2">
-        <v>32033</v>
       </c>
       <c r="H347" t="s">
         <v>14</v>
@@ -11227,22 +11230,22 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>11619</v>
+        <v>11618</v>
       </c>
       <c r="B348" t="s">
         <v>83</v>
       </c>
       <c r="C348" s="2">
+        <v>30388</v>
+      </c>
+      <c r="E348">
+        <v>18</v>
+      </c>
+      <c r="F348" s="2">
+        <v>30388</v>
+      </c>
+      <c r="G348" s="2">
         <v>32033</v>
-      </c>
-      <c r="E348">
-        <v>19</v>
-      </c>
-      <c r="F348" s="2">
-        <v>32033</v>
-      </c>
-      <c r="G348" s="2">
-        <v>32052</v>
       </c>
       <c r="H348" t="s">
         <v>14</v>
@@ -11256,7 +11259,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>11620</v>
+        <v>11619</v>
       </c>
       <c r="B349" t="s">
         <v>83</v>
@@ -11265,19 +11268,19 @@
         <v>32033</v>
       </c>
       <c r="E349">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F349" s="2">
+        <v>32033</v>
+      </c>
+      <c r="G349" s="2">
         <v>32052</v>
       </c>
-      <c r="G349" s="2">
-        <v>32271</v>
-      </c>
       <c r="H349" t="s">
         <v>14</v>
       </c>
       <c r="I349" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J349" t="s">
         <v>14</v>
@@ -11285,51 +11288,51 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>11621</v>
+        <v>11620</v>
       </c>
       <c r="B350" t="s">
         <v>83</v>
       </c>
       <c r="C350" s="2">
+        <v>32033</v>
+      </c>
+      <c r="E350">
+        <v>20</v>
+      </c>
+      <c r="F350" s="2">
+        <v>32052</v>
+      </c>
+      <c r="G350" s="2">
         <v>32271</v>
       </c>
-      <c r="E350">
-        <v>21</v>
-      </c>
-      <c r="F350" s="2">
-        <v>32294</v>
-      </c>
-      <c r="G350" s="2">
-        <v>33699</v>
-      </c>
       <c r="H350" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I350" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J350" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>11622</v>
+        <v>11621</v>
       </c>
       <c r="B351" t="s">
         <v>83</v>
       </c>
       <c r="C351" s="2">
+        <v>32271</v>
+      </c>
+      <c r="E351">
+        <v>21</v>
+      </c>
+      <c r="F351" s="2">
+        <v>32294</v>
+      </c>
+      <c r="G351" s="2">
         <v>33699</v>
-      </c>
-      <c r="E351">
-        <v>22</v>
-      </c>
-      <c r="F351" s="2">
-        <v>33729</v>
-      </c>
-      <c r="G351" s="2">
-        <v>34108</v>
       </c>
       <c r="H351" t="s">
         <v>29</v>
@@ -11343,7 +11346,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>11623</v>
+        <v>11622</v>
       </c>
       <c r="B352" t="s">
         <v>83</v>
@@ -11352,19 +11355,19 @@
         <v>33699</v>
       </c>
       <c r="E352">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F352" s="2">
+        <v>33729</v>
+      </c>
+      <c r="G352" s="2">
         <v>34108</v>
       </c>
-      <c r="G352" s="2">
-        <v>35148</v>
-      </c>
       <c r="H352" t="s">
         <v>29</v>
       </c>
       <c r="I352" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J352" t="s">
         <v>29</v>
@@ -11372,25 +11375,25 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>11624</v>
+        <v>11623</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
       </c>
       <c r="C353" s="2">
+        <v>33699</v>
+      </c>
+      <c r="E353">
+        <v>23</v>
+      </c>
+      <c r="F353" s="2">
+        <v>34108</v>
+      </c>
+      <c r="G353" s="2">
         <v>35148</v>
       </c>
-      <c r="E353">
-        <v>24</v>
-      </c>
-      <c r="F353" s="2">
-        <v>35207</v>
-      </c>
-      <c r="G353" s="2">
-        <v>36583</v>
-      </c>
       <c r="H353" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I353" t="s">
         <v>233</v>
@@ -11401,22 +11404,22 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>11625</v>
+        <v>11624</v>
       </c>
       <c r="B354" t="s">
         <v>83</v>
       </c>
       <c r="C354" s="2">
+        <v>35148</v>
+      </c>
+      <c r="E354">
+        <v>24</v>
+      </c>
+      <c r="F354" s="2">
+        <v>35207</v>
+      </c>
+      <c r="G354" s="2">
         <v>36583</v>
-      </c>
-      <c r="E354">
-        <v>25</v>
-      </c>
-      <c r="F354" s="2">
-        <v>36613</v>
-      </c>
-      <c r="G354" s="2">
-        <v>38403</v>
       </c>
       <c r="H354" t="s">
         <v>30</v>
@@ -11430,54 +11433,54 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>11626</v>
+        <v>11625</v>
       </c>
       <c r="B355" t="s">
         <v>83</v>
       </c>
       <c r="C355" s="2">
+        <v>36583</v>
+      </c>
+      <c r="E355">
+        <v>25</v>
+      </c>
+      <c r="F355" s="2">
+        <v>36613</v>
+      </c>
+      <c r="G355" s="2">
         <v>38403</v>
       </c>
-      <c r="E355">
-        <v>26</v>
-      </c>
-      <c r="F355" s="2">
-        <v>38469</v>
-      </c>
-      <c r="G355" s="2">
-        <v>40113</v>
-      </c>
       <c r="H355" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I355" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J355" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B356" t="s">
         <v>83</v>
       </c>
       <c r="C356" s="2">
-        <v>40083</v>
+        <v>38403</v>
       </c>
       <c r="E356">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F356" s="2">
+        <v>38469</v>
+      </c>
+      <c r="G356" s="2">
         <v>40113</v>
       </c>
-      <c r="G356" s="2">
-        <v>41072</v>
-      </c>
       <c r="H356" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I356" t="s">
         <v>234</v>
@@ -11488,86 +11491,86 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B357" t="s">
         <v>83</v>
       </c>
       <c r="C357" s="2">
-        <v>41035</v>
+        <v>40083</v>
       </c>
       <c r="E357">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F357" s="2">
+        <v>40113</v>
+      </c>
+      <c r="G357" s="2">
         <v>41072</v>
       </c>
-      <c r="G357" s="2">
-        <v>42914</v>
-      </c>
       <c r="H357" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I357" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J357" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B358" t="s">
         <v>83</v>
       </c>
       <c r="C358" s="2">
-        <v>42862</v>
+        <v>41035</v>
       </c>
       <c r="E358">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F358" s="2">
+        <v>41072</v>
+      </c>
+      <c r="G358" s="2">
         <v>42914</v>
       </c>
-      <c r="G358" s="2">
-        <v>401768</v>
-      </c>
       <c r="H358" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I358" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J358" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>11701</v>
+        <v>11629</v>
       </c>
       <c r="B359" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C359" s="2">
-        <v>33160</v>
+        <v>42862</v>
       </c>
       <c r="E359">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F359" s="2">
-        <v>33185</v>
+        <v>42914</v>
       </c>
       <c r="G359" s="2">
-        <v>33639</v>
+        <v>401768</v>
       </c>
       <c r="H359" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I359" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J359" t="s">
         <v>14</v>
@@ -11575,7 +11578,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>11702</v>
+        <v>11701</v>
       </c>
       <c r="B360" t="s">
         <v>90</v>
@@ -11584,19 +11587,19 @@
         <v>33160</v>
       </c>
       <c r="E360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F360" s="2">
+        <v>33185</v>
+      </c>
+      <c r="G360" s="2">
         <v>33639</v>
-      </c>
-      <c r="G360" s="2">
-        <v>34623</v>
       </c>
       <c r="H360" t="s">
         <v>12</v>
       </c>
       <c r="I360" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="J360" t="s">
         <v>14</v>
@@ -11604,25 +11607,25 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>11703</v>
+        <v>11702</v>
       </c>
       <c r="B361" t="s">
         <v>90</v>
       </c>
       <c r="C361" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E361">
+        <v>2</v>
+      </c>
+      <c r="F361" s="2">
+        <v>33639</v>
+      </c>
+      <c r="G361" s="2">
         <v>34623</v>
       </c>
-      <c r="E361">
-        <v>3</v>
-      </c>
-      <c r="F361" s="2">
-        <v>34660</v>
-      </c>
-      <c r="G361" s="2">
-        <v>36415</v>
-      </c>
       <c r="H361" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I361" t="s">
         <v>197</v>
@@ -11633,25 +11636,25 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>11704</v>
+        <v>11703</v>
       </c>
       <c r="B362" t="s">
         <v>90</v>
       </c>
       <c r="C362" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E362">
+        <v>3</v>
+      </c>
+      <c r="F362" s="2">
+        <v>34660</v>
+      </c>
+      <c r="G362" s="2">
         <v>36415</v>
       </c>
-      <c r="E362">
-        <v>4</v>
-      </c>
-      <c r="F362" s="2">
-        <v>36434</v>
-      </c>
-      <c r="G362" s="2">
-        <v>37685</v>
-      </c>
       <c r="H362" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I362" t="s">
         <v>197</v>
@@ -11662,7 +11665,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>11705</v>
+        <v>11704</v>
       </c>
       <c r="B363" t="s">
         <v>90</v>
@@ -11671,19 +11674,19 @@
         <v>36415</v>
       </c>
       <c r="E363">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F363" s="2">
-        <v>37777</v>
+        <v>36434</v>
       </c>
       <c r="G363" s="2">
-        <v>38151</v>
+        <v>37685</v>
       </c>
       <c r="H363" t="s">
         <v>14</v>
       </c>
       <c r="I363" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="J363" t="s">
         <v>14</v>
@@ -11691,22 +11694,22 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>11706</v>
+        <v>11705</v>
       </c>
       <c r="B364" t="s">
         <v>90</v>
       </c>
       <c r="C364" s="2">
+        <v>36415</v>
+      </c>
+      <c r="E364">
+        <v>5</v>
+      </c>
+      <c r="F364" s="2">
+        <v>37777</v>
+      </c>
+      <c r="G364" s="2">
         <v>38151</v>
-      </c>
-      <c r="E364">
-        <v>6</v>
-      </c>
-      <c r="F364" s="2">
-        <v>38176</v>
-      </c>
-      <c r="G364" s="2">
-        <v>40121</v>
       </c>
       <c r="H364" t="s">
         <v>14</v>
@@ -11720,28 +11723,28 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B365" t="s">
         <v>90</v>
       </c>
       <c r="C365" s="2">
-        <v>40055</v>
+        <v>38151</v>
       </c>
       <c r="E365">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F365" s="2">
+        <v>38176</v>
+      </c>
+      <c r="G365" s="2">
         <v>40121</v>
       </c>
-      <c r="G365" s="2">
-        <v>41978</v>
-      </c>
       <c r="H365" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I365" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J365" t="s">
         <v>14</v>
@@ -11749,65 +11752,65 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B366" t="s">
         <v>90</v>
       </c>
       <c r="C366" s="2">
-        <v>41896</v>
+        <v>40055</v>
       </c>
       <c r="E366">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F366" s="2">
+        <v>40121</v>
+      </c>
+      <c r="G366" s="2">
         <v>41978</v>
       </c>
-      <c r="G366" s="2">
-        <v>43866</v>
-      </c>
       <c r="H366" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="I366" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J366" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B367" t="s">
         <v>90</v>
       </c>
       <c r="C367" s="2">
-        <v>43765</v>
+        <v>41896</v>
       </c>
       <c r="E367">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F367" s="2">
+        <v>41978</v>
+      </c>
+      <c r="G367" s="2">
         <v>43866</v>
       </c>
-      <c r="G367" s="2">
-        <v>43894</v>
-      </c>
       <c r="H367" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I367" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J367" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B368" t="s">
         <v>90</v>
@@ -11816,21 +11819,50 @@
         <v>43765</v>
       </c>
       <c r="E368">
+        <v>9</v>
+      </c>
+      <c r="F368" s="2">
+        <v>43866</v>
+      </c>
+      <c r="G368" s="2">
+        <v>43894</v>
+      </c>
+      <c r="H368" t="s">
+        <v>92</v>
+      </c>
+      <c r="I368" t="s">
+        <v>241</v>
+      </c>
+      <c r="J368" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>11710</v>
+      </c>
+      <c r="B369" t="s">
+        <v>90</v>
+      </c>
+      <c r="C369" s="2">
+        <v>43765</v>
+      </c>
+      <c r="E369">
         <v>10</v>
       </c>
-      <c r="F368" s="2">
+      <c r="F369" s="2">
         <v>43894</v>
       </c>
-      <c r="G368" s="2">
+      <c r="G369" s="2">
         <v>401768</v>
       </c>
-      <c r="H368" t="s">
+      <c r="H369" t="s">
         <v>91</v>
       </c>
-      <c r="I368" t="s">
+      <c r="I369" t="s">
         <v>240</v>
       </c>
-      <c r="J368" t="s">
+      <c r="J369" t="s">
         <v>133</v>
       </c>
     </row>

--- a/inst/extdata/primeministers.xlsx
+++ b/inst/extdata/primeministers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/bundeslaendeR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\bldrt\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC6BE1-7269-AA4E-8090-EBD7D61130D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B6F217-CA4F-4318-8D81-497DD441B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="244">
   <si>
     <t>gov_id</t>
   </si>
@@ -798,12 +798,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1142,24 +1143,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J369"/>
+  <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="J256" sqref="J256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="7" width="20.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.5" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10201</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10202</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10203</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10204</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10205</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10206</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10207</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10208</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10209</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10210</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10211</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10212</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10213</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10214</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10215</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10216</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10217</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10218</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10219</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10220</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10221</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10222</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10223</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10224</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10301</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10302</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10303</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10304</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10305</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10306</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10307</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10308</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10309</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10310</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10311</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10312</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10313</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10314</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10315</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10316</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10317</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10318</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10319</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10320</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10321</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10322</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10323</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10324</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10325</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10425</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10426</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10427</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10428</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10401</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10402</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10403</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10404</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10405</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10406</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10407</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10408</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10409</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10410</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10411</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10412</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10413</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10414</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10415</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10416</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10417</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10418</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10419</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10420</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10421</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10422</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10423</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10424</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10429</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10430</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10431</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10432</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10433</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10501</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10502</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10503</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10504</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10505</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10506</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10507</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10508</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10509</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10510</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10620</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10621</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10601</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10602</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10603</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10604</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10605</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10606</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10607</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10608</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10609</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10610</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10611</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10612</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10613</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10614</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10615</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10616</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10617</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10618</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10619</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>10622</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10623</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10624</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>10625</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10626</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10101</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10102</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>11801</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>11802</v>
       </c>
@@ -4729,7 +4730,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>11803</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>11901</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>11902</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>11903</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>10801</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>10802</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>10803</v>
       </c>
@@ -4932,7 +4933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>10804</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>10805</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10806</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>10807</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>10808</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10809</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10810</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>10811</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>10812</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10813</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>10814</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>10815</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>10816</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>10817</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>10818</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>10819</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>10820</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>10821</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>10822</v>
       </c>
@@ -5483,7 +5484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10823</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10824</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10825</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10826</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>10827</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10828</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10829</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>10830</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>10831</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>10832</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>10833</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>10701</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>10702</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>10703</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>10704</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>10705</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>10706</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>10707</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>10708</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>10709</v>
       </c>
@@ -6063,7 +6064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>10710</v>
       </c>
@@ -6092,7 +6093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>10711</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>10712</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10713</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>10714</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>10715</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>10716</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>10717</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>10718</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>10719</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>10720</v>
       </c>
@@ -6382,7 +6383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>10721</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>10722</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>10723</v>
       </c>
@@ -6469,7 +6470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>10724</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>10725</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>10726</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>10901</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>10902</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>10903</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>10904</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>10905</v>
       </c>
@@ -6701,7 +6702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10906</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>10910</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>10911</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>10912</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>10913</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10914</v>
       </c>
@@ -6875,7 +6876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>11001</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>11002</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>11003</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>11004</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>11005</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>11006</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>11007</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>11008</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>11009</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>11010</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11011</v>
       </c>
@@ -7194,7 +7195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11012</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11013</v>
       </c>
@@ -7252,7 +7253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11014</v>
       </c>
@@ -7281,7 +7282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11015</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11016</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11017</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11018</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11019</v>
       </c>
@@ -7426,7 +7427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>11020</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>11021</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>11022</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>11023</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>11024</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>11025</v>
       </c>
@@ -7600,7 +7601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>11026</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>11027</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>11028</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>11029</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>11030</v>
       </c>
@@ -7745,7 +7746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>11031</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>11101</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>11102</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>11103</v>
       </c>
@@ -7861,7 +7862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>11104</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>11105</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>11106</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>11107</v>
       </c>
@@ -7977,7 +7978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>11108</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>11109</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>11110</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>11111</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>11112</v>
       </c>
@@ -8122,7 +8123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>11113</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>11114</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>11115</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>11116</v>
       </c>
@@ -8238,7 +8239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>11117</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>11118</v>
       </c>
@@ -8296,7 +8297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>11119</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>11120</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>11121</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>11122</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11123</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11124</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11125</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>11126</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>44497</v>
       </c>
       <c r="G254" s="2">
-        <v>401768</v>
+        <v>44741</v>
       </c>
       <c r="H254" t="s">
         <v>12</v>
@@ -8528,38 +8529,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
+        <v>11127</v>
+      </c>
+      <c r="B255" t="s">
+        <v>63</v>
+      </c>
+      <c r="C255" s="2">
+        <v>44696</v>
+      </c>
+      <c r="E255">
+        <v>27</v>
+      </c>
+      <c r="F255" s="2">
+        <v>44741</v>
+      </c>
+      <c r="G255" s="2">
+        <v>401768</v>
+      </c>
+      <c r="H255" t="s">
+        <v>49</v>
+      </c>
+      <c r="I255" t="s">
+        <v>194</v>
+      </c>
+      <c r="J255" t="s">
+        <v>14</v>
+      </c>
+      <c r="K255" s="3"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>11201</v>
-      </c>
-      <c r="B255" t="s">
-        <v>69</v>
-      </c>
-      <c r="C255" s="2">
-        <v>17305</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255" s="2">
-        <v>17357</v>
-      </c>
-      <c r="G255" s="2">
-        <v>17632</v>
-      </c>
-      <c r="H255" t="s">
-        <v>70</v>
-      </c>
-      <c r="I255" t="s">
-        <v>195</v>
-      </c>
-      <c r="J255" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A256">
-        <v>11202</v>
       </c>
       <c r="B256" t="s">
         <v>69</v>
@@ -8568,16 +8570,16 @@
         <v>17305</v>
       </c>
       <c r="E256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F256" s="2">
+        <v>17357</v>
+      </c>
+      <c r="G256" s="2">
         <v>17632</v>
       </c>
-      <c r="G256" s="2">
-        <v>18191</v>
-      </c>
       <c r="H256" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="I256" t="s">
         <v>195</v>
@@ -8586,9 +8588,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>11203</v>
+        <v>11202</v>
       </c>
       <c r="B257" t="s">
         <v>69</v>
@@ -8597,16 +8599,16 @@
         <v>17305</v>
       </c>
       <c r="E257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F257" s="2">
+        <v>17632</v>
+      </c>
+      <c r="G257" s="2">
         <v>18191</v>
       </c>
-      <c r="G257" s="2">
-        <v>18246</v>
-      </c>
       <c r="H257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I257" t="s">
         <v>195</v>
@@ -8615,9 +8617,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>11204</v>
+        <v>11203</v>
       </c>
       <c r="B258" t="s">
         <v>69</v>
@@ -8626,16 +8628,16 @@
         <v>17305</v>
       </c>
       <c r="E258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F258" s="2">
+        <v>18191</v>
+      </c>
+      <c r="G258" s="2">
         <v>18246</v>
       </c>
-      <c r="G258" s="2">
-        <v>18747</v>
-      </c>
       <c r="H258" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I258" t="s">
         <v>195</v>
@@ -8644,27 +8646,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>11205</v>
+        <v>11204</v>
       </c>
       <c r="B259" t="s">
         <v>69</v>
       </c>
       <c r="C259" s="2">
+        <v>17305</v>
+      </c>
+      <c r="E259">
+        <v>4</v>
+      </c>
+      <c r="F259" s="2">
+        <v>18246</v>
+      </c>
+      <c r="G259" s="2">
         <v>18747</v>
       </c>
-      <c r="E259">
-        <v>5</v>
-      </c>
-      <c r="F259" s="2">
-        <v>18792</v>
-      </c>
-      <c r="G259" s="2">
-        <v>20224</v>
-      </c>
       <c r="H259" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I259" t="s">
         <v>195</v>
@@ -8673,24 +8675,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>11206</v>
+        <v>11205</v>
       </c>
       <c r="B260" t="s">
         <v>69</v>
       </c>
       <c r="C260" s="2">
+        <v>18747</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+      <c r="F260" s="2">
+        <v>18792</v>
+      </c>
+      <c r="G260" s="2">
         <v>20224</v>
-      </c>
-      <c r="E260">
-        <v>6</v>
-      </c>
-      <c r="F260" s="2">
-        <v>20241</v>
-      </c>
-      <c r="G260" s="2">
-        <v>21659</v>
       </c>
       <c r="H260" t="s">
         <v>12</v>
@@ -8702,24 +8704,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>11207</v>
+        <v>11206</v>
       </c>
       <c r="B261" t="s">
         <v>69</v>
       </c>
       <c r="C261" s="2">
+        <v>20224</v>
+      </c>
+      <c r="E261">
+        <v>6</v>
+      </c>
+      <c r="F261" s="2">
+        <v>20241</v>
+      </c>
+      <c r="G261" s="2">
         <v>21659</v>
-      </c>
-      <c r="E261">
-        <v>7</v>
-      </c>
-      <c r="F261" s="2">
-        <v>21689</v>
-      </c>
-      <c r="G261" s="2">
-        <v>23101</v>
       </c>
       <c r="H261" t="s">
         <v>12</v>
@@ -8731,24 +8733,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>11208</v>
+        <v>11207</v>
       </c>
       <c r="B262" t="s">
         <v>69</v>
       </c>
       <c r="C262" s="2">
+        <v>21659</v>
+      </c>
+      <c r="E262">
+        <v>7</v>
+      </c>
+      <c r="F262" s="2">
+        <v>21689</v>
+      </c>
+      <c r="G262" s="2">
         <v>23101</v>
-      </c>
-      <c r="E262">
-        <v>8</v>
-      </c>
-      <c r="F262" s="2">
-        <v>23149</v>
-      </c>
-      <c r="G262" s="2">
-        <v>24585</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
@@ -8760,24 +8762,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>11209</v>
+        <v>11208</v>
       </c>
       <c r="B263" t="s">
         <v>69</v>
       </c>
       <c r="C263" s="2">
+        <v>23101</v>
+      </c>
+      <c r="E263">
+        <v>8</v>
+      </c>
+      <c r="F263" s="2">
+        <v>23149</v>
+      </c>
+      <c r="G263" s="2">
         <v>24585</v>
-      </c>
-      <c r="E263">
-        <v>9</v>
-      </c>
-      <c r="F263" s="2">
-        <v>24610</v>
-      </c>
-      <c r="G263" s="2">
-        <v>25342</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
@@ -8789,9 +8791,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>11210</v>
+        <v>11209</v>
       </c>
       <c r="B264" t="s">
         <v>69</v>
@@ -8800,45 +8802,45 @@
         <v>24585</v>
       </c>
       <c r="E264">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F264" s="2">
+        <v>24610</v>
+      </c>
+      <c r="G264" s="2">
         <v>25342</v>
-      </c>
-      <c r="G264" s="2">
-        <v>26013</v>
       </c>
       <c r="H264" t="s">
         <v>12</v>
       </c>
       <c r="I264" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J264" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>11211</v>
+        <v>11210</v>
       </c>
       <c r="B265" t="s">
         <v>69</v>
       </c>
       <c r="C265" s="2">
+        <v>24585</v>
+      </c>
+      <c r="E265">
+        <v>10</v>
+      </c>
+      <c r="F265" s="2">
+        <v>25342</v>
+      </c>
+      <c r="G265" s="2">
         <v>26013</v>
       </c>
-      <c r="E265">
-        <v>11</v>
-      </c>
-      <c r="F265" s="2">
-        <v>26071</v>
-      </c>
-      <c r="G265" s="2">
-        <v>27462</v>
-      </c>
       <c r="H265" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I265" t="s">
         <v>196</v>
@@ -8847,24 +8849,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>11212</v>
+        <v>11211</v>
       </c>
       <c r="B266" t="s">
         <v>69</v>
       </c>
       <c r="C266" s="2">
+        <v>26013</v>
+      </c>
+      <c r="E266">
+        <v>11</v>
+      </c>
+      <c r="F266" s="2">
+        <v>26071</v>
+      </c>
+      <c r="G266" s="2">
         <v>27462</v>
-      </c>
-      <c r="E266">
-        <v>12</v>
-      </c>
-      <c r="F266" s="2">
-        <v>27534</v>
-      </c>
-      <c r="G266" s="2">
-        <v>28096</v>
       </c>
       <c r="H266" t="s">
         <v>14</v>
@@ -8876,9 +8878,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>11213</v>
+        <v>11212</v>
       </c>
       <c r="B267" t="s">
         <v>69</v>
@@ -8887,42 +8889,42 @@
         <v>27462</v>
       </c>
       <c r="E267">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F267" s="2">
+        <v>27534</v>
+      </c>
+      <c r="G267" s="2">
         <v>28096</v>
       </c>
-      <c r="G267" s="2">
-        <v>28932</v>
-      </c>
       <c r="H267" t="s">
         <v>14</v>
       </c>
       <c r="I267" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J267" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>11214</v>
+        <v>11213</v>
       </c>
       <c r="B268" t="s">
         <v>69</v>
       </c>
       <c r="C268" s="2">
+        <v>27462</v>
+      </c>
+      <c r="E268">
+        <v>13</v>
+      </c>
+      <c r="F268" s="2">
+        <v>28096</v>
+      </c>
+      <c r="G268" s="2">
         <v>28932</v>
-      </c>
-      <c r="E268">
-        <v>14</v>
-      </c>
-      <c r="F268" s="2">
-        <v>28993</v>
-      </c>
-      <c r="G268" s="2">
-        <v>30381</v>
       </c>
       <c r="H268" t="s">
         <v>14</v>
@@ -8934,24 +8936,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>11215</v>
+        <v>11214</v>
       </c>
       <c r="B269" t="s">
         <v>69</v>
       </c>
       <c r="C269" s="2">
+        <v>28932</v>
+      </c>
+      <c r="E269">
+        <v>14</v>
+      </c>
+      <c r="F269" s="2">
+        <v>28993</v>
+      </c>
+      <c r="G269" s="2">
         <v>30381</v>
-      </c>
-      <c r="E269">
-        <v>15</v>
-      </c>
-      <c r="F269" s="2">
-        <v>30454</v>
-      </c>
-      <c r="G269" s="2">
-        <v>31914</v>
       </c>
       <c r="H269" t="s">
         <v>14</v>
@@ -8963,27 +8965,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>11216</v>
+        <v>11215</v>
       </c>
       <c r="B270" t="s">
         <v>69</v>
       </c>
       <c r="C270" s="2">
+        <v>30381</v>
+      </c>
+      <c r="E270">
+        <v>15</v>
+      </c>
+      <c r="F270" s="2">
+        <v>30454</v>
+      </c>
+      <c r="G270" s="2">
         <v>31914</v>
       </c>
-      <c r="E270">
-        <v>16</v>
-      </c>
-      <c r="F270" s="2">
-        <v>31951</v>
-      </c>
-      <c r="G270" s="2">
-        <v>32485</v>
-      </c>
       <c r="H270" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I270" t="s">
         <v>197</v>
@@ -8992,9 +8994,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="B271" t="s">
         <v>69</v>
@@ -9003,56 +9005,56 @@
         <v>31914</v>
       </c>
       <c r="E271">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F271" s="2">
+        <v>31951</v>
+      </c>
+      <c r="G271" s="2">
         <v>32485</v>
-      </c>
-      <c r="G271" s="2">
-        <v>33349</v>
       </c>
       <c r="H271" t="s">
         <v>12</v>
       </c>
       <c r="I271" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J271" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>11218</v>
+        <v>11217</v>
       </c>
       <c r="B272" t="s">
         <v>69</v>
       </c>
       <c r="C272" s="2">
+        <v>31914</v>
+      </c>
+      <c r="E272">
+        <v>17</v>
+      </c>
+      <c r="F272" s="2">
+        <v>32485</v>
+      </c>
+      <c r="G272" s="2">
         <v>33349</v>
       </c>
-      <c r="E272">
-        <v>18</v>
-      </c>
-      <c r="F272" s="2">
-        <v>33379</v>
-      </c>
-      <c r="G272" s="2">
-        <v>34633</v>
-      </c>
       <c r="H272" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I272" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J272" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>11219</v>
+        <v>11218</v>
       </c>
       <c r="B273" t="s">
         <v>69</v>
@@ -9061,42 +9063,42 @@
         <v>33349</v>
       </c>
       <c r="E273">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F273" s="2">
+        <v>33379</v>
+      </c>
+      <c r="G273" s="2">
         <v>34633</v>
-      </c>
-      <c r="G273" s="2">
-        <v>35148</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
       </c>
       <c r="I273" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J273" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>11220</v>
+        <v>11219</v>
       </c>
       <c r="B274" t="s">
         <v>69</v>
       </c>
       <c r="C274" s="2">
+        <v>33349</v>
+      </c>
+      <c r="E274">
+        <v>19</v>
+      </c>
+      <c r="F274" s="2">
+        <v>34633</v>
+      </c>
+      <c r="G274" s="2">
         <v>35148</v>
-      </c>
-      <c r="E274">
-        <v>20</v>
-      </c>
-      <c r="F274" s="2">
-        <v>35205</v>
-      </c>
-      <c r="G274" s="2">
-        <v>36975</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9108,27 +9110,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>11221</v>
+        <v>11220</v>
       </c>
       <c r="B275" t="s">
         <v>69</v>
       </c>
       <c r="C275" s="2">
+        <v>35148</v>
+      </c>
+      <c r="E275">
+        <v>20</v>
+      </c>
+      <c r="F275" s="2">
+        <v>35205</v>
+      </c>
+      <c r="G275" s="2">
         <v>36975</v>
       </c>
-      <c r="E275">
-        <v>21</v>
-      </c>
-      <c r="F275" s="2">
-        <v>37029</v>
-      </c>
-      <c r="G275" s="2">
-        <v>38855</v>
-      </c>
       <c r="H275" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I275" t="s">
         <v>200</v>
@@ -9137,27 +9139,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>11222</v>
+        <v>11221</v>
       </c>
       <c r="B276" t="s">
         <v>69</v>
       </c>
       <c r="C276" s="2">
-        <v>38802</v>
+        <v>36975</v>
       </c>
       <c r="E276">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F276" s="2">
+        <v>37029</v>
+      </c>
+      <c r="G276" s="2">
         <v>38855</v>
       </c>
-      <c r="G276" s="2">
-        <v>40681</v>
-      </c>
       <c r="H276" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I276" t="s">
         <v>200</v>
@@ -9166,27 +9168,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B277" t="s">
         <v>69</v>
       </c>
       <c r="C277" s="2">
-        <v>40629</v>
+        <v>38802</v>
       </c>
       <c r="E277">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F277" s="2">
+        <v>38855</v>
+      </c>
+      <c r="G277" s="2">
         <v>40681</v>
       </c>
-      <c r="G277" s="2">
-        <v>41290</v>
-      </c>
       <c r="H277" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I277" t="s">
         <v>200</v>
@@ -9195,9 +9197,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B278" t="s">
         <v>69</v>
@@ -9206,45 +9208,45 @@
         <v>40629</v>
       </c>
       <c r="E278">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F278" s="2">
+        <v>40681</v>
+      </c>
+      <c r="G278" s="2">
         <v>41290</v>
-      </c>
-      <c r="G278" s="2">
-        <v>42508</v>
       </c>
       <c r="H278" t="s">
         <v>30</v>
       </c>
       <c r="I278" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J278" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B279" t="s">
         <v>69</v>
       </c>
       <c r="C279" s="2">
-        <v>42442</v>
+        <v>40629</v>
       </c>
       <c r="E279">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F279" s="2">
+        <v>41290</v>
+      </c>
+      <c r="G279" s="2">
         <v>42508</v>
       </c>
-      <c r="G279" s="2">
-        <v>44334</v>
-      </c>
       <c r="H279" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I279" t="s">
         <v>201</v>
@@ -9253,27 +9255,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B280" t="s">
         <v>69</v>
       </c>
       <c r="C280" s="2">
-        <v>44269</v>
+        <v>42442</v>
       </c>
       <c r="E280">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F280" s="2">
+        <v>42508</v>
+      </c>
+      <c r="G280" s="2">
         <v>44334</v>
       </c>
-      <c r="G280" s="2">
-        <v>401768</v>
-      </c>
       <c r="H280" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I280" t="s">
         <v>201</v>
@@ -9282,38 +9284,38 @@
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
+        <v>11226</v>
+      </c>
+      <c r="B281" t="s">
+        <v>69</v>
+      </c>
+      <c r="C281" s="2">
+        <v>44269</v>
+      </c>
+      <c r="E281">
+        <v>26</v>
+      </c>
+      <c r="F281" s="2">
+        <v>44334</v>
+      </c>
+      <c r="G281" s="2">
+        <v>401768</v>
+      </c>
+      <c r="H281" t="s">
+        <v>40</v>
+      </c>
+      <c r="I281" t="s">
+        <v>201</v>
+      </c>
+      <c r="J281" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>11314</v>
-      </c>
-      <c r="B281" t="s">
-        <v>71</v>
-      </c>
-      <c r="C281" s="2">
-        <v>17445</v>
-      </c>
-      <c r="E281">
-        <v>1</v>
-      </c>
-      <c r="F281" s="2">
-        <v>17521</v>
-      </c>
-      <c r="G281" s="2">
-        <v>18732</v>
-      </c>
-      <c r="H281" t="s">
-        <v>72</v>
-      </c>
-      <c r="I281" t="s">
-        <v>202</v>
-      </c>
-      <c r="J281" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A282">
-        <v>11315</v>
       </c>
       <c r="B282" t="s">
         <v>71</v>
@@ -9322,16 +9324,16 @@
         <v>17445</v>
       </c>
       <c r="E282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F282" s="2">
+        <v>17521</v>
+      </c>
+      <c r="G282" s="2">
         <v>18732</v>
       </c>
-      <c r="G282" s="2">
-        <v>19351</v>
-      </c>
       <c r="H282" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I282" t="s">
         <v>202</v>
@@ -9340,27 +9342,27 @@
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B283" t="s">
         <v>71</v>
       </c>
       <c r="C283" s="2">
-        <v>19328</v>
+        <v>17445</v>
       </c>
       <c r="E283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F283" s="2">
+        <v>18732</v>
+      </c>
+      <c r="G283" s="2">
         <v>19351</v>
       </c>
-      <c r="G283" s="2">
-        <v>19922</v>
-      </c>
       <c r="H283" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I283" t="s">
         <v>202</v>
@@ -9369,9 +9371,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B284" t="s">
         <v>71</v>
@@ -9380,16 +9382,16 @@
         <v>19328</v>
       </c>
       <c r="E284">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F284" s="2">
+        <v>19351</v>
+      </c>
+      <c r="G284" s="2">
         <v>19922</v>
       </c>
-      <c r="G284" s="2">
-        <v>20391</v>
-      </c>
       <c r="H284" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I284" t="s">
         <v>202</v>
@@ -9398,9 +9400,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>11318</v>
+        <v>11317</v>
       </c>
       <c r="B285" t="s">
         <v>71</v>
@@ -9408,60 +9410,60 @@
       <c r="C285" s="2">
         <v>19328</v>
       </c>
-      <c r="D285" t="s">
-        <v>74</v>
-      </c>
       <c r="E285">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F285" s="2">
+        <v>19922</v>
+      </c>
+      <c r="G285" s="2">
         <v>20391</v>
       </c>
-      <c r="G285" s="2">
-        <v>20464</v>
-      </c>
       <c r="H285" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I285" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J285" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B286" t="s">
         <v>71</v>
       </c>
       <c r="C286" s="2">
-        <v>20441</v>
+        <v>19328</v>
+      </c>
+      <c r="D286" t="s">
+        <v>74</v>
       </c>
       <c r="E286">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F286" s="2">
+        <v>20391</v>
+      </c>
+      <c r="G286" s="2">
         <v>20464</v>
       </c>
-      <c r="G286" s="2">
-        <v>20806</v>
-      </c>
       <c r="H286" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I286" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J286" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B287" t="s">
         <v>71</v>
@@ -9470,27 +9472,27 @@
         <v>20441</v>
       </c>
       <c r="E287">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F287" s="2">
+        <v>20464</v>
+      </c>
+      <c r="G287" s="2">
         <v>20806</v>
       </c>
-      <c r="G287" s="2">
-        <v>20975</v>
-      </c>
       <c r="H287" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I287" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J287" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B288" t="s">
         <v>71</v>
@@ -9499,16 +9501,16 @@
         <v>20441</v>
       </c>
       <c r="E288">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F288" s="2">
+        <v>20806</v>
+      </c>
+      <c r="G288" s="2">
         <v>20975</v>
       </c>
-      <c r="G288" s="2">
-        <v>21607</v>
-      </c>
       <c r="H288" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="I288" t="s">
         <v>205</v>
@@ -9517,9 +9519,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B289" t="s">
         <v>71</v>
@@ -9528,16 +9530,16 @@
         <v>20441</v>
       </c>
       <c r="E289">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F289" s="2">
+        <v>20975</v>
+      </c>
+      <c r="G289" s="2">
         <v>21607</v>
       </c>
-      <c r="G289" s="2">
-        <v>21670</v>
-      </c>
       <c r="H289" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I289" t="s">
         <v>205</v>
@@ -9546,9 +9548,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B290" t="s">
         <v>71</v>
@@ -9557,45 +9559,45 @@
         <v>20441</v>
       </c>
       <c r="E290">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F290" s="2">
+        <v>21607</v>
+      </c>
+      <c r="G290" s="2">
         <v>21670</v>
       </c>
-      <c r="G290" s="2">
-        <v>22298</v>
-      </c>
       <c r="H290" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="I290" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J290" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>11301</v>
+        <v>11323</v>
       </c>
       <c r="B291" t="s">
         <v>71</v>
       </c>
       <c r="C291" s="2">
-        <v>22254</v>
+        <v>20441</v>
       </c>
       <c r="E291">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F291" s="2">
+        <v>21670</v>
+      </c>
+      <c r="G291" s="2">
         <v>22298</v>
       </c>
-      <c r="G291" s="2">
-        <v>23920</v>
-      </c>
       <c r="H291" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I291" t="s">
         <v>206</v>
@@ -9604,24 +9606,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>11302</v>
+        <v>11301</v>
       </c>
       <c r="B292" t="s">
         <v>71</v>
       </c>
       <c r="C292" s="2">
+        <v>22254</v>
+      </c>
+      <c r="E292">
+        <v>11</v>
+      </c>
+      <c r="F292" s="2">
+        <v>22298</v>
+      </c>
+      <c r="G292" s="2">
         <v>23920</v>
-      </c>
-      <c r="E292">
-        <v>12</v>
-      </c>
-      <c r="F292" s="2">
-        <v>23933</v>
-      </c>
-      <c r="G292" s="2">
-        <v>25733</v>
       </c>
       <c r="H292" t="s">
         <v>12</v>
@@ -9633,27 +9635,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>11303</v>
+        <v>11302</v>
       </c>
       <c r="B293" t="s">
         <v>71</v>
       </c>
       <c r="C293" s="2">
+        <v>23920</v>
+      </c>
+      <c r="E293">
+        <v>12</v>
+      </c>
+      <c r="F293" s="2">
+        <v>23933</v>
+      </c>
+      <c r="G293" s="2">
         <v>25733</v>
       </c>
-      <c r="E293">
-        <v>13</v>
-      </c>
-      <c r="F293" s="2">
-        <v>25762</v>
-      </c>
-      <c r="G293" s="2">
-        <v>27518</v>
-      </c>
       <c r="H293" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I293" t="s">
         <v>206</v>
@@ -9662,24 +9664,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>11304</v>
+        <v>11303</v>
       </c>
       <c r="B294" t="s">
         <v>71</v>
       </c>
       <c r="C294" s="2">
+        <v>25733</v>
+      </c>
+      <c r="E294">
+        <v>13</v>
+      </c>
+      <c r="F294" s="2">
+        <v>25762</v>
+      </c>
+      <c r="G294" s="2">
         <v>27518</v>
-      </c>
-      <c r="E294">
-        <v>14</v>
-      </c>
-      <c r="F294" s="2">
-        <v>27518</v>
-      </c>
-      <c r="G294" s="2">
-        <v>28185</v>
       </c>
       <c r="H294" t="s">
         <v>14</v>
@@ -9691,9 +9693,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>11305</v>
+        <v>11304</v>
       </c>
       <c r="B295" t="s">
         <v>71</v>
@@ -9702,16 +9704,16 @@
         <v>27518</v>
       </c>
       <c r="E295">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F295" s="2">
+        <v>27518</v>
+      </c>
+      <c r="G295" s="2">
         <v>28185</v>
       </c>
-      <c r="G295" s="2">
-        <v>29041</v>
-      </c>
       <c r="H295" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I295" t="s">
         <v>206</v>
@@ -9720,9 +9722,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>11306</v>
+        <v>11305</v>
       </c>
       <c r="B296" t="s">
         <v>71</v>
@@ -9731,42 +9733,42 @@
         <v>27518</v>
       </c>
       <c r="E296">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F296" s="2">
+        <v>28185</v>
+      </c>
+      <c r="G296" s="2">
         <v>29041</v>
-      </c>
-      <c r="G296" s="2">
-        <v>29338</v>
       </c>
       <c r="H296" t="s">
         <v>12</v>
       </c>
       <c r="I296" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J296" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>11307</v>
+        <v>11306</v>
       </c>
       <c r="B297" t="s">
         <v>71</v>
       </c>
       <c r="C297" s="2">
+        <v>27518</v>
+      </c>
+      <c r="E297">
+        <v>16</v>
+      </c>
+      <c r="F297" s="2">
+        <v>29041</v>
+      </c>
+      <c r="G297" s="2">
         <v>29338</v>
-      </c>
-      <c r="E297">
-        <v>17</v>
-      </c>
-      <c r="F297" s="2">
-        <v>29364</v>
-      </c>
-      <c r="G297" s="2">
-        <v>31116</v>
       </c>
       <c r="H297" t="s">
         <v>12</v>
@@ -9778,53 +9780,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>11308</v>
+        <v>11307</v>
       </c>
       <c r="B298" t="s">
         <v>71</v>
       </c>
       <c r="C298" s="2">
+        <v>29338</v>
+      </c>
+      <c r="E298">
+        <v>17</v>
+      </c>
+      <c r="F298" s="2">
+        <v>29364</v>
+      </c>
+      <c r="G298" s="2">
         <v>31116</v>
       </c>
-      <c r="E298">
-        <v>18</v>
-      </c>
-      <c r="F298" s="2">
-        <v>31146</v>
-      </c>
-      <c r="G298" s="2">
-        <v>32901</v>
-      </c>
       <c r="H298" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I298" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J298" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>11309</v>
+        <v>11308</v>
       </c>
       <c r="B299" t="s">
         <v>71</v>
       </c>
       <c r="C299" s="2">
+        <v>31116</v>
+      </c>
+      <c r="E299">
+        <v>18</v>
+      </c>
+      <c r="F299" s="2">
+        <v>31146</v>
+      </c>
+      <c r="G299" s="2">
         <v>32901</v>
-      </c>
-      <c r="E299">
-        <v>19</v>
-      </c>
-      <c r="F299" s="2">
-        <v>32925</v>
-      </c>
-      <c r="G299" s="2">
-        <v>34623</v>
       </c>
       <c r="H299" t="s">
         <v>29</v>
@@ -9836,24 +9838,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>11310</v>
+        <v>11309</v>
       </c>
       <c r="B300" t="s">
         <v>71</v>
       </c>
       <c r="C300" s="2">
+        <v>32901</v>
+      </c>
+      <c r="E300">
+        <v>19</v>
+      </c>
+      <c r="F300" s="2">
+        <v>32925</v>
+      </c>
+      <c r="G300" s="2">
         <v>34623</v>
-      </c>
-      <c r="E300">
-        <v>20</v>
-      </c>
-      <c r="F300" s="2">
-        <v>34647</v>
-      </c>
-      <c r="G300" s="2">
-        <v>36109</v>
       </c>
       <c r="H300" t="s">
         <v>29</v>
@@ -9865,9 +9867,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>11311</v>
+        <v>11310</v>
       </c>
       <c r="B301" t="s">
         <v>71</v>
@@ -9876,71 +9878,71 @@
         <v>34623</v>
       </c>
       <c r="E301">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F301" s="2">
+        <v>34647</v>
+      </c>
+      <c r="G301" s="2">
         <v>36109</v>
       </c>
-      <c r="G301" s="2">
-        <v>36408</v>
-      </c>
       <c r="H301" t="s">
         <v>29</v>
       </c>
       <c r="I301" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J301" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>11312</v>
+        <v>11311</v>
       </c>
       <c r="B302" t="s">
         <v>71</v>
       </c>
       <c r="C302" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E302">
+        <v>21</v>
+      </c>
+      <c r="F302" s="2">
+        <v>36109</v>
+      </c>
+      <c r="G302" s="2">
         <v>36408</v>
       </c>
-      <c r="E302">
-        <v>22</v>
-      </c>
-      <c r="F302" s="2">
-        <v>36432</v>
-      </c>
-      <c r="G302" s="2">
-        <v>38235</v>
-      </c>
       <c r="H302" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I302" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J302" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>11313</v>
+        <v>11312</v>
       </c>
       <c r="B303" t="s">
         <v>71</v>
       </c>
       <c r="C303" s="2">
+        <v>36408</v>
+      </c>
+      <c r="E303">
+        <v>22</v>
+      </c>
+      <c r="F303" s="2">
+        <v>36432</v>
+      </c>
+      <c r="G303" s="2">
         <v>38235</v>
-      </c>
-      <c r="E303">
-        <v>23</v>
-      </c>
-      <c r="F303" s="2">
-        <v>38266</v>
-      </c>
-      <c r="G303" s="2">
-        <v>40127</v>
       </c>
       <c r="H303" t="s">
         <v>14</v>
@@ -9952,27 +9954,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B304" t="s">
         <v>71</v>
       </c>
       <c r="C304" s="2">
-        <v>40055</v>
+        <v>38235</v>
       </c>
       <c r="E304">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F304" s="2">
+        <v>38266</v>
+      </c>
+      <c r="G304" s="2">
         <v>40127</v>
       </c>
-      <c r="G304" s="2">
-        <v>40764</v>
-      </c>
       <c r="H304" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="I304" t="s">
         <v>210</v>
@@ -9981,9 +9983,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B305" t="s">
         <v>71</v>
@@ -9992,27 +9994,27 @@
         <v>40055</v>
       </c>
       <c r="E305">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F305" s="2">
+        <v>40127</v>
+      </c>
+      <c r="G305" s="2">
         <v>40764</v>
-      </c>
-      <c r="G305" s="2">
-        <v>40926</v>
       </c>
       <c r="H305" t="s">
         <v>78</v>
       </c>
       <c r="I305" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J305" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B306" t="s">
         <v>71</v>
@@ -10021,16 +10023,16 @@
         <v>40055</v>
       </c>
       <c r="E306">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F306" s="2">
+        <v>40764</v>
+      </c>
+      <c r="G306" s="2">
         <v>40926</v>
       </c>
-      <c r="G306" s="2">
-        <v>41038</v>
-      </c>
       <c r="H306" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="I306" t="s">
         <v>211</v>
@@ -10039,27 +10041,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B307" t="s">
         <v>71</v>
       </c>
       <c r="C307" s="2">
-        <v>40993</v>
+        <v>40055</v>
       </c>
       <c r="E307">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F307" s="2">
+        <v>40926</v>
+      </c>
+      <c r="G307" s="2">
         <v>41038</v>
       </c>
-      <c r="G307" s="2">
-        <v>42872</v>
-      </c>
       <c r="H307" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I307" t="s">
         <v>211</v>
@@ -10068,24 +10070,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B308" t="s">
         <v>71</v>
       </c>
       <c r="C308" s="2">
-        <v>42820</v>
+        <v>40993</v>
       </c>
       <c r="E308">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F308" s="2">
+        <v>41038</v>
+      </c>
+      <c r="G308" s="2">
         <v>42872</v>
-      </c>
-      <c r="G308" s="2">
-        <v>43160</v>
       </c>
       <c r="H308" t="s">
         <v>13</v>
@@ -10097,9 +10099,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B309" t="s">
         <v>71</v>
@@ -10108,100 +10110,100 @@
         <v>42820</v>
       </c>
       <c r="E309">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F309" s="2">
+        <v>42872</v>
+      </c>
+      <c r="G309" s="2">
         <v>43160</v>
-      </c>
-      <c r="G309" s="2">
-        <v>44676</v>
       </c>
       <c r="H309" t="s">
         <v>13</v>
       </c>
       <c r="I309" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J309" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B310" t="s">
         <v>71</v>
       </c>
       <c r="C310" s="2">
+        <v>42820</v>
+      </c>
+      <c r="E310">
+        <v>29</v>
+      </c>
+      <c r="F310" s="2">
+        <v>43160</v>
+      </c>
+      <c r="G310" s="2">
+        <v>44676</v>
+      </c>
+      <c r="H310" t="s">
+        <v>13</v>
+      </c>
+      <c r="I310" t="s">
+        <v>212</v>
+      </c>
+      <c r="J310" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>11330</v>
+      </c>
+      <c r="B311" t="s">
+        <v>71</v>
+      </c>
+      <c r="C311" s="2">
         <v>44647</v>
       </c>
-      <c r="E310">
+      <c r="E311">
         <v>30</v>
       </c>
-      <c r="F310" s="2">
+      <c r="F311" s="2">
         <v>44676</v>
       </c>
-      <c r="G310" s="2">
+      <c r="G311" s="2">
         <v>401768</v>
       </c>
-      <c r="H310" t="s">
-        <v>29</v>
-      </c>
-      <c r="I310" t="s">
+      <c r="H311" t="s">
+        <v>29</v>
+      </c>
+      <c r="I311" t="s">
         <v>242</v>
       </c>
-      <c r="J310" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A311">
+      <c r="J311" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312">
         <v>11401</v>
-      </c>
-      <c r="B311" t="s">
-        <v>79</v>
-      </c>
-      <c r="C311" s="2">
-        <v>33160</v>
-      </c>
-      <c r="E311">
-        <v>1</v>
-      </c>
-      <c r="F311" s="2">
-        <v>33173</v>
-      </c>
-      <c r="G311" s="2">
-        <v>34588</v>
-      </c>
-      <c r="H311" t="s">
-        <v>14</v>
-      </c>
-      <c r="I311" t="s">
-        <v>213</v>
-      </c>
-      <c r="J311" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A312">
-        <v>11402</v>
       </c>
       <c r="B312" t="s">
         <v>79</v>
       </c>
       <c r="C312" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312" s="2">
+        <v>33173</v>
+      </c>
+      <c r="G312" s="2">
         <v>34588</v>
-      </c>
-      <c r="E312">
-        <v>2</v>
-      </c>
-      <c r="F312" s="2">
-        <v>34613</v>
-      </c>
-      <c r="G312" s="2">
-        <v>36422</v>
       </c>
       <c r="H312" t="s">
         <v>14</v>
@@ -10213,24 +10215,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>11403</v>
+        <v>11402</v>
       </c>
       <c r="B313" t="s">
         <v>79</v>
       </c>
       <c r="C313" s="2">
+        <v>34588</v>
+      </c>
+      <c r="E313">
+        <v>2</v>
+      </c>
+      <c r="F313" s="2">
+        <v>34613</v>
+      </c>
+      <c r="G313" s="2">
         <v>36422</v>
-      </c>
-      <c r="E313">
-        <v>3</v>
-      </c>
-      <c r="F313" s="2">
-        <v>36446</v>
-      </c>
-      <c r="G313" s="2">
-        <v>37364</v>
       </c>
       <c r="H313" t="s">
         <v>14</v>
@@ -10242,9 +10244,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>11404</v>
+        <v>11403</v>
       </c>
       <c r="B314" t="s">
         <v>79</v>
@@ -10253,45 +10255,45 @@
         <v>36422</v>
       </c>
       <c r="E314">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F314" s="2">
+        <v>36446</v>
+      </c>
+      <c r="G314" s="2">
         <v>37364</v>
       </c>
-      <c r="G314" s="2">
-        <v>38249</v>
-      </c>
       <c r="H314" t="s">
         <v>14</v>
       </c>
       <c r="I314" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J314" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>11405</v>
+        <v>11404</v>
       </c>
       <c r="B315" t="s">
         <v>79</v>
       </c>
       <c r="C315" s="2">
+        <v>36422</v>
+      </c>
+      <c r="E315">
+        <v>4</v>
+      </c>
+      <c r="F315" s="2">
+        <v>37364</v>
+      </c>
+      <c r="G315" s="2">
         <v>38249</v>
       </c>
-      <c r="E315">
-        <v>5</v>
-      </c>
-      <c r="F315" s="2">
-        <v>38301</v>
-      </c>
-      <c r="G315" s="2">
-        <v>39617</v>
-      </c>
       <c r="H315" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I315" t="s">
         <v>214</v>
@@ -10300,9 +10302,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B316" t="s">
         <v>79</v>
@@ -10311,45 +10313,45 @@
         <v>38249</v>
       </c>
       <c r="E316">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F316" s="2">
+        <v>38301</v>
+      </c>
+      <c r="G316" s="2">
         <v>39617</v>
-      </c>
-      <c r="G316" s="2">
-        <v>40086</v>
       </c>
       <c r="H316" t="s">
         <v>13</v>
       </c>
       <c r="I316" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J316" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B317" t="s">
         <v>79</v>
       </c>
       <c r="C317" s="2">
-        <v>40055</v>
+        <v>38249</v>
       </c>
       <c r="E317">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F317" s="2">
+        <v>39617</v>
+      </c>
+      <c r="G317" s="2">
         <v>40086</v>
       </c>
-      <c r="G317" s="2">
-        <v>41956</v>
-      </c>
       <c r="H317" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I317" t="s">
         <v>215</v>
@@ -10358,27 +10360,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B318" t="s">
         <v>79</v>
       </c>
       <c r="C318" s="2">
-        <v>41882</v>
+        <v>40055</v>
       </c>
       <c r="E318">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F318" s="2">
+        <v>40086</v>
+      </c>
+      <c r="G318" s="2">
         <v>41956</v>
       </c>
-      <c r="G318" s="2">
-        <v>43082</v>
-      </c>
       <c r="H318" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I318" t="s">
         <v>215</v>
@@ -10387,9 +10389,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B319" t="s">
         <v>79</v>
@@ -10398,45 +10400,45 @@
         <v>41882</v>
       </c>
       <c r="E319">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F319" s="2">
+        <v>41956</v>
+      </c>
+      <c r="G319" s="2">
         <v>43082</v>
-      </c>
-      <c r="G319" s="2">
-        <v>43819</v>
       </c>
       <c r="H319" t="s">
         <v>13</v>
       </c>
       <c r="I319" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J319" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B320" t="s">
         <v>79</v>
       </c>
       <c r="C320" s="2">
-        <v>43709</v>
+        <v>41882</v>
       </c>
       <c r="E320">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F320" s="2">
+        <v>43082</v>
+      </c>
+      <c r="G320" s="2">
         <v>43819</v>
       </c>
-      <c r="G320" s="2">
-        <v>401768</v>
-      </c>
       <c r="H320" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="I320" t="s">
         <v>216</v>
@@ -10445,38 +10447,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
+        <v>11410</v>
+      </c>
+      <c r="B321" t="s">
+        <v>79</v>
+      </c>
+      <c r="C321" s="2">
+        <v>43709</v>
+      </c>
+      <c r="E321">
+        <v>10</v>
+      </c>
+      <c r="F321" s="2">
+        <v>43819</v>
+      </c>
+      <c r="G321" s="2">
+        <v>401768</v>
+      </c>
+      <c r="H321" t="s">
+        <v>80</v>
+      </c>
+      <c r="I321" t="s">
+        <v>216</v>
+      </c>
+      <c r="J321" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322">
         <v>11501</v>
-      </c>
-      <c r="B321" t="s">
-        <v>81</v>
-      </c>
-      <c r="C321" s="2">
-        <v>33160</v>
-      </c>
-      <c r="E321">
-        <v>1</v>
-      </c>
-      <c r="F321" s="2">
-        <v>33174</v>
-      </c>
-      <c r="G321" s="2">
-        <v>33423</v>
-      </c>
-      <c r="H321" t="s">
-        <v>12</v>
-      </c>
-      <c r="I321" t="s">
-        <v>217</v>
-      </c>
-      <c r="J321" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A322">
-        <v>11502</v>
       </c>
       <c r="B322" t="s">
         <v>81</v>
@@ -10485,27 +10487,27 @@
         <v>33160</v>
       </c>
       <c r="E322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F322" s="2">
+        <v>33174</v>
+      </c>
+      <c r="G322" s="2">
         <v>33423</v>
-      </c>
-      <c r="G322" s="2">
-        <v>34305</v>
       </c>
       <c r="H322" t="s">
         <v>12</v>
       </c>
       <c r="I322" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J322" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>11503</v>
+        <v>11502</v>
       </c>
       <c r="B323" t="s">
         <v>81</v>
@@ -10514,74 +10516,74 @@
         <v>33160</v>
       </c>
       <c r="E323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F323" s="2">
+        <v>33423</v>
+      </c>
+      <c r="G323" s="2">
         <v>34305</v>
-      </c>
-      <c r="G323" s="2">
-        <v>34511</v>
       </c>
       <c r="H323" t="s">
         <v>12</v>
       </c>
       <c r="I323" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J323" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>11504</v>
+        <v>11503</v>
       </c>
       <c r="B324" t="s">
         <v>81</v>
       </c>
       <c r="C324" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E324">
+        <v>3</v>
+      </c>
+      <c r="F324" s="2">
+        <v>34305</v>
+      </c>
+      <c r="G324" s="2">
         <v>34511</v>
       </c>
-      <c r="E324">
-        <v>4</v>
-      </c>
-      <c r="F324" s="2">
-        <v>34536</v>
-      </c>
-      <c r="G324" s="2">
-        <v>35911</v>
-      </c>
       <c r="H324" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I324" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J324" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>11505</v>
+        <v>11504</v>
       </c>
       <c r="B325" t="s">
         <v>81</v>
       </c>
       <c r="C325" s="2">
+        <v>34511</v>
+      </c>
+      <c r="E325">
+        <v>4</v>
+      </c>
+      <c r="F325" s="2">
+        <v>34536</v>
+      </c>
+      <c r="G325" s="2">
         <v>35911</v>
       </c>
-      <c r="E325">
-        <v>5</v>
-      </c>
-      <c r="F325" s="2">
-        <v>35941</v>
-      </c>
-      <c r="G325" s="2">
-        <v>37367</v>
-      </c>
       <c r="H325" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I325" t="s">
         <v>220</v>
@@ -10590,56 +10592,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>11506</v>
+        <v>11505</v>
       </c>
       <c r="B326" t="s">
         <v>81</v>
       </c>
       <c r="C326" s="2">
+        <v>35911</v>
+      </c>
+      <c r="E326">
+        <v>5</v>
+      </c>
+      <c r="F326" s="2">
+        <v>35941</v>
+      </c>
+      <c r="G326" s="2">
         <v>37367</v>
       </c>
-      <c r="E326">
-        <v>6</v>
-      </c>
-      <c r="F326" s="2">
-        <v>37392</v>
-      </c>
-      <c r="G326" s="2">
-        <v>38831</v>
-      </c>
       <c r="H326" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I326" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J326" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B327" t="s">
         <v>81</v>
       </c>
       <c r="C327" s="2">
-        <v>38802</v>
+        <v>37367</v>
       </c>
       <c r="E327">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F327" s="2">
+        <v>37392</v>
+      </c>
+      <c r="G327" s="2">
         <v>38831</v>
       </c>
-      <c r="G327" s="2">
-        <v>40652</v>
-      </c>
       <c r="H327" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I327" t="s">
         <v>221</v>
@@ -10648,56 +10650,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B328" t="s">
         <v>81</v>
       </c>
       <c r="C328" s="2">
-        <v>40622</v>
+        <v>38802</v>
       </c>
       <c r="E328">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F328" s="2">
+        <v>38831</v>
+      </c>
+      <c r="G328" s="2">
         <v>40652</v>
-      </c>
-      <c r="G328" s="2">
-        <v>42485</v>
       </c>
       <c r="H328" t="s">
         <v>13</v>
       </c>
       <c r="I328" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J328" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B329" t="s">
         <v>81</v>
       </c>
       <c r="C329" s="2">
-        <v>42442</v>
+        <v>40622</v>
       </c>
       <c r="E329">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F329" s="2">
+        <v>40652</v>
+      </c>
+      <c r="G329" s="2">
         <v>42485</v>
       </c>
-      <c r="G329" s="2">
-        <v>44455</v>
-      </c>
       <c r="H329" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="I329" t="s">
         <v>222</v>
@@ -10706,27 +10708,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B330" t="s">
         <v>81</v>
       </c>
       <c r="C330" s="2">
-        <v>44353</v>
+        <v>42442</v>
       </c>
       <c r="E330">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F330" s="2">
+        <v>42485</v>
+      </c>
+      <c r="G330" s="2">
         <v>44455</v>
       </c>
-      <c r="G330" s="2">
-        <v>401768</v>
-      </c>
       <c r="H330" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I330" t="s">
         <v>222</v>
@@ -10735,38 +10737,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
+        <v>11510</v>
+      </c>
+      <c r="B331" t="s">
+        <v>81</v>
+      </c>
+      <c r="C331" s="2">
+        <v>44353</v>
+      </c>
+      <c r="E331">
+        <v>10</v>
+      </c>
+      <c r="F331" s="2">
+        <v>44455</v>
+      </c>
+      <c r="G331" s="2">
+        <v>401768</v>
+      </c>
+      <c r="H331" t="s">
+        <v>43</v>
+      </c>
+      <c r="I331" t="s">
+        <v>222</v>
+      </c>
+      <c r="J331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332">
         <v>11601</v>
-      </c>
-      <c r="B331" t="s">
-        <v>83</v>
-      </c>
-      <c r="C331" s="2">
-        <v>17277</v>
-      </c>
-      <c r="E331">
-        <v>1</v>
-      </c>
-      <c r="F331" s="2">
-        <v>17286</v>
-      </c>
-      <c r="G331" s="2">
-        <v>18139</v>
-      </c>
-      <c r="H331" t="s">
-        <v>29</v>
-      </c>
-      <c r="I331" t="s">
-        <v>223</v>
-      </c>
-      <c r="J331" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A332">
-        <v>11602</v>
       </c>
       <c r="B332" t="s">
         <v>83</v>
@@ -10775,56 +10777,56 @@
         <v>17277</v>
       </c>
       <c r="E332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F332" s="2">
+        <v>17286</v>
+      </c>
+      <c r="G332" s="2">
         <v>18139</v>
       </c>
-      <c r="G332" s="2">
-        <v>18453</v>
-      </c>
       <c r="H332" t="s">
         <v>29</v>
       </c>
       <c r="I332" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J332" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>11603</v>
+        <v>11602</v>
       </c>
       <c r="B333" t="s">
         <v>83</v>
       </c>
       <c r="C333" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E333">
+        <v>2</v>
+      </c>
+      <c r="F333" s="2">
+        <v>18139</v>
+      </c>
+      <c r="G333" s="2">
         <v>18453</v>
       </c>
-      <c r="E333">
-        <v>3</v>
-      </c>
-      <c r="F333" s="2">
-        <v>18511</v>
-      </c>
-      <c r="G333" s="2">
-        <v>18804</v>
-      </c>
       <c r="H333" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I333" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J333" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>11604</v>
+        <v>11603</v>
       </c>
       <c r="B334" t="s">
         <v>83</v>
@@ -10833,27 +10835,27 @@
         <v>18453</v>
       </c>
       <c r="E334">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F334" s="2">
+        <v>18511</v>
+      </c>
+      <c r="G334" s="2">
         <v>18804</v>
       </c>
-      <c r="G334" s="2">
-        <v>18837</v>
-      </c>
       <c r="H334" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I334" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J334" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>11605</v>
+        <v>11604</v>
       </c>
       <c r="B335" t="s">
         <v>83</v>
@@ -10862,16 +10864,16 @@
         <v>18453</v>
       </c>
       <c r="E335">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F335" s="2">
+        <v>18804</v>
+      </c>
+      <c r="G335" s="2">
         <v>18837</v>
       </c>
-      <c r="G335" s="2">
-        <v>18997</v>
-      </c>
       <c r="H335" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I335" t="s">
         <v>226</v>
@@ -10880,9 +10882,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>11606</v>
+        <v>11605</v>
       </c>
       <c r="B336" t="s">
         <v>83</v>
@@ -10891,16 +10893,16 @@
         <v>18453</v>
       </c>
       <c r="E336">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F336" s="2">
+        <v>18837</v>
+      </c>
+      <c r="G336" s="2">
         <v>18997</v>
       </c>
-      <c r="G336" s="2">
-        <v>19378</v>
-      </c>
       <c r="H336" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I336" t="s">
         <v>226</v>
@@ -10909,9 +10911,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>11607</v>
+        <v>11606</v>
       </c>
       <c r="B337" t="s">
         <v>83</v>
@@ -10920,16 +10922,16 @@
         <v>18453</v>
       </c>
       <c r="E337">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F337" s="2">
+        <v>18997</v>
+      </c>
+      <c r="G337" s="2">
         <v>19378</v>
       </c>
-      <c r="G337" s="2">
-        <v>19979</v>
-      </c>
       <c r="H337" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I337" t="s">
         <v>226</v>
@@ -10938,56 +10940,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>11608</v>
+        <v>11607</v>
       </c>
       <c r="B338" t="s">
         <v>83</v>
       </c>
       <c r="C338" s="2">
+        <v>18453</v>
+      </c>
+      <c r="E338">
+        <v>7</v>
+      </c>
+      <c r="F338" s="2">
+        <v>19378</v>
+      </c>
+      <c r="G338" s="2">
         <v>19979</v>
       </c>
-      <c r="E338">
-        <v>8</v>
-      </c>
-      <c r="F338" s="2">
-        <v>20008</v>
-      </c>
-      <c r="G338" s="2">
-        <v>21456</v>
-      </c>
       <c r="H338" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I338" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J338" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>11609</v>
+        <v>11608</v>
       </c>
       <c r="B339" t="s">
         <v>83</v>
       </c>
       <c r="C339" s="2">
+        <v>19979</v>
+      </c>
+      <c r="E339">
+        <v>8</v>
+      </c>
+      <c r="F339" s="2">
+        <v>20008</v>
+      </c>
+      <c r="G339" s="2">
         <v>21456</v>
       </c>
-      <c r="E339">
-        <v>9</v>
-      </c>
-      <c r="F339" s="2">
-        <v>21456</v>
-      </c>
-      <c r="G339" s="2">
-        <v>22912</v>
-      </c>
       <c r="H339" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I339" t="s">
         <v>227</v>
@@ -10996,27 +10998,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>11610</v>
+        <v>11609</v>
       </c>
       <c r="B340" t="s">
         <v>83</v>
       </c>
       <c r="C340" s="2">
+        <v>21456</v>
+      </c>
+      <c r="E340">
+        <v>9</v>
+      </c>
+      <c r="F340" s="2">
+        <v>21456</v>
+      </c>
+      <c r="G340" s="2">
         <v>22912</v>
       </c>
-      <c r="E340">
-        <v>10</v>
-      </c>
-      <c r="F340" s="2">
-        <v>22912</v>
-      </c>
-      <c r="G340" s="2">
-        <v>23018</v>
-      </c>
       <c r="H340" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I340" t="s">
         <v>227</v>
@@ -11025,9 +11027,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>11611</v>
+        <v>11610</v>
       </c>
       <c r="B341" t="s">
         <v>83</v>
@@ -11036,42 +11038,42 @@
         <v>22912</v>
       </c>
       <c r="E341">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F341" s="2">
+        <v>22912</v>
+      </c>
+      <c r="G341" s="2">
         <v>23018</v>
       </c>
-      <c r="G341" s="2">
-        <v>24585</v>
-      </c>
       <c r="H341" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I341" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J341" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>11612</v>
+        <v>11611</v>
       </c>
       <c r="B342" t="s">
         <v>83</v>
       </c>
       <c r="C342" s="2">
+        <v>22912</v>
+      </c>
+      <c r="E342">
+        <v>11</v>
+      </c>
+      <c r="F342" s="2">
+        <v>23018</v>
+      </c>
+      <c r="G342" s="2">
         <v>24585</v>
-      </c>
-      <c r="E342">
-        <v>12</v>
-      </c>
-      <c r="F342" s="2">
-        <v>24585</v>
-      </c>
-      <c r="G342" s="2">
-        <v>25967</v>
       </c>
       <c r="H342" t="s">
         <v>12</v>
@@ -11083,9 +11085,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>11613</v>
+        <v>11612</v>
       </c>
       <c r="B343" t="s">
         <v>83</v>
@@ -11094,16 +11096,16 @@
         <v>24585</v>
       </c>
       <c r="E343">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F343" s="2">
+        <v>24585</v>
+      </c>
+      <c r="G343" s="2">
         <v>25967</v>
       </c>
-      <c r="G343" s="2">
-        <v>26048</v>
-      </c>
       <c r="H343" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I343" t="s">
         <v>228</v>
@@ -11112,53 +11114,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>11614</v>
+        <v>11613</v>
       </c>
       <c r="B344" t="s">
         <v>83</v>
       </c>
       <c r="C344" s="2">
+        <v>24585</v>
+      </c>
+      <c r="E344">
+        <v>13</v>
+      </c>
+      <c r="F344" s="2">
+        <v>25967</v>
+      </c>
+      <c r="G344" s="2">
         <v>26048</v>
       </c>
-      <c r="E344">
-        <v>14</v>
-      </c>
-      <c r="F344" s="2">
-        <v>26077</v>
-      </c>
-      <c r="G344" s="2">
-        <v>27497</v>
-      </c>
       <c r="H344" t="s">
         <v>14</v>
       </c>
       <c r="I344" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J344" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>11615</v>
+        <v>11614</v>
       </c>
       <c r="B345" t="s">
         <v>83</v>
       </c>
       <c r="C345" s="2">
+        <v>26048</v>
+      </c>
+      <c r="E345">
+        <v>14</v>
+      </c>
+      <c r="F345" s="2">
+        <v>26077</v>
+      </c>
+      <c r="G345" s="2">
         <v>27497</v>
-      </c>
-      <c r="E345">
-        <v>15</v>
-      </c>
-      <c r="F345" s="2">
-        <v>27497</v>
-      </c>
-      <c r="G345" s="2">
-        <v>28974</v>
       </c>
       <c r="H345" t="s">
         <v>14</v>
@@ -11170,24 +11172,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>11616</v>
+        <v>11615</v>
       </c>
       <c r="B346" t="s">
         <v>83</v>
       </c>
       <c r="C346" s="2">
+        <v>27497</v>
+      </c>
+      <c r="E346">
+        <v>15</v>
+      </c>
+      <c r="F346" s="2">
+        <v>27497</v>
+      </c>
+      <c r="G346" s="2">
         <v>28974</v>
-      </c>
-      <c r="E346">
-        <v>16</v>
-      </c>
-      <c r="F346" s="2">
-        <v>28974</v>
-      </c>
-      <c r="G346" s="2">
-        <v>30238</v>
       </c>
       <c r="H346" t="s">
         <v>14</v>
@@ -11199,9 +11201,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>11617</v>
+        <v>11616</v>
       </c>
       <c r="B347" t="s">
         <v>83</v>
@@ -11210,42 +11212,42 @@
         <v>28974</v>
       </c>
       <c r="E347">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F347" s="2">
+        <v>28974</v>
+      </c>
+      <c r="G347" s="2">
         <v>30238</v>
       </c>
-      <c r="G347" s="2">
-        <v>30388</v>
-      </c>
       <c r="H347" t="s">
         <v>14</v>
       </c>
       <c r="I347" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J347" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>11618</v>
+        <v>11617</v>
       </c>
       <c r="B348" t="s">
         <v>83</v>
       </c>
       <c r="C348" s="2">
+        <v>28974</v>
+      </c>
+      <c r="E348">
+        <v>17</v>
+      </c>
+      <c r="F348" s="2">
+        <v>30238</v>
+      </c>
+      <c r="G348" s="2">
         <v>30388</v>
-      </c>
-      <c r="E348">
-        <v>18</v>
-      </c>
-      <c r="F348" s="2">
-        <v>30388</v>
-      </c>
-      <c r="G348" s="2">
-        <v>32033</v>
       </c>
       <c r="H348" t="s">
         <v>14</v>
@@ -11257,24 +11259,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>11619</v>
+        <v>11618</v>
       </c>
       <c r="B349" t="s">
         <v>83</v>
       </c>
       <c r="C349" s="2">
+        <v>30388</v>
+      </c>
+      <c r="E349">
+        <v>18</v>
+      </c>
+      <c r="F349" s="2">
+        <v>30388</v>
+      </c>
+      <c r="G349" s="2">
         <v>32033</v>
-      </c>
-      <c r="E349">
-        <v>19</v>
-      </c>
-      <c r="F349" s="2">
-        <v>32033</v>
-      </c>
-      <c r="G349" s="2">
-        <v>32052</v>
       </c>
       <c r="H349" t="s">
         <v>14</v>
@@ -11286,9 +11288,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>11620</v>
+        <v>11619</v>
       </c>
       <c r="B350" t="s">
         <v>83</v>
@@ -11297,71 +11299,71 @@
         <v>32033</v>
       </c>
       <c r="E350">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F350" s="2">
+        <v>32033</v>
+      </c>
+      <c r="G350" s="2">
         <v>32052</v>
       </c>
-      <c r="G350" s="2">
-        <v>32271</v>
-      </c>
       <c r="H350" t="s">
         <v>14</v>
       </c>
       <c r="I350" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J350" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>11621</v>
+        <v>11620</v>
       </c>
       <c r="B351" t="s">
         <v>83</v>
       </c>
       <c r="C351" s="2">
+        <v>32033</v>
+      </c>
+      <c r="E351">
+        <v>20</v>
+      </c>
+      <c r="F351" s="2">
+        <v>32052</v>
+      </c>
+      <c r="G351" s="2">
         <v>32271</v>
       </c>
-      <c r="E351">
-        <v>21</v>
-      </c>
-      <c r="F351" s="2">
-        <v>32294</v>
-      </c>
-      <c r="G351" s="2">
-        <v>33699</v>
-      </c>
       <c r="H351" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I351" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J351" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>11622</v>
+        <v>11621</v>
       </c>
       <c r="B352" t="s">
         <v>83</v>
       </c>
       <c r="C352" s="2">
+        <v>32271</v>
+      </c>
+      <c r="E352">
+        <v>21</v>
+      </c>
+      <c r="F352" s="2">
+        <v>32294</v>
+      </c>
+      <c r="G352" s="2">
         <v>33699</v>
-      </c>
-      <c r="E352">
-        <v>22</v>
-      </c>
-      <c r="F352" s="2">
-        <v>33729</v>
-      </c>
-      <c r="G352" s="2">
-        <v>34108</v>
       </c>
       <c r="H352" t="s">
         <v>29</v>
@@ -11373,9 +11375,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>11623</v>
+        <v>11622</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
@@ -11384,45 +11386,45 @@
         <v>33699</v>
       </c>
       <c r="E353">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F353" s="2">
+        <v>33729</v>
+      </c>
+      <c r="G353" s="2">
         <v>34108</v>
       </c>
-      <c r="G353" s="2">
-        <v>35148</v>
-      </c>
       <c r="H353" t="s">
         <v>29</v>
       </c>
       <c r="I353" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J353" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>11624</v>
+        <v>11623</v>
       </c>
       <c r="B354" t="s">
         <v>83</v>
       </c>
       <c r="C354" s="2">
+        <v>33699</v>
+      </c>
+      <c r="E354">
+        <v>23</v>
+      </c>
+      <c r="F354" s="2">
+        <v>34108</v>
+      </c>
+      <c r="G354" s="2">
         <v>35148</v>
       </c>
-      <c r="E354">
-        <v>24</v>
-      </c>
-      <c r="F354" s="2">
-        <v>35207</v>
-      </c>
-      <c r="G354" s="2">
-        <v>36583</v>
-      </c>
       <c r="H354" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I354" t="s">
         <v>233</v>
@@ -11431,24 +11433,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>11625</v>
+        <v>11624</v>
       </c>
       <c r="B355" t="s">
         <v>83</v>
       </c>
       <c r="C355" s="2">
+        <v>35148</v>
+      </c>
+      <c r="E355">
+        <v>24</v>
+      </c>
+      <c r="F355" s="2">
+        <v>35207</v>
+      </c>
+      <c r="G355" s="2">
         <v>36583</v>
-      </c>
-      <c r="E355">
-        <v>25</v>
-      </c>
-      <c r="F355" s="2">
-        <v>36613</v>
-      </c>
-      <c r="G355" s="2">
-        <v>38403</v>
       </c>
       <c r="H355" t="s">
         <v>30</v>
@@ -11460,56 +11462,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>11626</v>
+        <v>11625</v>
       </c>
       <c r="B356" t="s">
         <v>83</v>
       </c>
       <c r="C356" s="2">
+        <v>36583</v>
+      </c>
+      <c r="E356">
+        <v>25</v>
+      </c>
+      <c r="F356" s="2">
+        <v>36613</v>
+      </c>
+      <c r="G356" s="2">
         <v>38403</v>
       </c>
-      <c r="E356">
-        <v>26</v>
-      </c>
-      <c r="F356" s="2">
-        <v>38469</v>
-      </c>
-      <c r="G356" s="2">
-        <v>40113</v>
-      </c>
       <c r="H356" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I356" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J356" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B357" t="s">
         <v>83</v>
       </c>
       <c r="C357" s="2">
-        <v>40083</v>
+        <v>38403</v>
       </c>
       <c r="E357">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F357" s="2">
+        <v>38469</v>
+      </c>
+      <c r="G357" s="2">
         <v>40113</v>
       </c>
-      <c r="G357" s="2">
-        <v>41072</v>
-      </c>
       <c r="H357" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I357" t="s">
         <v>234</v>
@@ -11518,96 +11520,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B358" t="s">
         <v>83</v>
       </c>
       <c r="C358" s="2">
-        <v>41035</v>
+        <v>40083</v>
       </c>
       <c r="E358">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F358" s="2">
+        <v>40113</v>
+      </c>
+      <c r="G358" s="2">
         <v>41072</v>
       </c>
-      <c r="G358" s="2">
-        <v>42914</v>
-      </c>
       <c r="H358" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I358" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J358" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B359" t="s">
         <v>83</v>
       </c>
       <c r="C359" s="2">
+        <v>41035</v>
+      </c>
+      <c r="E359">
+        <v>28</v>
+      </c>
+      <c r="F359" s="2">
+        <v>41072</v>
+      </c>
+      <c r="G359" s="2">
+        <v>42914</v>
+      </c>
+      <c r="H359" t="s">
+        <v>88</v>
+      </c>
+      <c r="I359" t="s">
+        <v>235</v>
+      </c>
+      <c r="J359" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>11629</v>
+      </c>
+      <c r="B360" t="s">
+        <v>83</v>
+      </c>
+      <c r="C360" s="2">
         <v>42862</v>
       </c>
-      <c r="E359">
-        <v>29</v>
-      </c>
-      <c r="F359" s="2">
+      <c r="E360">
+        <v>29</v>
+      </c>
+      <c r="F360" s="2">
         <v>42914</v>
       </c>
-      <c r="G359" s="2">
+      <c r="G360" s="2">
         <v>401768</v>
       </c>
-      <c r="H359" t="s">
+      <c r="H360" t="s">
         <v>89</v>
       </c>
-      <c r="I359" t="s">
+      <c r="I360" t="s">
         <v>236</v>
       </c>
-      <c r="J359" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A360">
+      <c r="J360" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361">
         <v>11701</v>
-      </c>
-      <c r="B360" t="s">
-        <v>90</v>
-      </c>
-      <c r="C360" s="2">
-        <v>33160</v>
-      </c>
-      <c r="E360">
-        <v>1</v>
-      </c>
-      <c r="F360" s="2">
-        <v>33185</v>
-      </c>
-      <c r="G360" s="2">
-        <v>33639</v>
-      </c>
-      <c r="H360" t="s">
-        <v>12</v>
-      </c>
-      <c r="I360" t="s">
-        <v>237</v>
-      </c>
-      <c r="J360" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A361">
-        <v>11702</v>
       </c>
       <c r="B361" t="s">
         <v>90</v>
@@ -11616,45 +11618,45 @@
         <v>33160</v>
       </c>
       <c r="E361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F361" s="2">
+        <v>33185</v>
+      </c>
+      <c r="G361" s="2">
         <v>33639</v>
-      </c>
-      <c r="G361" s="2">
-        <v>34623</v>
       </c>
       <c r="H361" t="s">
         <v>12</v>
       </c>
       <c r="I361" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="J361" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>11703</v>
+        <v>11702</v>
       </c>
       <c r="B362" t="s">
         <v>90</v>
       </c>
       <c r="C362" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E362">
+        <v>2</v>
+      </c>
+      <c r="F362" s="2">
+        <v>33639</v>
+      </c>
+      <c r="G362" s="2">
         <v>34623</v>
       </c>
-      <c r="E362">
-        <v>3</v>
-      </c>
-      <c r="F362" s="2">
-        <v>34660</v>
-      </c>
-      <c r="G362" s="2">
-        <v>36415</v>
-      </c>
       <c r="H362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I362" t="s">
         <v>197</v>
@@ -11663,27 +11665,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>11704</v>
+        <v>11703</v>
       </c>
       <c r="B363" t="s">
         <v>90</v>
       </c>
       <c r="C363" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E363">
+        <v>3</v>
+      </c>
+      <c r="F363" s="2">
+        <v>34660</v>
+      </c>
+      <c r="G363" s="2">
         <v>36415</v>
       </c>
-      <c r="E363">
-        <v>4</v>
-      </c>
-      <c r="F363" s="2">
-        <v>36434</v>
-      </c>
-      <c r="G363" s="2">
-        <v>37685</v>
-      </c>
       <c r="H363" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I363" t="s">
         <v>197</v>
@@ -11692,9 +11694,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>11705</v>
+        <v>11704</v>
       </c>
       <c r="B364" t="s">
         <v>90</v>
@@ -11703,42 +11705,42 @@
         <v>36415</v>
       </c>
       <c r="E364">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F364" s="2">
-        <v>37777</v>
+        <v>36434</v>
       </c>
       <c r="G364" s="2">
-        <v>38151</v>
+        <v>37685</v>
       </c>
       <c r="H364" t="s">
         <v>14</v>
       </c>
       <c r="I364" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="J364" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>11706</v>
+        <v>11705</v>
       </c>
       <c r="B365" t="s">
         <v>90</v>
       </c>
       <c r="C365" s="2">
+        <v>36415</v>
+      </c>
+      <c r="E365">
+        <v>5</v>
+      </c>
+      <c r="F365" s="2">
+        <v>37777</v>
+      </c>
+      <c r="G365" s="2">
         <v>38151</v>
-      </c>
-      <c r="E365">
-        <v>6</v>
-      </c>
-      <c r="F365" s="2">
-        <v>38176</v>
-      </c>
-      <c r="G365" s="2">
-        <v>40121</v>
       </c>
       <c r="H365" t="s">
         <v>14</v>
@@ -11750,96 +11752,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B366" t="s">
         <v>90</v>
       </c>
       <c r="C366" s="2">
-        <v>40055</v>
+        <v>38151</v>
       </c>
       <c r="E366">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F366" s="2">
+        <v>38176</v>
+      </c>
+      <c r="G366" s="2">
         <v>40121</v>
       </c>
-      <c r="G366" s="2">
-        <v>41978</v>
-      </c>
       <c r="H366" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I366" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J366" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B367" t="s">
         <v>90</v>
       </c>
       <c r="C367" s="2">
-        <v>41896</v>
+        <v>40055</v>
       </c>
       <c r="E367">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F367" s="2">
+        <v>40121</v>
+      </c>
+      <c r="G367" s="2">
         <v>41978</v>
       </c>
-      <c r="G367" s="2">
-        <v>43866</v>
-      </c>
       <c r="H367" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="I367" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J367" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B368" t="s">
         <v>90</v>
       </c>
       <c r="C368" s="2">
-        <v>43765</v>
+        <v>41896</v>
       </c>
       <c r="E368">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F368" s="2">
+        <v>41978</v>
+      </c>
+      <c r="G368" s="2">
         <v>43866</v>
       </c>
-      <c r="G368" s="2">
-        <v>43894</v>
-      </c>
       <c r="H368" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I368" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J368" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B369" t="s">
         <v>90</v>
@@ -11848,21 +11850,50 @@
         <v>43765</v>
       </c>
       <c r="E369">
+        <v>9</v>
+      </c>
+      <c r="F369" s="2">
+        <v>43866</v>
+      </c>
+      <c r="G369" s="2">
+        <v>43894</v>
+      </c>
+      <c r="H369" t="s">
+        <v>92</v>
+      </c>
+      <c r="I369" t="s">
+        <v>241</v>
+      </c>
+      <c r="J369" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>11710</v>
+      </c>
+      <c r="B370" t="s">
+        <v>90</v>
+      </c>
+      <c r="C370" s="2">
+        <v>43765</v>
+      </c>
+      <c r="E370">
         <v>10</v>
       </c>
-      <c r="F369" s="2">
+      <c r="F370" s="2">
         <v>43894</v>
       </c>
-      <c r="G369" s="2">
+      <c r="G370" s="2">
         <v>401768</v>
       </c>
-      <c r="H369" t="s">
+      <c r="H370" t="s">
         <v>91</v>
       </c>
-      <c r="I369" t="s">
+      <c r="I370" t="s">
         <v>240</v>
       </c>
-      <c r="J369" t="s">
+      <c r="J370" t="s">
         <v>133</v>
       </c>
     </row>

--- a/inst/extdata/primeministers.xlsx
+++ b/inst/extdata/primeministers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\bldrt\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B6F217-CA4F-4318-8D81-497DD441B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B2834-F8C1-4B0D-9DB4-9BEDFF4ACCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="244">
   <si>
     <t>gov_id</t>
   </si>
@@ -1143,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K370"/>
+  <dimension ref="A1:K371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="J256" sqref="J256"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11595,7 +11595,7 @@
         <v>42914</v>
       </c>
       <c r="G360" s="2">
-        <v>401768</v>
+        <v>44741</v>
       </c>
       <c r="H360" t="s">
         <v>89</v>
@@ -11609,28 +11609,28 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>11701</v>
+        <v>11630</v>
       </c>
       <c r="B361" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C361" s="2">
-        <v>33160</v>
+        <v>44689</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F361" s="2">
-        <v>33185</v>
+        <v>44741</v>
       </c>
       <c r="G361" s="2">
-        <v>33639</v>
+        <v>401768</v>
       </c>
       <c r="H361" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I361" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J361" t="s">
         <v>14</v>
@@ -11638,7 +11638,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>11702</v>
+        <v>11701</v>
       </c>
       <c r="B362" t="s">
         <v>90</v>
@@ -11647,19 +11647,19 @@
         <v>33160</v>
       </c>
       <c r="E362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F362" s="2">
+        <v>33185</v>
+      </c>
+      <c r="G362" s="2">
         <v>33639</v>
-      </c>
-      <c r="G362" s="2">
-        <v>34623</v>
       </c>
       <c r="H362" t="s">
         <v>12</v>
       </c>
       <c r="I362" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="J362" t="s">
         <v>14</v>
@@ -11667,25 +11667,25 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>11703</v>
+        <v>11702</v>
       </c>
       <c r="B363" t="s">
         <v>90</v>
       </c>
       <c r="C363" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="F363" s="2">
+        <v>33639</v>
+      </c>
+      <c r="G363" s="2">
         <v>34623</v>
       </c>
-      <c r="E363">
-        <v>3</v>
-      </c>
-      <c r="F363" s="2">
-        <v>34660</v>
-      </c>
-      <c r="G363" s="2">
-        <v>36415</v>
-      </c>
       <c r="H363" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I363" t="s">
         <v>197</v>
@@ -11696,25 +11696,25 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>11704</v>
+        <v>11703</v>
       </c>
       <c r="B364" t="s">
         <v>90</v>
       </c>
       <c r="C364" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E364">
+        <v>3</v>
+      </c>
+      <c r="F364" s="2">
+        <v>34660</v>
+      </c>
+      <c r="G364" s="2">
         <v>36415</v>
       </c>
-      <c r="E364">
-        <v>4</v>
-      </c>
-      <c r="F364" s="2">
-        <v>36434</v>
-      </c>
-      <c r="G364" s="2">
-        <v>37685</v>
-      </c>
       <c r="H364" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I364" t="s">
         <v>197</v>
@@ -11725,7 +11725,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>11705</v>
+        <v>11704</v>
       </c>
       <c r="B365" t="s">
         <v>90</v>
@@ -11734,19 +11734,19 @@
         <v>36415</v>
       </c>
       <c r="E365">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F365" s="2">
-        <v>37777</v>
+        <v>36434</v>
       </c>
       <c r="G365" s="2">
-        <v>38151</v>
+        <v>37685</v>
       </c>
       <c r="H365" t="s">
         <v>14</v>
       </c>
       <c r="I365" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="J365" t="s">
         <v>14</v>
@@ -11754,22 +11754,22 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>11706</v>
+        <v>11705</v>
       </c>
       <c r="B366" t="s">
         <v>90</v>
       </c>
       <c r="C366" s="2">
+        <v>36415</v>
+      </c>
+      <c r="E366">
+        <v>5</v>
+      </c>
+      <c r="F366" s="2">
+        <v>37777</v>
+      </c>
+      <c r="G366" s="2">
         <v>38151</v>
-      </c>
-      <c r="E366">
-        <v>6</v>
-      </c>
-      <c r="F366" s="2">
-        <v>38176</v>
-      </c>
-      <c r="G366" s="2">
-        <v>40121</v>
       </c>
       <c r="H366" t="s">
         <v>14</v>
@@ -11783,28 +11783,28 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B367" t="s">
         <v>90</v>
       </c>
       <c r="C367" s="2">
-        <v>40055</v>
+        <v>38151</v>
       </c>
       <c r="E367">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F367" s="2">
+        <v>38176</v>
+      </c>
+      <c r="G367" s="2">
         <v>40121</v>
       </c>
-      <c r="G367" s="2">
-        <v>41978</v>
-      </c>
       <c r="H367" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I367" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J367" t="s">
         <v>14</v>
@@ -11812,65 +11812,65 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B368" t="s">
         <v>90</v>
       </c>
       <c r="C368" s="2">
-        <v>41896</v>
+        <v>40055</v>
       </c>
       <c r="E368">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F368" s="2">
+        <v>40121</v>
+      </c>
+      <c r="G368" s="2">
         <v>41978</v>
       </c>
-      <c r="G368" s="2">
-        <v>43866</v>
-      </c>
       <c r="H368" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="I368" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J368" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B369" t="s">
         <v>90</v>
       </c>
       <c r="C369" s="2">
-        <v>43765</v>
+        <v>41896</v>
       </c>
       <c r="E369">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F369" s="2">
+        <v>41978</v>
+      </c>
+      <c r="G369" s="2">
         <v>43866</v>
       </c>
-      <c r="G369" s="2">
-        <v>43894</v>
-      </c>
       <c r="H369" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I369" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J369" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B370" t="s">
         <v>90</v>
@@ -11879,21 +11879,50 @@
         <v>43765</v>
       </c>
       <c r="E370">
+        <v>9</v>
+      </c>
+      <c r="F370" s="2">
+        <v>43866</v>
+      </c>
+      <c r="G370" s="2">
+        <v>43894</v>
+      </c>
+      <c r="H370" t="s">
+        <v>92</v>
+      </c>
+      <c r="I370" t="s">
+        <v>241</v>
+      </c>
+      <c r="J370" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>11710</v>
+      </c>
+      <c r="B371" t="s">
+        <v>90</v>
+      </c>
+      <c r="C371" s="2">
+        <v>43765</v>
+      </c>
+      <c r="E371">
         <v>10</v>
       </c>
-      <c r="F370" s="2">
+      <c r="F371" s="2">
         <v>43894</v>
       </c>
-      <c r="G370" s="2">
+      <c r="G371" s="2">
         <v>401768</v>
       </c>
-      <c r="H370" t="s">
+      <c r="H371" t="s">
         <v>91</v>
       </c>
-      <c r="I370" t="s">
+      <c r="I371" t="s">
         <v>240</v>
       </c>
-      <c r="J370" t="s">
+      <c r="J371" t="s">
         <v>133</v>
       </c>
     </row>

--- a/inst/extdata/primeministers.xlsx
+++ b/inst/extdata/primeministers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\bldrt\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\blcbadd\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B2834-F8C1-4B0D-9DB4-9BEDFF4ACCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20E431-1F4F-4270-B6A2-352AC6757E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,9 +460,6 @@
     <t>Brauer, Max</t>
   </si>
   <si>
-    <t>Sieveking</t>
-  </si>
-  <si>
     <t>Nevermann, Paul</t>
   </si>
   <si>
@@ -752,6 +749,9 @@
   </si>
   <si>
     <t>Rhein, Boris</t>
+  </si>
+  <si>
+    <t>Sieveking, Kurt</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4985,7 +4985,7 @@
         <v>47</v>
       </c>
       <c r="I132" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
@@ -5043,7 +5043,7 @@
         <v>9</v>
       </c>
       <c r="I134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J134" t="s">
         <v>29</v>
@@ -5072,7 +5072,7 @@
         <v>9</v>
       </c>
       <c r="I135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J135" t="s">
         <v>29</v>
@@ -5101,7 +5101,7 @@
         <v>9</v>
       </c>
       <c r="I136" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J136" t="s">
         <v>29</v>
@@ -5130,7 +5130,7 @@
         <v>29</v>
       </c>
       <c r="I137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J137" t="s">
         <v>29</v>
@@ -5159,7 +5159,7 @@
         <v>9</v>
       </c>
       <c r="I138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J138" t="s">
         <v>29</v>
@@ -5188,7 +5188,7 @@
         <v>9</v>
       </c>
       <c r="I139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J139" t="s">
         <v>29</v>
@@ -5217,7 +5217,7 @@
         <v>9</v>
       </c>
       <c r="I140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J140" t="s">
         <v>29</v>
@@ -5246,7 +5246,7 @@
         <v>9</v>
       </c>
       <c r="I141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J141" t="s">
         <v>29</v>
@@ -5275,7 +5275,7 @@
         <v>29</v>
       </c>
       <c r="I142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J142" t="s">
         <v>29</v>
@@ -5304,7 +5304,7 @@
         <v>29</v>
       </c>
       <c r="I143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J143" t="s">
         <v>29</v>
@@ -5333,7 +5333,7 @@
         <v>29</v>
       </c>
       <c r="I144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J144" t="s">
         <v>29</v>
@@ -5362,7 +5362,7 @@
         <v>29</v>
       </c>
       <c r="I145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J145" t="s">
         <v>29</v>
@@ -5391,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J146" t="s">
         <v>29</v>
@@ -5420,7 +5420,7 @@
         <v>9</v>
       </c>
       <c r="I147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J147" t="s">
         <v>29</v>
@@ -5449,7 +5449,7 @@
         <v>9</v>
       </c>
       <c r="I148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J148" t="s">
         <v>29</v>
@@ -5478,7 +5478,7 @@
         <v>29</v>
       </c>
       <c r="I149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J149" t="s">
         <v>29</v>
@@ -5507,7 +5507,7 @@
         <v>29</v>
       </c>
       <c r="I150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J150" t="s">
         <v>29</v>
@@ -5536,7 +5536,7 @@
         <v>30</v>
       </c>
       <c r="I151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J151" t="s">
         <v>29</v>
@@ -5565,7 +5565,7 @@
         <v>48</v>
       </c>
       <c r="I152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J152" t="s">
         <v>14</v>
@@ -5594,7 +5594,7 @@
         <v>14</v>
       </c>
       <c r="I153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J153" t="s">
         <v>14</v>
@@ -5623,7 +5623,7 @@
         <v>49</v>
       </c>
       <c r="I154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J154" t="s">
         <v>14</v>
@@ -5652,7 +5652,7 @@
         <v>49</v>
       </c>
       <c r="I155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J155" t="s">
         <v>14</v>
@@ -5681,7 +5681,7 @@
         <v>14</v>
       </c>
       <c r="I156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J156" t="s">
         <v>29</v>
@@ -5710,7 +5710,7 @@
         <v>29</v>
       </c>
       <c r="I157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J157" t="s">
         <v>29</v>
@@ -5739,7 +5739,7 @@
         <v>30</v>
       </c>
       <c r="I158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J158" t="s">
         <v>29</v>
@@ -5768,7 +5768,7 @@
         <v>30</v>
       </c>
       <c r="I159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J159" t="s">
         <v>29</v>
@@ -5797,7 +5797,7 @@
         <v>30</v>
       </c>
       <c r="I160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J160" t="s">
         <v>29</v>
@@ -5826,7 +5826,7 @@
         <v>28</v>
       </c>
       <c r="I161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J161" t="s">
         <v>29</v>
@@ -5855,7 +5855,7 @@
         <v>29</v>
       </c>
       <c r="I162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J162" t="s">
         <v>29</v>
@@ -5884,7 +5884,7 @@
         <v>51</v>
       </c>
       <c r="I163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J163" t="s">
         <v>29</v>
@@ -5913,7 +5913,7 @@
         <v>51</v>
       </c>
       <c r="I164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J164" t="s">
         <v>29</v>
@@ -5942,7 +5942,7 @@
         <v>52</v>
       </c>
       <c r="I165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J165" t="s">
         <v>29</v>
@@ -5971,7 +5971,7 @@
         <v>29</v>
       </c>
       <c r="I166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J166" t="s">
         <v>29</v>
@@ -6000,7 +6000,7 @@
         <v>29</v>
       </c>
       <c r="I167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J167" t="s">
         <v>29</v>
@@ -6029,7 +6029,7 @@
         <v>9</v>
       </c>
       <c r="I168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J168" t="s">
         <v>29</v>
@@ -6058,7 +6058,7 @@
         <v>9</v>
       </c>
       <c r="I169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J169" t="s">
         <v>29</v>
@@ -6087,7 +6087,7 @@
         <v>9</v>
       </c>
       <c r="I170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J170" t="s">
         <v>29</v>
@@ -6116,7 +6116,7 @@
         <v>9</v>
       </c>
       <c r="I171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J171" t="s">
         <v>29</v>
@@ -6145,7 +6145,7 @@
         <v>29</v>
       </c>
       <c r="I172" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J172" t="s">
         <v>29</v>
@@ -6174,7 +6174,7 @@
         <v>29</v>
       </c>
       <c r="I173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J173" t="s">
         <v>29</v>
@@ -6203,7 +6203,7 @@
         <v>30</v>
       </c>
       <c r="I174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J174" t="s">
         <v>29</v>
@@ -6232,7 +6232,7 @@
         <v>29</v>
       </c>
       <c r="I175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J175" t="s">
         <v>29</v>
@@ -6261,7 +6261,7 @@
         <v>12</v>
       </c>
       <c r="I176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
@@ -6290,7 +6290,7 @@
         <v>30</v>
       </c>
       <c r="I177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J177" t="s">
         <v>29</v>
@@ -6319,7 +6319,7 @@
         <v>30</v>
       </c>
       <c r="I178" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J178" t="s">
         <v>29</v>
@@ -6348,7 +6348,7 @@
         <v>12</v>
       </c>
       <c r="I179" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J179" t="s">
         <v>14</v>
@@ -6377,7 +6377,7 @@
         <v>14</v>
       </c>
       <c r="I180" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J180" t="s">
         <v>14</v>
@@ -6406,7 +6406,7 @@
         <v>14</v>
       </c>
       <c r="I181" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
@@ -6435,7 +6435,7 @@
         <v>12</v>
       </c>
       <c r="I182" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J182" t="s">
         <v>14</v>
@@ -6464,7 +6464,7 @@
         <v>12</v>
       </c>
       <c r="I183" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J183" t="s">
         <v>14</v>
@@ -6493,7 +6493,7 @@
         <v>49</v>
       </c>
       <c r="I184" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J184" t="s">
         <v>14</v>
@@ -6522,7 +6522,7 @@
         <v>49</v>
       </c>
       <c r="I185" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J185" t="s">
         <v>14</v>
@@ -6551,7 +6551,7 @@
         <v>49</v>
       </c>
       <c r="I186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J186" t="s">
         <v>14</v>
@@ -6580,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="I187" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J187" t="s">
         <v>14</v>
@@ -6609,7 +6609,7 @@
         <v>12</v>
       </c>
       <c r="I188" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J188" t="s">
         <v>14</v>
@@ -6638,7 +6638,7 @@
         <v>13</v>
       </c>
       <c r="I189" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J189" t="s">
         <v>14</v>
@@ -6667,7 +6667,7 @@
         <v>31</v>
       </c>
       <c r="I190" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J190" t="s">
         <v>29</v>
@@ -6696,7 +6696,7 @@
         <v>31</v>
       </c>
       <c r="I191" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J191" t="s">
         <v>29</v>
@@ -6725,7 +6725,7 @@
         <v>28</v>
       </c>
       <c r="I192" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J192" t="s">
         <v>29</v>
@@ -6754,7 +6754,7 @@
         <v>28</v>
       </c>
       <c r="I193" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J193" t="s">
         <v>29</v>
@@ -6783,7 +6783,7 @@
         <v>28</v>
       </c>
       <c r="I194" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J194" t="s">
         <v>29</v>
@@ -6812,7 +6812,7 @@
         <v>28</v>
       </c>
       <c r="I195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J195" t="s">
         <v>29</v>
@@ -6841,7 +6841,7 @@
         <v>28</v>
       </c>
       <c r="I196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J196" t="s">
         <v>29</v>
@@ -6870,7 +6870,7 @@
         <v>31</v>
       </c>
       <c r="I197" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J197" t="s">
         <v>29</v>
@@ -6899,7 +6899,7 @@
         <v>55</v>
       </c>
       <c r="I198" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J198" t="s">
         <v>29</v>
@@ -6928,7 +6928,7 @@
         <v>56</v>
       </c>
       <c r="I199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J199" t="s">
         <v>29</v>
@@ -6957,7 +6957,7 @@
         <v>57</v>
       </c>
       <c r="I200" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J200" t="s">
         <v>29</v>
@@ -6986,7 +6986,7 @@
         <v>58</v>
       </c>
       <c r="I201" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J201" t="s">
         <v>29</v>
@@ -7015,7 +7015,7 @@
         <v>59</v>
       </c>
       <c r="I202" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J202" t="s">
         <v>29</v>
@@ -7044,7 +7044,7 @@
         <v>51</v>
       </c>
       <c r="I203" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J203" t="s">
         <v>29</v>
@@ -7073,10 +7073,10 @@
         <v>60</v>
       </c>
       <c r="I204" t="s">
+        <v>172</v>
+      </c>
+      <c r="J204" t="s">
         <v>173</v>
-      </c>
-      <c r="J204" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -7102,10 +7102,10 @@
         <v>61</v>
       </c>
       <c r="I205" t="s">
+        <v>172</v>
+      </c>
+      <c r="J205" t="s">
         <v>173</v>
-      </c>
-      <c r="J205" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -7131,7 +7131,7 @@
         <v>62</v>
       </c>
       <c r="I206" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J206" t="s">
         <v>29</v>
@@ -7160,7 +7160,7 @@
         <v>62</v>
       </c>
       <c r="I207" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J207" t="s">
         <v>29</v>
@@ -7189,7 +7189,7 @@
         <v>9</v>
       </c>
       <c r="I208" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J208" t="s">
         <v>29</v>
@@ -7218,7 +7218,7 @@
         <v>28</v>
       </c>
       <c r="I209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J209" t="s">
         <v>29</v>
@@ -7247,7 +7247,7 @@
         <v>28</v>
       </c>
       <c r="I210" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J210" t="s">
         <v>29</v>
@@ -7276,7 +7276,7 @@
         <v>29</v>
       </c>
       <c r="I211" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J211" t="s">
         <v>29</v>
@@ -7305,7 +7305,7 @@
         <v>9</v>
       </c>
       <c r="I212" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J212" t="s">
         <v>29</v>
@@ -7334,7 +7334,7 @@
         <v>43</v>
       </c>
       <c r="I213" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J213" t="s">
         <v>14</v>
@@ -7363,7 +7363,7 @@
         <v>14</v>
       </c>
       <c r="I214" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J214" t="s">
         <v>14</v>
@@ -7392,7 +7392,7 @@
         <v>12</v>
       </c>
       <c r="I215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J215" t="s">
         <v>14</v>
@@ -7421,7 +7421,7 @@
         <v>14</v>
       </c>
       <c r="I216" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J216" t="s">
         <v>14</v>
@@ -7450,7 +7450,7 @@
         <v>14</v>
       </c>
       <c r="I217" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J217" t="s">
         <v>14</v>
@@ -7479,7 +7479,7 @@
         <v>12</v>
       </c>
       <c r="I218" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J218" t="s">
         <v>14</v>
@@ -7508,7 +7508,7 @@
         <v>30</v>
       </c>
       <c r="I219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J219" t="s">
         <v>29</v>
@@ -7537,7 +7537,7 @@
         <v>29</v>
       </c>
       <c r="I220" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J220" t="s">
         <v>29</v>
@@ -7566,7 +7566,7 @@
         <v>29</v>
       </c>
       <c r="I221" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J221" t="s">
         <v>29</v>
@@ -7595,7 +7595,7 @@
         <v>29</v>
       </c>
       <c r="I222" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J222" t="s">
         <v>29</v>
@@ -7624,7 +7624,7 @@
         <v>29</v>
       </c>
       <c r="I223" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J223" t="s">
         <v>29</v>
@@ -7653,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="I224" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J224" t="s">
         <v>14</v>
@@ -7682,7 +7682,7 @@
         <v>12</v>
       </c>
       <c r="I225" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J225" t="s">
         <v>14</v>
@@ -7711,7 +7711,7 @@
         <v>12</v>
       </c>
       <c r="I226" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J226" t="s">
         <v>14</v>
@@ -7740,7 +7740,7 @@
         <v>30</v>
       </c>
       <c r="I227" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J227" t="s">
         <v>29</v>
@@ -7769,7 +7769,7 @@
         <v>28</v>
       </c>
       <c r="I228" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J228" t="s">
         <v>29</v>
@@ -7798,7 +7798,7 @@
         <v>64</v>
       </c>
       <c r="I229" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J229" t="s">
         <v>14</v>
@@ -7827,7 +7827,7 @@
         <v>65</v>
       </c>
       <c r="I230" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J230" t="s">
         <v>14</v>
@@ -7856,7 +7856,7 @@
         <v>14</v>
       </c>
       <c r="I231" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J231" t="s">
         <v>14</v>
@@ -7885,7 +7885,7 @@
         <v>66</v>
       </c>
       <c r="I232" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J232" t="s">
         <v>14</v>
@@ -7914,7 +7914,7 @@
         <v>67</v>
       </c>
       <c r="I233" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J233" t="s">
         <v>14</v>
@@ -7943,7 +7943,7 @@
         <v>68</v>
       </c>
       <c r="I234" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J234" t="s">
         <v>29</v>
@@ -7972,7 +7972,7 @@
         <v>14</v>
       </c>
       <c r="I235" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J235" t="s">
         <v>14</v>
@@ -8001,7 +8001,7 @@
         <v>12</v>
       </c>
       <c r="I236" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J236" t="s">
         <v>14</v>
@@ -8030,7 +8030,7 @@
         <v>12</v>
       </c>
       <c r="I237" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J237" t="s">
         <v>14</v>
@@ -8059,7 +8059,7 @@
         <v>14</v>
       </c>
       <c r="I238" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J238" t="s">
         <v>14</v>
@@ -8088,7 +8088,7 @@
         <v>9</v>
       </c>
       <c r="I239" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J239" t="s">
         <v>29</v>
@@ -8117,7 +8117,7 @@
         <v>9</v>
       </c>
       <c r="I240" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J240" t="s">
         <v>29</v>
@@ -8146,7 +8146,7 @@
         <v>9</v>
       </c>
       <c r="I241" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J241" t="s">
         <v>29</v>
@@ -8175,7 +8175,7 @@
         <v>9</v>
       </c>
       <c r="I242" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J242" t="s">
         <v>29</v>
@@ -8204,7 +8204,7 @@
         <v>29</v>
       </c>
       <c r="I243" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J243" t="s">
         <v>29</v>
@@ -8233,7 +8233,7 @@
         <v>29</v>
       </c>
       <c r="I244" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J244" t="s">
         <v>29</v>
@@ -8262,7 +8262,7 @@
         <v>29</v>
       </c>
       <c r="I245" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J245" t="s">
         <v>29</v>
@@ -8291,7 +8291,7 @@
         <v>30</v>
       </c>
       <c r="I246" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J246" t="s">
         <v>29</v>
@@ -8320,7 +8320,7 @@
         <v>30</v>
       </c>
       <c r="I247" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J247" t="s">
         <v>29</v>
@@ -8349,7 +8349,7 @@
         <v>30</v>
       </c>
       <c r="I248" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J248" t="s">
         <v>29</v>
@@ -8378,7 +8378,7 @@
         <v>30</v>
       </c>
       <c r="I249" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J249" t="s">
         <v>29</v>
@@ -8407,7 +8407,7 @@
         <v>12</v>
       </c>
       <c r="I250" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J250" t="s">
         <v>14</v>
@@ -8436,7 +8436,7 @@
         <v>30</v>
       </c>
       <c r="I251" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J251" t="s">
         <v>29</v>
@@ -8465,7 +8465,7 @@
         <v>30</v>
       </c>
       <c r="I252" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J252" t="s">
         <v>29</v>
@@ -8494,7 +8494,7 @@
         <v>12</v>
       </c>
       <c r="I253" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J253" t="s">
         <v>14</v>
@@ -8523,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="I254" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J254" t="s">
         <v>14</v>
@@ -8552,7 +8552,7 @@
         <v>49</v>
       </c>
       <c r="I255" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J255" t="s">
         <v>14</v>
@@ -8582,7 +8582,7 @@
         <v>70</v>
       </c>
       <c r="I256" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J256" t="s">
         <v>14</v>
@@ -8611,7 +8611,7 @@
         <v>13</v>
       </c>
       <c r="I257" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J257" t="s">
         <v>14</v>
@@ -8640,7 +8640,7 @@
         <v>14</v>
       </c>
       <c r="I258" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J258" t="s">
         <v>14</v>
@@ -8669,7 +8669,7 @@
         <v>13</v>
       </c>
       <c r="I259" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J259" t="s">
         <v>14</v>
@@ -8698,7 +8698,7 @@
         <v>12</v>
       </c>
       <c r="I260" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J260" t="s">
         <v>14</v>
@@ -8727,7 +8727,7 @@
         <v>12</v>
       </c>
       <c r="I261" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J261" t="s">
         <v>14</v>
@@ -8756,7 +8756,7 @@
         <v>12</v>
       </c>
       <c r="I262" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J262" t="s">
         <v>14</v>
@@ -8785,7 +8785,7 @@
         <v>12</v>
       </c>
       <c r="I263" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J263" t="s">
         <v>14</v>
@@ -8814,7 +8814,7 @@
         <v>12</v>
       </c>
       <c r="I264" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J264" t="s">
         <v>14</v>
@@ -8843,7 +8843,7 @@
         <v>12</v>
       </c>
       <c r="I265" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J265" t="s">
         <v>14</v>
@@ -8872,7 +8872,7 @@
         <v>14</v>
       </c>
       <c r="I266" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J266" t="s">
         <v>14</v>
@@ -8901,7 +8901,7 @@
         <v>14</v>
       </c>
       <c r="I267" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J267" t="s">
         <v>14</v>
@@ -8930,7 +8930,7 @@
         <v>14</v>
       </c>
       <c r="I268" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J268" t="s">
         <v>14</v>
@@ -8959,7 +8959,7 @@
         <v>14</v>
       </c>
       <c r="I269" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J269" t="s">
         <v>14</v>
@@ -8988,7 +8988,7 @@
         <v>14</v>
       </c>
       <c r="I270" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J270" t="s">
         <v>14</v>
@@ -9017,7 +9017,7 @@
         <v>12</v>
       </c>
       <c r="I271" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J271" t="s">
         <v>14</v>
@@ -9046,7 +9046,7 @@
         <v>12</v>
       </c>
       <c r="I272" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J272" t="s">
         <v>14</v>
@@ -9075,7 +9075,7 @@
         <v>9</v>
       </c>
       <c r="I273" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J273" t="s">
         <v>29</v>
@@ -9104,7 +9104,7 @@
         <v>9</v>
       </c>
       <c r="I274" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J274" t="s">
         <v>29</v>
@@ -9133,7 +9133,7 @@
         <v>9</v>
       </c>
       <c r="I275" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J275" t="s">
         <v>29</v>
@@ -9162,7 +9162,7 @@
         <v>28</v>
       </c>
       <c r="I276" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J276" t="s">
         <v>29</v>
@@ -9191,7 +9191,7 @@
         <v>29</v>
       </c>
       <c r="I277" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J277" t="s">
         <v>29</v>
@@ -9220,7 +9220,7 @@
         <v>30</v>
       </c>
       <c r="I278" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J278" t="s">
         <v>29</v>
@@ -9249,7 +9249,7 @@
         <v>30</v>
       </c>
       <c r="I279" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J279" t="s">
         <v>29</v>
@@ -9278,7 +9278,7 @@
         <v>35</v>
       </c>
       <c r="I280" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J280" t="s">
         <v>29</v>
@@ -9307,7 +9307,7 @@
         <v>40</v>
       </c>
       <c r="I281" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J281" t="s">
         <v>29</v>
@@ -9336,7 +9336,7 @@
         <v>72</v>
       </c>
       <c r="I282" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J282" t="s">
         <v>73</v>
@@ -9365,7 +9365,7 @@
         <v>73</v>
       </c>
       <c r="I283" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J283" t="s">
         <v>73</v>
@@ -9394,7 +9394,7 @@
         <v>72</v>
       </c>
       <c r="I284" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J284" t="s">
         <v>73</v>
@@ -9423,7 +9423,7 @@
         <v>73</v>
       </c>
       <c r="I285" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J285" t="s">
         <v>73</v>
@@ -9455,10 +9455,10 @@
         <v>75</v>
       </c>
       <c r="I286" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J286" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -9484,7 +9484,7 @@
         <v>76</v>
       </c>
       <c r="I287" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J287" t="s">
         <v>14</v>
@@ -9513,7 +9513,7 @@
         <v>13</v>
       </c>
       <c r="I288" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J288" t="s">
         <v>14</v>
@@ -9542,7 +9542,7 @@
         <v>76</v>
       </c>
       <c r="I289" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J289" t="s">
         <v>14</v>
@@ -9571,7 +9571,7 @@
         <v>77</v>
       </c>
       <c r="I290" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J290" t="s">
         <v>14</v>
@@ -9600,7 +9600,7 @@
         <v>13</v>
       </c>
       <c r="I291" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J291" t="s">
         <v>14</v>
@@ -9629,7 +9629,7 @@
         <v>12</v>
       </c>
       <c r="I292" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J292" t="s">
         <v>14</v>
@@ -9658,7 +9658,7 @@
         <v>12</v>
       </c>
       <c r="I293" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J293" t="s">
         <v>14</v>
@@ -9687,7 +9687,7 @@
         <v>14</v>
       </c>
       <c r="I294" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J294" t="s">
         <v>14</v>
@@ -9716,7 +9716,7 @@
         <v>14</v>
       </c>
       <c r="I295" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J295" t="s">
         <v>14</v>
@@ -9745,7 +9745,7 @@
         <v>12</v>
       </c>
       <c r="I296" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J296" t="s">
         <v>14</v>
@@ -9774,7 +9774,7 @@
         <v>12</v>
       </c>
       <c r="I297" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J297" t="s">
         <v>14</v>
@@ -9803,7 +9803,7 @@
         <v>12</v>
       </c>
       <c r="I298" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J298" t="s">
         <v>14</v>
@@ -9832,7 +9832,7 @@
         <v>29</v>
       </c>
       <c r="I299" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J299" t="s">
         <v>29</v>
@@ -9861,7 +9861,7 @@
         <v>29</v>
       </c>
       <c r="I300" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J300" t="s">
         <v>29</v>
@@ -9890,7 +9890,7 @@
         <v>29</v>
       </c>
       <c r="I301" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J301" t="s">
         <v>29</v>
@@ -9919,7 +9919,7 @@
         <v>29</v>
       </c>
       <c r="I302" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J302" t="s">
         <v>29</v>
@@ -9948,7 +9948,7 @@
         <v>14</v>
       </c>
       <c r="I303" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J303" t="s">
         <v>14</v>
@@ -9977,7 +9977,7 @@
         <v>14</v>
       </c>
       <c r="I304" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J304" t="s">
         <v>14</v>
@@ -10006,7 +10006,7 @@
         <v>78</v>
       </c>
       <c r="I305" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J305" t="s">
         <v>14</v>
@@ -10035,7 +10035,7 @@
         <v>78</v>
       </c>
       <c r="I306" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J306" t="s">
         <v>14</v>
@@ -10064,7 +10064,7 @@
         <v>14</v>
       </c>
       <c r="I307" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J307" t="s">
         <v>14</v>
@@ -10093,7 +10093,7 @@
         <v>13</v>
       </c>
       <c r="I308" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J308" t="s">
         <v>14</v>
@@ -10122,7 +10122,7 @@
         <v>13</v>
       </c>
       <c r="I309" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J309" t="s">
         <v>14</v>
@@ -10151,7 +10151,7 @@
         <v>13</v>
       </c>
       <c r="I310" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J310" t="s">
         <v>14</v>
@@ -10180,7 +10180,7 @@
         <v>29</v>
       </c>
       <c r="I311" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J311" t="s">
         <v>29</v>
@@ -10209,7 +10209,7 @@
         <v>14</v>
       </c>
       <c r="I312" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J312" t="s">
         <v>14</v>
@@ -10238,7 +10238,7 @@
         <v>14</v>
       </c>
       <c r="I313" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J313" t="s">
         <v>14</v>
@@ -10267,7 +10267,7 @@
         <v>14</v>
       </c>
       <c r="I314" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J314" t="s">
         <v>14</v>
@@ -10296,7 +10296,7 @@
         <v>14</v>
       </c>
       <c r="I315" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J315" t="s">
         <v>14</v>
@@ -10325,7 +10325,7 @@
         <v>13</v>
       </c>
       <c r="I316" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J316" t="s">
         <v>14</v>
@@ -10354,7 +10354,7 @@
         <v>13</v>
       </c>
       <c r="I317" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J317" t="s">
         <v>14</v>
@@ -10383,7 +10383,7 @@
         <v>12</v>
       </c>
       <c r="I318" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J318" t="s">
         <v>14</v>
@@ -10412,7 +10412,7 @@
         <v>13</v>
       </c>
       <c r="I319" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J319" t="s">
         <v>14</v>
@@ -10441,7 +10441,7 @@
         <v>13</v>
       </c>
       <c r="I320" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J320" t="s">
         <v>14</v>
@@ -10470,7 +10470,7 @@
         <v>80</v>
       </c>
       <c r="I321" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J321" t="s">
         <v>14</v>
@@ -10499,7 +10499,7 @@
         <v>12</v>
       </c>
       <c r="I322" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J322" t="s">
         <v>14</v>
@@ -10528,7 +10528,7 @@
         <v>12</v>
       </c>
       <c r="I323" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J323" t="s">
         <v>14</v>
@@ -10557,7 +10557,7 @@
         <v>12</v>
       </c>
       <c r="I324" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J324" t="s">
         <v>14</v>
@@ -10586,7 +10586,7 @@
         <v>30</v>
       </c>
       <c r="I325" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J325" t="s">
         <v>29</v>
@@ -10615,7 +10615,7 @@
         <v>29</v>
       </c>
       <c r="I326" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J326" t="s">
         <v>29</v>
@@ -10644,7 +10644,7 @@
         <v>12</v>
       </c>
       <c r="I327" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J327" t="s">
         <v>14</v>
@@ -10673,7 +10673,7 @@
         <v>13</v>
       </c>
       <c r="I328" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J328" t="s">
         <v>14</v>
@@ -10702,7 +10702,7 @@
         <v>13</v>
       </c>
       <c r="I329" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J329" t="s">
         <v>14</v>
@@ -10731,7 +10731,7 @@
         <v>82</v>
       </c>
       <c r="I330" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J330" t="s">
         <v>14</v>
@@ -10760,7 +10760,7 @@
         <v>43</v>
       </c>
       <c r="I331" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J331" t="s">
         <v>14</v>
@@ -10789,7 +10789,7 @@
         <v>29</v>
       </c>
       <c r="I332" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J332" t="s">
         <v>29</v>
@@ -10818,7 +10818,7 @@
         <v>29</v>
       </c>
       <c r="I333" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J333" t="s">
         <v>29</v>
@@ -10847,7 +10847,7 @@
         <v>84</v>
       </c>
       <c r="I334" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J334" t="s">
         <v>14</v>
@@ -10876,7 +10876,7 @@
         <v>12</v>
       </c>
       <c r="I335" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J335" t="s">
         <v>14</v>
@@ -10905,7 +10905,7 @@
         <v>84</v>
       </c>
       <c r="I336" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J336" t="s">
         <v>14</v>
@@ -10934,7 +10934,7 @@
         <v>85</v>
       </c>
       <c r="I337" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J337" t="s">
         <v>14</v>
@@ -10963,7 +10963,7 @@
         <v>86</v>
       </c>
       <c r="I338" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J338" t="s">
         <v>14</v>
@@ -10992,7 +10992,7 @@
         <v>87</v>
       </c>
       <c r="I339" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J339" t="s">
         <v>14</v>
@@ -11021,7 +11021,7 @@
         <v>12</v>
       </c>
       <c r="I340" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J340" t="s">
         <v>14</v>
@@ -11050,7 +11050,7 @@
         <v>14</v>
       </c>
       <c r="I341" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J341" t="s">
         <v>14</v>
@@ -11079,7 +11079,7 @@
         <v>12</v>
       </c>
       <c r="I342" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J342" t="s">
         <v>14</v>
@@ -11108,7 +11108,7 @@
         <v>12</v>
       </c>
       <c r="I343" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J343" t="s">
         <v>14</v>
@@ -11137,7 +11137,7 @@
         <v>14</v>
       </c>
       <c r="I344" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J344" t="s">
         <v>14</v>
@@ -11166,7 +11166,7 @@
         <v>14</v>
       </c>
       <c r="I345" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J345" t="s">
         <v>14</v>
@@ -11195,7 +11195,7 @@
         <v>14</v>
       </c>
       <c r="I346" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J346" t="s">
         <v>14</v>
@@ -11224,7 +11224,7 @@
         <v>14</v>
       </c>
       <c r="I347" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J347" t="s">
         <v>14</v>
@@ -11253,7 +11253,7 @@
         <v>14</v>
       </c>
       <c r="I348" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J348" t="s">
         <v>14</v>
@@ -11282,7 +11282,7 @@
         <v>14</v>
       </c>
       <c r="I349" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J349" t="s">
         <v>14</v>
@@ -11311,7 +11311,7 @@
         <v>14</v>
       </c>
       <c r="I350" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J350" t="s">
         <v>14</v>
@@ -11340,7 +11340,7 @@
         <v>14</v>
       </c>
       <c r="I351" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J351" t="s">
         <v>14</v>
@@ -11369,7 +11369,7 @@
         <v>29</v>
       </c>
       <c r="I352" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J352" t="s">
         <v>29</v>
@@ -11398,7 +11398,7 @@
         <v>29</v>
       </c>
       <c r="I353" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J353" t="s">
         <v>29</v>
@@ -11427,7 +11427,7 @@
         <v>29</v>
       </c>
       <c r="I354" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J354" t="s">
         <v>29</v>
@@ -11456,7 +11456,7 @@
         <v>30</v>
       </c>
       <c r="I355" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J355" t="s">
         <v>29</v>
@@ -11485,7 +11485,7 @@
         <v>30</v>
       </c>
       <c r="I356" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J356" t="s">
         <v>29</v>
@@ -11514,7 +11514,7 @@
         <v>13</v>
       </c>
       <c r="I357" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J357" t="s">
         <v>14</v>
@@ -11543,7 +11543,7 @@
         <v>12</v>
       </c>
       <c r="I358" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J358" t="s">
         <v>14</v>
@@ -11572,7 +11572,7 @@
         <v>88</v>
       </c>
       <c r="I359" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J359" t="s">
         <v>29</v>
@@ -11601,7 +11601,7 @@
         <v>89</v>
       </c>
       <c r="I360" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J360" t="s">
         <v>14</v>
@@ -11630,7 +11630,7 @@
         <v>49</v>
       </c>
       <c r="I361" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J361" t="s">
         <v>14</v>
@@ -11659,7 +11659,7 @@
         <v>12</v>
       </c>
       <c r="I362" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J362" t="s">
         <v>14</v>
@@ -11688,7 +11688,7 @@
         <v>12</v>
       </c>
       <c r="I363" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J363" t="s">
         <v>14</v>
@@ -11717,7 +11717,7 @@
         <v>13</v>
       </c>
       <c r="I364" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J364" t="s">
         <v>14</v>
@@ -11746,7 +11746,7 @@
         <v>14</v>
       </c>
       <c r="I365" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J365" t="s">
         <v>14</v>
@@ -11775,7 +11775,7 @@
         <v>14</v>
       </c>
       <c r="I366" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J366" t="s">
         <v>14</v>
@@ -11804,7 +11804,7 @@
         <v>14</v>
       </c>
       <c r="I367" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J367" t="s">
         <v>14</v>
@@ -11833,7 +11833,7 @@
         <v>13</v>
       </c>
       <c r="I368" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J368" t="s">
         <v>14</v>
@@ -11862,7 +11862,7 @@
         <v>91</v>
       </c>
       <c r="I369" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J369" t="s">
         <v>133</v>
@@ -11891,7 +11891,7 @@
         <v>92</v>
       </c>
       <c r="I370" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J370" t="s">
         <v>92</v>
@@ -11920,7 +11920,7 @@
         <v>91</v>
       </c>
       <c r="I371" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J371" t="s">
         <v>133</v>

--- a/inst/extdata/primeministers.xlsx
+++ b/inst/extdata/primeministers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\blcbadd\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/add_nds21/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20E431-1F4F-4270-B6A2-352AC6757E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C728CD4E-15C9-4B41-A7AA-8427901EABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="244">
   <si>
     <t>gov_id</t>
   </si>
@@ -568,9 +568,6 @@
     <t>McAllister, David</t>
   </si>
   <si>
-    <t>Weil, Christian</t>
-  </si>
-  <si>
     <t>Arnold, Karl</t>
   </si>
   <si>
@@ -752,6 +749,9 @@
   </si>
   <si>
     <t>Sieveking, Kurt</t>
+  </si>
+  <si>
+    <t>Weil, Stephan</t>
   </si>
 </sst>
 </file>
@@ -1143,24 +1143,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K371"/>
+  <dimension ref="A1:K372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G229" sqref="G229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10201</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10202</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10203</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10204</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10205</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10206</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10207</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10208</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10209</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10210</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10211</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10212</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10213</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10214</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10215</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10216</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10217</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10218</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10219</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10220</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10221</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10222</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10223</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10224</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10301</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10302</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10303</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10304</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10305</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10306</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10307</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10308</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10309</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10310</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10311</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10312</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10313</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10314</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10315</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10316</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10317</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10318</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10319</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10320</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10321</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10322</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10323</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10324</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10325</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10425</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10426</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10427</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10428</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10401</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10402</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10403</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10404</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10405</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10406</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10407</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10408</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10409</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10410</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10411</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10412</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10413</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10414</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10415</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10416</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10417</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10418</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10419</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10420</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10421</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>10422</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10423</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10424</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10429</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10430</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10431</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10432</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10433</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10501</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10502</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10503</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10504</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10505</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10506</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10507</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10508</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10509</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10510</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10620</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10621</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10601</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10602</v>
       </c>
@@ -3976,7 +3977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10603</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10604</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10605</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10606</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10607</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10608</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10609</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10610</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10611</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10612</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10613</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10614</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10615</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10616</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10617</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10618</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10619</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10622</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10623</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10624</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10625</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10626</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10101</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10102</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>11801</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>11802</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>11803</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>11901</v>
       </c>
@@ -4788,7 +4789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>11902</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>11903</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>10801</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>10802</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>10803</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10804</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>10805</v>
       </c>
@@ -4985,13 +4986,13 @@
         <v>47</v>
       </c>
       <c r="I132" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>10806</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>10807</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>10808</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>10809</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10810</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10811</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>10812</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10813</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10814</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>10815</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>10816</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>10817</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>10818</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>10819</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>10820</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>10821</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>10822</v>
       </c>
@@ -5484,7 +5485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>10823</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10824</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>10825</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>10826</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>10827</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>10828</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>10829</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>10830</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>10831</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>10832</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>10833</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10701</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>10702</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>10703</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>10704</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>10705</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10706</v>
       </c>
@@ -5977,7 +5978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>10707</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>10708</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10709</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10710</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10711</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>10712</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10713</v>
       </c>
@@ -6180,7 +6181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>10714</v>
       </c>
@@ -6209,7 +6210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>10715</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>10716</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10717</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>10718</v>
       </c>
@@ -6325,7 +6326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>10719</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>10720</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>10721</v>
       </c>
@@ -6412,7 +6413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>10722</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>10723</v>
       </c>
@@ -6470,7 +6471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>10724</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>10725</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>10726</v>
       </c>
@@ -6551,13 +6552,13 @@
         <v>49</v>
       </c>
       <c r="I186" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J186" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>10901</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>10902</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>10903</v>
       </c>
@@ -6644,7 +6645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>10904</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>10905</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>10906</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>10910</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>10911</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>10912</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>10913</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>10914</v>
       </c>
@@ -6876,7 +6877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>11001</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>11002</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>11003</v>
       </c>
@@ -6963,7 +6964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>11004</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>11005</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>11006</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>11007</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>11008</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>11009</v>
       </c>
@@ -7137,7 +7138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>11010</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>11011</v>
       </c>
@@ -7195,7 +7196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>11012</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>11013</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>11014</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>11015</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>11016</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>11017</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>11018</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>11019</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>11020</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>11021</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>11022</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>11023</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>11024</v>
       </c>
@@ -7572,7 +7573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>11025</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>11026</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>11027</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>11028</v>
       </c>
@@ -7688,7 +7689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>11029</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>11030</v>
       </c>
@@ -7740,13 +7741,13 @@
         <v>30</v>
       </c>
       <c r="I227" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="J227" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>11031</v>
       </c>
@@ -7763,50 +7764,50 @@
         <v>43061</v>
       </c>
       <c r="G228" s="2">
-        <v>401768</v>
+        <v>44873</v>
       </c>
       <c r="H228" t="s">
         <v>28</v>
       </c>
       <c r="I228" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="J228" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
+        <v>11032</v>
+      </c>
+      <c r="B229" t="s">
+        <v>54</v>
+      </c>
+      <c r="C229" s="2">
+        <v>44843</v>
+      </c>
+      <c r="E229">
+        <v>32</v>
+      </c>
+      <c r="F229" s="2">
+        <v>44873</v>
+      </c>
+      <c r="G229" s="2">
+        <v>401768</v>
+      </c>
+      <c r="H229" t="s">
+        <v>30</v>
+      </c>
+      <c r="I229" t="s">
+        <v>243</v>
+      </c>
+      <c r="J229" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230">
         <v>11101</v>
-      </c>
-      <c r="B229" t="s">
-        <v>63</v>
-      </c>
-      <c r="C229" s="2">
-        <v>17277</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229" s="2">
-        <v>17335</v>
-      </c>
-      <c r="G229" s="2">
-        <v>17570</v>
-      </c>
-      <c r="H229" t="s">
-        <v>64</v>
-      </c>
-      <c r="I229" t="s">
-        <v>183</v>
-      </c>
-      <c r="J229" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>11102</v>
       </c>
       <c r="B230" t="s">
         <v>63</v>
@@ -7815,56 +7816,56 @@
         <v>17277</v>
       </c>
       <c r="E230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F230" s="2">
+        <v>17335</v>
+      </c>
+      <c r="G230" s="2">
         <v>17570</v>
       </c>
-      <c r="G230" s="2">
-        <v>18432</v>
-      </c>
       <c r="H230" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I230" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J230" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B231" t="s">
         <v>63</v>
       </c>
       <c r="C231" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231" s="2">
+        <v>17570</v>
+      </c>
+      <c r="G231" s="2">
         <v>18432</v>
       </c>
-      <c r="E231">
-        <v>3</v>
-      </c>
-      <c r="F231" s="2">
-        <v>18471</v>
-      </c>
-      <c r="G231" s="2">
-        <v>18521</v>
-      </c>
       <c r="H231" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="I231" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J231" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>11104</v>
+        <v>11103</v>
       </c>
       <c r="B232" t="s">
         <v>63</v>
@@ -7873,56 +7874,56 @@
         <v>18432</v>
       </c>
       <c r="E232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F232" s="2">
+        <v>18471</v>
+      </c>
+      <c r="G232" s="2">
         <v>18521</v>
       </c>
-      <c r="G232" s="2">
-        <v>19902</v>
-      </c>
       <c r="H232" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I232" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J232" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>11105</v>
+        <v>11104</v>
       </c>
       <c r="B233" t="s">
         <v>63</v>
       </c>
       <c r="C233" s="2">
+        <v>18432</v>
+      </c>
+      <c r="E233">
+        <v>4</v>
+      </c>
+      <c r="F233" s="2">
+        <v>18521</v>
+      </c>
+      <c r="G233" s="2">
         <v>19902</v>
       </c>
-      <c r="E233">
-        <v>5</v>
-      </c>
-      <c r="F233" s="2">
-        <v>19932</v>
-      </c>
-      <c r="G233" s="2">
-        <v>20505</v>
-      </c>
       <c r="H233" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I233" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J233" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="B234" t="s">
         <v>63</v>
@@ -7931,114 +7932,114 @@
         <v>19902</v>
       </c>
       <c r="E234">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F234" s="2">
+        <v>19932</v>
+      </c>
+      <c r="G234" s="2">
         <v>20505</v>
       </c>
-      <c r="G234" s="2">
-        <v>21372</v>
-      </c>
       <c r="H234" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I234" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J234" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>11107</v>
+        <v>11106</v>
       </c>
       <c r="B235" t="s">
         <v>63</v>
       </c>
       <c r="C235" s="2">
+        <v>19902</v>
+      </c>
+      <c r="E235">
+        <v>6</v>
+      </c>
+      <c r="F235" s="2">
+        <v>20505</v>
+      </c>
+      <c r="G235" s="2">
         <v>21372</v>
       </c>
-      <c r="E235">
-        <v>7</v>
-      </c>
-      <c r="F235" s="2">
-        <v>21387</v>
-      </c>
-      <c r="G235" s="2">
-        <v>22835</v>
-      </c>
       <c r="H235" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I235" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J235" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>11108</v>
+        <v>11107</v>
       </c>
       <c r="B236" t="s">
         <v>63</v>
       </c>
       <c r="C236" s="2">
+        <v>21372</v>
+      </c>
+      <c r="E236">
+        <v>7</v>
+      </c>
+      <c r="F236" s="2">
+        <v>21387</v>
+      </c>
+      <c r="G236" s="2">
         <v>22835</v>
       </c>
-      <c r="E236">
-        <v>8</v>
-      </c>
-      <c r="F236" s="2">
-        <v>22850</v>
-      </c>
-      <c r="G236" s="2">
-        <v>24298</v>
-      </c>
       <c r="H236" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I236" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J236" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>11109</v>
+        <v>11108</v>
       </c>
       <c r="B237" t="s">
         <v>63</v>
       </c>
       <c r="C237" s="2">
+        <v>22835</v>
+      </c>
+      <c r="E237">
+        <v>8</v>
+      </c>
+      <c r="F237" s="2">
+        <v>22850</v>
+      </c>
+      <c r="G237" s="2">
         <v>24298</v>
-      </c>
-      <c r="E237">
-        <v>9</v>
-      </c>
-      <c r="F237" s="2">
-        <v>24313</v>
-      </c>
-      <c r="G237" s="2">
-        <v>24442</v>
       </c>
       <c r="H237" t="s">
         <v>12</v>
       </c>
       <c r="I237" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J237" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>11110</v>
+        <v>11109</v>
       </c>
       <c r="B238" t="s">
         <v>63</v>
@@ -8047,27 +8048,27 @@
         <v>24298</v>
       </c>
       <c r="E238">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F238" s="2">
+        <v>24313</v>
+      </c>
+      <c r="G238" s="2">
         <v>24442</v>
       </c>
-      <c r="G238" s="2">
-        <v>24449</v>
-      </c>
       <c r="H238" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I238" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J238" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>11111</v>
+        <v>11110</v>
       </c>
       <c r="B239" t="s">
         <v>63</v>
@@ -8076,85 +8077,85 @@
         <v>24298</v>
       </c>
       <c r="E239">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F239" s="2">
+        <v>24442</v>
+      </c>
+      <c r="G239" s="2">
         <v>24449</v>
       </c>
-      <c r="G239" s="2">
-        <v>25733</v>
-      </c>
       <c r="H239" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I239" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J239" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>11112</v>
+        <v>11111</v>
       </c>
       <c r="B240" t="s">
         <v>63</v>
       </c>
       <c r="C240" s="2">
+        <v>24298</v>
+      </c>
+      <c r="E240">
+        <v>11</v>
+      </c>
+      <c r="F240" s="2">
+        <v>24449</v>
+      </c>
+      <c r="G240" s="2">
         <v>25733</v>
-      </c>
-      <c r="E240">
-        <v>12</v>
-      </c>
-      <c r="F240" s="2">
-        <v>25777</v>
-      </c>
-      <c r="G240" s="2">
-        <v>27518</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
       </c>
       <c r="I240" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J240" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>11113</v>
+        <v>11112</v>
       </c>
       <c r="B241" t="s">
         <v>63</v>
       </c>
       <c r="C241" s="2">
+        <v>25733</v>
+      </c>
+      <c r="E241">
+        <v>12</v>
+      </c>
+      <c r="F241" s="2">
+        <v>25777</v>
+      </c>
+      <c r="G241" s="2">
         <v>27518</v>
-      </c>
-      <c r="E241">
-        <v>13</v>
-      </c>
-      <c r="F241" s="2">
-        <v>27549</v>
-      </c>
-      <c r="G241" s="2">
-        <v>28753</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
       </c>
       <c r="I241" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J241" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>11114</v>
+        <v>11113</v>
       </c>
       <c r="B242" t="s">
         <v>63</v>
@@ -8163,143 +8164,143 @@
         <v>27518</v>
       </c>
       <c r="E242">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F242" s="2">
+        <v>27549</v>
+      </c>
+      <c r="G242" s="2">
         <v>28753</v>
-      </c>
-      <c r="G242" s="2">
-        <v>29352</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
       </c>
       <c r="I242" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J242" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>11115</v>
+        <v>11114</v>
       </c>
       <c r="B243" t="s">
         <v>63</v>
       </c>
       <c r="C243" s="2">
+        <v>27518</v>
+      </c>
+      <c r="E243">
+        <v>14</v>
+      </c>
+      <c r="F243" s="2">
+        <v>28753</v>
+      </c>
+      <c r="G243" s="2">
         <v>29352</v>
       </c>
-      <c r="E243">
-        <v>15</v>
-      </c>
-      <c r="F243" s="2">
-        <v>29376</v>
-      </c>
-      <c r="G243" s="2">
-        <v>31179</v>
-      </c>
       <c r="H243" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I243" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J243" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>11116</v>
+        <v>11115</v>
       </c>
       <c r="B244" t="s">
         <v>63</v>
       </c>
       <c r="C244" s="2">
+        <v>29352</v>
+      </c>
+      <c r="E244">
+        <v>15</v>
+      </c>
+      <c r="F244" s="2">
+        <v>29376</v>
+      </c>
+      <c r="G244" s="2">
         <v>31179</v>
       </c>
-      <c r="E244">
-        <v>16</v>
-      </c>
-      <c r="F244" s="2">
-        <v>31203</v>
-      </c>
-      <c r="G244" s="2">
-        <v>33006</v>
-      </c>
       <c r="H244" t="s">
         <v>29</v>
       </c>
       <c r="I244" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J244" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>11117</v>
+        <v>11116</v>
       </c>
       <c r="B245" t="s">
         <v>63</v>
       </c>
       <c r="C245" s="2">
+        <v>31179</v>
+      </c>
+      <c r="E245">
+        <v>16</v>
+      </c>
+      <c r="F245" s="2">
+        <v>31203</v>
+      </c>
+      <c r="G245" s="2">
         <v>33006</v>
       </c>
-      <c r="E245">
-        <v>17</v>
-      </c>
-      <c r="F245" s="2">
-        <v>33030</v>
-      </c>
-      <c r="G245" s="2">
-        <v>34833</v>
-      </c>
       <c r="H245" t="s">
         <v>29</v>
       </c>
       <c r="I245" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J245" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>11118</v>
+        <v>11117</v>
       </c>
       <c r="B246" t="s">
         <v>63</v>
       </c>
       <c r="C246" s="2">
+        <v>33006</v>
+      </c>
+      <c r="E246">
+        <v>17</v>
+      </c>
+      <c r="F246" s="2">
+        <v>33030</v>
+      </c>
+      <c r="G246" s="2">
         <v>34833</v>
       </c>
-      <c r="E246">
-        <v>18</v>
-      </c>
-      <c r="F246" s="2">
-        <v>34886</v>
-      </c>
-      <c r="G246" s="2">
-        <v>35942</v>
-      </c>
       <c r="H246" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I246" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J246" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>11119</v>
+        <v>11118</v>
       </c>
       <c r="B247" t="s">
         <v>63</v>
@@ -8308,56 +8309,56 @@
         <v>34833</v>
       </c>
       <c r="E247">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F247" s="2">
+        <v>34886</v>
+      </c>
+      <c r="G247" s="2">
         <v>35942</v>
-      </c>
-      <c r="G247" s="2">
-        <v>36660</v>
       </c>
       <c r="H247" t="s">
         <v>30</v>
       </c>
       <c r="I247" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J247" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>11120</v>
+        <v>11119</v>
       </c>
       <c r="B248" t="s">
         <v>63</v>
       </c>
       <c r="C248" s="2">
+        <v>34833</v>
+      </c>
+      <c r="E248">
+        <v>19</v>
+      </c>
+      <c r="F248" s="2">
+        <v>35942</v>
+      </c>
+      <c r="G248" s="2">
         <v>36660</v>
-      </c>
-      <c r="E248">
-        <v>20</v>
-      </c>
-      <c r="F248" s="2">
-        <v>36698</v>
-      </c>
-      <c r="G248" s="2">
-        <v>37566</v>
       </c>
       <c r="H248" t="s">
         <v>30</v>
       </c>
       <c r="I248" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J248" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>11121</v>
+        <v>11120</v>
       </c>
       <c r="B249" t="s">
         <v>63</v>
@@ -8366,143 +8367,143 @@
         <v>36660</v>
       </c>
       <c r="E249">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F249" s="2">
+        <v>36698</v>
+      </c>
+      <c r="G249" s="2">
         <v>37566</v>
-      </c>
-      <c r="G249" s="2">
-        <v>38494</v>
       </c>
       <c r="H249" t="s">
         <v>30</v>
       </c>
       <c r="I249" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J249" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>11122</v>
+        <v>11121</v>
       </c>
       <c r="B250" t="s">
         <v>63</v>
       </c>
       <c r="C250" s="2">
+        <v>36660</v>
+      </c>
+      <c r="E250">
+        <v>21</v>
+      </c>
+      <c r="F250" s="2">
+        <v>37566</v>
+      </c>
+      <c r="G250" s="2">
         <v>38494</v>
       </c>
-      <c r="E250">
-        <v>22</v>
-      </c>
-      <c r="F250" s="2">
-        <v>38525</v>
-      </c>
-      <c r="G250" s="2">
-        <v>40374</v>
-      </c>
       <c r="H250" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I250" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J250" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B251" t="s">
         <v>63</v>
       </c>
       <c r="C251" s="2">
-        <v>40307</v>
+        <v>38494</v>
       </c>
       <c r="E251">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F251" s="2">
+        <v>38525</v>
+      </c>
+      <c r="G251" s="2">
         <v>40374</v>
       </c>
-      <c r="G251" s="2">
-        <v>41081</v>
-      </c>
       <c r="H251" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I251" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J251" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B252" t="s">
         <v>63</v>
       </c>
       <c r="C252" s="2">
-        <v>41042</v>
+        <v>40307</v>
       </c>
       <c r="E252">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F252" s="2">
+        <v>40374</v>
+      </c>
+      <c r="G252" s="2">
         <v>41081</v>
-      </c>
-      <c r="G252" s="2">
-        <v>42913</v>
       </c>
       <c r="H252" t="s">
         <v>30</v>
       </c>
       <c r="I252" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J252" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B253" t="s">
         <v>63</v>
       </c>
       <c r="C253" s="2">
-        <v>42869</v>
+        <v>41042</v>
       </c>
       <c r="E253">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F253" s="2">
+        <v>41081</v>
+      </c>
+      <c r="G253" s="2">
         <v>42913</v>
       </c>
-      <c r="G253" s="2">
-        <v>44497</v>
-      </c>
       <c r="H253" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I253" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J253" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B254" t="s">
         <v>63</v>
@@ -8511,86 +8512,86 @@
         <v>42869</v>
       </c>
       <c r="E254">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F254" s="2">
+        <v>42913</v>
+      </c>
+      <c r="G254" s="2">
         <v>44497</v>
-      </c>
-      <c r="G254" s="2">
-        <v>44741</v>
       </c>
       <c r="H254" t="s">
         <v>12</v>
       </c>
       <c r="I254" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J254" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B255" t="s">
         <v>63</v>
       </c>
       <c r="C255" s="2">
+        <v>42869</v>
+      </c>
+      <c r="E255">
+        <v>26</v>
+      </c>
+      <c r="F255" s="2">
+        <v>44497</v>
+      </c>
+      <c r="G255" s="2">
+        <v>44741</v>
+      </c>
+      <c r="H255" t="s">
+        <v>12</v>
+      </c>
+      <c r="I255" t="s">
+        <v>192</v>
+      </c>
+      <c r="J255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>11127</v>
+      </c>
+      <c r="B256" t="s">
+        <v>63</v>
+      </c>
+      <c r="C256" s="2">
         <v>44696</v>
       </c>
-      <c r="E255">
+      <c r="E256">
         <v>27</v>
       </c>
-      <c r="F255" s="2">
+      <c r="F256" s="2">
         <v>44741</v>
       </c>
-      <c r="G255" s="2">
+      <c r="G256" s="2">
         <v>401768</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H256" t="s">
         <v>49</v>
       </c>
-      <c r="I255" t="s">
-        <v>193</v>
-      </c>
-      <c r="J255" t="s">
-        <v>14</v>
-      </c>
-      <c r="K255" s="3"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="I256" t="s">
+        <v>192</v>
+      </c>
+      <c r="J256" t="s">
+        <v>14</v>
+      </c>
+      <c r="K256" s="3"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A257">
         <v>11201</v>
-      </c>
-      <c r="B256" t="s">
-        <v>69</v>
-      </c>
-      <c r="C256" s="2">
-        <v>17305</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256" s="2">
-        <v>17357</v>
-      </c>
-      <c r="G256" s="2">
-        <v>17632</v>
-      </c>
-      <c r="H256" t="s">
-        <v>70</v>
-      </c>
-      <c r="I256" t="s">
-        <v>194</v>
-      </c>
-      <c r="J256" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>11202</v>
       </c>
       <c r="B257" t="s">
         <v>69</v>
@@ -8599,27 +8600,27 @@
         <v>17305</v>
       </c>
       <c r="E257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F257" s="2">
+        <v>17357</v>
+      </c>
+      <c r="G257" s="2">
         <v>17632</v>
       </c>
-      <c r="G257" s="2">
-        <v>18191</v>
-      </c>
       <c r="H257" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="I257" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J257" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>11203</v>
+        <v>11202</v>
       </c>
       <c r="B258" t="s">
         <v>69</v>
@@ -8628,27 +8629,27 @@
         <v>17305</v>
       </c>
       <c r="E258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F258" s="2">
+        <v>17632</v>
+      </c>
+      <c r="G258" s="2">
         <v>18191</v>
       </c>
-      <c r="G258" s="2">
-        <v>18246</v>
-      </c>
       <c r="H258" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I258" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J258" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>11204</v>
+        <v>11203</v>
       </c>
       <c r="B259" t="s">
         <v>69</v>
@@ -8657,172 +8658,172 @@
         <v>17305</v>
       </c>
       <c r="E259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F259" s="2">
+        <v>18191</v>
+      </c>
+      <c r="G259" s="2">
         <v>18246</v>
       </c>
-      <c r="G259" s="2">
-        <v>18747</v>
-      </c>
       <c r="H259" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I259" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J259" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>11205</v>
+        <v>11204</v>
       </c>
       <c r="B260" t="s">
         <v>69</v>
       </c>
       <c r="C260" s="2">
+        <v>17305</v>
+      </c>
+      <c r="E260">
+        <v>4</v>
+      </c>
+      <c r="F260" s="2">
+        <v>18246</v>
+      </c>
+      <c r="G260" s="2">
         <v>18747</v>
       </c>
-      <c r="E260">
-        <v>5</v>
-      </c>
-      <c r="F260" s="2">
-        <v>18792</v>
-      </c>
-      <c r="G260" s="2">
-        <v>20224</v>
-      </c>
       <c r="H260" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I260" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J260" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>11206</v>
+        <v>11205</v>
       </c>
       <c r="B261" t="s">
         <v>69</v>
       </c>
       <c r="C261" s="2">
+        <v>18747</v>
+      </c>
+      <c r="E261">
+        <v>5</v>
+      </c>
+      <c r="F261" s="2">
+        <v>18792</v>
+      </c>
+      <c r="G261" s="2">
         <v>20224</v>
-      </c>
-      <c r="E261">
-        <v>6</v>
-      </c>
-      <c r="F261" s="2">
-        <v>20241</v>
-      </c>
-      <c r="G261" s="2">
-        <v>21659</v>
       </c>
       <c r="H261" t="s">
         <v>12</v>
       </c>
       <c r="I261" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J261" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>11207</v>
+        <v>11206</v>
       </c>
       <c r="B262" t="s">
         <v>69</v>
       </c>
       <c r="C262" s="2">
+        <v>20224</v>
+      </c>
+      <c r="E262">
+        <v>6</v>
+      </c>
+      <c r="F262" s="2">
+        <v>20241</v>
+      </c>
+      <c r="G262" s="2">
         <v>21659</v>
-      </c>
-      <c r="E262">
-        <v>7</v>
-      </c>
-      <c r="F262" s="2">
-        <v>21689</v>
-      </c>
-      <c r="G262" s="2">
-        <v>23101</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
       </c>
       <c r="I262" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J262" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>11208</v>
+        <v>11207</v>
       </c>
       <c r="B263" t="s">
         <v>69</v>
       </c>
       <c r="C263" s="2">
+        <v>21659</v>
+      </c>
+      <c r="E263">
+        <v>7</v>
+      </c>
+      <c r="F263" s="2">
+        <v>21689</v>
+      </c>
+      <c r="G263" s="2">
         <v>23101</v>
-      </c>
-      <c r="E263">
-        <v>8</v>
-      </c>
-      <c r="F263" s="2">
-        <v>23149</v>
-      </c>
-      <c r="G263" s="2">
-        <v>24585</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
       </c>
       <c r="I263" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J263" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>11209</v>
+        <v>11208</v>
       </c>
       <c r="B264" t="s">
         <v>69</v>
       </c>
       <c r="C264" s="2">
+        <v>23101</v>
+      </c>
+      <c r="E264">
+        <v>8</v>
+      </c>
+      <c r="F264" s="2">
+        <v>23149</v>
+      </c>
+      <c r="G264" s="2">
         <v>24585</v>
-      </c>
-      <c r="E264">
-        <v>9</v>
-      </c>
-      <c r="F264" s="2">
-        <v>24610</v>
-      </c>
-      <c r="G264" s="2">
-        <v>25342</v>
       </c>
       <c r="H264" t="s">
         <v>12</v>
       </c>
       <c r="I264" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J264" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>11210</v>
+        <v>11209</v>
       </c>
       <c r="B265" t="s">
         <v>69</v>
@@ -8831,85 +8832,85 @@
         <v>24585</v>
       </c>
       <c r="E265">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F265" s="2">
+        <v>24610</v>
+      </c>
+      <c r="G265" s="2">
         <v>25342</v>
-      </c>
-      <c r="G265" s="2">
-        <v>26013</v>
       </c>
       <c r="H265" t="s">
         <v>12</v>
       </c>
       <c r="I265" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J265" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>11211</v>
+        <v>11210</v>
       </c>
       <c r="B266" t="s">
         <v>69</v>
       </c>
       <c r="C266" s="2">
+        <v>24585</v>
+      </c>
+      <c r="E266">
+        <v>10</v>
+      </c>
+      <c r="F266" s="2">
+        <v>25342</v>
+      </c>
+      <c r="G266" s="2">
         <v>26013</v>
       </c>
-      <c r="E266">
-        <v>11</v>
-      </c>
-      <c r="F266" s="2">
-        <v>26071</v>
-      </c>
-      <c r="G266" s="2">
-        <v>27462</v>
-      </c>
       <c r="H266" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I266" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J266" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>11212</v>
+        <v>11211</v>
       </c>
       <c r="B267" t="s">
         <v>69</v>
       </c>
       <c r="C267" s="2">
+        <v>26013</v>
+      </c>
+      <c r="E267">
+        <v>11</v>
+      </c>
+      <c r="F267" s="2">
+        <v>26071</v>
+      </c>
+      <c r="G267" s="2">
         <v>27462</v>
       </c>
-      <c r="E267">
-        <v>12</v>
-      </c>
-      <c r="F267" s="2">
-        <v>27534</v>
-      </c>
-      <c r="G267" s="2">
-        <v>28096</v>
-      </c>
       <c r="H267" t="s">
         <v>14</v>
       </c>
       <c r="I267" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J267" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>11213</v>
+        <v>11212</v>
       </c>
       <c r="B268" t="s">
         <v>69</v>
@@ -8918,114 +8919,114 @@
         <v>27462</v>
       </c>
       <c r="E268">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F268" s="2">
+        <v>27534</v>
+      </c>
+      <c r="G268" s="2">
         <v>28096</v>
       </c>
-      <c r="G268" s="2">
-        <v>28932</v>
-      </c>
       <c r="H268" t="s">
         <v>14</v>
       </c>
       <c r="I268" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J268" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>11214</v>
+        <v>11213</v>
       </c>
       <c r="B269" t="s">
         <v>69</v>
       </c>
       <c r="C269" s="2">
+        <v>27462</v>
+      </c>
+      <c r="E269">
+        <v>13</v>
+      </c>
+      <c r="F269" s="2">
+        <v>28096</v>
+      </c>
+      <c r="G269" s="2">
         <v>28932</v>
       </c>
-      <c r="E269">
-        <v>14</v>
-      </c>
-      <c r="F269" s="2">
-        <v>28993</v>
-      </c>
-      <c r="G269" s="2">
-        <v>30381</v>
-      </c>
       <c r="H269" t="s">
         <v>14</v>
       </c>
       <c r="I269" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J269" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>11215</v>
+        <v>11214</v>
       </c>
       <c r="B270" t="s">
         <v>69</v>
       </c>
       <c r="C270" s="2">
+        <v>28932</v>
+      </c>
+      <c r="E270">
+        <v>14</v>
+      </c>
+      <c r="F270" s="2">
+        <v>28993</v>
+      </c>
+      <c r="G270" s="2">
         <v>30381</v>
       </c>
-      <c r="E270">
-        <v>15</v>
-      </c>
-      <c r="F270" s="2">
-        <v>30454</v>
-      </c>
-      <c r="G270" s="2">
-        <v>31914</v>
-      </c>
       <c r="H270" t="s">
         <v>14</v>
       </c>
       <c r="I270" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J270" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>11216</v>
+        <v>11215</v>
       </c>
       <c r="B271" t="s">
         <v>69</v>
       </c>
       <c r="C271" s="2">
+        <v>30381</v>
+      </c>
+      <c r="E271">
+        <v>15</v>
+      </c>
+      <c r="F271" s="2">
+        <v>30454</v>
+      </c>
+      <c r="G271" s="2">
         <v>31914</v>
       </c>
-      <c r="E271">
-        <v>16</v>
-      </c>
-      <c r="F271" s="2">
-        <v>31951</v>
-      </c>
-      <c r="G271" s="2">
-        <v>32485</v>
-      </c>
       <c r="H271" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I271" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J271" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="B272" t="s">
         <v>69</v>
@@ -9034,56 +9035,56 @@
         <v>31914</v>
       </c>
       <c r="E272">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F272" s="2">
+        <v>31951</v>
+      </c>
+      <c r="G272" s="2">
         <v>32485</v>
-      </c>
-      <c r="G272" s="2">
-        <v>33349</v>
       </c>
       <c r="H272" t="s">
         <v>12</v>
       </c>
       <c r="I272" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J272" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>11218</v>
+        <v>11217</v>
       </c>
       <c r="B273" t="s">
         <v>69</v>
       </c>
       <c r="C273" s="2">
+        <v>31914</v>
+      </c>
+      <c r="E273">
+        <v>17</v>
+      </c>
+      <c r="F273" s="2">
+        <v>32485</v>
+      </c>
+      <c r="G273" s="2">
         <v>33349</v>
       </c>
-      <c r="E273">
-        <v>18</v>
-      </c>
-      <c r="F273" s="2">
-        <v>33379</v>
-      </c>
-      <c r="G273" s="2">
-        <v>34633</v>
-      </c>
       <c r="H273" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I273" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J273" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>11219</v>
+        <v>11218</v>
       </c>
       <c r="B274" t="s">
         <v>69</v>
@@ -9092,143 +9093,143 @@
         <v>33349</v>
       </c>
       <c r="E274">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F274" s="2">
+        <v>33379</v>
+      </c>
+      <c r="G274" s="2">
         <v>34633</v>
-      </c>
-      <c r="G274" s="2">
-        <v>35148</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
       </c>
       <c r="I274" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J274" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>11220</v>
+        <v>11219</v>
       </c>
       <c r="B275" t="s">
         <v>69</v>
       </c>
       <c r="C275" s="2">
+        <v>33349</v>
+      </c>
+      <c r="E275">
+        <v>19</v>
+      </c>
+      <c r="F275" s="2">
+        <v>34633</v>
+      </c>
+      <c r="G275" s="2">
         <v>35148</v>
-      </c>
-      <c r="E275">
-        <v>20</v>
-      </c>
-      <c r="F275" s="2">
-        <v>35205</v>
-      </c>
-      <c r="G275" s="2">
-        <v>36975</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
       </c>
       <c r="I275" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J275" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>11221</v>
+        <v>11220</v>
       </c>
       <c r="B276" t="s">
         <v>69</v>
       </c>
       <c r="C276" s="2">
+        <v>35148</v>
+      </c>
+      <c r="E276">
+        <v>20</v>
+      </c>
+      <c r="F276" s="2">
+        <v>35205</v>
+      </c>
+      <c r="G276" s="2">
         <v>36975</v>
       </c>
-      <c r="E276">
-        <v>21</v>
-      </c>
-      <c r="F276" s="2">
-        <v>37029</v>
-      </c>
-      <c r="G276" s="2">
-        <v>38855</v>
-      </c>
       <c r="H276" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I276" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J276" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>11222</v>
+        <v>11221</v>
       </c>
       <c r="B277" t="s">
         <v>69</v>
       </c>
       <c r="C277" s="2">
-        <v>38802</v>
+        <v>36975</v>
       </c>
       <c r="E277">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F277" s="2">
+        <v>37029</v>
+      </c>
+      <c r="G277" s="2">
         <v>38855</v>
       </c>
-      <c r="G277" s="2">
-        <v>40681</v>
-      </c>
       <c r="H277" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I277" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J277" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B278" t="s">
         <v>69</v>
       </c>
       <c r="C278" s="2">
-        <v>40629</v>
+        <v>38802</v>
       </c>
       <c r="E278">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F278" s="2">
+        <v>38855</v>
+      </c>
+      <c r="G278" s="2">
         <v>40681</v>
       </c>
-      <c r="G278" s="2">
-        <v>41290</v>
-      </c>
       <c r="H278" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I278" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J278" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B279" t="s">
         <v>69</v>
@@ -9237,114 +9238,114 @@
         <v>40629</v>
       </c>
       <c r="E279">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F279" s="2">
+        <v>40681</v>
+      </c>
+      <c r="G279" s="2">
         <v>41290</v>
-      </c>
-      <c r="G279" s="2">
-        <v>42508</v>
       </c>
       <c r="H279" t="s">
         <v>30</v>
       </c>
       <c r="I279" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J279" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B280" t="s">
         <v>69</v>
       </c>
       <c r="C280" s="2">
-        <v>42442</v>
+        <v>40629</v>
       </c>
       <c r="E280">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F280" s="2">
+        <v>41290</v>
+      </c>
+      <c r="G280" s="2">
         <v>42508</v>
       </c>
-      <c r="G280" s="2">
-        <v>44334</v>
-      </c>
       <c r="H280" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I280" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J280" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B281" t="s">
         <v>69</v>
       </c>
       <c r="C281" s="2">
+        <v>42442</v>
+      </c>
+      <c r="E281">
+        <v>25</v>
+      </c>
+      <c r="F281" s="2">
+        <v>42508</v>
+      </c>
+      <c r="G281" s="2">
+        <v>44334</v>
+      </c>
+      <c r="H281" t="s">
+        <v>35</v>
+      </c>
+      <c r="I281" t="s">
+        <v>199</v>
+      </c>
+      <c r="J281" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>11226</v>
+      </c>
+      <c r="B282" t="s">
+        <v>69</v>
+      </c>
+      <c r="C282" s="2">
         <v>44269</v>
       </c>
-      <c r="E281">
+      <c r="E282">
         <v>26</v>
       </c>
-      <c r="F281" s="2">
+      <c r="F282" s="2">
         <v>44334</v>
       </c>
-      <c r="G281" s="2">
+      <c r="G282" s="2">
         <v>401768</v>
       </c>
-      <c r="H281" t="s">
+      <c r="H282" t="s">
         <v>40</v>
       </c>
-      <c r="I281" t="s">
-        <v>200</v>
-      </c>
-      <c r="J281" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="I282" t="s">
+        <v>199</v>
+      </c>
+      <c r="J282" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A283">
         <v>11314</v>
-      </c>
-      <c r="B282" t="s">
-        <v>71</v>
-      </c>
-      <c r="C282" s="2">
-        <v>17445</v>
-      </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-      <c r="F282" s="2">
-        <v>17521</v>
-      </c>
-      <c r="G282" s="2">
-        <v>18732</v>
-      </c>
-      <c r="H282" t="s">
-        <v>72</v>
-      </c>
-      <c r="I282" t="s">
-        <v>201</v>
-      </c>
-      <c r="J282" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>11315</v>
       </c>
       <c r="B283" t="s">
         <v>71</v>
@@ -9353,56 +9354,56 @@
         <v>17445</v>
       </c>
       <c r="E283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F283" s="2">
+        <v>17521</v>
+      </c>
+      <c r="G283" s="2">
         <v>18732</v>
       </c>
-      <c r="G283" s="2">
-        <v>19351</v>
-      </c>
       <c r="H283" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I283" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J283" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B284" t="s">
         <v>71</v>
       </c>
       <c r="C284" s="2">
-        <v>19328</v>
+        <v>17445</v>
       </c>
       <c r="E284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F284" s="2">
+        <v>18732</v>
+      </c>
+      <c r="G284" s="2">
         <v>19351</v>
       </c>
-      <c r="G284" s="2">
-        <v>19922</v>
-      </c>
       <c r="H284" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I284" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J284" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B285" t="s">
         <v>71</v>
@@ -9411,27 +9412,27 @@
         <v>19328</v>
       </c>
       <c r="E285">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F285" s="2">
+        <v>19351</v>
+      </c>
+      <c r="G285" s="2">
         <v>19922</v>
       </c>
-      <c r="G285" s="2">
-        <v>20391</v>
-      </c>
       <c r="H285" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I285" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J285" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>11318</v>
+        <v>11317</v>
       </c>
       <c r="B286" t="s">
         <v>71</v>
@@ -9439,60 +9440,60 @@
       <c r="C286" s="2">
         <v>19328</v>
       </c>
-      <c r="D286" t="s">
-        <v>74</v>
-      </c>
       <c r="E286">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F286" s="2">
+        <v>19922</v>
+      </c>
+      <c r="G286" s="2">
         <v>20391</v>
       </c>
-      <c r="G286" s="2">
-        <v>20464</v>
-      </c>
       <c r="H286" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I286" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J286" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B287" t="s">
         <v>71</v>
       </c>
       <c r="C287" s="2">
-        <v>20441</v>
+        <v>19328</v>
+      </c>
+      <c r="D287" t="s">
+        <v>74</v>
       </c>
       <c r="E287">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F287" s="2">
+        <v>20391</v>
+      </c>
+      <c r="G287" s="2">
         <v>20464</v>
       </c>
-      <c r="G287" s="2">
-        <v>20806</v>
-      </c>
       <c r="H287" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I287" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J287" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B288" t="s">
         <v>71</v>
@@ -9501,27 +9502,27 @@
         <v>20441</v>
       </c>
       <c r="E288">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F288" s="2">
+        <v>20464</v>
+      </c>
+      <c r="G288" s="2">
         <v>20806</v>
       </c>
-      <c r="G288" s="2">
-        <v>20975</v>
-      </c>
       <c r="H288" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I288" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J288" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B289" t="s">
         <v>71</v>
@@ -9530,27 +9531,27 @@
         <v>20441</v>
       </c>
       <c r="E289">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F289" s="2">
+        <v>20806</v>
+      </c>
+      <c r="G289" s="2">
         <v>20975</v>
       </c>
-      <c r="G289" s="2">
-        <v>21607</v>
-      </c>
       <c r="H289" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="I289" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J289" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B290" t="s">
         <v>71</v>
@@ -9559,27 +9560,27 @@
         <v>20441</v>
       </c>
       <c r="E290">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F290" s="2">
+        <v>20975</v>
+      </c>
+      <c r="G290" s="2">
         <v>21607</v>
       </c>
-      <c r="G290" s="2">
-        <v>21670</v>
-      </c>
       <c r="H290" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I290" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J290" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B291" t="s">
         <v>71</v>
@@ -9588,143 +9589,143 @@
         <v>20441</v>
       </c>
       <c r="E291">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F291" s="2">
+        <v>21607</v>
+      </c>
+      <c r="G291" s="2">
         <v>21670</v>
       </c>
-      <c r="G291" s="2">
-        <v>22298</v>
-      </c>
       <c r="H291" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="I291" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J291" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>11301</v>
+        <v>11323</v>
       </c>
       <c r="B292" t="s">
         <v>71</v>
       </c>
       <c r="C292" s="2">
-        <v>22254</v>
+        <v>20441</v>
       </c>
       <c r="E292">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F292" s="2">
+        <v>21670</v>
+      </c>
+      <c r="G292" s="2">
         <v>22298</v>
       </c>
-      <c r="G292" s="2">
-        <v>23920</v>
-      </c>
       <c r="H292" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I292" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J292" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>11302</v>
+        <v>11301</v>
       </c>
       <c r="B293" t="s">
         <v>71</v>
       </c>
       <c r="C293" s="2">
+        <v>22254</v>
+      </c>
+      <c r="E293">
+        <v>11</v>
+      </c>
+      <c r="F293" s="2">
+        <v>22298</v>
+      </c>
+      <c r="G293" s="2">
         <v>23920</v>
-      </c>
-      <c r="E293">
-        <v>12</v>
-      </c>
-      <c r="F293" s="2">
-        <v>23933</v>
-      </c>
-      <c r="G293" s="2">
-        <v>25733</v>
       </c>
       <c r="H293" t="s">
         <v>12</v>
       </c>
       <c r="I293" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J293" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>11303</v>
+        <v>11302</v>
       </c>
       <c r="B294" t="s">
         <v>71</v>
       </c>
       <c r="C294" s="2">
+        <v>23920</v>
+      </c>
+      <c r="E294">
+        <v>12</v>
+      </c>
+      <c r="F294" s="2">
+        <v>23933</v>
+      </c>
+      <c r="G294" s="2">
         <v>25733</v>
       </c>
-      <c r="E294">
-        <v>13</v>
-      </c>
-      <c r="F294" s="2">
-        <v>25762</v>
-      </c>
-      <c r="G294" s="2">
-        <v>27518</v>
-      </c>
       <c r="H294" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I294" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J294" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>11304</v>
+        <v>11303</v>
       </c>
       <c r="B295" t="s">
         <v>71</v>
       </c>
       <c r="C295" s="2">
+        <v>25733</v>
+      </c>
+      <c r="E295">
+        <v>13</v>
+      </c>
+      <c r="F295" s="2">
+        <v>25762</v>
+      </c>
+      <c r="G295" s="2">
         <v>27518</v>
       </c>
-      <c r="E295">
-        <v>14</v>
-      </c>
-      <c r="F295" s="2">
-        <v>27518</v>
-      </c>
-      <c r="G295" s="2">
-        <v>28185</v>
-      </c>
       <c r="H295" t="s">
         <v>14</v>
       </c>
       <c r="I295" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J295" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>11305</v>
+        <v>11304</v>
       </c>
       <c r="B296" t="s">
         <v>71</v>
@@ -9733,27 +9734,27 @@
         <v>27518</v>
       </c>
       <c r="E296">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F296" s="2">
+        <v>27518</v>
+      </c>
+      <c r="G296" s="2">
         <v>28185</v>
       </c>
-      <c r="G296" s="2">
-        <v>29041</v>
-      </c>
       <c r="H296" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I296" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J296" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>11306</v>
+        <v>11305</v>
       </c>
       <c r="B297" t="s">
         <v>71</v>
@@ -9762,143 +9763,143 @@
         <v>27518</v>
       </c>
       <c r="E297">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F297" s="2">
+        <v>28185</v>
+      </c>
+      <c r="G297" s="2">
         <v>29041</v>
-      </c>
-      <c r="G297" s="2">
-        <v>29338</v>
       </c>
       <c r="H297" t="s">
         <v>12</v>
       </c>
       <c r="I297" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J297" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>11307</v>
+        <v>11306</v>
       </c>
       <c r="B298" t="s">
         <v>71</v>
       </c>
       <c r="C298" s="2">
+        <v>27518</v>
+      </c>
+      <c r="E298">
+        <v>16</v>
+      </c>
+      <c r="F298" s="2">
+        <v>29041</v>
+      </c>
+      <c r="G298" s="2">
         <v>29338</v>
-      </c>
-      <c r="E298">
-        <v>17</v>
-      </c>
-      <c r="F298" s="2">
-        <v>29364</v>
-      </c>
-      <c r="G298" s="2">
-        <v>31116</v>
       </c>
       <c r="H298" t="s">
         <v>12</v>
       </c>
       <c r="I298" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J298" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>11308</v>
+        <v>11307</v>
       </c>
       <c r="B299" t="s">
         <v>71</v>
       </c>
       <c r="C299" s="2">
+        <v>29338</v>
+      </c>
+      <c r="E299">
+        <v>17</v>
+      </c>
+      <c r="F299" s="2">
+        <v>29364</v>
+      </c>
+      <c r="G299" s="2">
         <v>31116</v>
       </c>
-      <c r="E299">
-        <v>18</v>
-      </c>
-      <c r="F299" s="2">
-        <v>31146</v>
-      </c>
-      <c r="G299" s="2">
-        <v>32901</v>
-      </c>
       <c r="H299" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I299" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J299" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>11309</v>
+        <v>11308</v>
       </c>
       <c r="B300" t="s">
         <v>71</v>
       </c>
       <c r="C300" s="2">
+        <v>31116</v>
+      </c>
+      <c r="E300">
+        <v>18</v>
+      </c>
+      <c r="F300" s="2">
+        <v>31146</v>
+      </c>
+      <c r="G300" s="2">
         <v>32901</v>
       </c>
-      <c r="E300">
-        <v>19</v>
-      </c>
-      <c r="F300" s="2">
-        <v>32925</v>
-      </c>
-      <c r="G300" s="2">
-        <v>34623</v>
-      </c>
       <c r="H300" t="s">
         <v>29</v>
       </c>
       <c r="I300" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J300" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>11310</v>
+        <v>11309</v>
       </c>
       <c r="B301" t="s">
         <v>71</v>
       </c>
       <c r="C301" s="2">
+        <v>32901</v>
+      </c>
+      <c r="E301">
+        <v>19</v>
+      </c>
+      <c r="F301" s="2">
+        <v>32925</v>
+      </c>
+      <c r="G301" s="2">
         <v>34623</v>
       </c>
-      <c r="E301">
-        <v>20</v>
-      </c>
-      <c r="F301" s="2">
-        <v>34647</v>
-      </c>
-      <c r="G301" s="2">
-        <v>36109</v>
-      </c>
       <c r="H301" t="s">
         <v>29</v>
       </c>
       <c r="I301" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J301" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>11311</v>
+        <v>11310</v>
       </c>
       <c r="B302" t="s">
         <v>71</v>
@@ -9907,114 +9908,114 @@
         <v>34623</v>
       </c>
       <c r="E302">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F302" s="2">
+        <v>34647</v>
+      </c>
+      <c r="G302" s="2">
         <v>36109</v>
       </c>
-      <c r="G302" s="2">
-        <v>36408</v>
-      </c>
       <c r="H302" t="s">
         <v>29</v>
       </c>
       <c r="I302" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J302" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>11312</v>
+        <v>11311</v>
       </c>
       <c r="B303" t="s">
         <v>71</v>
       </c>
       <c r="C303" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E303">
+        <v>21</v>
+      </c>
+      <c r="F303" s="2">
+        <v>36109</v>
+      </c>
+      <c r="G303" s="2">
         <v>36408</v>
       </c>
-      <c r="E303">
-        <v>22</v>
-      </c>
-      <c r="F303" s="2">
-        <v>36432</v>
-      </c>
-      <c r="G303" s="2">
-        <v>38235</v>
-      </c>
       <c r="H303" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I303" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J303" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>11313</v>
+        <v>11312</v>
       </c>
       <c r="B304" t="s">
         <v>71</v>
       </c>
       <c r="C304" s="2">
+        <v>36408</v>
+      </c>
+      <c r="E304">
+        <v>22</v>
+      </c>
+      <c r="F304" s="2">
+        <v>36432</v>
+      </c>
+      <c r="G304" s="2">
         <v>38235</v>
       </c>
-      <c r="E304">
-        <v>23</v>
-      </c>
-      <c r="F304" s="2">
-        <v>38266</v>
-      </c>
-      <c r="G304" s="2">
-        <v>40127</v>
-      </c>
       <c r="H304" t="s">
         <v>14</v>
       </c>
       <c r="I304" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J304" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B305" t="s">
         <v>71</v>
       </c>
       <c r="C305" s="2">
-        <v>40055</v>
+        <v>38235</v>
       </c>
       <c r="E305">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F305" s="2">
+        <v>38266</v>
+      </c>
+      <c r="G305" s="2">
         <v>40127</v>
       </c>
-      <c r="G305" s="2">
-        <v>40764</v>
-      </c>
       <c r="H305" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="I305" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J305" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B306" t="s">
         <v>71</v>
@@ -10023,27 +10024,27 @@
         <v>40055</v>
       </c>
       <c r="E306">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F306" s="2">
+        <v>40127</v>
+      </c>
+      <c r="G306" s="2">
         <v>40764</v>
-      </c>
-      <c r="G306" s="2">
-        <v>40926</v>
       </c>
       <c r="H306" t="s">
         <v>78</v>
       </c>
       <c r="I306" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J306" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B307" t="s">
         <v>71</v>
@@ -10052,85 +10053,85 @@
         <v>40055</v>
       </c>
       <c r="E307">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F307" s="2">
+        <v>40764</v>
+      </c>
+      <c r="G307" s="2">
         <v>40926</v>
       </c>
-      <c r="G307" s="2">
-        <v>41038</v>
-      </c>
       <c r="H307" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="I307" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J307" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B308" t="s">
         <v>71</v>
       </c>
       <c r="C308" s="2">
-        <v>40993</v>
+        <v>40055</v>
       </c>
       <c r="E308">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F308" s="2">
+        <v>40926</v>
+      </c>
+      <c r="G308" s="2">
         <v>41038</v>
       </c>
-      <c r="G308" s="2">
-        <v>42872</v>
-      </c>
       <c r="H308" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I308" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J308" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B309" t="s">
         <v>71</v>
       </c>
       <c r="C309" s="2">
-        <v>42820</v>
+        <v>40993</v>
       </c>
       <c r="E309">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F309" s="2">
+        <v>41038</v>
+      </c>
+      <c r="G309" s="2">
         <v>42872</v>
-      </c>
-      <c r="G309" s="2">
-        <v>43160</v>
       </c>
       <c r="H309" t="s">
         <v>13</v>
       </c>
       <c r="I309" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J309" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B310" t="s">
         <v>71</v>
@@ -10139,143 +10140,143 @@
         <v>42820</v>
       </c>
       <c r="E310">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F310" s="2">
+        <v>42872</v>
+      </c>
+      <c r="G310" s="2">
         <v>43160</v>
-      </c>
-      <c r="G310" s="2">
-        <v>44676</v>
       </c>
       <c r="H310" t="s">
         <v>13</v>
       </c>
       <c r="I310" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J310" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B311" t="s">
         <v>71</v>
       </c>
       <c r="C311" s="2">
+        <v>42820</v>
+      </c>
+      <c r="E311">
+        <v>29</v>
+      </c>
+      <c r="F311" s="2">
+        <v>43160</v>
+      </c>
+      <c r="G311" s="2">
+        <v>44676</v>
+      </c>
+      <c r="H311" t="s">
+        <v>13</v>
+      </c>
+      <c r="I311" t="s">
+        <v>210</v>
+      </c>
+      <c r="J311" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>11330</v>
+      </c>
+      <c r="B312" t="s">
+        <v>71</v>
+      </c>
+      <c r="C312" s="2">
         <v>44647</v>
       </c>
-      <c r="E311">
+      <c r="E312">
         <v>30</v>
       </c>
-      <c r="F311" s="2">
+      <c r="F312" s="2">
         <v>44676</v>
       </c>
-      <c r="G311" s="2">
+      <c r="G312" s="2">
         <v>401768</v>
       </c>
-      <c r="H311" t="s">
-        <v>29</v>
-      </c>
-      <c r="I311" t="s">
-        <v>241</v>
-      </c>
-      <c r="J311" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="H312" t="s">
+        <v>29</v>
+      </c>
+      <c r="I312" t="s">
+        <v>240</v>
+      </c>
+      <c r="J312" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A313">
         <v>11401</v>
-      </c>
-      <c r="B312" t="s">
-        <v>79</v>
-      </c>
-      <c r="C312" s="2">
-        <v>33160</v>
-      </c>
-      <c r="E312">
-        <v>1</v>
-      </c>
-      <c r="F312" s="2">
-        <v>33173</v>
-      </c>
-      <c r="G312" s="2">
-        <v>34588</v>
-      </c>
-      <c r="H312" t="s">
-        <v>14</v>
-      </c>
-      <c r="I312" t="s">
-        <v>212</v>
-      </c>
-      <c r="J312" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>11402</v>
       </c>
       <c r="B313" t="s">
         <v>79</v>
       </c>
       <c r="C313" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313" s="2">
+        <v>33173</v>
+      </c>
+      <c r="G313" s="2">
         <v>34588</v>
       </c>
-      <c r="E313">
-        <v>2</v>
-      </c>
-      <c r="F313" s="2">
-        <v>34613</v>
-      </c>
-      <c r="G313" s="2">
-        <v>36422</v>
-      </c>
       <c r="H313" t="s">
         <v>14</v>
       </c>
       <c r="I313" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J313" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>11403</v>
+        <v>11402</v>
       </c>
       <c r="B314" t="s">
         <v>79</v>
       </c>
       <c r="C314" s="2">
+        <v>34588</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
+      </c>
+      <c r="F314" s="2">
+        <v>34613</v>
+      </c>
+      <c r="G314" s="2">
         <v>36422</v>
       </c>
-      <c r="E314">
-        <v>3</v>
-      </c>
-      <c r="F314" s="2">
-        <v>36446</v>
-      </c>
-      <c r="G314" s="2">
-        <v>37364</v>
-      </c>
       <c r="H314" t="s">
         <v>14</v>
       </c>
       <c r="I314" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J314" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>11404</v>
+        <v>11403</v>
       </c>
       <c r="B315" t="s">
         <v>79</v>
@@ -10284,56 +10285,56 @@
         <v>36422</v>
       </c>
       <c r="E315">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F315" s="2">
+        <v>36446</v>
+      </c>
+      <c r="G315" s="2">
         <v>37364</v>
       </c>
-      <c r="G315" s="2">
-        <v>38249</v>
-      </c>
       <c r="H315" t="s">
         <v>14</v>
       </c>
       <c r="I315" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J315" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>11405</v>
+        <v>11404</v>
       </c>
       <c r="B316" t="s">
         <v>79</v>
       </c>
       <c r="C316" s="2">
+        <v>36422</v>
+      </c>
+      <c r="E316">
+        <v>4</v>
+      </c>
+      <c r="F316" s="2">
+        <v>37364</v>
+      </c>
+      <c r="G316" s="2">
         <v>38249</v>
       </c>
-      <c r="E316">
-        <v>5</v>
-      </c>
-      <c r="F316" s="2">
-        <v>38301</v>
-      </c>
-      <c r="G316" s="2">
-        <v>39617</v>
-      </c>
       <c r="H316" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I316" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J316" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B317" t="s">
         <v>79</v>
@@ -10342,85 +10343,85 @@
         <v>38249</v>
       </c>
       <c r="E317">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F317" s="2">
+        <v>38301</v>
+      </c>
+      <c r="G317" s="2">
         <v>39617</v>
-      </c>
-      <c r="G317" s="2">
-        <v>40086</v>
       </c>
       <c r="H317" t="s">
         <v>13</v>
       </c>
       <c r="I317" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J317" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B318" t="s">
         <v>79</v>
       </c>
       <c r="C318" s="2">
-        <v>40055</v>
+        <v>38249</v>
       </c>
       <c r="E318">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F318" s="2">
+        <v>39617</v>
+      </c>
+      <c r="G318" s="2">
         <v>40086</v>
       </c>
-      <c r="G318" s="2">
-        <v>41956</v>
-      </c>
       <c r="H318" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I318" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J318" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B319" t="s">
         <v>79</v>
       </c>
       <c r="C319" s="2">
-        <v>41882</v>
+        <v>40055</v>
       </c>
       <c r="E319">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F319" s="2">
+        <v>40086</v>
+      </c>
+      <c r="G319" s="2">
         <v>41956</v>
       </c>
-      <c r="G319" s="2">
-        <v>43082</v>
-      </c>
       <c r="H319" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I319" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J319" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B320" t="s">
         <v>79</v>
@@ -10429,85 +10430,85 @@
         <v>41882</v>
       </c>
       <c r="E320">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F320" s="2">
+        <v>41956</v>
+      </c>
+      <c r="G320" s="2">
         <v>43082</v>
-      </c>
-      <c r="G320" s="2">
-        <v>43819</v>
       </c>
       <c r="H320" t="s">
         <v>13</v>
       </c>
       <c r="I320" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J320" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B321" t="s">
         <v>79</v>
       </c>
       <c r="C321" s="2">
+        <v>41882</v>
+      </c>
+      <c r="E321">
+        <v>9</v>
+      </c>
+      <c r="F321" s="2">
+        <v>43082</v>
+      </c>
+      <c r="G321" s="2">
+        <v>43819</v>
+      </c>
+      <c r="H321" t="s">
+        <v>13</v>
+      </c>
+      <c r="I321" t="s">
+        <v>214</v>
+      </c>
+      <c r="J321" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>11410</v>
+      </c>
+      <c r="B322" t="s">
+        <v>79</v>
+      </c>
+      <c r="C322" s="2">
         <v>43709</v>
       </c>
-      <c r="E321">
+      <c r="E322">
         <v>10</v>
       </c>
-      <c r="F321" s="2">
+      <c r="F322" s="2">
         <v>43819</v>
       </c>
-      <c r="G321" s="2">
+      <c r="G322" s="2">
         <v>401768</v>
       </c>
-      <c r="H321" t="s">
+      <c r="H322" t="s">
         <v>80</v>
       </c>
-      <c r="I321" t="s">
-        <v>215</v>
-      </c>
-      <c r="J321" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="I322" t="s">
+        <v>214</v>
+      </c>
+      <c r="J322" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A323">
         <v>11501</v>
-      </c>
-      <c r="B322" t="s">
-        <v>81</v>
-      </c>
-      <c r="C322" s="2">
-        <v>33160</v>
-      </c>
-      <c r="E322">
-        <v>1</v>
-      </c>
-      <c r="F322" s="2">
-        <v>33174</v>
-      </c>
-      <c r="G322" s="2">
-        <v>33423</v>
-      </c>
-      <c r="H322" t="s">
-        <v>12</v>
-      </c>
-      <c r="I322" t="s">
-        <v>216</v>
-      </c>
-      <c r="J322" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>11502</v>
       </c>
       <c r="B323" t="s">
         <v>81</v>
@@ -10516,27 +10517,27 @@
         <v>33160</v>
       </c>
       <c r="E323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F323" s="2">
+        <v>33174</v>
+      </c>
+      <c r="G323" s="2">
         <v>33423</v>
-      </c>
-      <c r="G323" s="2">
-        <v>34305</v>
       </c>
       <c r="H323" t="s">
         <v>12</v>
       </c>
       <c r="I323" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J323" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>11503</v>
+        <v>11502</v>
       </c>
       <c r="B324" t="s">
         <v>81</v>
@@ -10545,259 +10546,259 @@
         <v>33160</v>
       </c>
       <c r="E324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F324" s="2">
+        <v>33423</v>
+      </c>
+      <c r="G324" s="2">
         <v>34305</v>
-      </c>
-      <c r="G324" s="2">
-        <v>34511</v>
       </c>
       <c r="H324" t="s">
         <v>12</v>
       </c>
       <c r="I324" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J324" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>11504</v>
+        <v>11503</v>
       </c>
       <c r="B325" t="s">
         <v>81</v>
       </c>
       <c r="C325" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E325">
+        <v>3</v>
+      </c>
+      <c r="F325" s="2">
+        <v>34305</v>
+      </c>
+      <c r="G325" s="2">
         <v>34511</v>
       </c>
-      <c r="E325">
-        <v>4</v>
-      </c>
-      <c r="F325" s="2">
-        <v>34536</v>
-      </c>
-      <c r="G325" s="2">
-        <v>35911</v>
-      </c>
       <c r="H325" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I325" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J325" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>11505</v>
+        <v>11504</v>
       </c>
       <c r="B326" t="s">
         <v>81</v>
       </c>
       <c r="C326" s="2">
+        <v>34511</v>
+      </c>
+      <c r="E326">
+        <v>4</v>
+      </c>
+      <c r="F326" s="2">
+        <v>34536</v>
+      </c>
+      <c r="G326" s="2">
         <v>35911</v>
       </c>
-      <c r="E326">
-        <v>5</v>
-      </c>
-      <c r="F326" s="2">
-        <v>35941</v>
-      </c>
-      <c r="G326" s="2">
-        <v>37367</v>
-      </c>
       <c r="H326" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I326" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J326" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>11506</v>
+        <v>11505</v>
       </c>
       <c r="B327" t="s">
         <v>81</v>
       </c>
       <c r="C327" s="2">
+        <v>35911</v>
+      </c>
+      <c r="E327">
+        <v>5</v>
+      </c>
+      <c r="F327" s="2">
+        <v>35941</v>
+      </c>
+      <c r="G327" s="2">
         <v>37367</v>
       </c>
-      <c r="E327">
-        <v>6</v>
-      </c>
-      <c r="F327" s="2">
-        <v>37392</v>
-      </c>
-      <c r="G327" s="2">
-        <v>38831</v>
-      </c>
       <c r="H327" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I327" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J327" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B328" t="s">
         <v>81</v>
       </c>
       <c r="C328" s="2">
-        <v>38802</v>
+        <v>37367</v>
       </c>
       <c r="E328">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F328" s="2">
+        <v>37392</v>
+      </c>
+      <c r="G328" s="2">
         <v>38831</v>
       </c>
-      <c r="G328" s="2">
-        <v>40652</v>
-      </c>
       <c r="H328" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I328" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J328" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B329" t="s">
         <v>81</v>
       </c>
       <c r="C329" s="2">
-        <v>40622</v>
+        <v>38802</v>
       </c>
       <c r="E329">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F329" s="2">
+        <v>38831</v>
+      </c>
+      <c r="G329" s="2">
         <v>40652</v>
-      </c>
-      <c r="G329" s="2">
-        <v>42485</v>
       </c>
       <c r="H329" t="s">
         <v>13</v>
       </c>
       <c r="I329" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J329" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B330" t="s">
         <v>81</v>
       </c>
       <c r="C330" s="2">
-        <v>42442</v>
+        <v>40622</v>
       </c>
       <c r="E330">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F330" s="2">
+        <v>40652</v>
+      </c>
+      <c r="G330" s="2">
         <v>42485</v>
       </c>
-      <c r="G330" s="2">
-        <v>44455</v>
-      </c>
       <c r="H330" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="I330" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J330" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B331" t="s">
         <v>81</v>
       </c>
       <c r="C331" s="2">
+        <v>42442</v>
+      </c>
+      <c r="E331">
+        <v>9</v>
+      </c>
+      <c r="F331" s="2">
+        <v>42485</v>
+      </c>
+      <c r="G331" s="2">
+        <v>44455</v>
+      </c>
+      <c r="H331" t="s">
+        <v>82</v>
+      </c>
+      <c r="I331" t="s">
+        <v>220</v>
+      </c>
+      <c r="J331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>11510</v>
+      </c>
+      <c r="B332" t="s">
+        <v>81</v>
+      </c>
+      <c r="C332" s="2">
         <v>44353</v>
       </c>
-      <c r="E331">
+      <c r="E332">
         <v>10</v>
       </c>
-      <c r="F331" s="2">
+      <c r="F332" s="2">
         <v>44455</v>
       </c>
-      <c r="G331" s="2">
+      <c r="G332" s="2">
         <v>401768</v>
       </c>
-      <c r="H331" t="s">
+      <c r="H332" t="s">
         <v>43</v>
       </c>
-      <c r="I331" t="s">
-        <v>221</v>
-      </c>
-      <c r="J331" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="I332" t="s">
+        <v>220</v>
+      </c>
+      <c r="J332" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A333">
         <v>11601</v>
-      </c>
-      <c r="B332" t="s">
-        <v>83</v>
-      </c>
-      <c r="C332" s="2">
-        <v>17277</v>
-      </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332" s="2">
-        <v>17286</v>
-      </c>
-      <c r="G332" s="2">
-        <v>18139</v>
-      </c>
-      <c r="H332" t="s">
-        <v>29</v>
-      </c>
-      <c r="I332" t="s">
-        <v>222</v>
-      </c>
-      <c r="J332" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>11602</v>
       </c>
       <c r="B333" t="s">
         <v>83</v>
@@ -10806,56 +10807,56 @@
         <v>17277</v>
       </c>
       <c r="E333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F333" s="2">
+        <v>17286</v>
+      </c>
+      <c r="G333" s="2">
         <v>18139</v>
       </c>
-      <c r="G333" s="2">
-        <v>18453</v>
-      </c>
       <c r="H333" t="s">
         <v>29</v>
       </c>
       <c r="I333" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J333" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>11603</v>
+        <v>11602</v>
       </c>
       <c r="B334" t="s">
         <v>83</v>
       </c>
       <c r="C334" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E334">
+        <v>2</v>
+      </c>
+      <c r="F334" s="2">
+        <v>18139</v>
+      </c>
+      <c r="G334" s="2">
         <v>18453</v>
       </c>
-      <c r="E334">
-        <v>3</v>
-      </c>
-      <c r="F334" s="2">
-        <v>18511</v>
-      </c>
-      <c r="G334" s="2">
-        <v>18804</v>
-      </c>
       <c r="H334" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I334" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J334" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>11604</v>
+        <v>11603</v>
       </c>
       <c r="B335" t="s">
         <v>83</v>
@@ -10864,27 +10865,27 @@
         <v>18453</v>
       </c>
       <c r="E335">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F335" s="2">
+        <v>18511</v>
+      </c>
+      <c r="G335" s="2">
         <v>18804</v>
       </c>
-      <c r="G335" s="2">
-        <v>18837</v>
-      </c>
       <c r="H335" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I335" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J335" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>11605</v>
+        <v>11604</v>
       </c>
       <c r="B336" t="s">
         <v>83</v>
@@ -10893,27 +10894,27 @@
         <v>18453</v>
       </c>
       <c r="E336">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F336" s="2">
+        <v>18804</v>
+      </c>
+      <c r="G336" s="2">
         <v>18837</v>
       </c>
-      <c r="G336" s="2">
-        <v>18997</v>
-      </c>
       <c r="H336" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I336" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J336" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>11606</v>
+        <v>11605</v>
       </c>
       <c r="B337" t="s">
         <v>83</v>
@@ -10922,27 +10923,27 @@
         <v>18453</v>
       </c>
       <c r="E337">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F337" s="2">
+        <v>18837</v>
+      </c>
+      <c r="G337" s="2">
         <v>18997</v>
       </c>
-      <c r="G337" s="2">
-        <v>19378</v>
-      </c>
       <c r="H337" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I337" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J337" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>11607</v>
+        <v>11606</v>
       </c>
       <c r="B338" t="s">
         <v>83</v>
@@ -10951,114 +10952,114 @@
         <v>18453</v>
       </c>
       <c r="E338">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F338" s="2">
+        <v>18997</v>
+      </c>
+      <c r="G338" s="2">
         <v>19378</v>
       </c>
-      <c r="G338" s="2">
-        <v>19979</v>
-      </c>
       <c r="H338" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I338" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J338" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>11608</v>
+        <v>11607</v>
       </c>
       <c r="B339" t="s">
         <v>83</v>
       </c>
       <c r="C339" s="2">
+        <v>18453</v>
+      </c>
+      <c r="E339">
+        <v>7</v>
+      </c>
+      <c r="F339" s="2">
+        <v>19378</v>
+      </c>
+      <c r="G339" s="2">
         <v>19979</v>
       </c>
-      <c r="E339">
-        <v>8</v>
-      </c>
-      <c r="F339" s="2">
-        <v>20008</v>
-      </c>
-      <c r="G339" s="2">
-        <v>21456</v>
-      </c>
       <c r="H339" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I339" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J339" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>11609</v>
+        <v>11608</v>
       </c>
       <c r="B340" t="s">
         <v>83</v>
       </c>
       <c r="C340" s="2">
+        <v>19979</v>
+      </c>
+      <c r="E340">
+        <v>8</v>
+      </c>
+      <c r="F340" s="2">
+        <v>20008</v>
+      </c>
+      <c r="G340" s="2">
         <v>21456</v>
       </c>
-      <c r="E340">
-        <v>9</v>
-      </c>
-      <c r="F340" s="2">
-        <v>21456</v>
-      </c>
-      <c r="G340" s="2">
-        <v>22912</v>
-      </c>
       <c r="H340" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I340" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J340" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>11610</v>
+        <v>11609</v>
       </c>
       <c r="B341" t="s">
         <v>83</v>
       </c>
       <c r="C341" s="2">
+        <v>21456</v>
+      </c>
+      <c r="E341">
+        <v>9</v>
+      </c>
+      <c r="F341" s="2">
+        <v>21456</v>
+      </c>
+      <c r="G341" s="2">
         <v>22912</v>
       </c>
-      <c r="E341">
-        <v>10</v>
-      </c>
-      <c r="F341" s="2">
-        <v>22912</v>
-      </c>
-      <c r="G341" s="2">
-        <v>23018</v>
-      </c>
       <c r="H341" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I341" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J341" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>11611</v>
+        <v>11610</v>
       </c>
       <c r="B342" t="s">
         <v>83</v>
@@ -11067,56 +11068,56 @@
         <v>22912</v>
       </c>
       <c r="E342">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F342" s="2">
+        <v>22912</v>
+      </c>
+      <c r="G342" s="2">
         <v>23018</v>
       </c>
-      <c r="G342" s="2">
-        <v>24585</v>
-      </c>
       <c r="H342" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I342" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J342" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>11612</v>
+        <v>11611</v>
       </c>
       <c r="B343" t="s">
         <v>83</v>
       </c>
       <c r="C343" s="2">
+        <v>22912</v>
+      </c>
+      <c r="E343">
+        <v>11</v>
+      </c>
+      <c r="F343" s="2">
+        <v>23018</v>
+      </c>
+      <c r="G343" s="2">
         <v>24585</v>
-      </c>
-      <c r="E343">
-        <v>12</v>
-      </c>
-      <c r="F343" s="2">
-        <v>24585</v>
-      </c>
-      <c r="G343" s="2">
-        <v>25967</v>
       </c>
       <c r="H343" t="s">
         <v>12</v>
       </c>
       <c r="I343" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J343" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>11613</v>
+        <v>11612</v>
       </c>
       <c r="B344" t="s">
         <v>83</v>
@@ -11125,114 +11126,114 @@
         <v>24585</v>
       </c>
       <c r="E344">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F344" s="2">
+        <v>24585</v>
+      </c>
+      <c r="G344" s="2">
         <v>25967</v>
       </c>
-      <c r="G344" s="2">
-        <v>26048</v>
-      </c>
       <c r="H344" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I344" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J344" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>11614</v>
+        <v>11613</v>
       </c>
       <c r="B345" t="s">
         <v>83</v>
       </c>
       <c r="C345" s="2">
+        <v>24585</v>
+      </c>
+      <c r="E345">
+        <v>13</v>
+      </c>
+      <c r="F345" s="2">
+        <v>25967</v>
+      </c>
+      <c r="G345" s="2">
         <v>26048</v>
       </c>
-      <c r="E345">
-        <v>14</v>
-      </c>
-      <c r="F345" s="2">
-        <v>26077</v>
-      </c>
-      <c r="G345" s="2">
-        <v>27497</v>
-      </c>
       <c r="H345" t="s">
         <v>14</v>
       </c>
       <c r="I345" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J345" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>11615</v>
+        <v>11614</v>
       </c>
       <c r="B346" t="s">
         <v>83</v>
       </c>
       <c r="C346" s="2">
+        <v>26048</v>
+      </c>
+      <c r="E346">
+        <v>14</v>
+      </c>
+      <c r="F346" s="2">
+        <v>26077</v>
+      </c>
+      <c r="G346" s="2">
         <v>27497</v>
       </c>
-      <c r="E346">
-        <v>15</v>
-      </c>
-      <c r="F346" s="2">
-        <v>27497</v>
-      </c>
-      <c r="G346" s="2">
-        <v>28974</v>
-      </c>
       <c r="H346" t="s">
         <v>14</v>
       </c>
       <c r="I346" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J346" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>11616</v>
+        <v>11615</v>
       </c>
       <c r="B347" t="s">
         <v>83</v>
       </c>
       <c r="C347" s="2">
+        <v>27497</v>
+      </c>
+      <c r="E347">
+        <v>15</v>
+      </c>
+      <c r="F347" s="2">
+        <v>27497</v>
+      </c>
+      <c r="G347" s="2">
         <v>28974</v>
       </c>
-      <c r="E347">
-        <v>16</v>
-      </c>
-      <c r="F347" s="2">
-        <v>28974</v>
-      </c>
-      <c r="G347" s="2">
-        <v>30238</v>
-      </c>
       <c r="H347" t="s">
         <v>14</v>
       </c>
       <c r="I347" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J347" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>11617</v>
+        <v>11616</v>
       </c>
       <c r="B348" t="s">
         <v>83</v>
@@ -11241,85 +11242,85 @@
         <v>28974</v>
       </c>
       <c r="E348">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F348" s="2">
+        <v>28974</v>
+      </c>
+      <c r="G348" s="2">
         <v>30238</v>
       </c>
-      <c r="G348" s="2">
-        <v>30388</v>
-      </c>
       <c r="H348" t="s">
         <v>14</v>
       </c>
       <c r="I348" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J348" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>11618</v>
+        <v>11617</v>
       </c>
       <c r="B349" t="s">
         <v>83</v>
       </c>
       <c r="C349" s="2">
+        <v>28974</v>
+      </c>
+      <c r="E349">
+        <v>17</v>
+      </c>
+      <c r="F349" s="2">
+        <v>30238</v>
+      </c>
+      <c r="G349" s="2">
         <v>30388</v>
       </c>
-      <c r="E349">
-        <v>18</v>
-      </c>
-      <c r="F349" s="2">
-        <v>30388</v>
-      </c>
-      <c r="G349" s="2">
-        <v>32033</v>
-      </c>
       <c r="H349" t="s">
         <v>14</v>
       </c>
       <c r="I349" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J349" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>11619</v>
+        <v>11618</v>
       </c>
       <c r="B350" t="s">
         <v>83</v>
       </c>
       <c r="C350" s="2">
+        <v>30388</v>
+      </c>
+      <c r="E350">
+        <v>18</v>
+      </c>
+      <c r="F350" s="2">
+        <v>30388</v>
+      </c>
+      <c r="G350" s="2">
         <v>32033</v>
       </c>
-      <c r="E350">
-        <v>19</v>
-      </c>
-      <c r="F350" s="2">
-        <v>32033</v>
-      </c>
-      <c r="G350" s="2">
-        <v>32052</v>
-      </c>
       <c r="H350" t="s">
         <v>14</v>
       </c>
       <c r="I350" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J350" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>11620</v>
+        <v>11619</v>
       </c>
       <c r="B351" t="s">
         <v>83</v>
@@ -11328,85 +11329,85 @@
         <v>32033</v>
       </c>
       <c r="E351">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F351" s="2">
+        <v>32033</v>
+      </c>
+      <c r="G351" s="2">
         <v>32052</v>
       </c>
-      <c r="G351" s="2">
-        <v>32271</v>
-      </c>
       <c r="H351" t="s">
         <v>14</v>
       </c>
       <c r="I351" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J351" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>11621</v>
+        <v>11620</v>
       </c>
       <c r="B352" t="s">
         <v>83</v>
       </c>
       <c r="C352" s="2">
+        <v>32033</v>
+      </c>
+      <c r="E352">
+        <v>20</v>
+      </c>
+      <c r="F352" s="2">
+        <v>32052</v>
+      </c>
+      <c r="G352" s="2">
         <v>32271</v>
       </c>
-      <c r="E352">
-        <v>21</v>
-      </c>
-      <c r="F352" s="2">
-        <v>32294</v>
-      </c>
-      <c r="G352" s="2">
-        <v>33699</v>
-      </c>
       <c r="H352" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I352" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J352" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>11622</v>
+        <v>11621</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
       </c>
       <c r="C353" s="2">
+        <v>32271</v>
+      </c>
+      <c r="E353">
+        <v>21</v>
+      </c>
+      <c r="F353" s="2">
+        <v>32294</v>
+      </c>
+      <c r="G353" s="2">
         <v>33699</v>
       </c>
-      <c r="E353">
-        <v>22</v>
-      </c>
-      <c r="F353" s="2">
-        <v>33729</v>
-      </c>
-      <c r="G353" s="2">
-        <v>34108</v>
-      </c>
       <c r="H353" t="s">
         <v>29</v>
       </c>
       <c r="I353" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J353" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>11623</v>
+        <v>11622</v>
       </c>
       <c r="B354" t="s">
         <v>83</v>
@@ -11415,259 +11416,259 @@
         <v>33699</v>
       </c>
       <c r="E354">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F354" s="2">
+        <v>33729</v>
+      </c>
+      <c r="G354" s="2">
         <v>34108</v>
       </c>
-      <c r="G354" s="2">
-        <v>35148</v>
-      </c>
       <c r="H354" t="s">
         <v>29</v>
       </c>
       <c r="I354" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J354" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>11624</v>
+        <v>11623</v>
       </c>
       <c r="B355" t="s">
         <v>83</v>
       </c>
       <c r="C355" s="2">
+        <v>33699</v>
+      </c>
+      <c r="E355">
+        <v>23</v>
+      </c>
+      <c r="F355" s="2">
+        <v>34108</v>
+      </c>
+      <c r="G355" s="2">
         <v>35148</v>
       </c>
-      <c r="E355">
-        <v>24</v>
-      </c>
-      <c r="F355" s="2">
-        <v>35207</v>
-      </c>
-      <c r="G355" s="2">
-        <v>36583</v>
-      </c>
       <c r="H355" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I355" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J355" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>11625</v>
+        <v>11624</v>
       </c>
       <c r="B356" t="s">
         <v>83</v>
       </c>
       <c r="C356" s="2">
+        <v>35148</v>
+      </c>
+      <c r="E356">
+        <v>24</v>
+      </c>
+      <c r="F356" s="2">
+        <v>35207</v>
+      </c>
+      <c r="G356" s="2">
         <v>36583</v>
-      </c>
-      <c r="E356">
-        <v>25</v>
-      </c>
-      <c r="F356" s="2">
-        <v>36613</v>
-      </c>
-      <c r="G356" s="2">
-        <v>38403</v>
       </c>
       <c r="H356" t="s">
         <v>30</v>
       </c>
       <c r="I356" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J356" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>11626</v>
+        <v>11625</v>
       </c>
       <c r="B357" t="s">
         <v>83</v>
       </c>
       <c r="C357" s="2">
+        <v>36583</v>
+      </c>
+      <c r="E357">
+        <v>25</v>
+      </c>
+      <c r="F357" s="2">
+        <v>36613</v>
+      </c>
+      <c r="G357" s="2">
         <v>38403</v>
       </c>
-      <c r="E357">
-        <v>26</v>
-      </c>
-      <c r="F357" s="2">
-        <v>38469</v>
-      </c>
-      <c r="G357" s="2">
-        <v>40113</v>
-      </c>
       <c r="H357" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I357" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J357" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B358" t="s">
         <v>83</v>
       </c>
       <c r="C358" s="2">
-        <v>40083</v>
+        <v>38403</v>
       </c>
       <c r="E358">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F358" s="2">
+        <v>38469</v>
+      </c>
+      <c r="G358" s="2">
         <v>40113</v>
       </c>
-      <c r="G358" s="2">
-        <v>41072</v>
-      </c>
       <c r="H358" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I358" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J358" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B359" t="s">
         <v>83</v>
       </c>
       <c r="C359" s="2">
-        <v>41035</v>
+        <v>40083</v>
       </c>
       <c r="E359">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F359" s="2">
+        <v>40113</v>
+      </c>
+      <c r="G359" s="2">
         <v>41072</v>
       </c>
-      <c r="G359" s="2">
-        <v>42914</v>
-      </c>
       <c r="H359" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I359" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J359" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B360" t="s">
         <v>83</v>
       </c>
       <c r="C360" s="2">
-        <v>42862</v>
+        <v>41035</v>
       </c>
       <c r="E360">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F360" s="2">
+        <v>41072</v>
+      </c>
+      <c r="G360" s="2">
         <v>42914</v>
       </c>
-      <c r="G360" s="2">
-        <v>44741</v>
-      </c>
       <c r="H360" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I360" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J360" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B361" t="s">
         <v>83</v>
       </c>
       <c r="C361" s="2">
+        <v>42862</v>
+      </c>
+      <c r="E361">
+        <v>29</v>
+      </c>
+      <c r="F361" s="2">
+        <v>42914</v>
+      </c>
+      <c r="G361" s="2">
+        <v>44741</v>
+      </c>
+      <c r="H361" t="s">
+        <v>89</v>
+      </c>
+      <c r="I361" t="s">
+        <v>234</v>
+      </c>
+      <c r="J361" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>11630</v>
+      </c>
+      <c r="B362" t="s">
+        <v>83</v>
+      </c>
+      <c r="C362" s="2">
         <v>44689</v>
       </c>
-      <c r="E361">
+      <c r="E362">
         <v>30</v>
       </c>
-      <c r="F361" s="2">
+      <c r="F362" s="2">
         <v>44741</v>
       </c>
-      <c r="G361" s="2">
+      <c r="G362" s="2">
         <v>401768</v>
       </c>
-      <c r="H361" t="s">
+      <c r="H362" t="s">
         <v>49</v>
       </c>
-      <c r="I361" t="s">
-        <v>235</v>
-      </c>
-      <c r="J361" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="I362" t="s">
+        <v>234</v>
+      </c>
+      <c r="J362" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A363">
         <v>11701</v>
-      </c>
-      <c r="B362" t="s">
-        <v>90</v>
-      </c>
-      <c r="C362" s="2">
-        <v>33160</v>
-      </c>
-      <c r="E362">
-        <v>1</v>
-      </c>
-      <c r="F362" s="2">
-        <v>33185</v>
-      </c>
-      <c r="G362" s="2">
-        <v>33639</v>
-      </c>
-      <c r="H362" t="s">
-        <v>12</v>
-      </c>
-      <c r="I362" t="s">
-        <v>236</v>
-      </c>
-      <c r="J362" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>11702</v>
       </c>
       <c r="B363" t="s">
         <v>90</v>
@@ -11676,85 +11677,85 @@
         <v>33160</v>
       </c>
       <c r="E363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F363" s="2">
+        <v>33185</v>
+      </c>
+      <c r="G363" s="2">
         <v>33639</v>
-      </c>
-      <c r="G363" s="2">
-        <v>34623</v>
       </c>
       <c r="H363" t="s">
         <v>12</v>
       </c>
       <c r="I363" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="J363" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>11703</v>
+        <v>11702</v>
       </c>
       <c r="B364" t="s">
         <v>90</v>
       </c>
       <c r="C364" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E364">
+        <v>2</v>
+      </c>
+      <c r="F364" s="2">
+        <v>33639</v>
+      </c>
+      <c r="G364" s="2">
         <v>34623</v>
       </c>
-      <c r="E364">
-        <v>3</v>
-      </c>
-      <c r="F364" s="2">
-        <v>34660</v>
-      </c>
-      <c r="G364" s="2">
-        <v>36415</v>
-      </c>
       <c r="H364" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I364" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J364" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>11704</v>
+        <v>11703</v>
       </c>
       <c r="B365" t="s">
         <v>90</v>
       </c>
       <c r="C365" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E365">
+        <v>3</v>
+      </c>
+      <c r="F365" s="2">
+        <v>34660</v>
+      </c>
+      <c r="G365" s="2">
         <v>36415</v>
       </c>
-      <c r="E365">
-        <v>4</v>
-      </c>
-      <c r="F365" s="2">
-        <v>36434</v>
-      </c>
-      <c r="G365" s="2">
-        <v>37685</v>
-      </c>
       <c r="H365" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I365" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J365" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>11705</v>
+        <v>11704</v>
       </c>
       <c r="B366" t="s">
         <v>90</v>
@@ -11763,143 +11764,143 @@
         <v>36415</v>
       </c>
       <c r="E366">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F366" s="2">
-        <v>37777</v>
+        <v>36434</v>
       </c>
       <c r="G366" s="2">
-        <v>38151</v>
+        <v>37685</v>
       </c>
       <c r="H366" t="s">
         <v>14</v>
       </c>
       <c r="I366" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="J366" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>11706</v>
+        <v>11705</v>
       </c>
       <c r="B367" t="s">
         <v>90</v>
       </c>
       <c r="C367" s="2">
+        <v>36415</v>
+      </c>
+      <c r="E367">
+        <v>5</v>
+      </c>
+      <c r="F367" s="2">
+        <v>37777</v>
+      </c>
+      <c r="G367" s="2">
         <v>38151</v>
       </c>
-      <c r="E367">
-        <v>6</v>
-      </c>
-      <c r="F367" s="2">
-        <v>38176</v>
-      </c>
-      <c r="G367" s="2">
-        <v>40121</v>
-      </c>
       <c r="H367" t="s">
         <v>14</v>
       </c>
       <c r="I367" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J367" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B368" t="s">
         <v>90</v>
       </c>
       <c r="C368" s="2">
-        <v>40055</v>
+        <v>38151</v>
       </c>
       <c r="E368">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F368" s="2">
+        <v>38176</v>
+      </c>
+      <c r="G368" s="2">
         <v>40121</v>
       </c>
-      <c r="G368" s="2">
-        <v>41978</v>
-      </c>
       <c r="H368" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I368" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J368" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B369" t="s">
         <v>90</v>
       </c>
       <c r="C369" s="2">
-        <v>41896</v>
+        <v>40055</v>
       </c>
       <c r="E369">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F369" s="2">
+        <v>40121</v>
+      </c>
+      <c r="G369" s="2">
         <v>41978</v>
       </c>
-      <c r="G369" s="2">
-        <v>43866</v>
-      </c>
       <c r="H369" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="I369" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J369" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B370" t="s">
         <v>90</v>
       </c>
       <c r="C370" s="2">
-        <v>43765</v>
+        <v>41896</v>
       </c>
       <c r="E370">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F370" s="2">
+        <v>41978</v>
+      </c>
+      <c r="G370" s="2">
         <v>43866</v>
       </c>
-      <c r="G370" s="2">
-        <v>43894</v>
-      </c>
       <c r="H370" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I370" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J370" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B371" t="s">
         <v>90</v>
@@ -11908,21 +11909,50 @@
         <v>43765</v>
       </c>
       <c r="E371">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F371" s="2">
+        <v>43866</v>
+      </c>
+      <c r="G371" s="2">
         <v>43894</v>
       </c>
-      <c r="G371" s="2">
-        <v>401768</v>
-      </c>
       <c r="H371" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I371" t="s">
         <v>239</v>
       </c>
       <c r="J371" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>11710</v>
+      </c>
+      <c r="B372" t="s">
+        <v>90</v>
+      </c>
+      <c r="C372" s="2">
+        <v>43765</v>
+      </c>
+      <c r="E372">
+        <v>10</v>
+      </c>
+      <c r="F372" s="2">
+        <v>43894</v>
+      </c>
+      <c r="G372" s="2">
+        <v>401768</v>
+      </c>
+      <c r="H372" t="s">
+        <v>91</v>
+      </c>
+      <c r="I372" t="s">
+        <v>238</v>
+      </c>
+      <c r="J372" t="s">
         <v>133</v>
       </c>
     </row>

--- a/inst/extdata/primeministers.xlsx
+++ b/inst/extdata/primeministers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9A0659-26C4-4F69-8D60-2BF7F4FD6D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247A5C1A-5826-4073-9169-3E8B4471B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="245">
   <si>
     <t>gov_id</t>
   </si>
@@ -1112,11 +1112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K375"/>
+  <dimension ref="A1:K376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6602,7 +6602,7 @@
         <v>44712</v>
       </c>
       <c r="G189" s="2">
-        <v>401768</v>
+        <v>45309</v>
       </c>
       <c r="H189" t="s">
         <v>49</v>
@@ -6616,28 +6616,28 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>10901</v>
+        <v>10727</v>
       </c>
       <c r="B190" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C190" s="2">
-        <v>33160</v>
+        <v>45207</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F190" s="2">
-        <v>33173</v>
+        <v>45309</v>
       </c>
       <c r="G190" s="2">
-        <v>33650</v>
+        <v>401768</v>
       </c>
       <c r="H190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I190" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="J190" t="s">
         <v>14</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>10902</v>
+        <v>10901</v>
       </c>
       <c r="B191" t="s">
         <v>53</v>
@@ -6654,19 +6654,19 @@
         <v>33160</v>
       </c>
       <c r="E191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F191" s="2">
+        <v>33173</v>
+      </c>
+      <c r="G191" s="2">
         <v>33650</v>
-      </c>
-      <c r="G191" s="2">
-        <v>34621</v>
       </c>
       <c r="H191" t="s">
         <v>12</v>
       </c>
       <c r="I191" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J191" t="s">
         <v>14</v>
@@ -6674,25 +6674,25 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>10903</v>
+        <v>10902</v>
       </c>
       <c r="B192" t="s">
         <v>53</v>
       </c>
       <c r="C192" s="2">
-        <v>34623</v>
+        <v>33160</v>
       </c>
       <c r="E192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F192" s="2">
-        <v>34676</v>
+        <v>33650</v>
       </c>
       <c r="G192" s="2">
-        <v>36065</v>
+        <v>34621</v>
       </c>
       <c r="H192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I192" t="s">
         <v>167</v>
@@ -6703,51 +6703,51 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>10904</v>
+        <v>10903</v>
       </c>
       <c r="B193" t="s">
         <v>53</v>
       </c>
       <c r="C193" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193" s="2">
+        <v>34676</v>
+      </c>
+      <c r="G193" s="2">
         <v>36065</v>
       </c>
-      <c r="E193">
-        <v>4</v>
-      </c>
-      <c r="F193" s="2">
-        <v>36102</v>
-      </c>
-      <c r="G193" s="2">
-        <v>37521</v>
-      </c>
       <c r="H193" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I193" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J193" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>10905</v>
+        <v>10904</v>
       </c>
       <c r="B194" t="s">
         <v>53</v>
       </c>
       <c r="C194" s="2">
+        <v>36065</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194" s="2">
+        <v>36102</v>
+      </c>
+      <c r="G194" s="2">
         <v>37521</v>
-      </c>
-      <c r="E194">
-        <v>5</v>
-      </c>
-      <c r="F194" s="2">
-        <v>37566</v>
-      </c>
-      <c r="G194" s="2">
-        <v>39028</v>
       </c>
       <c r="H194" t="s">
         <v>31</v>
@@ -6761,25 +6761,25 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B195" t="s">
         <v>53</v>
       </c>
       <c r="C195" s="2">
-        <v>38977</v>
+        <v>37521</v>
       </c>
       <c r="E195">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F195" s="2">
+        <v>37566</v>
+      </c>
+      <c r="G195" s="2">
         <v>39028</v>
       </c>
-      <c r="G195" s="2">
-        <v>39727</v>
-      </c>
       <c r="H195" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I195" t="s">
         <v>168</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B196" t="s">
         <v>53</v>
@@ -6799,19 +6799,19 @@
         <v>38977</v>
       </c>
       <c r="E196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F196" s="2">
+        <v>39028</v>
+      </c>
+      <c r="G196" s="2">
         <v>39727</v>
-      </c>
-      <c r="G196" s="2">
-        <v>40841</v>
       </c>
       <c r="H196" t="s">
         <v>28</v>
       </c>
       <c r="I196" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J196" t="s">
         <v>29</v>
@@ -6819,22 +6819,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B197" t="s">
         <v>53</v>
       </c>
       <c r="C197" s="2">
-        <v>40790</v>
+        <v>38977</v>
       </c>
       <c r="E197">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F197" s="2">
+        <v>39727</v>
+      </c>
+      <c r="G197" s="2">
         <v>40841</v>
-      </c>
-      <c r="G197" s="2">
-        <v>42675</v>
       </c>
       <c r="H197" t="s">
         <v>28</v>
@@ -6848,22 +6848,22 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B198" t="s">
         <v>53</v>
       </c>
       <c r="C198" s="2">
-        <v>42617</v>
+        <v>40790</v>
       </c>
       <c r="E198">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F198" s="2">
+        <v>40841</v>
+      </c>
+      <c r="G198" s="2">
         <v>42675</v>
-      </c>
-      <c r="G198" s="2">
-        <v>42920</v>
       </c>
       <c r="H198" t="s">
         <v>28</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B199" t="s">
         <v>53</v>
@@ -6886,19 +6886,19 @@
         <v>42617</v>
       </c>
       <c r="E199">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F199" s="2">
+        <v>42675</v>
+      </c>
+      <c r="G199" s="2">
         <v>42920</v>
-      </c>
-      <c r="G199" s="2">
-        <v>44515</v>
       </c>
       <c r="H199" t="s">
         <v>28</v>
       </c>
       <c r="I199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J199" t="s">
         <v>29</v>
@@ -6906,25 +6906,25 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B200" t="s">
         <v>53</v>
       </c>
       <c r="C200" s="2">
-        <v>44465</v>
+        <v>42617</v>
       </c>
       <c r="E200">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F200" s="2">
+        <v>42920</v>
+      </c>
+      <c r="G200" s="2">
         <v>44515</v>
       </c>
-      <c r="G200" s="2">
-        <v>401768</v>
-      </c>
       <c r="H200" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I200" t="s">
         <v>170</v>
@@ -6935,28 +6935,28 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>11001</v>
+        <v>10914</v>
       </c>
       <c r="B201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C201" s="2">
-        <v>17277</v>
+        <v>44465</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F201" s="2">
-        <v>17329</v>
+        <v>44515</v>
       </c>
       <c r="G201" s="2">
-        <v>17568</v>
+        <v>401768</v>
       </c>
       <c r="H201" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I201" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J201" t="s">
         <v>29</v>
@@ -6964,7 +6964,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="B202" t="s">
         <v>54</v>
@@ -6973,16 +6973,16 @@
         <v>17277</v>
       </c>
       <c r="E202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F202" s="2">
+        <v>17329</v>
+      </c>
+      <c r="G202" s="2">
         <v>17568</v>
       </c>
-      <c r="G202" s="2">
-        <v>17693</v>
-      </c>
       <c r="H202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I202" t="s">
         <v>171</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B203" t="s">
         <v>54</v>
@@ -7002,16 +7002,16 @@
         <v>17277</v>
       </c>
       <c r="E203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F203" s="2">
+        <v>17568</v>
+      </c>
+      <c r="G203" s="2">
         <v>17693</v>
       </c>
-      <c r="G203" s="2">
-        <v>18525</v>
-      </c>
       <c r="H203" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I203" t="s">
         <v>171</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="B204" t="s">
         <v>54</v>
@@ -7031,16 +7031,16 @@
         <v>17277</v>
       </c>
       <c r="E204">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F204" s="2">
+        <v>17693</v>
+      </c>
+      <c r="G204" s="2">
         <v>18525</v>
       </c>
-      <c r="G204" s="2">
-        <v>18754</v>
-      </c>
       <c r="H204" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I204" t="s">
         <v>171</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="B205" t="s">
         <v>54</v>
       </c>
       <c r="C205" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E205">
+        <v>4</v>
+      </c>
+      <c r="F205" s="2">
+        <v>18525</v>
+      </c>
+      <c r="G205" s="2">
         <v>18754</v>
       </c>
-      <c r="E205">
-        <v>5</v>
-      </c>
-      <c r="F205" s="2">
-        <v>18792</v>
-      </c>
-      <c r="G205" s="2">
-        <v>19694</v>
-      </c>
       <c r="H205" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I205" t="s">
         <v>171</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>11006</v>
+        <v>11005</v>
       </c>
       <c r="B206" t="s">
         <v>54</v>
@@ -7089,16 +7089,16 @@
         <v>18754</v>
       </c>
       <c r="E206">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F206" s="2">
+        <v>18792</v>
+      </c>
+      <c r="G206" s="2">
         <v>19694</v>
       </c>
-      <c r="G206" s="2">
-        <v>20203</v>
-      </c>
       <c r="H206" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I206" t="s">
         <v>171</v>
@@ -7109,36 +7109,36 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="B207" t="s">
         <v>54</v>
       </c>
       <c r="C207" s="2">
+        <v>18754</v>
+      </c>
+      <c r="E207">
+        <v>6</v>
+      </c>
+      <c r="F207" s="2">
+        <v>19694</v>
+      </c>
+      <c r="G207" s="2">
         <v>20203</v>
       </c>
-      <c r="E207">
-        <v>7</v>
-      </c>
-      <c r="F207" s="2">
-        <v>20235</v>
-      </c>
-      <c r="G207" s="2">
-        <v>21143</v>
-      </c>
       <c r="H207" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I207" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J207" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="B208" t="s">
         <v>54</v>
@@ -7147,16 +7147,16 @@
         <v>20203</v>
       </c>
       <c r="E208">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F208" s="2">
+        <v>20235</v>
+      </c>
+      <c r="G208" s="2">
         <v>21143</v>
       </c>
-      <c r="G208" s="2">
-        <v>21659</v>
-      </c>
       <c r="H208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I208" t="s">
         <v>172</v>
@@ -7167,36 +7167,36 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>11009</v>
+        <v>11008</v>
       </c>
       <c r="B209" t="s">
         <v>54</v>
       </c>
       <c r="C209" s="2">
+        <v>20203</v>
+      </c>
+      <c r="E209">
+        <v>8</v>
+      </c>
+      <c r="F209" s="2">
+        <v>21143</v>
+      </c>
+      <c r="G209" s="2">
         <v>21659</v>
       </c>
-      <c r="E209">
-        <v>9</v>
-      </c>
-      <c r="F209" s="2">
-        <v>21682</v>
-      </c>
-      <c r="G209" s="2">
-        <v>22644</v>
-      </c>
       <c r="H209" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I209" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J209" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="B210" t="s">
         <v>54</v>
@@ -7205,19 +7205,19 @@
         <v>21659</v>
       </c>
       <c r="E210">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F210" s="2">
+        <v>21682</v>
+      </c>
+      <c r="G210" s="2">
         <v>22644</v>
-      </c>
-      <c r="G210" s="2">
-        <v>23150</v>
       </c>
       <c r="H210" t="s">
         <v>62</v>
       </c>
       <c r="I210" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J210" t="s">
         <v>29</v>
@@ -7225,25 +7225,25 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>11011</v>
+        <v>11010</v>
       </c>
       <c r="B211" t="s">
         <v>54</v>
       </c>
       <c r="C211" s="2">
+        <v>21659</v>
+      </c>
+      <c r="E211">
+        <v>10</v>
+      </c>
+      <c r="F211" s="2">
+        <v>22644</v>
+      </c>
+      <c r="G211" s="2">
         <v>23150</v>
       </c>
-      <c r="E211">
-        <v>11</v>
-      </c>
-      <c r="F211" s="2">
-        <v>23174</v>
-      </c>
-      <c r="G211" s="2">
-        <v>23881</v>
-      </c>
       <c r="H211" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="I211" t="s">
         <v>174</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>11012</v>
+        <v>11011</v>
       </c>
       <c r="B212" t="s">
         <v>54</v>
@@ -7263,16 +7263,16 @@
         <v>23150</v>
       </c>
       <c r="E212">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F212" s="2">
+        <v>23174</v>
+      </c>
+      <c r="G212" s="2">
         <v>23881</v>
       </c>
-      <c r="G212" s="2">
-        <v>24627</v>
-      </c>
       <c r="H212" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I212" t="s">
         <v>174</v>
@@ -7283,22 +7283,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>11013</v>
+        <v>11012</v>
       </c>
       <c r="B213" t="s">
         <v>54</v>
       </c>
       <c r="C213" s="2">
+        <v>23150</v>
+      </c>
+      <c r="E213">
+        <v>12</v>
+      </c>
+      <c r="F213" s="2">
+        <v>23881</v>
+      </c>
+      <c r="G213" s="2">
         <v>24627</v>
-      </c>
-      <c r="E213">
-        <v>13</v>
-      </c>
-      <c r="F213" s="2">
-        <v>24658</v>
-      </c>
-      <c r="G213" s="2">
-        <v>25733</v>
       </c>
       <c r="H213" t="s">
         <v>28</v>
@@ -7312,28 +7312,28 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11014</v>
+        <v>11013</v>
       </c>
       <c r="B214" t="s">
         <v>54</v>
       </c>
       <c r="C214" s="2">
+        <v>24627</v>
+      </c>
+      <c r="E214">
+        <v>13</v>
+      </c>
+      <c r="F214" s="2">
+        <v>24658</v>
+      </c>
+      <c r="G214" s="2">
         <v>25733</v>
       </c>
-      <c r="E214">
-        <v>14</v>
-      </c>
-      <c r="F214" s="2">
-        <v>25757</v>
-      </c>
-      <c r="G214" s="2">
-        <v>27189</v>
-      </c>
       <c r="H214" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I214" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J214" t="s">
         <v>29</v>
@@ -7341,25 +7341,25 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>11015</v>
+        <v>11014</v>
       </c>
       <c r="B215" t="s">
         <v>54</v>
       </c>
       <c r="C215" s="2">
+        <v>25733</v>
+      </c>
+      <c r="E215">
+        <v>14</v>
+      </c>
+      <c r="F215" s="2">
+        <v>25757</v>
+      </c>
+      <c r="G215" s="2">
         <v>27189</v>
       </c>
-      <c r="E215">
-        <v>15</v>
-      </c>
-      <c r="F215" s="2">
-        <v>27220</v>
-      </c>
-      <c r="G215" s="2">
-        <v>27774</v>
-      </c>
       <c r="H215" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I215" t="s">
         <v>175</v>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>11016</v>
+        <v>11015</v>
       </c>
       <c r="B216" t="s">
         <v>54</v>
@@ -7379,27 +7379,27 @@
         <v>27189</v>
       </c>
       <c r="E216">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F216" s="2">
+        <v>27220</v>
+      </c>
+      <c r="G216" s="2">
         <v>27774</v>
       </c>
-      <c r="G216" s="2">
-        <v>27796</v>
-      </c>
       <c r="H216" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I216" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J216" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>11017</v>
+        <v>11016</v>
       </c>
       <c r="B217" t="s">
         <v>54</v>
@@ -7408,16 +7408,16 @@
         <v>27189</v>
       </c>
       <c r="E217">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F217" s="2">
+        <v>27774</v>
+      </c>
+      <c r="G217" s="2">
         <v>27796</v>
       </c>
-      <c r="G217" s="2">
-        <v>28144</v>
-      </c>
       <c r="H217" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I217" t="s">
         <v>176</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>11018</v>
+        <v>11017</v>
       </c>
       <c r="B218" t="s">
         <v>54</v>
@@ -7437,16 +7437,16 @@
         <v>27189</v>
       </c>
       <c r="E218">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F218" s="2">
+        <v>27796</v>
+      </c>
+      <c r="G218" s="2">
         <v>28144</v>
       </c>
-      <c r="G218" s="2">
-        <v>28645</v>
-      </c>
       <c r="H218" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I218" t="s">
         <v>176</v>
@@ -7457,25 +7457,25 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>11019</v>
+        <v>11018</v>
       </c>
       <c r="B219" t="s">
         <v>54</v>
       </c>
       <c r="C219" s="2">
+        <v>27189</v>
+      </c>
+      <c r="E219">
+        <v>18</v>
+      </c>
+      <c r="F219" s="2">
+        <v>28144</v>
+      </c>
+      <c r="G219" s="2">
         <v>28645</v>
       </c>
-      <c r="E219">
-        <v>19</v>
-      </c>
-      <c r="F219" s="2">
-        <v>28669</v>
-      </c>
-      <c r="G219" s="2">
-        <v>30031</v>
-      </c>
       <c r="H219" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I219" t="s">
         <v>176</v>
@@ -7486,22 +7486,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>11020</v>
+        <v>11019</v>
       </c>
       <c r="B220" t="s">
         <v>54</v>
       </c>
       <c r="C220" s="2">
+        <v>28645</v>
+      </c>
+      <c r="E220">
+        <v>19</v>
+      </c>
+      <c r="F220" s="2">
+        <v>28669</v>
+      </c>
+      <c r="G220" s="2">
         <v>30031</v>
-      </c>
-      <c r="E220">
-        <v>20</v>
-      </c>
-      <c r="F220" s="2">
-        <v>30124</v>
-      </c>
-      <c r="G220" s="2">
-        <v>31578</v>
       </c>
       <c r="H220" t="s">
         <v>14</v>
@@ -7515,25 +7515,25 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>11021</v>
+        <v>11020</v>
       </c>
       <c r="B221" t="s">
         <v>54</v>
       </c>
       <c r="C221" s="2">
+        <v>30031</v>
+      </c>
+      <c r="E221">
+        <v>20</v>
+      </c>
+      <c r="F221" s="2">
+        <v>30124</v>
+      </c>
+      <c r="G221" s="2">
         <v>31578</v>
       </c>
-      <c r="E221">
-        <v>21</v>
-      </c>
-      <c r="F221" s="2">
-        <v>31602</v>
-      </c>
-      <c r="G221" s="2">
-        <v>33006</v>
-      </c>
       <c r="H221" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I221" t="s">
         <v>176</v>
@@ -7544,54 +7544,54 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>11022</v>
+        <v>11021</v>
       </c>
       <c r="B222" t="s">
         <v>54</v>
       </c>
       <c r="C222" s="2">
+        <v>31578</v>
+      </c>
+      <c r="E222">
+        <v>21</v>
+      </c>
+      <c r="F222" s="2">
+        <v>31602</v>
+      </c>
+      <c r="G222" s="2">
         <v>33006</v>
       </c>
-      <c r="E222">
-        <v>22</v>
-      </c>
-      <c r="F222" s="2">
-        <v>33045</v>
-      </c>
-      <c r="G222" s="2">
-        <v>34406</v>
-      </c>
       <c r="H222" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I222" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J222" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>11023</v>
+        <v>11022</v>
       </c>
       <c r="B223" t="s">
         <v>54</v>
       </c>
       <c r="C223" s="2">
+        <v>33006</v>
+      </c>
+      <c r="E223">
+        <v>22</v>
+      </c>
+      <c r="F223" s="2">
+        <v>33045</v>
+      </c>
+      <c r="G223" s="2">
         <v>34406</v>
       </c>
-      <c r="E223">
-        <v>23</v>
-      </c>
-      <c r="F223" s="2">
-        <v>34508</v>
-      </c>
-      <c r="G223" s="2">
-        <v>35855</v>
-      </c>
       <c r="H223" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I223" t="s">
         <v>177</v>
@@ -7602,22 +7602,22 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>11024</v>
+        <v>11023</v>
       </c>
       <c r="B224" t="s">
         <v>54</v>
       </c>
       <c r="C224" s="2">
+        <v>34406</v>
+      </c>
+      <c r="E224">
+        <v>23</v>
+      </c>
+      <c r="F224" s="2">
+        <v>34508</v>
+      </c>
+      <c r="G224" s="2">
         <v>35855</v>
-      </c>
-      <c r="E224">
-        <v>24</v>
-      </c>
-      <c r="F224" s="2">
-        <v>35884</v>
-      </c>
-      <c r="G224" s="2">
-        <v>36096</v>
       </c>
       <c r="H224" t="s">
         <v>29</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>11025</v>
+        <v>11024</v>
       </c>
       <c r="B225" t="s">
         <v>54</v>
@@ -7640,19 +7640,19 @@
         <v>35855</v>
       </c>
       <c r="E225">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F225" s="2">
+        <v>35884</v>
+      </c>
+      <c r="G225" s="2">
         <v>36096</v>
       </c>
-      <c r="G225" s="2">
-        <v>36509</v>
-      </c>
       <c r="H225" t="s">
         <v>29</v>
       </c>
       <c r="I225" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J225" t="s">
         <v>29</v>
@@ -7660,7 +7660,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>11026</v>
+        <v>11025</v>
       </c>
       <c r="B226" t="s">
         <v>54</v>
@@ -7669,19 +7669,19 @@
         <v>35855</v>
       </c>
       <c r="E226">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F226" s="2">
+        <v>36096</v>
+      </c>
+      <c r="G226" s="2">
         <v>36509</v>
       </c>
-      <c r="G226" s="2">
-        <v>37654</v>
-      </c>
       <c r="H226" t="s">
         <v>29</v>
       </c>
       <c r="I226" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J226" t="s">
         <v>29</v>
@@ -7689,51 +7689,51 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>11027</v>
+        <v>11026</v>
       </c>
       <c r="B227" t="s">
         <v>54</v>
       </c>
       <c r="C227" s="2">
+        <v>35855</v>
+      </c>
+      <c r="E227">
+        <v>26</v>
+      </c>
+      <c r="F227" s="2">
+        <v>36509</v>
+      </c>
+      <c r="G227" s="2">
         <v>37654</v>
       </c>
-      <c r="E227">
-        <v>27</v>
-      </c>
-      <c r="F227" s="2">
-        <v>37684</v>
-      </c>
-      <c r="G227" s="2">
-        <v>39504</v>
-      </c>
       <c r="H227" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I227" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J227" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B228" t="s">
         <v>54</v>
       </c>
       <c r="C228" s="2">
-        <v>39474</v>
+        <v>37654</v>
       </c>
       <c r="E228">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F228" s="2">
+        <v>37684</v>
+      </c>
+      <c r="G228" s="2">
         <v>39504</v>
-      </c>
-      <c r="G228" s="2">
-        <v>40360</v>
       </c>
       <c r="H228" t="s">
         <v>12</v>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B229" t="s">
         <v>54</v>
@@ -7756,19 +7756,19 @@
         <v>39474</v>
       </c>
       <c r="E229">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F229" s="2">
+        <v>39504</v>
+      </c>
+      <c r="G229" s="2">
         <v>40360</v>
-      </c>
-      <c r="G229" s="2">
-        <v>41324</v>
       </c>
       <c r="H229" t="s">
         <v>12</v>
       </c>
       <c r="I229" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J229" t="s">
         <v>14</v>
@@ -7776,54 +7776,54 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B230" t="s">
         <v>54</v>
       </c>
       <c r="C230" s="2">
-        <v>41294</v>
+        <v>39474</v>
       </c>
       <c r="E230">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F230" s="2">
+        <v>40360</v>
+      </c>
+      <c r="G230" s="2">
         <v>41324</v>
       </c>
-      <c r="G230" s="2">
-        <v>43061</v>
-      </c>
       <c r="H230" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I230" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="J230" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B231" t="s">
         <v>54</v>
       </c>
       <c r="C231" s="2">
-        <v>43023</v>
+        <v>41294</v>
       </c>
       <c r="E231">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F231" s="2">
+        <v>41324</v>
+      </c>
+      <c r="G231" s="2">
         <v>43061</v>
       </c>
-      <c r="G231" s="2">
-        <v>44873</v>
-      </c>
       <c r="H231" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I231" t="s">
         <v>243</v>
@@ -7834,25 +7834,25 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="B232" t="s">
         <v>54</v>
       </c>
       <c r="C232" s="2">
-        <v>44843</v>
+        <v>43023</v>
       </c>
       <c r="E232">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F232" s="2">
+        <v>43061</v>
+      </c>
+      <c r="G232" s="2">
         <v>44873</v>
       </c>
-      <c r="G232" s="2">
-        <v>401768</v>
-      </c>
       <c r="H232" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I232" t="s">
         <v>243</v>
@@ -7863,36 +7863,36 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>11101</v>
+        <v>11032</v>
       </c>
       <c r="B233" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C233" s="2">
-        <v>17277</v>
+        <v>44843</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F233" s="2">
-        <v>17335</v>
+        <v>44873</v>
       </c>
       <c r="G233" s="2">
-        <v>17570</v>
+        <v>401768</v>
       </c>
       <c r="H233" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I233" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="J233" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>11102</v>
+        <v>11101</v>
       </c>
       <c r="B234" t="s">
         <v>63</v>
@@ -7901,16 +7901,16 @@
         <v>17277</v>
       </c>
       <c r="E234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F234" s="2">
+        <v>17335</v>
+      </c>
+      <c r="G234" s="2">
         <v>17570</v>
       </c>
-      <c r="G234" s="2">
-        <v>18432</v>
-      </c>
       <c r="H234" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I234" t="s">
         <v>182</v>
@@ -7921,25 +7921,25 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B235" t="s">
         <v>63</v>
       </c>
       <c r="C235" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235" s="2">
+        <v>17570</v>
+      </c>
+      <c r="G235" s="2">
         <v>18432</v>
       </c>
-      <c r="E235">
-        <v>3</v>
-      </c>
-      <c r="F235" s="2">
-        <v>18471</v>
-      </c>
-      <c r="G235" s="2">
-        <v>18521</v>
-      </c>
       <c r="H235" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="I235" t="s">
         <v>182</v>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>11104</v>
+        <v>11103</v>
       </c>
       <c r="B236" t="s">
         <v>63</v>
@@ -7959,16 +7959,16 @@
         <v>18432</v>
       </c>
       <c r="E236">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F236" s="2">
+        <v>18471</v>
+      </c>
+      <c r="G236" s="2">
         <v>18521</v>
       </c>
-      <c r="G236" s="2">
-        <v>19902</v>
-      </c>
       <c r="H236" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I236" t="s">
         <v>182</v>
@@ -7979,25 +7979,25 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>11105</v>
+        <v>11104</v>
       </c>
       <c r="B237" t="s">
         <v>63</v>
       </c>
       <c r="C237" s="2">
+        <v>18432</v>
+      </c>
+      <c r="E237">
+        <v>4</v>
+      </c>
+      <c r="F237" s="2">
+        <v>18521</v>
+      </c>
+      <c r="G237" s="2">
         <v>19902</v>
       </c>
-      <c r="E237">
-        <v>5</v>
-      </c>
-      <c r="F237" s="2">
-        <v>19932</v>
-      </c>
-      <c r="G237" s="2">
-        <v>20505</v>
-      </c>
       <c r="H237" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I237" t="s">
         <v>182</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="B238" t="s">
         <v>63</v>
@@ -8017,74 +8017,74 @@
         <v>19902</v>
       </c>
       <c r="E238">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F238" s="2">
+        <v>19932</v>
+      </c>
+      <c r="G238" s="2">
         <v>20505</v>
       </c>
-      <c r="G238" s="2">
-        <v>21372</v>
-      </c>
       <c r="H238" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I238" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J238" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>11107</v>
+        <v>11106</v>
       </c>
       <c r="B239" t="s">
         <v>63</v>
       </c>
       <c r="C239" s="2">
+        <v>19902</v>
+      </c>
+      <c r="E239">
+        <v>6</v>
+      </c>
+      <c r="F239" s="2">
+        <v>20505</v>
+      </c>
+      <c r="G239" s="2">
         <v>21372</v>
       </c>
-      <c r="E239">
-        <v>7</v>
-      </c>
-      <c r="F239" s="2">
-        <v>21387</v>
-      </c>
-      <c r="G239" s="2">
-        <v>22835</v>
-      </c>
       <c r="H239" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="I239" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J239" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>11108</v>
+        <v>11107</v>
       </c>
       <c r="B240" t="s">
         <v>63</v>
       </c>
       <c r="C240" s="2">
+        <v>21372</v>
+      </c>
+      <c r="E240">
+        <v>7</v>
+      </c>
+      <c r="F240" s="2">
+        <v>21387</v>
+      </c>
+      <c r="G240" s="2">
         <v>22835</v>
       </c>
-      <c r="E240">
-        <v>8</v>
-      </c>
-      <c r="F240" s="2">
-        <v>22850</v>
-      </c>
-      <c r="G240" s="2">
-        <v>24298</v>
-      </c>
       <c r="H240" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I240" t="s">
         <v>184</v>
@@ -8095,22 +8095,22 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>11109</v>
+        <v>11108</v>
       </c>
       <c r="B241" t="s">
         <v>63</v>
       </c>
       <c r="C241" s="2">
+        <v>22835</v>
+      </c>
+      <c r="E241">
+        <v>8</v>
+      </c>
+      <c r="F241" s="2">
+        <v>22850</v>
+      </c>
+      <c r="G241" s="2">
         <v>24298</v>
-      </c>
-      <c r="E241">
-        <v>9</v>
-      </c>
-      <c r="F241" s="2">
-        <v>24313</v>
-      </c>
-      <c r="G241" s="2">
-        <v>24442</v>
       </c>
       <c r="H241" t="s">
         <v>12</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>11110</v>
+        <v>11109</v>
       </c>
       <c r="B242" t="s">
         <v>63</v>
@@ -8133,16 +8133,16 @@
         <v>24298</v>
       </c>
       <c r="E242">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F242" s="2">
+        <v>24313</v>
+      </c>
+      <c r="G242" s="2">
         <v>24442</v>
       </c>
-      <c r="G242" s="2">
-        <v>24449</v>
-      </c>
       <c r="H242" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I242" t="s">
         <v>184</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>11111</v>
+        <v>11110</v>
       </c>
       <c r="B243" t="s">
         <v>63</v>
@@ -8162,42 +8162,42 @@
         <v>24298</v>
       </c>
       <c r="E243">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F243" s="2">
+        <v>24442</v>
+      </c>
+      <c r="G243" s="2">
         <v>24449</v>
       </c>
-      <c r="G243" s="2">
-        <v>25733</v>
-      </c>
       <c r="H243" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I243" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J243" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>11112</v>
+        <v>11111</v>
       </c>
       <c r="B244" t="s">
         <v>63</v>
       </c>
       <c r="C244" s="2">
+        <v>24298</v>
+      </c>
+      <c r="E244">
+        <v>11</v>
+      </c>
+      <c r="F244" s="2">
+        <v>24449</v>
+      </c>
+      <c r="G244" s="2">
         <v>25733</v>
-      </c>
-      <c r="E244">
-        <v>12</v>
-      </c>
-      <c r="F244" s="2">
-        <v>25777</v>
-      </c>
-      <c r="G244" s="2">
-        <v>27518</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8211,22 +8211,22 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>11113</v>
+        <v>11112</v>
       </c>
       <c r="B245" t="s">
         <v>63</v>
       </c>
       <c r="C245" s="2">
+        <v>25733</v>
+      </c>
+      <c r="E245">
+        <v>12</v>
+      </c>
+      <c r="F245" s="2">
+        <v>25777</v>
+      </c>
+      <c r="G245" s="2">
         <v>27518</v>
-      </c>
-      <c r="E245">
-        <v>13</v>
-      </c>
-      <c r="F245" s="2">
-        <v>27549</v>
-      </c>
-      <c r="G245" s="2">
-        <v>28753</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>11114</v>
+        <v>11113</v>
       </c>
       <c r="B246" t="s">
         <v>63</v>
@@ -8249,19 +8249,19 @@
         <v>27518</v>
       </c>
       <c r="E246">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F246" s="2">
+        <v>27549</v>
+      </c>
+      <c r="G246" s="2">
         <v>28753</v>
-      </c>
-      <c r="G246" s="2">
-        <v>29352</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
       </c>
       <c r="I246" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J246" t="s">
         <v>29</v>
@@ -8269,25 +8269,25 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>11115</v>
+        <v>11114</v>
       </c>
       <c r="B247" t="s">
         <v>63</v>
       </c>
       <c r="C247" s="2">
+        <v>27518</v>
+      </c>
+      <c r="E247">
+        <v>14</v>
+      </c>
+      <c r="F247" s="2">
+        <v>28753</v>
+      </c>
+      <c r="G247" s="2">
         <v>29352</v>
       </c>
-      <c r="E247">
-        <v>15</v>
-      </c>
-      <c r="F247" s="2">
-        <v>29376</v>
-      </c>
-      <c r="G247" s="2">
-        <v>31179</v>
-      </c>
       <c r="H247" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I247" t="s">
         <v>186</v>
@@ -8298,22 +8298,22 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>11116</v>
+        <v>11115</v>
       </c>
       <c r="B248" t="s">
         <v>63</v>
       </c>
       <c r="C248" s="2">
+        <v>29352</v>
+      </c>
+      <c r="E248">
+        <v>15</v>
+      </c>
+      <c r="F248" s="2">
+        <v>29376</v>
+      </c>
+      <c r="G248" s="2">
         <v>31179</v>
-      </c>
-      <c r="E248">
-        <v>16</v>
-      </c>
-      <c r="F248" s="2">
-        <v>31203</v>
-      </c>
-      <c r="G248" s="2">
-        <v>33006</v>
       </c>
       <c r="H248" t="s">
         <v>29</v>
@@ -8327,22 +8327,22 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>11117</v>
+        <v>11116</v>
       </c>
       <c r="B249" t="s">
         <v>63</v>
       </c>
       <c r="C249" s="2">
+        <v>31179</v>
+      </c>
+      <c r="E249">
+        <v>16</v>
+      </c>
+      <c r="F249" s="2">
+        <v>31203</v>
+      </c>
+      <c r="G249" s="2">
         <v>33006</v>
-      </c>
-      <c r="E249">
-        <v>17</v>
-      </c>
-      <c r="F249" s="2">
-        <v>33030</v>
-      </c>
-      <c r="G249" s="2">
-        <v>34833</v>
       </c>
       <c r="H249" t="s">
         <v>29</v>
@@ -8356,25 +8356,25 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>11118</v>
+        <v>11117</v>
       </c>
       <c r="B250" t="s">
         <v>63</v>
       </c>
       <c r="C250" s="2">
+        <v>33006</v>
+      </c>
+      <c r="E250">
+        <v>17</v>
+      </c>
+      <c r="F250" s="2">
+        <v>33030</v>
+      </c>
+      <c r="G250" s="2">
         <v>34833</v>
       </c>
-      <c r="E250">
-        <v>18</v>
-      </c>
-      <c r="F250" s="2">
-        <v>34886</v>
-      </c>
-      <c r="G250" s="2">
-        <v>35942</v>
-      </c>
       <c r="H250" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I250" t="s">
         <v>186</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>11119</v>
+        <v>11118</v>
       </c>
       <c r="B251" t="s">
         <v>63</v>
@@ -8394,19 +8394,19 @@
         <v>34833</v>
       </c>
       <c r="E251">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F251" s="2">
+        <v>34886</v>
+      </c>
+      <c r="G251" s="2">
         <v>35942</v>
-      </c>
-      <c r="G251" s="2">
-        <v>36660</v>
       </c>
       <c r="H251" t="s">
         <v>30</v>
       </c>
       <c r="I251" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J251" t="s">
         <v>29</v>
@@ -8414,22 +8414,22 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>11120</v>
+        <v>11119</v>
       </c>
       <c r="B252" t="s">
         <v>63</v>
       </c>
       <c r="C252" s="2">
+        <v>34833</v>
+      </c>
+      <c r="E252">
+        <v>19</v>
+      </c>
+      <c r="F252" s="2">
+        <v>35942</v>
+      </c>
+      <c r="G252" s="2">
         <v>36660</v>
-      </c>
-      <c r="E252">
-        <v>20</v>
-      </c>
-      <c r="F252" s="2">
-        <v>36698</v>
-      </c>
-      <c r="G252" s="2">
-        <v>37566</v>
       </c>
       <c r="H252" t="s">
         <v>30</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>11121</v>
+        <v>11120</v>
       </c>
       <c r="B253" t="s">
         <v>63</v>
@@ -8452,19 +8452,19 @@
         <v>36660</v>
       </c>
       <c r="E253">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F253" s="2">
+        <v>36698</v>
+      </c>
+      <c r="G253" s="2">
         <v>37566</v>
-      </c>
-      <c r="G253" s="2">
-        <v>38494</v>
       </c>
       <c r="H253" t="s">
         <v>30</v>
       </c>
       <c r="I253" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J253" t="s">
         <v>29</v>
@@ -8472,80 +8472,80 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>11122</v>
+        <v>11121</v>
       </c>
       <c r="B254" t="s">
         <v>63</v>
       </c>
       <c r="C254" s="2">
+        <v>36660</v>
+      </c>
+      <c r="E254">
+        <v>21</v>
+      </c>
+      <c r="F254" s="2">
+        <v>37566</v>
+      </c>
+      <c r="G254" s="2">
         <v>38494</v>
       </c>
-      <c r="E254">
-        <v>22</v>
-      </c>
-      <c r="F254" s="2">
-        <v>38525</v>
-      </c>
-      <c r="G254" s="2">
-        <v>40374</v>
-      </c>
       <c r="H254" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I254" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J254" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B255" t="s">
         <v>63</v>
       </c>
       <c r="C255" s="2">
-        <v>40307</v>
+        <v>38494</v>
       </c>
       <c r="E255">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F255" s="2">
+        <v>38525</v>
+      </c>
+      <c r="G255" s="2">
         <v>40374</v>
       </c>
-      <c r="G255" s="2">
-        <v>41081</v>
-      </c>
       <c r="H255" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I255" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J255" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B256" t="s">
         <v>63</v>
       </c>
       <c r="C256" s="2">
-        <v>41042</v>
+        <v>40307</v>
       </c>
       <c r="E256">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F256" s="2">
+        <v>40374</v>
+      </c>
+      <c r="G256" s="2">
         <v>41081</v>
-      </c>
-      <c r="G256" s="2">
-        <v>42913</v>
       </c>
       <c r="H256" t="s">
         <v>30</v>
@@ -8559,36 +8559,36 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B257" t="s">
         <v>63</v>
       </c>
       <c r="C257" s="2">
-        <v>42869</v>
+        <v>41042</v>
       </c>
       <c r="E257">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F257" s="2">
+        <v>41081</v>
+      </c>
+      <c r="G257" s="2">
         <v>42913</v>
       </c>
-      <c r="G257" s="2">
-        <v>44497</v>
-      </c>
       <c r="H257" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I257" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J257" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B258" t="s">
         <v>63</v>
@@ -8597,46 +8597,45 @@
         <v>42869</v>
       </c>
       <c r="E258">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F258" s="2">
+        <v>42913</v>
+      </c>
+      <c r="G258" s="2">
         <v>44497</v>
-      </c>
-      <c r="G258" s="2">
-        <v>44741</v>
       </c>
       <c r="H258" t="s">
         <v>12</v>
       </c>
       <c r="I258" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J258" t="s">
         <v>14</v>
       </c>
-      <c r="K258" s="3"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B259" t="s">
         <v>63</v>
       </c>
       <c r="C259" s="2">
-        <v>44696</v>
+        <v>42869</v>
       </c>
       <c r="E259">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F259" s="2">
+        <v>44497</v>
+      </c>
+      <c r="G259" s="2">
         <v>44741</v>
       </c>
-      <c r="G259" s="2">
-        <v>401768</v>
-      </c>
       <c r="H259" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I259" t="s">
         <v>192</v>
@@ -8644,31 +8643,32 @@
       <c r="J259" t="s">
         <v>14</v>
       </c>
+      <c r="K259" s="3"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>11201</v>
+        <v>11127</v>
       </c>
       <c r="B260" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C260" s="2">
-        <v>17305</v>
+        <v>44696</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F260" s="2">
-        <v>17357</v>
+        <v>44741</v>
       </c>
       <c r="G260" s="2">
-        <v>17632</v>
+        <v>401768</v>
       </c>
       <c r="H260" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I260" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J260" t="s">
         <v>14</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>11202</v>
+        <v>11201</v>
       </c>
       <c r="B261" t="s">
         <v>69</v>
@@ -8685,16 +8685,16 @@
         <v>17305</v>
       </c>
       <c r="E261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F261" s="2">
+        <v>17357</v>
+      </c>
+      <c r="G261" s="2">
         <v>17632</v>
       </c>
-      <c r="G261" s="2">
-        <v>18191</v>
-      </c>
       <c r="H261" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="I261" t="s">
         <v>193</v>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>11203</v>
+        <v>11202</v>
       </c>
       <c r="B262" t="s">
         <v>69</v>
@@ -8714,16 +8714,16 @@
         <v>17305</v>
       </c>
       <c r="E262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F262" s="2">
+        <v>17632</v>
+      </c>
+      <c r="G262" s="2">
         <v>18191</v>
       </c>
-      <c r="G262" s="2">
-        <v>18246</v>
-      </c>
       <c r="H262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I262" t="s">
         <v>193</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>11204</v>
+        <v>11203</v>
       </c>
       <c r="B263" t="s">
         <v>69</v>
@@ -8743,16 +8743,16 @@
         <v>17305</v>
       </c>
       <c r="E263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F263" s="2">
+        <v>18191</v>
+      </c>
+      <c r="G263" s="2">
         <v>18246</v>
       </c>
-      <c r="G263" s="2">
-        <v>18747</v>
-      </c>
       <c r="H263" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I263" t="s">
         <v>193</v>
@@ -8763,25 +8763,25 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>11205</v>
+        <v>11204</v>
       </c>
       <c r="B264" t="s">
         <v>69</v>
       </c>
       <c r="C264" s="2">
+        <v>17305</v>
+      </c>
+      <c r="E264">
+        <v>4</v>
+      </c>
+      <c r="F264" s="2">
+        <v>18246</v>
+      </c>
+      <c r="G264" s="2">
         <v>18747</v>
       </c>
-      <c r="E264">
-        <v>5</v>
-      </c>
-      <c r="F264" s="2">
-        <v>18792</v>
-      </c>
-      <c r="G264" s="2">
-        <v>20224</v>
-      </c>
       <c r="H264" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I264" t="s">
         <v>193</v>
@@ -8792,22 +8792,22 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>11206</v>
+        <v>11205</v>
       </c>
       <c r="B265" t="s">
         <v>69</v>
       </c>
       <c r="C265" s="2">
+        <v>18747</v>
+      </c>
+      <c r="E265">
+        <v>5</v>
+      </c>
+      <c r="F265" s="2">
+        <v>18792</v>
+      </c>
+      <c r="G265" s="2">
         <v>20224</v>
-      </c>
-      <c r="E265">
-        <v>6</v>
-      </c>
-      <c r="F265" s="2">
-        <v>20241</v>
-      </c>
-      <c r="G265" s="2">
-        <v>21659</v>
       </c>
       <c r="H265" t="s">
         <v>12</v>
@@ -8821,22 +8821,22 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>11207</v>
+        <v>11206</v>
       </c>
       <c r="B266" t="s">
         <v>69</v>
       </c>
       <c r="C266" s="2">
+        <v>20224</v>
+      </c>
+      <c r="E266">
+        <v>6</v>
+      </c>
+      <c r="F266" s="2">
+        <v>20241</v>
+      </c>
+      <c r="G266" s="2">
         <v>21659</v>
-      </c>
-      <c r="E266">
-        <v>7</v>
-      </c>
-      <c r="F266" s="2">
-        <v>21689</v>
-      </c>
-      <c r="G266" s="2">
-        <v>23101</v>
       </c>
       <c r="H266" t="s">
         <v>12</v>
@@ -8850,22 +8850,22 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>11208</v>
+        <v>11207</v>
       </c>
       <c r="B267" t="s">
         <v>69</v>
       </c>
       <c r="C267" s="2">
+        <v>21659</v>
+      </c>
+      <c r="E267">
+        <v>7</v>
+      </c>
+      <c r="F267" s="2">
+        <v>21689</v>
+      </c>
+      <c r="G267" s="2">
         <v>23101</v>
-      </c>
-      <c r="E267">
-        <v>8</v>
-      </c>
-      <c r="F267" s="2">
-        <v>23149</v>
-      </c>
-      <c r="G267" s="2">
-        <v>24585</v>
       </c>
       <c r="H267" t="s">
         <v>12</v>
@@ -8879,22 +8879,22 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>11209</v>
+        <v>11208</v>
       </c>
       <c r="B268" t="s">
         <v>69</v>
       </c>
       <c r="C268" s="2">
+        <v>23101</v>
+      </c>
+      <c r="E268">
+        <v>8</v>
+      </c>
+      <c r="F268" s="2">
+        <v>23149</v>
+      </c>
+      <c r="G268" s="2">
         <v>24585</v>
-      </c>
-      <c r="E268">
-        <v>9</v>
-      </c>
-      <c r="F268" s="2">
-        <v>24610</v>
-      </c>
-      <c r="G268" s="2">
-        <v>25342</v>
       </c>
       <c r="H268" t="s">
         <v>12</v>
@@ -8908,7 +8908,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>11210</v>
+        <v>11209</v>
       </c>
       <c r="B269" t="s">
         <v>69</v>
@@ -8917,19 +8917,19 @@
         <v>24585</v>
       </c>
       <c r="E269">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F269" s="2">
+        <v>24610</v>
+      </c>
+      <c r="G269" s="2">
         <v>25342</v>
-      </c>
-      <c r="G269" s="2">
-        <v>26013</v>
       </c>
       <c r="H269" t="s">
         <v>12</v>
       </c>
       <c r="I269" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J269" t="s">
         <v>14</v>
@@ -8937,25 +8937,25 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>11211</v>
+        <v>11210</v>
       </c>
       <c r="B270" t="s">
         <v>69</v>
       </c>
       <c r="C270" s="2">
+        <v>24585</v>
+      </c>
+      <c r="E270">
+        <v>10</v>
+      </c>
+      <c r="F270" s="2">
+        <v>25342</v>
+      </c>
+      <c r="G270" s="2">
         <v>26013</v>
       </c>
-      <c r="E270">
-        <v>11</v>
-      </c>
-      <c r="F270" s="2">
-        <v>26071</v>
-      </c>
-      <c r="G270" s="2">
-        <v>27462</v>
-      </c>
       <c r="H270" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I270" t="s">
         <v>194</v>
@@ -8966,22 +8966,22 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>11212</v>
+        <v>11211</v>
       </c>
       <c r="B271" t="s">
         <v>69</v>
       </c>
       <c r="C271" s="2">
+        <v>26013</v>
+      </c>
+      <c r="E271">
+        <v>11</v>
+      </c>
+      <c r="F271" s="2">
+        <v>26071</v>
+      </c>
+      <c r="G271" s="2">
         <v>27462</v>
-      </c>
-      <c r="E271">
-        <v>12</v>
-      </c>
-      <c r="F271" s="2">
-        <v>27534</v>
-      </c>
-      <c r="G271" s="2">
-        <v>28096</v>
       </c>
       <c r="H271" t="s">
         <v>14</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>11213</v>
+        <v>11212</v>
       </c>
       <c r="B272" t="s">
         <v>69</v>
@@ -9004,19 +9004,19 @@
         <v>27462</v>
       </c>
       <c r="E272">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F272" s="2">
+        <v>27534</v>
+      </c>
+      <c r="G272" s="2">
         <v>28096</v>
       </c>
-      <c r="G272" s="2">
-        <v>28932</v>
-      </c>
       <c r="H272" t="s">
         <v>14</v>
       </c>
       <c r="I272" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J272" t="s">
         <v>14</v>
@@ -9024,22 +9024,22 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>11214</v>
+        <v>11213</v>
       </c>
       <c r="B273" t="s">
         <v>69</v>
       </c>
       <c r="C273" s="2">
+        <v>27462</v>
+      </c>
+      <c r="E273">
+        <v>13</v>
+      </c>
+      <c r="F273" s="2">
+        <v>28096</v>
+      </c>
+      <c r="G273" s="2">
         <v>28932</v>
-      </c>
-      <c r="E273">
-        <v>14</v>
-      </c>
-      <c r="F273" s="2">
-        <v>28993</v>
-      </c>
-      <c r="G273" s="2">
-        <v>30381</v>
       </c>
       <c r="H273" t="s">
         <v>14</v>
@@ -9053,22 +9053,22 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>11215</v>
+        <v>11214</v>
       </c>
       <c r="B274" t="s">
         <v>69</v>
       </c>
       <c r="C274" s="2">
+        <v>28932</v>
+      </c>
+      <c r="E274">
+        <v>14</v>
+      </c>
+      <c r="F274" s="2">
+        <v>28993</v>
+      </c>
+      <c r="G274" s="2">
         <v>30381</v>
-      </c>
-      <c r="E274">
-        <v>15</v>
-      </c>
-      <c r="F274" s="2">
-        <v>30454</v>
-      </c>
-      <c r="G274" s="2">
-        <v>31914</v>
       </c>
       <c r="H274" t="s">
         <v>14</v>
@@ -9082,25 +9082,25 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>11216</v>
+        <v>11215</v>
       </c>
       <c r="B275" t="s">
         <v>69</v>
       </c>
       <c r="C275" s="2">
+        <v>30381</v>
+      </c>
+      <c r="E275">
+        <v>15</v>
+      </c>
+      <c r="F275" s="2">
+        <v>30454</v>
+      </c>
+      <c r="G275" s="2">
         <v>31914</v>
       </c>
-      <c r="E275">
-        <v>16</v>
-      </c>
-      <c r="F275" s="2">
-        <v>31951</v>
-      </c>
-      <c r="G275" s="2">
-        <v>32485</v>
-      </c>
       <c r="H275" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I275" t="s">
         <v>195</v>
@@ -9111,7 +9111,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="B276" t="s">
         <v>69</v>
@@ -9120,19 +9120,19 @@
         <v>31914</v>
       </c>
       <c r="E276">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F276" s="2">
+        <v>31951</v>
+      </c>
+      <c r="G276" s="2">
         <v>32485</v>
-      </c>
-      <c r="G276" s="2">
-        <v>33349</v>
       </c>
       <c r="H276" t="s">
         <v>12</v>
       </c>
       <c r="I276" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J276" t="s">
         <v>14</v>
@@ -9140,36 +9140,36 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>11218</v>
+        <v>11217</v>
       </c>
       <c r="B277" t="s">
         <v>69</v>
       </c>
       <c r="C277" s="2">
+        <v>31914</v>
+      </c>
+      <c r="E277">
+        <v>17</v>
+      </c>
+      <c r="F277" s="2">
+        <v>32485</v>
+      </c>
+      <c r="G277" s="2">
         <v>33349</v>
       </c>
-      <c r="E277">
-        <v>18</v>
-      </c>
-      <c r="F277" s="2">
-        <v>33379</v>
-      </c>
-      <c r="G277" s="2">
-        <v>34633</v>
-      </c>
       <c r="H277" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I277" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J277" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>11219</v>
+        <v>11218</v>
       </c>
       <c r="B278" t="s">
         <v>69</v>
@@ -9178,19 +9178,19 @@
         <v>33349</v>
       </c>
       <c r="E278">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F278" s="2">
+        <v>33379</v>
+      </c>
+      <c r="G278" s="2">
         <v>34633</v>
-      </c>
-      <c r="G278" s="2">
-        <v>35148</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
       </c>
       <c r="I278" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J278" t="s">
         <v>29</v>
@@ -9198,22 +9198,22 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>11220</v>
+        <v>11219</v>
       </c>
       <c r="B279" t="s">
         <v>69</v>
       </c>
       <c r="C279" s="2">
+        <v>33349</v>
+      </c>
+      <c r="E279">
+        <v>19</v>
+      </c>
+      <c r="F279" s="2">
+        <v>34633</v>
+      </c>
+      <c r="G279" s="2">
         <v>35148</v>
-      </c>
-      <c r="E279">
-        <v>20</v>
-      </c>
-      <c r="F279" s="2">
-        <v>35205</v>
-      </c>
-      <c r="G279" s="2">
-        <v>36975</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9227,25 +9227,25 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>11221</v>
+        <v>11220</v>
       </c>
       <c r="B280" t="s">
         <v>69</v>
       </c>
       <c r="C280" s="2">
+        <v>35148</v>
+      </c>
+      <c r="E280">
+        <v>20</v>
+      </c>
+      <c r="F280" s="2">
+        <v>35205</v>
+      </c>
+      <c r="G280" s="2">
         <v>36975</v>
       </c>
-      <c r="E280">
-        <v>21</v>
-      </c>
-      <c r="F280" s="2">
-        <v>37029</v>
-      </c>
-      <c r="G280" s="2">
-        <v>38855</v>
-      </c>
       <c r="H280" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I280" t="s">
         <v>198</v>
@@ -9256,25 +9256,25 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>11222</v>
+        <v>11221</v>
       </c>
       <c r="B281" t="s">
         <v>69</v>
       </c>
       <c r="C281" s="2">
-        <v>38802</v>
+        <v>36975</v>
       </c>
       <c r="E281">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F281" s="2">
+        <v>37029</v>
+      </c>
+      <c r="G281" s="2">
         <v>38855</v>
       </c>
-      <c r="G281" s="2">
-        <v>40681</v>
-      </c>
       <c r="H281" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I281" t="s">
         <v>198</v>
@@ -9285,25 +9285,25 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B282" t="s">
         <v>69</v>
       </c>
       <c r="C282" s="2">
-        <v>40629</v>
+        <v>38802</v>
       </c>
       <c r="E282">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F282" s="2">
+        <v>38855</v>
+      </c>
+      <c r="G282" s="2">
         <v>40681</v>
       </c>
-      <c r="G282" s="2">
-        <v>41290</v>
-      </c>
       <c r="H282" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I282" t="s">
         <v>198</v>
@@ -9314,7 +9314,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B283" t="s">
         <v>69</v>
@@ -9323,19 +9323,19 @@
         <v>40629</v>
       </c>
       <c r="E283">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F283" s="2">
+        <v>40681</v>
+      </c>
+      <c r="G283" s="2">
         <v>41290</v>
-      </c>
-      <c r="G283" s="2">
-        <v>42508</v>
       </c>
       <c r="H283" t="s">
         <v>30</v>
       </c>
       <c r="I283" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J283" t="s">
         <v>29</v>
@@ -9343,25 +9343,25 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B284" t="s">
         <v>69</v>
       </c>
       <c r="C284" s="2">
-        <v>42442</v>
+        <v>40629</v>
       </c>
       <c r="E284">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F284" s="2">
+        <v>41290</v>
+      </c>
+      <c r="G284" s="2">
         <v>42508</v>
       </c>
-      <c r="G284" s="2">
-        <v>44334</v>
-      </c>
       <c r="H284" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I284" t="s">
         <v>199</v>
@@ -9372,25 +9372,25 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B285" t="s">
         <v>69</v>
       </c>
       <c r="C285" s="2">
-        <v>44269</v>
+        <v>42442</v>
       </c>
       <c r="E285">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F285" s="2">
+        <v>42508</v>
+      </c>
+      <c r="G285" s="2">
         <v>44334</v>
       </c>
-      <c r="G285" s="2">
-        <v>401768</v>
-      </c>
       <c r="H285" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I285" t="s">
         <v>199</v>
@@ -9401,36 +9401,36 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B286" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C286" s="2">
-        <v>17445</v>
+        <v>44269</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F286" s="2">
-        <v>17521</v>
+        <v>44334</v>
       </c>
       <c r="G286" s="2">
-        <v>18732</v>
+        <v>401768</v>
       </c>
       <c r="H286" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I286" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J286" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>11315</v>
+        <v>11314</v>
       </c>
       <c r="B287" t="s">
         <v>71</v>
@@ -9439,16 +9439,16 @@
         <v>17445</v>
       </c>
       <c r="E287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F287" s="2">
+        <v>17521</v>
+      </c>
+      <c r="G287" s="2">
         <v>18732</v>
       </c>
-      <c r="G287" s="2">
-        <v>19351</v>
-      </c>
       <c r="H287" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I287" t="s">
         <v>200</v>
@@ -9459,25 +9459,25 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B288" t="s">
         <v>71</v>
       </c>
       <c r="C288" s="2">
-        <v>19328</v>
+        <v>17445</v>
       </c>
       <c r="E288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F288" s="2">
+        <v>18732</v>
+      </c>
+      <c r="G288" s="2">
         <v>19351</v>
       </c>
-      <c r="G288" s="2">
-        <v>19922</v>
-      </c>
       <c r="H288" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I288" t="s">
         <v>200</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B289" t="s">
         <v>71</v>
@@ -9497,16 +9497,16 @@
         <v>19328</v>
       </c>
       <c r="E289">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F289" s="2">
+        <v>19351</v>
+      </c>
+      <c r="G289" s="2">
         <v>19922</v>
       </c>
-      <c r="G289" s="2">
-        <v>20391</v>
-      </c>
       <c r="H289" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I289" t="s">
         <v>200</v>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>11318</v>
+        <v>11317</v>
       </c>
       <c r="B290" t="s">
         <v>71</v>
@@ -9525,60 +9525,60 @@
       <c r="C290" s="2">
         <v>19328</v>
       </c>
-      <c r="D290" t="s">
-        <v>74</v>
-      </c>
       <c r="E290">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F290" s="2">
+        <v>19922</v>
+      </c>
+      <c r="G290" s="2">
         <v>20391</v>
       </c>
-      <c r="G290" s="2">
-        <v>20464</v>
-      </c>
       <c r="H290" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I290" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J290" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B291" t="s">
         <v>71</v>
       </c>
       <c r="C291" s="2">
-        <v>20441</v>
+        <v>19328</v>
+      </c>
+      <c r="D291" t="s">
+        <v>74</v>
       </c>
       <c r="E291">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F291" s="2">
+        <v>20391</v>
+      </c>
+      <c r="G291" s="2">
         <v>20464</v>
       </c>
-      <c r="G291" s="2">
-        <v>20806</v>
-      </c>
       <c r="H291" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I291" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J291" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B292" t="s">
         <v>71</v>
@@ -9587,19 +9587,19 @@
         <v>20441</v>
       </c>
       <c r="E292">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F292" s="2">
+        <v>20464</v>
+      </c>
+      <c r="G292" s="2">
         <v>20806</v>
       </c>
-      <c r="G292" s="2">
-        <v>20975</v>
-      </c>
       <c r="H292" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I292" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J292" t="s">
         <v>14</v>
@@ -9607,7 +9607,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B293" t="s">
         <v>71</v>
@@ -9616,16 +9616,16 @@
         <v>20441</v>
       </c>
       <c r="E293">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F293" s="2">
+        <v>20806</v>
+      </c>
+      <c r="G293" s="2">
         <v>20975</v>
       </c>
-      <c r="G293" s="2">
-        <v>21607</v>
-      </c>
       <c r="H293" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="I293" t="s">
         <v>203</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B294" t="s">
         <v>71</v>
@@ -9645,16 +9645,16 @@
         <v>20441</v>
       </c>
       <c r="E294">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F294" s="2">
+        <v>20975</v>
+      </c>
+      <c r="G294" s="2">
         <v>21607</v>
       </c>
-      <c r="G294" s="2">
-        <v>21670</v>
-      </c>
       <c r="H294" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I294" t="s">
         <v>203</v>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B295" t="s">
         <v>71</v>
@@ -9674,19 +9674,19 @@
         <v>20441</v>
       </c>
       <c r="E295">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F295" s="2">
+        <v>21607</v>
+      </c>
+      <c r="G295" s="2">
         <v>21670</v>
       </c>
-      <c r="G295" s="2">
-        <v>22298</v>
-      </c>
       <c r="H295" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="I295" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J295" t="s">
         <v>14</v>
@@ -9694,25 +9694,25 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>11301</v>
+        <v>11323</v>
       </c>
       <c r="B296" t="s">
         <v>71</v>
       </c>
       <c r="C296" s="2">
-        <v>22254</v>
+        <v>20441</v>
       </c>
       <c r="E296">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F296" s="2">
+        <v>21670</v>
+      </c>
+      <c r="G296" s="2">
         <v>22298</v>
       </c>
-      <c r="G296" s="2">
-        <v>23920</v>
-      </c>
       <c r="H296" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I296" t="s">
         <v>204</v>
@@ -9723,22 +9723,22 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>11302</v>
+        <v>11301</v>
       </c>
       <c r="B297" t="s">
         <v>71</v>
       </c>
       <c r="C297" s="2">
+        <v>22254</v>
+      </c>
+      <c r="E297">
+        <v>11</v>
+      </c>
+      <c r="F297" s="2">
+        <v>22298</v>
+      </c>
+      <c r="G297" s="2">
         <v>23920</v>
-      </c>
-      <c r="E297">
-        <v>12</v>
-      </c>
-      <c r="F297" s="2">
-        <v>23933</v>
-      </c>
-      <c r="G297" s="2">
-        <v>25733</v>
       </c>
       <c r="H297" t="s">
         <v>12</v>
@@ -9752,25 +9752,25 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>11303</v>
+        <v>11302</v>
       </c>
       <c r="B298" t="s">
         <v>71</v>
       </c>
       <c r="C298" s="2">
+        <v>23920</v>
+      </c>
+      <c r="E298">
+        <v>12</v>
+      </c>
+      <c r="F298" s="2">
+        <v>23933</v>
+      </c>
+      <c r="G298" s="2">
         <v>25733</v>
       </c>
-      <c r="E298">
-        <v>13</v>
-      </c>
-      <c r="F298" s="2">
-        <v>25762</v>
-      </c>
-      <c r="G298" s="2">
-        <v>27518</v>
-      </c>
       <c r="H298" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I298" t="s">
         <v>204</v>
@@ -9781,22 +9781,22 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>11304</v>
+        <v>11303</v>
       </c>
       <c r="B299" t="s">
         <v>71</v>
       </c>
       <c r="C299" s="2">
+        <v>25733</v>
+      </c>
+      <c r="E299">
+        <v>13</v>
+      </c>
+      <c r="F299" s="2">
+        <v>25762</v>
+      </c>
+      <c r="G299" s="2">
         <v>27518</v>
-      </c>
-      <c r="E299">
-        <v>14</v>
-      </c>
-      <c r="F299" s="2">
-        <v>27518</v>
-      </c>
-      <c r="G299" s="2">
-        <v>28185</v>
       </c>
       <c r="H299" t="s">
         <v>14</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>11305</v>
+        <v>11304</v>
       </c>
       <c r="B300" t="s">
         <v>71</v>
@@ -9819,16 +9819,16 @@
         <v>27518</v>
       </c>
       <c r="E300">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F300" s="2">
+        <v>27518</v>
+      </c>
+      <c r="G300" s="2">
         <v>28185</v>
       </c>
-      <c r="G300" s="2">
-        <v>29041</v>
-      </c>
       <c r="H300" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I300" t="s">
         <v>204</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>11306</v>
+        <v>11305</v>
       </c>
       <c r="B301" t="s">
         <v>71</v>
@@ -9848,19 +9848,19 @@
         <v>27518</v>
       </c>
       <c r="E301">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F301" s="2">
+        <v>28185</v>
+      </c>
+      <c r="G301" s="2">
         <v>29041</v>
-      </c>
-      <c r="G301" s="2">
-        <v>29338</v>
       </c>
       <c r="H301" t="s">
         <v>12</v>
       </c>
       <c r="I301" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J301" t="s">
         <v>14</v>
@@ -9868,22 +9868,22 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>11307</v>
+        <v>11306</v>
       </c>
       <c r="B302" t="s">
         <v>71</v>
       </c>
       <c r="C302" s="2">
+        <v>27518</v>
+      </c>
+      <c r="E302">
+        <v>16</v>
+      </c>
+      <c r="F302" s="2">
+        <v>29041</v>
+      </c>
+      <c r="G302" s="2">
         <v>29338</v>
-      </c>
-      <c r="E302">
-        <v>17</v>
-      </c>
-      <c r="F302" s="2">
-        <v>29364</v>
-      </c>
-      <c r="G302" s="2">
-        <v>31116</v>
       </c>
       <c r="H302" t="s">
         <v>12</v>
@@ -9897,51 +9897,51 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>11308</v>
+        <v>11307</v>
       </c>
       <c r="B303" t="s">
         <v>71</v>
       </c>
       <c r="C303" s="2">
+        <v>29338</v>
+      </c>
+      <c r="E303">
+        <v>17</v>
+      </c>
+      <c r="F303" s="2">
+        <v>29364</v>
+      </c>
+      <c r="G303" s="2">
         <v>31116</v>
       </c>
-      <c r="E303">
-        <v>18</v>
-      </c>
-      <c r="F303" s="2">
-        <v>31146</v>
-      </c>
-      <c r="G303" s="2">
-        <v>32901</v>
-      </c>
       <c r="H303" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I303" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J303" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>11309</v>
+        <v>11308</v>
       </c>
       <c r="B304" t="s">
         <v>71</v>
       </c>
       <c r="C304" s="2">
+        <v>31116</v>
+      </c>
+      <c r="E304">
+        <v>18</v>
+      </c>
+      <c r="F304" s="2">
+        <v>31146</v>
+      </c>
+      <c r="G304" s="2">
         <v>32901</v>
-      </c>
-      <c r="E304">
-        <v>19</v>
-      </c>
-      <c r="F304" s="2">
-        <v>32925</v>
-      </c>
-      <c r="G304" s="2">
-        <v>34623</v>
       </c>
       <c r="H304" t="s">
         <v>29</v>
@@ -9955,22 +9955,22 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>11310</v>
+        <v>11309</v>
       </c>
       <c r="B305" t="s">
         <v>71</v>
       </c>
       <c r="C305" s="2">
+        <v>32901</v>
+      </c>
+      <c r="E305">
+        <v>19</v>
+      </c>
+      <c r="F305" s="2">
+        <v>32925</v>
+      </c>
+      <c r="G305" s="2">
         <v>34623</v>
-      </c>
-      <c r="E305">
-        <v>20</v>
-      </c>
-      <c r="F305" s="2">
-        <v>34647</v>
-      </c>
-      <c r="G305" s="2">
-        <v>36109</v>
       </c>
       <c r="H305" t="s">
         <v>29</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>11311</v>
+        <v>11310</v>
       </c>
       <c r="B306" t="s">
         <v>71</v>
@@ -9993,19 +9993,19 @@
         <v>34623</v>
       </c>
       <c r="E306">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F306" s="2">
+        <v>34647</v>
+      </c>
+      <c r="G306" s="2">
         <v>36109</v>
       </c>
-      <c r="G306" s="2">
-        <v>36408</v>
-      </c>
       <c r="H306" t="s">
         <v>29</v>
       </c>
       <c r="I306" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J306" t="s">
         <v>29</v>
@@ -10013,51 +10013,51 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>11312</v>
+        <v>11311</v>
       </c>
       <c r="B307" t="s">
         <v>71</v>
       </c>
       <c r="C307" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E307">
+        <v>21</v>
+      </c>
+      <c r="F307" s="2">
+        <v>36109</v>
+      </c>
+      <c r="G307" s="2">
         <v>36408</v>
       </c>
-      <c r="E307">
-        <v>22</v>
-      </c>
-      <c r="F307" s="2">
-        <v>36432</v>
-      </c>
-      <c r="G307" s="2">
-        <v>38235</v>
-      </c>
       <c r="H307" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I307" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J307" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>11313</v>
+        <v>11312</v>
       </c>
       <c r="B308" t="s">
         <v>71</v>
       </c>
       <c r="C308" s="2">
+        <v>36408</v>
+      </c>
+      <c r="E308">
+        <v>22</v>
+      </c>
+      <c r="F308" s="2">
+        <v>36432</v>
+      </c>
+      <c r="G308" s="2">
         <v>38235</v>
-      </c>
-      <c r="E308">
-        <v>23</v>
-      </c>
-      <c r="F308" s="2">
-        <v>38266</v>
-      </c>
-      <c r="G308" s="2">
-        <v>40127</v>
       </c>
       <c r="H308" t="s">
         <v>14</v>
@@ -10071,25 +10071,25 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B309" t="s">
         <v>71</v>
       </c>
       <c r="C309" s="2">
-        <v>40055</v>
+        <v>38235</v>
       </c>
       <c r="E309">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F309" s="2">
+        <v>38266</v>
+      </c>
+      <c r="G309" s="2">
         <v>40127</v>
       </c>
-      <c r="G309" s="2">
-        <v>40764</v>
-      </c>
       <c r="H309" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="I309" t="s">
         <v>208</v>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B310" t="s">
         <v>71</v>
@@ -10109,19 +10109,19 @@
         <v>40055</v>
       </c>
       <c r="E310">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F310" s="2">
+        <v>40127</v>
+      </c>
+      <c r="G310" s="2">
         <v>40764</v>
-      </c>
-      <c r="G310" s="2">
-        <v>40926</v>
       </c>
       <c r="H310" t="s">
         <v>78</v>
       </c>
       <c r="I310" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J310" t="s">
         <v>14</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B311" t="s">
         <v>71</v>
@@ -10138,16 +10138,16 @@
         <v>40055</v>
       </c>
       <c r="E311">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F311" s="2">
+        <v>40764</v>
+      </c>
+      <c r="G311" s="2">
         <v>40926</v>
       </c>
-      <c r="G311" s="2">
-        <v>41038</v>
-      </c>
       <c r="H311" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="I311" t="s">
         <v>209</v>
@@ -10158,25 +10158,25 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B312" t="s">
         <v>71</v>
       </c>
       <c r="C312" s="2">
-        <v>40993</v>
+        <v>40055</v>
       </c>
       <c r="E312">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F312" s="2">
+        <v>40926</v>
+      </c>
+      <c r="G312" s="2">
         <v>41038</v>
       </c>
-      <c r="G312" s="2">
-        <v>42872</v>
-      </c>
       <c r="H312" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I312" t="s">
         <v>209</v>
@@ -10187,22 +10187,22 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B313" t="s">
         <v>71</v>
       </c>
       <c r="C313" s="2">
-        <v>42820</v>
+        <v>40993</v>
       </c>
       <c r="E313">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F313" s="2">
+        <v>41038</v>
+      </c>
+      <c r="G313" s="2">
         <v>42872</v>
-      </c>
-      <c r="G313" s="2">
-        <v>43160</v>
       </c>
       <c r="H313" t="s">
         <v>13</v>
@@ -10216,7 +10216,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B314" t="s">
         <v>71</v>
@@ -10225,19 +10225,19 @@
         <v>42820</v>
       </c>
       <c r="E314">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F314" s="2">
+        <v>42872</v>
+      </c>
+      <c r="G314" s="2">
         <v>43160</v>
-      </c>
-      <c r="G314" s="2">
-        <v>44676</v>
       </c>
       <c r="H314" t="s">
         <v>13</v>
       </c>
       <c r="I314" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J314" t="s">
         <v>14</v>
@@ -10245,80 +10245,80 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B315" t="s">
         <v>71</v>
       </c>
       <c r="C315" s="2">
-        <v>44647</v>
+        <v>42820</v>
       </c>
       <c r="E315">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F315" s="2">
+        <v>43160</v>
+      </c>
+      <c r="G315" s="2">
         <v>44676</v>
       </c>
-      <c r="G315" s="2">
-        <v>401768</v>
-      </c>
       <c r="H315" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I315" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="J315" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>11401</v>
+        <v>11330</v>
       </c>
       <c r="B316" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C316" s="2">
-        <v>33160</v>
+        <v>44647</v>
       </c>
       <c r="E316">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F316" s="2">
-        <v>33173</v>
+        <v>44676</v>
       </c>
       <c r="G316" s="2">
-        <v>34588</v>
+        <v>401768</v>
       </c>
       <c r="H316" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I316" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="J316" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>11402</v>
+        <v>11401</v>
       </c>
       <c r="B317" t="s">
         <v>79</v>
       </c>
       <c r="C317" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317" s="2">
+        <v>33173</v>
+      </c>
+      <c r="G317" s="2">
         <v>34588</v>
-      </c>
-      <c r="E317">
-        <v>2</v>
-      </c>
-      <c r="F317" s="2">
-        <v>34613</v>
-      </c>
-      <c r="G317" s="2">
-        <v>36422</v>
       </c>
       <c r="H317" t="s">
         <v>14</v>
@@ -10332,22 +10332,22 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>11403</v>
+        <v>11402</v>
       </c>
       <c r="B318" t="s">
         <v>79</v>
       </c>
       <c r="C318" s="2">
+        <v>34588</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318" s="2">
+        <v>34613</v>
+      </c>
+      <c r="G318" s="2">
         <v>36422</v>
-      </c>
-      <c r="E318">
-        <v>3</v>
-      </c>
-      <c r="F318" s="2">
-        <v>36446</v>
-      </c>
-      <c r="G318" s="2">
-        <v>37364</v>
       </c>
       <c r="H318" t="s">
         <v>14</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>11404</v>
+        <v>11403</v>
       </c>
       <c r="B319" t="s">
         <v>79</v>
@@ -10370,19 +10370,19 @@
         <v>36422</v>
       </c>
       <c r="E319">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F319" s="2">
+        <v>36446</v>
+      </c>
+      <c r="G319" s="2">
         <v>37364</v>
       </c>
-      <c r="G319" s="2">
-        <v>38249</v>
-      </c>
       <c r="H319" t="s">
         <v>14</v>
       </c>
       <c r="I319" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J319" t="s">
         <v>14</v>
@@ -10390,25 +10390,25 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>11405</v>
+        <v>11404</v>
       </c>
       <c r="B320" t="s">
         <v>79</v>
       </c>
       <c r="C320" s="2">
+        <v>36422</v>
+      </c>
+      <c r="E320">
+        <v>4</v>
+      </c>
+      <c r="F320" s="2">
+        <v>37364</v>
+      </c>
+      <c r="G320" s="2">
         <v>38249</v>
       </c>
-      <c r="E320">
-        <v>5</v>
-      </c>
-      <c r="F320" s="2">
-        <v>38301</v>
-      </c>
-      <c r="G320" s="2">
-        <v>39617</v>
-      </c>
       <c r="H320" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I320" t="s">
         <v>212</v>
@@ -10419,7 +10419,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B321" t="s">
         <v>79</v>
@@ -10428,19 +10428,19 @@
         <v>38249</v>
       </c>
       <c r="E321">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F321" s="2">
+        <v>38301</v>
+      </c>
+      <c r="G321" s="2">
         <v>39617</v>
-      </c>
-      <c r="G321" s="2">
-        <v>40086</v>
       </c>
       <c r="H321" t="s">
         <v>13</v>
       </c>
       <c r="I321" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J321" t="s">
         <v>14</v>
@@ -10448,25 +10448,25 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B322" t="s">
         <v>79</v>
       </c>
       <c r="C322" s="2">
-        <v>40055</v>
+        <v>38249</v>
       </c>
       <c r="E322">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F322" s="2">
+        <v>39617</v>
+      </c>
+      <c r="G322" s="2">
         <v>40086</v>
       </c>
-      <c r="G322" s="2">
-        <v>41956</v>
-      </c>
       <c r="H322" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I322" t="s">
         <v>213</v>
@@ -10477,25 +10477,25 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B323" t="s">
         <v>79</v>
       </c>
       <c r="C323" s="2">
-        <v>41882</v>
+        <v>40055</v>
       </c>
       <c r="E323">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F323" s="2">
+        <v>40086</v>
+      </c>
+      <c r="G323" s="2">
         <v>41956</v>
       </c>
-      <c r="G323" s="2">
-        <v>43082</v>
-      </c>
       <c r="H323" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I323" t="s">
         <v>213</v>
@@ -10506,7 +10506,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B324" t="s">
         <v>79</v>
@@ -10515,19 +10515,19 @@
         <v>41882</v>
       </c>
       <c r="E324">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F324" s="2">
+        <v>41956</v>
+      </c>
+      <c r="G324" s="2">
         <v>43082</v>
-      </c>
-      <c r="G324" s="2">
-        <v>43819</v>
       </c>
       <c r="H324" t="s">
         <v>13</v>
       </c>
       <c r="I324" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J324" t="s">
         <v>14</v>
@@ -10535,25 +10535,25 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B325" t="s">
         <v>79</v>
       </c>
       <c r="C325" s="2">
-        <v>43709</v>
+        <v>41882</v>
       </c>
       <c r="E325">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F325" s="2">
+        <v>43082</v>
+      </c>
+      <c r="G325" s="2">
         <v>43819</v>
       </c>
-      <c r="G325" s="2">
-        <v>401768</v>
-      </c>
       <c r="H325" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="I325" t="s">
         <v>214</v>
@@ -10564,28 +10564,28 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>11501</v>
+        <v>11410</v>
       </c>
       <c r="B326" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C326" s="2">
-        <v>33160</v>
+        <v>43709</v>
       </c>
       <c r="E326">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F326" s="2">
-        <v>33174</v>
+        <v>43819</v>
       </c>
       <c r="G326" s="2">
-        <v>33423</v>
+        <v>401768</v>
       </c>
       <c r="H326" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I326" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J326" t="s">
         <v>14</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>11502</v>
+        <v>11501</v>
       </c>
       <c r="B327" t="s">
         <v>81</v>
@@ -10602,19 +10602,19 @@
         <v>33160</v>
       </c>
       <c r="E327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F327" s="2">
+        <v>33174</v>
+      </c>
+      <c r="G327" s="2">
         <v>33423</v>
-      </c>
-      <c r="G327" s="2">
-        <v>34305</v>
       </c>
       <c r="H327" t="s">
         <v>12</v>
       </c>
       <c r="I327" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J327" t="s">
         <v>14</v>
@@ -10622,7 +10622,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>11503</v>
+        <v>11502</v>
       </c>
       <c r="B328" t="s">
         <v>81</v>
@@ -10631,19 +10631,19 @@
         <v>33160</v>
       </c>
       <c r="E328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F328" s="2">
+        <v>33423</v>
+      </c>
+      <c r="G328" s="2">
         <v>34305</v>
-      </c>
-      <c r="G328" s="2">
-        <v>34511</v>
       </c>
       <c r="H328" t="s">
         <v>12</v>
       </c>
       <c r="I328" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J328" t="s">
         <v>14</v>
@@ -10651,54 +10651,54 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>11504</v>
+        <v>11503</v>
       </c>
       <c r="B329" t="s">
         <v>81</v>
       </c>
       <c r="C329" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E329">
+        <v>3</v>
+      </c>
+      <c r="F329" s="2">
+        <v>34305</v>
+      </c>
+      <c r="G329" s="2">
         <v>34511</v>
       </c>
-      <c r="E329">
-        <v>4</v>
-      </c>
-      <c r="F329" s="2">
-        <v>34536</v>
-      </c>
-      <c r="G329" s="2">
-        <v>35911</v>
-      </c>
       <c r="H329" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I329" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J329" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>11505</v>
+        <v>11504</v>
       </c>
       <c r="B330" t="s">
         <v>81</v>
       </c>
       <c r="C330" s="2">
+        <v>34511</v>
+      </c>
+      <c r="E330">
+        <v>4</v>
+      </c>
+      <c r="F330" s="2">
+        <v>34536</v>
+      </c>
+      <c r="G330" s="2">
         <v>35911</v>
       </c>
-      <c r="E330">
-        <v>5</v>
-      </c>
-      <c r="F330" s="2">
-        <v>35941</v>
-      </c>
-      <c r="G330" s="2">
-        <v>37367</v>
-      </c>
       <c r="H330" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I330" t="s">
         <v>218</v>
@@ -10709,54 +10709,54 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>11506</v>
+        <v>11505</v>
       </c>
       <c r="B331" t="s">
         <v>81</v>
       </c>
       <c r="C331" s="2">
+        <v>35911</v>
+      </c>
+      <c r="E331">
+        <v>5</v>
+      </c>
+      <c r="F331" s="2">
+        <v>35941</v>
+      </c>
+      <c r="G331" s="2">
         <v>37367</v>
       </c>
-      <c r="E331">
-        <v>6</v>
-      </c>
-      <c r="F331" s="2">
-        <v>37392</v>
-      </c>
-      <c r="G331" s="2">
-        <v>38831</v>
-      </c>
       <c r="H331" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I331" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J331" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B332" t="s">
         <v>81</v>
       </c>
       <c r="C332" s="2">
-        <v>38802</v>
+        <v>37367</v>
       </c>
       <c r="E332">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F332" s="2">
+        <v>37392</v>
+      </c>
+      <c r="G332" s="2">
         <v>38831</v>
       </c>
-      <c r="G332" s="2">
-        <v>40652</v>
-      </c>
       <c r="H332" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I332" t="s">
         <v>219</v>
@@ -10767,28 +10767,28 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B333" t="s">
         <v>81</v>
       </c>
       <c r="C333" s="2">
-        <v>40622</v>
+        <v>38802</v>
       </c>
       <c r="E333">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F333" s="2">
+        <v>38831</v>
+      </c>
+      <c r="G333" s="2">
         <v>40652</v>
-      </c>
-      <c r="G333" s="2">
-        <v>42485</v>
       </c>
       <c r="H333" t="s">
         <v>13</v>
       </c>
       <c r="I333" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J333" t="s">
         <v>14</v>
@@ -10796,25 +10796,25 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B334" t="s">
         <v>81</v>
       </c>
       <c r="C334" s="2">
-        <v>42442</v>
+        <v>40622</v>
       </c>
       <c r="E334">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F334" s="2">
+        <v>40652</v>
+      </c>
+      <c r="G334" s="2">
         <v>42485</v>
       </c>
-      <c r="G334" s="2">
-        <v>44455</v>
-      </c>
       <c r="H334" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="I334" t="s">
         <v>220</v>
@@ -10825,25 +10825,25 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B335" t="s">
         <v>81</v>
       </c>
       <c r="C335" s="2">
-        <v>44353</v>
+        <v>42442</v>
       </c>
       <c r="E335">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F335" s="2">
+        <v>42485</v>
+      </c>
+      <c r="G335" s="2">
         <v>44455</v>
       </c>
-      <c r="G335" s="2">
-        <v>401768</v>
-      </c>
       <c r="H335" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I335" t="s">
         <v>220</v>
@@ -10854,36 +10854,36 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>11601</v>
+        <v>11510</v>
       </c>
       <c r="B336" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C336" s="2">
-        <v>17277</v>
+        <v>44353</v>
       </c>
       <c r="E336">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F336" s="2">
-        <v>17286</v>
+        <v>44455</v>
       </c>
       <c r="G336" s="2">
-        <v>18139</v>
+        <v>401768</v>
       </c>
       <c r="H336" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I336" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J336" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>11602</v>
+        <v>11601</v>
       </c>
       <c r="B337" t="s">
         <v>83</v>
@@ -10892,19 +10892,19 @@
         <v>17277</v>
       </c>
       <c r="E337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F337" s="2">
+        <v>17286</v>
+      </c>
+      <c r="G337" s="2">
         <v>18139</v>
       </c>
-      <c r="G337" s="2">
-        <v>18453</v>
-      </c>
       <c r="H337" t="s">
         <v>29</v>
       </c>
       <c r="I337" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J337" t="s">
         <v>29</v>
@@ -10912,36 +10912,36 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>11603</v>
+        <v>11602</v>
       </c>
       <c r="B338" t="s">
         <v>83</v>
       </c>
       <c r="C338" s="2">
+        <v>17277</v>
+      </c>
+      <c r="E338">
+        <v>2</v>
+      </c>
+      <c r="F338" s="2">
+        <v>18139</v>
+      </c>
+      <c r="G338" s="2">
         <v>18453</v>
       </c>
-      <c r="E338">
-        <v>3</v>
-      </c>
-      <c r="F338" s="2">
-        <v>18511</v>
-      </c>
-      <c r="G338" s="2">
-        <v>18804</v>
-      </c>
       <c r="H338" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I338" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J338" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>11604</v>
+        <v>11603</v>
       </c>
       <c r="B339" t="s">
         <v>83</v>
@@ -10950,19 +10950,19 @@
         <v>18453</v>
       </c>
       <c r="E339">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F339" s="2">
+        <v>18511</v>
+      </c>
+      <c r="G339" s="2">
         <v>18804</v>
       </c>
-      <c r="G339" s="2">
-        <v>18837</v>
-      </c>
       <c r="H339" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I339" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J339" t="s">
         <v>14</v>
@@ -10970,7 +10970,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>11605</v>
+        <v>11604</v>
       </c>
       <c r="B340" t="s">
         <v>83</v>
@@ -10979,16 +10979,16 @@
         <v>18453</v>
       </c>
       <c r="E340">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F340" s="2">
+        <v>18804</v>
+      </c>
+      <c r="G340" s="2">
         <v>18837</v>
       </c>
-      <c r="G340" s="2">
-        <v>18997</v>
-      </c>
       <c r="H340" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I340" t="s">
         <v>224</v>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>11606</v>
+        <v>11605</v>
       </c>
       <c r="B341" t="s">
         <v>83</v>
@@ -11008,16 +11008,16 @@
         <v>18453</v>
       </c>
       <c r="E341">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F341" s="2">
+        <v>18837</v>
+      </c>
+      <c r="G341" s="2">
         <v>18997</v>
       </c>
-      <c r="G341" s="2">
-        <v>19378</v>
-      </c>
       <c r="H341" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I341" t="s">
         <v>224</v>
@@ -11028,7 +11028,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>11607</v>
+        <v>11606</v>
       </c>
       <c r="B342" t="s">
         <v>83</v>
@@ -11037,16 +11037,16 @@
         <v>18453</v>
       </c>
       <c r="E342">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F342" s="2">
+        <v>18997</v>
+      </c>
+      <c r="G342" s="2">
         <v>19378</v>
       </c>
-      <c r="G342" s="2">
-        <v>19979</v>
-      </c>
       <c r="H342" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I342" t="s">
         <v>224</v>
@@ -11057,28 +11057,28 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>11608</v>
+        <v>11607</v>
       </c>
       <c r="B343" t="s">
         <v>83</v>
       </c>
       <c r="C343" s="2">
+        <v>18453</v>
+      </c>
+      <c r="E343">
+        <v>7</v>
+      </c>
+      <c r="F343" s="2">
+        <v>19378</v>
+      </c>
+      <c r="G343" s="2">
         <v>19979</v>
       </c>
-      <c r="E343">
-        <v>8</v>
-      </c>
-      <c r="F343" s="2">
-        <v>20008</v>
-      </c>
-      <c r="G343" s="2">
-        <v>21456</v>
-      </c>
       <c r="H343" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I343" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J343" t="s">
         <v>14</v>
@@ -11086,25 +11086,25 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>11609</v>
+        <v>11608</v>
       </c>
       <c r="B344" t="s">
         <v>83</v>
       </c>
       <c r="C344" s="2">
+        <v>19979</v>
+      </c>
+      <c r="E344">
+        <v>8</v>
+      </c>
+      <c r="F344" s="2">
+        <v>20008</v>
+      </c>
+      <c r="G344" s="2">
         <v>21456</v>
       </c>
-      <c r="E344">
-        <v>9</v>
-      </c>
-      <c r="F344" s="2">
-        <v>21456</v>
-      </c>
-      <c r="G344" s="2">
-        <v>22912</v>
-      </c>
       <c r="H344" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I344" t="s">
         <v>225</v>
@@ -11115,25 +11115,25 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>11610</v>
+        <v>11609</v>
       </c>
       <c r="B345" t="s">
         <v>83</v>
       </c>
       <c r="C345" s="2">
+        <v>21456</v>
+      </c>
+      <c r="E345">
+        <v>9</v>
+      </c>
+      <c r="F345" s="2">
+        <v>21456</v>
+      </c>
+      <c r="G345" s="2">
         <v>22912</v>
       </c>
-      <c r="E345">
-        <v>10</v>
-      </c>
-      <c r="F345" s="2">
-        <v>22912</v>
-      </c>
-      <c r="G345" s="2">
-        <v>23018</v>
-      </c>
       <c r="H345" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I345" t="s">
         <v>225</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>11611</v>
+        <v>11610</v>
       </c>
       <c r="B346" t="s">
         <v>83</v>
@@ -11153,19 +11153,19 @@
         <v>22912</v>
       </c>
       <c r="E346">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F346" s="2">
+        <v>22912</v>
+      </c>
+      <c r="G346" s="2">
         <v>23018</v>
       </c>
-      <c r="G346" s="2">
-        <v>24585</v>
-      </c>
       <c r="H346" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I346" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J346" t="s">
         <v>14</v>
@@ -11173,22 +11173,22 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>11612</v>
+        <v>11611</v>
       </c>
       <c r="B347" t="s">
         <v>83</v>
       </c>
       <c r="C347" s="2">
+        <v>22912</v>
+      </c>
+      <c r="E347">
+        <v>11</v>
+      </c>
+      <c r="F347" s="2">
+        <v>23018</v>
+      </c>
+      <c r="G347" s="2">
         <v>24585</v>
-      </c>
-      <c r="E347">
-        <v>12</v>
-      </c>
-      <c r="F347" s="2">
-        <v>24585</v>
-      </c>
-      <c r="G347" s="2">
-        <v>25967</v>
       </c>
       <c r="H347" t="s">
         <v>12</v>
@@ -11202,7 +11202,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>11613</v>
+        <v>11612</v>
       </c>
       <c r="B348" t="s">
         <v>83</v>
@@ -11211,16 +11211,16 @@
         <v>24585</v>
       </c>
       <c r="E348">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F348" s="2">
+        <v>24585</v>
+      </c>
+      <c r="G348" s="2">
         <v>25967</v>
       </c>
-      <c r="G348" s="2">
-        <v>26048</v>
-      </c>
       <c r="H348" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I348" t="s">
         <v>226</v>
@@ -11231,28 +11231,28 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>11614</v>
+        <v>11613</v>
       </c>
       <c r="B349" t="s">
         <v>83</v>
       </c>
       <c r="C349" s="2">
+        <v>24585</v>
+      </c>
+      <c r="E349">
+        <v>13</v>
+      </c>
+      <c r="F349" s="2">
+        <v>25967</v>
+      </c>
+      <c r="G349" s="2">
         <v>26048</v>
       </c>
-      <c r="E349">
-        <v>14</v>
-      </c>
-      <c r="F349" s="2">
-        <v>26077</v>
-      </c>
-      <c r="G349" s="2">
-        <v>27497</v>
-      </c>
       <c r="H349" t="s">
         <v>14</v>
       </c>
       <c r="I349" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J349" t="s">
         <v>14</v>
@@ -11260,22 +11260,22 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>11615</v>
+        <v>11614</v>
       </c>
       <c r="B350" t="s">
         <v>83</v>
       </c>
       <c r="C350" s="2">
+        <v>26048</v>
+      </c>
+      <c r="E350">
+        <v>14</v>
+      </c>
+      <c r="F350" s="2">
+        <v>26077</v>
+      </c>
+      <c r="G350" s="2">
         <v>27497</v>
-      </c>
-      <c r="E350">
-        <v>15</v>
-      </c>
-      <c r="F350" s="2">
-        <v>27497</v>
-      </c>
-      <c r="G350" s="2">
-        <v>28974</v>
       </c>
       <c r="H350" t="s">
         <v>14</v>
@@ -11289,22 +11289,22 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>11616</v>
+        <v>11615</v>
       </c>
       <c r="B351" t="s">
         <v>83</v>
       </c>
       <c r="C351" s="2">
+        <v>27497</v>
+      </c>
+      <c r="E351">
+        <v>15</v>
+      </c>
+      <c r="F351" s="2">
+        <v>27497</v>
+      </c>
+      <c r="G351" s="2">
         <v>28974</v>
-      </c>
-      <c r="E351">
-        <v>16</v>
-      </c>
-      <c r="F351" s="2">
-        <v>28974</v>
-      </c>
-      <c r="G351" s="2">
-        <v>30238</v>
       </c>
       <c r="H351" t="s">
         <v>14</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>11617</v>
+        <v>11616</v>
       </c>
       <c r="B352" t="s">
         <v>83</v>
@@ -11327,19 +11327,19 @@
         <v>28974</v>
       </c>
       <c r="E352">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F352" s="2">
+        <v>28974</v>
+      </c>
+      <c r="G352" s="2">
         <v>30238</v>
       </c>
-      <c r="G352" s="2">
-        <v>30388</v>
-      </c>
       <c r="H352" t="s">
         <v>14</v>
       </c>
       <c r="I352" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J352" t="s">
         <v>14</v>
@@ -11347,22 +11347,22 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>11618</v>
+        <v>11617</v>
       </c>
       <c r="B353" t="s">
         <v>83</v>
       </c>
       <c r="C353" s="2">
+        <v>28974</v>
+      </c>
+      <c r="E353">
+        <v>17</v>
+      </c>
+      <c r="F353" s="2">
+        <v>30238</v>
+      </c>
+      <c r="G353" s="2">
         <v>30388</v>
-      </c>
-      <c r="E353">
-        <v>18</v>
-      </c>
-      <c r="F353" s="2">
-        <v>30388</v>
-      </c>
-      <c r="G353" s="2">
-        <v>32033</v>
       </c>
       <c r="H353" t="s">
         <v>14</v>
@@ -11376,22 +11376,22 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>11619</v>
+        <v>11618</v>
       </c>
       <c r="B354" t="s">
         <v>83</v>
       </c>
       <c r="C354" s="2">
+        <v>30388</v>
+      </c>
+      <c r="E354">
+        <v>18</v>
+      </c>
+      <c r="F354" s="2">
+        <v>30388</v>
+      </c>
+      <c r="G354" s="2">
         <v>32033</v>
-      </c>
-      <c r="E354">
-        <v>19</v>
-      </c>
-      <c r="F354" s="2">
-        <v>32033</v>
-      </c>
-      <c r="G354" s="2">
-        <v>32052</v>
       </c>
       <c r="H354" t="s">
         <v>14</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>11620</v>
+        <v>11619</v>
       </c>
       <c r="B355" t="s">
         <v>83</v>
@@ -11414,19 +11414,19 @@
         <v>32033</v>
       </c>
       <c r="E355">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F355" s="2">
+        <v>32033</v>
+      </c>
+      <c r="G355" s="2">
         <v>32052</v>
       </c>
-      <c r="G355" s="2">
-        <v>32271</v>
-      </c>
       <c r="H355" t="s">
         <v>14</v>
       </c>
       <c r="I355" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J355" t="s">
         <v>14</v>
@@ -11434,51 +11434,51 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>11621</v>
+        <v>11620</v>
       </c>
       <c r="B356" t="s">
         <v>83</v>
       </c>
       <c r="C356" s="2">
+        <v>32033</v>
+      </c>
+      <c r="E356">
+        <v>20</v>
+      </c>
+      <c r="F356" s="2">
+        <v>32052</v>
+      </c>
+      <c r="G356" s="2">
         <v>32271</v>
       </c>
-      <c r="E356">
-        <v>21</v>
-      </c>
-      <c r="F356" s="2">
-        <v>32294</v>
-      </c>
-      <c r="G356" s="2">
-        <v>33699</v>
-      </c>
       <c r="H356" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I356" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J356" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>11622</v>
+        <v>11621</v>
       </c>
       <c r="B357" t="s">
         <v>83</v>
       </c>
       <c r="C357" s="2">
+        <v>32271</v>
+      </c>
+      <c r="E357">
+        <v>21</v>
+      </c>
+      <c r="F357" s="2">
+        <v>32294</v>
+      </c>
+      <c r="G357" s="2">
         <v>33699</v>
-      </c>
-      <c r="E357">
-        <v>22</v>
-      </c>
-      <c r="F357" s="2">
-        <v>33729</v>
-      </c>
-      <c r="G357" s="2">
-        <v>34108</v>
       </c>
       <c r="H357" t="s">
         <v>29</v>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>11623</v>
+        <v>11622</v>
       </c>
       <c r="B358" t="s">
         <v>83</v>
@@ -11501,19 +11501,19 @@
         <v>33699</v>
       </c>
       <c r="E358">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F358" s="2">
+        <v>33729</v>
+      </c>
+      <c r="G358" s="2">
         <v>34108</v>
       </c>
-      <c r="G358" s="2">
-        <v>35148</v>
-      </c>
       <c r="H358" t="s">
         <v>29</v>
       </c>
       <c r="I358" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J358" t="s">
         <v>29</v>
@@ -11521,25 +11521,25 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>11624</v>
+        <v>11623</v>
       </c>
       <c r="B359" t="s">
         <v>83</v>
       </c>
       <c r="C359" s="2">
+        <v>33699</v>
+      </c>
+      <c r="E359">
+        <v>23</v>
+      </c>
+      <c r="F359" s="2">
+        <v>34108</v>
+      </c>
+      <c r="G359" s="2">
         <v>35148</v>
       </c>
-      <c r="E359">
-        <v>24</v>
-      </c>
-      <c r="F359" s="2">
-        <v>35207</v>
-      </c>
-      <c r="G359" s="2">
-        <v>36583</v>
-      </c>
       <c r="H359" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I359" t="s">
         <v>231</v>
@@ -11550,22 +11550,22 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>11625</v>
+        <v>11624</v>
       </c>
       <c r="B360" t="s">
         <v>83</v>
       </c>
       <c r="C360" s="2">
+        <v>35148</v>
+      </c>
+      <c r="E360">
+        <v>24</v>
+      </c>
+      <c r="F360" s="2">
+        <v>35207</v>
+      </c>
+      <c r="G360" s="2">
         <v>36583</v>
-      </c>
-      <c r="E360">
-        <v>25</v>
-      </c>
-      <c r="F360" s="2">
-        <v>36613</v>
-      </c>
-      <c r="G360" s="2">
-        <v>38403</v>
       </c>
       <c r="H360" t="s">
         <v>30</v>
@@ -11579,54 +11579,54 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>11626</v>
+        <v>11625</v>
       </c>
       <c r="B361" t="s">
         <v>83</v>
       </c>
       <c r="C361" s="2">
+        <v>36583</v>
+      </c>
+      <c r="E361">
+        <v>25</v>
+      </c>
+      <c r="F361" s="2">
+        <v>36613</v>
+      </c>
+      <c r="G361" s="2">
         <v>38403</v>
       </c>
-      <c r="E361">
-        <v>26</v>
-      </c>
-      <c r="F361" s="2">
-        <v>38469</v>
-      </c>
-      <c r="G361" s="2">
-        <v>40113</v>
-      </c>
       <c r="H361" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I361" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J361" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B362" t="s">
         <v>83</v>
       </c>
       <c r="C362" s="2">
-        <v>40083</v>
+        <v>38403</v>
       </c>
       <c r="E362">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F362" s="2">
+        <v>38469</v>
+      </c>
+      <c r="G362" s="2">
         <v>40113</v>
       </c>
-      <c r="G362" s="2">
-        <v>41072</v>
-      </c>
       <c r="H362" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I362" t="s">
         <v>232</v>
@@ -11637,83 +11637,83 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B363" t="s">
         <v>83</v>
       </c>
       <c r="C363" s="2">
-        <v>41035</v>
+        <v>40083</v>
       </c>
       <c r="E363">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F363" s="2">
+        <v>40113</v>
+      </c>
+      <c r="G363" s="2">
         <v>41072</v>
       </c>
-      <c r="G363" s="2">
-        <v>42914</v>
-      </c>
       <c r="H363" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I363" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J363" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B364" t="s">
         <v>83</v>
       </c>
       <c r="C364" s="2">
-        <v>42862</v>
+        <v>41035</v>
       </c>
       <c r="E364">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F364" s="2">
+        <v>41072</v>
+      </c>
+      <c r="G364" s="2">
         <v>42914</v>
       </c>
-      <c r="G364" s="2">
-        <v>44741</v>
-      </c>
       <c r="H364" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I364" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J364" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B365" t="s">
         <v>83</v>
       </c>
       <c r="C365" s="2">
-        <v>44689</v>
+        <v>42862</v>
       </c>
       <c r="E365">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F365" s="2">
+        <v>42914</v>
+      </c>
+      <c r="G365" s="2">
         <v>44741</v>
       </c>
-      <c r="G365" s="2">
-        <v>401768</v>
-      </c>
       <c r="H365" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I365" t="s">
         <v>234</v>
@@ -11724,28 +11724,28 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>11701</v>
+        <v>11630</v>
       </c>
       <c r="B366" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C366" s="2">
-        <v>33160</v>
+        <v>44689</v>
       </c>
       <c r="E366">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F366" s="2">
-        <v>33185</v>
+        <v>44741</v>
       </c>
       <c r="G366" s="2">
-        <v>33639</v>
+        <v>401768</v>
       </c>
       <c r="H366" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I366" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J366" t="s">
         <v>14</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>11702</v>
+        <v>11701</v>
       </c>
       <c r="B367" t="s">
         <v>90</v>
@@ -11762,19 +11762,19 @@
         <v>33160</v>
       </c>
       <c r="E367">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F367" s="2">
+        <v>33185</v>
+      </c>
+      <c r="G367" s="2">
         <v>33639</v>
-      </c>
-      <c r="G367" s="2">
-        <v>34623</v>
       </c>
       <c r="H367" t="s">
         <v>12</v>
       </c>
       <c r="I367" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="J367" t="s">
         <v>14</v>
@@ -11782,25 +11782,25 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>11703</v>
+        <v>11702</v>
       </c>
       <c r="B368" t="s">
         <v>90</v>
       </c>
       <c r="C368" s="2">
+        <v>33160</v>
+      </c>
+      <c r="E368">
+        <v>2</v>
+      </c>
+      <c r="F368" s="2">
+        <v>33639</v>
+      </c>
+      <c r="G368" s="2">
         <v>34623</v>
       </c>
-      <c r="E368">
-        <v>3</v>
-      </c>
-      <c r="F368" s="2">
-        <v>34660</v>
-      </c>
-      <c r="G368" s="2">
-        <v>36415</v>
-      </c>
       <c r="H368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I368" t="s">
         <v>195</v>
@@ -11811,25 +11811,25 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>11704</v>
+        <v>11703</v>
       </c>
       <c r="B369" t="s">
         <v>90</v>
       </c>
       <c r="C369" s="2">
+        <v>34623</v>
+      </c>
+      <c r="E369">
+        <v>3</v>
+      </c>
+      <c r="F369" s="2">
+        <v>34660</v>
+      </c>
+      <c r="G369" s="2">
         <v>36415</v>
       </c>
-      <c r="E369">
-        <v>4</v>
-      </c>
-      <c r="F369" s="2">
-        <v>36434</v>
-      </c>
-      <c r="G369" s="2">
-        <v>37685</v>
-      </c>
       <c r="H369" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I369" t="s">
         <v>195</v>
@@ -11840,7 +11840,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>11705</v>
+        <v>11704</v>
       </c>
       <c r="B370" t="s">
         <v>90</v>
@@ -11849,19 +11849,19 @@
         <v>36415</v>
       </c>
       <c r="E370">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F370" s="2">
-        <v>37777</v>
+        <v>36434</v>
       </c>
       <c r="G370" s="2">
-        <v>38151</v>
+        <v>37685</v>
       </c>
       <c r="H370" t="s">
         <v>14</v>
       </c>
       <c r="I370" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="J370" t="s">
         <v>14</v>
@@ -11869,22 +11869,22 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>11706</v>
+        <v>11705</v>
       </c>
       <c r="B371" t="s">
         <v>90</v>
       </c>
       <c r="C371" s="2">
+        <v>36415</v>
+      </c>
+      <c r="E371">
+        <v>5</v>
+      </c>
+      <c r="F371" s="2">
+        <v>37777</v>
+      </c>
+      <c r="G371" s="2">
         <v>38151</v>
-      </c>
-      <c r="E371">
-        <v>6</v>
-      </c>
-      <c r="F371" s="2">
-        <v>38176</v>
-      </c>
-      <c r="G371" s="2">
-        <v>40121</v>
       </c>
       <c r="H371" t="s">
         <v>14</v>
@@ -11898,28 +11898,28 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B372" t="s">
         <v>90</v>
       </c>
       <c r="C372" s="2">
-        <v>40055</v>
+        <v>38151</v>
       </c>
       <c r="E372">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F372" s="2">
+        <v>38176</v>
+      </c>
+      <c r="G372" s="2">
         <v>40121</v>
       </c>
-      <c r="G372" s="2">
-        <v>41978</v>
-      </c>
       <c r="H372" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I372" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J372" t="s">
         <v>14</v>
@@ -11927,65 +11927,65 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B373" t="s">
         <v>90</v>
       </c>
       <c r="C373" s="2">
-        <v>41896</v>
+        <v>40055</v>
       </c>
       <c r="E373">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F373" s="2">
+        <v>40121</v>
+      </c>
+      <c r="G373" s="2">
         <v>41978</v>
       </c>
-      <c r="G373" s="2">
-        <v>43866</v>
-      </c>
       <c r="H373" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="I373" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J373" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B374" t="s">
         <v>90</v>
       </c>
       <c r="C374" s="2">
-        <v>43765</v>
+        <v>41896</v>
       </c>
       <c r="E374">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F374" s="2">
+        <v>41978</v>
+      </c>
+      <c r="G374" s="2">
         <v>43866</v>
       </c>
-      <c r="G374" s="2">
-        <v>43894</v>
-      </c>
       <c r="H374" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I374" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J374" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B375" t="s">
         <v>90</v>
@@ -11994,21 +11994,50 @@
         <v>43765</v>
       </c>
       <c r="E375">
+        <v>9</v>
+      </c>
+      <c r="F375" s="2">
+        <v>43866</v>
+      </c>
+      <c r="G375" s="2">
+        <v>43894</v>
+      </c>
+      <c r="H375" t="s">
+        <v>92</v>
+      </c>
+      <c r="I375" t="s">
+        <v>239</v>
+      </c>
+      <c r="J375" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>11710</v>
+      </c>
+      <c r="B376" t="s">
+        <v>90</v>
+      </c>
+      <c r="C376" s="2">
+        <v>43765</v>
+      </c>
+      <c r="E376">
         <v>10</v>
       </c>
-      <c r="F375" s="2">
+      <c r="F376" s="2">
         <v>43894</v>
       </c>
-      <c r="G375" s="2">
+      <c r="G376" s="2">
         <v>401768</v>
       </c>
-      <c r="H375" t="s">
+      <c r="H376" t="s">
         <v>91</v>
       </c>
-      <c r="I375" t="s">
+      <c r="I376" t="s">
         <v>238</v>
       </c>
-      <c r="J375" t="s">
+      <c r="J376" t="s">
         <v>133</v>
       </c>
     </row>
